--- a/DOC 2023/BANCOS.xlsx
+++ b/DOC 2023/BANCOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452B8461-84DE-41C9-9DE7-03EAF35E1AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34486F1-D3D8-4773-BD98-CC7599A561C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5711" uniqueCount="1722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="1765">
   <si>
     <t>ABRILTRANS S.A</t>
   </si>
@@ -5198,6 +5198,135 @@
   </si>
   <si>
     <t>ONLYSERVIS</t>
+  </si>
+  <si>
+    <t>14,434.79</t>
+  </si>
+  <si>
+    <t>14,809.01</t>
+  </si>
+  <si>
+    <t>14,434.57</t>
+  </si>
+  <si>
+    <t>14,808.79</t>
+  </si>
+  <si>
+    <t>490.00</t>
+  </si>
+  <si>
+    <t>14,318.79</t>
+  </si>
+  <si>
+    <t>455.00</t>
+  </si>
+  <si>
+    <t>14,773.79</t>
+  </si>
+  <si>
+    <t>14,373.79</t>
+  </si>
+  <si>
+    <t>13,573.79</t>
+  </si>
+  <si>
+    <t>13,572.79</t>
+  </si>
+  <si>
+    <t>4,771.80</t>
+  </si>
+  <si>
+    <t>18,344.59</t>
+  </si>
+  <si>
+    <t>8,451.74</t>
+  </si>
+  <si>
+    <t>26,796.33</t>
+  </si>
+  <si>
+    <t>387.78</t>
+  </si>
+  <si>
+    <t>27,184.11</t>
+  </si>
+  <si>
+    <t>212.30</t>
+  </si>
+  <si>
+    <t>26,971.81</t>
+  </si>
+  <si>
+    <t>26,871.81</t>
+  </si>
+  <si>
+    <t>26,611.81</t>
+  </si>
+  <si>
+    <t>26,511.81</t>
+  </si>
+  <si>
+    <t>26,311.81</t>
+  </si>
+  <si>
+    <t>25,811.81</t>
+  </si>
+  <si>
+    <t>LOCATION WORL</t>
+  </si>
+  <si>
+    <t>CH1391</t>
+  </si>
+  <si>
+    <t>LUIS QUITO</t>
+  </si>
+  <si>
+    <t>CH1392</t>
+  </si>
+  <si>
+    <t>CH1393</t>
+  </si>
+  <si>
+    <t>TRANTAIRNERCORP</t>
+  </si>
+  <si>
+    <t>CH1394</t>
+  </si>
+  <si>
+    <t>CH1395</t>
+  </si>
+  <si>
+    <t>CH1396</t>
+  </si>
+  <si>
+    <t>ELECTROCABLES</t>
+  </si>
+  <si>
+    <t>CH1397</t>
+  </si>
+  <si>
+    <t>CH1398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FELBENITRANSS </t>
+  </si>
+  <si>
+    <t>SERSUPORT</t>
+  </si>
+  <si>
+    <t>CH1399</t>
+  </si>
+  <si>
+    <t>CH1400</t>
+  </si>
+  <si>
+    <t>CH1401</t>
+  </si>
+  <si>
+    <t>SERV</t>
+  </si>
+  <si>
+    <t>CH1402</t>
   </si>
 </sst>
 </file>
@@ -5640,7 +5769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="558">
+  <cellXfs count="556">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7000,12 +7129,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7526,6 +7649,1287 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>831</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>831</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F81B03E6-928A-4F83-8249-FA1600D31DFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="159277050"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>832</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>832</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E1DB03E-E60C-410C-AD40-8DF84F46EC5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="159477075"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>833</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>833</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7539DEE0-020C-4D76-B153-9E1764774176}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="159677100"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>834</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>834</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6522A542-F334-48A2-88B9-C3D059E886F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="159877125"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>835</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>835</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D4854E6-3022-42BB-BEB7-FCB9ECA8AFD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="160077150"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>836</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>836</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0C68FA1-9152-4CDA-BE36-E171D077EB92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="160277175"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>837</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>837</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B282165E-28E2-4BA6-A140-CFA60CEC1C8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="160477200"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>839</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>839</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B768035-D233-4CBF-BD44-6F182CBC4979}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="160801050"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>840</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>840</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41DF10A-02CC-4F16-81D8-38E38A28CFAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="161001075"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>841</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>841</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagen 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43FD038-2268-4FAD-9882-C6FB088C9FC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="161201100"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>842</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>842</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37EF2450-8B34-4207-9DC7-F3A89819DA8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="161401125"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>843</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>843</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagen 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47276D90-7551-408A-B417-2A06EDA8963B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="161601150"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>844</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>844</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagen 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05989CA0-79F0-4635-B35F-ACB1E0E5FC11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="161801175"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>845</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>845</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagen 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F81905-4302-4487-A365-CCD813EC048A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="162001200"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>847</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>847</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagen 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A04EDBE-B70D-436C-A0BE-C00B09987EFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="162325050"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>848</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>848</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagen 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A565B9A-669B-4238-BE2C-74D29A026CA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="162525075"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>849</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>849</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Imagen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CAF0492-19A4-48F0-81E0-B4CF90B9F539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="162725100"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>850</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>850</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagen 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B435A3EF-C0A5-4D26-AF31-40F11105D769}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="162925125"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>851</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>851</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Imagen 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B30C751-65C7-42D5-9110-642218BCB6CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="163125150"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>852</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>852</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Imagen 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{195432A4-8158-488F-A296-771E86AFA05A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="163325175"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>853</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>853</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Imagen 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219CAEFE-778B-44AA-8AAB-11DCA7E33C99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="163525200"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7828,8 +9232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A813" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="F801" sqref="F801"/>
+    <sheetView tabSelected="1" topLeftCell="A836" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="G854" sqref="G854"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42185,20 +43589,20 @@
       <c r="U816" s="87"/>
     </row>
     <row r="817" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A817" s="554">
+      <c r="A817" s="552">
         <v>45173</v>
       </c>
-      <c r="B817" s="555" t="s">
+      <c r="B817" s="553" t="s">
         <v>15</v>
       </c>
-      <c r="C817" s="555" t="s">
+      <c r="C817" s="553" t="s">
         <v>1710</v>
       </c>
-      <c r="D817" s="555" t="s">
+      <c r="D817" s="553" t="s">
         <v>251</v>
       </c>
-      <c r="E817" s="556"/>
-      <c r="F817" s="556">
+      <c r="E817" s="554"/>
+      <c r="F817" s="554">
         <v>2000</v>
       </c>
       <c r="G817" s="53">
@@ -42285,17 +43689,17 @@
       <c r="U818" s="87"/>
     </row>
     <row r="819" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A819" s="554">
+      <c r="A819" s="552">
         <v>45173</v>
       </c>
-      <c r="B819" s="555" t="s">
+      <c r="B819" s="553" t="s">
         <v>53</v>
       </c>
-      <c r="C819" s="555" t="s">
+      <c r="C819" s="553" t="s">
         <v>64</v>
       </c>
-      <c r="D819" s="555"/>
-      <c r="E819" s="556">
+      <c r="D819" s="553"/>
+      <c r="E819" s="554">
         <v>534.6</v>
       </c>
       <c r="F819" s="360"/>
@@ -42448,7 +43852,7 @@
       <c r="E822" s="360">
         <v>855.7</v>
       </c>
-      <c r="F822" s="557"/>
+      <c r="F822" s="555"/>
       <c r="G822" s="53">
         <f t="shared" si="70"/>
         <v>16549.77</v>
@@ -42498,7 +43902,7 @@
       <c r="E823" s="360">
         <v>520</v>
       </c>
-      <c r="F823" s="557"/>
+      <c r="F823" s="555"/>
       <c r="G823" s="53">
         <f>G822+E823-F823</f>
         <v>17069.77</v>
@@ -42545,8 +43949,8 @@
       <c r="D824" s="311" t="s">
         <v>1657</v>
       </c>
-      <c r="E824" s="557"/>
-      <c r="F824" s="557">
+      <c r="E824" s="555"/>
+      <c r="F824" s="555">
         <v>270</v>
       </c>
       <c r="G824" s="53">
@@ -42595,8 +43999,8 @@
       <c r="D825" s="311" t="s">
         <v>1397</v>
       </c>
-      <c r="E825" s="557"/>
-      <c r="F825" s="557">
+      <c r="E825" s="555"/>
+      <c r="F825" s="555">
         <v>150</v>
       </c>
       <c r="G825" s="53">
@@ -42629,7 +44033,7 @@
       <c r="S825" s="264" t="s">
         <v>1694</v>
       </c>
-      <c r="T825" s="553"/>
+      <c r="T825" s="551"/>
       <c r="U825" s="87"/>
     </row>
     <row r="826" spans="1:21" x14ac:dyDescent="0.25">
@@ -42745,8 +44149,8 @@
       <c r="D828" s="311" t="s">
         <v>789</v>
       </c>
-      <c r="E828" s="557"/>
-      <c r="F828" s="557">
+      <c r="E828" s="555"/>
+      <c r="F828" s="555">
         <v>480</v>
       </c>
       <c r="G828" s="53">
@@ -42795,8 +44199,8 @@
       <c r="D829" s="311" t="s">
         <v>1712</v>
       </c>
-      <c r="E829" s="557"/>
-      <c r="F829" s="557">
+      <c r="E829" s="555"/>
+      <c r="F829" s="555">
         <v>500</v>
       </c>
       <c r="G829" s="53">
@@ -42846,7 +44250,7 @@
         <v>251</v>
       </c>
       <c r="E830" s="312"/>
-      <c r="F830" s="557">
+      <c r="F830" s="555">
         <v>200</v>
       </c>
       <c r="G830" s="53">
@@ -42898,7 +44302,7 @@
       <c r="E831" s="312">
         <v>374.22</v>
       </c>
-      <c r="F831" s="557"/>
+      <c r="F831" s="555"/>
       <c r="G831" s="53">
         <f>G830+E831-F831</f>
         <v>14110.789999999999</v>
@@ -42945,8 +44349,8 @@
       <c r="D832" s="311" t="s">
         <v>1660</v>
       </c>
-      <c r="E832" s="557"/>
-      <c r="F832" s="557">
+      <c r="E832" s="555"/>
+      <c r="F832" s="555">
         <v>1</v>
       </c>
       <c r="G832" s="53">
@@ -42958,416 +44362,800 @@
       <c r="J832" s="85"/>
       <c r="K832" s="87"/>
       <c r="L832" s="85"/>
-      <c r="M832" s="551"/>
-      <c r="N832" s="491"/>
-      <c r="O832" s="491"/>
-      <c r="P832" s="552"/>
-      <c r="Q832" s="552"/>
-      <c r="R832" s="552"/>
-      <c r="S832" s="552"/>
-      <c r="T832" s="491"/>
+      <c r="M832" s="518">
+        <v>45177</v>
+      </c>
+      <c r="N832" s="280" t="s">
+        <v>29</v>
+      </c>
+      <c r="O832" s="280">
+        <v>0</v>
+      </c>
+      <c r="P832" s="264" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q832" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="R832" s="264" t="s">
+        <v>1722</v>
+      </c>
+      <c r="S832" s="264" t="s">
+        <v>1723</v>
+      </c>
+      <c r="T832" s="280"/>
       <c r="U832" s="87"/>
     </row>
     <row r="833" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A833" s="153"/>
-      <c r="B833" s="154"/>
-      <c r="C833" s="154"/>
-      <c r="D833" s="154"/>
+      <c r="A833" s="153">
+        <v>45177</v>
+      </c>
+      <c r="B833" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C833" s="154" t="s">
+        <v>65</v>
+      </c>
+      <c r="D833" s="154" t="s">
+        <v>1746</v>
+      </c>
       <c r="E833" s="88"/>
-      <c r="F833" s="88"/>
+      <c r="F833" s="88">
+        <v>35.82</v>
+      </c>
       <c r="G833" s="53">
         <f t="shared" si="73"/>
-        <v>14109.789999999999</v>
+        <v>14073.97</v>
       </c>
       <c r="H833" s="87"/>
       <c r="I833" s="87"/>
       <c r="J833" s="87"/>
       <c r="K833" s="87"/>
       <c r="L833" s="85"/>
-      <c r="M833" s="518"/>
-      <c r="N833" s="280"/>
-      <c r="O833" s="280"/>
-      <c r="P833" s="264"/>
-      <c r="Q833" s="264"/>
-      <c r="R833" s="264"/>
-      <c r="S833" s="264"/>
+      <c r="M833" s="518">
+        <v>45177</v>
+      </c>
+      <c r="N833" s="280" t="s">
+        <v>38</v>
+      </c>
+      <c r="O833" s="280">
+        <v>282</v>
+      </c>
+      <c r="P833" s="264" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q833" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="R833" s="264" t="s">
+        <v>1724</v>
+      </c>
+      <c r="S833" s="264" t="s">
+        <v>1725</v>
+      </c>
       <c r="T833" s="280"/>
       <c r="U833" s="87"/>
     </row>
     <row r="834" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A834" s="153"/>
-      <c r="B834" s="154"/>
-      <c r="C834" s="154"/>
-      <c r="D834" s="154"/>
+      <c r="A834" s="153">
+        <v>45177</v>
+      </c>
+      <c r="B834" s="154" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C834" s="154" t="s">
+        <v>65</v>
+      </c>
+      <c r="D834" s="154" t="s">
+        <v>1660</v>
+      </c>
       <c r="E834" s="88"/>
-      <c r="F834" s="88"/>
+      <c r="F834" s="88">
+        <v>0.22</v>
+      </c>
       <c r="G834" s="53">
         <f t="shared" si="73"/>
-        <v>14109.789999999999</v>
+        <v>14073.75</v>
       </c>
       <c r="H834" s="87"/>
       <c r="I834" s="87"/>
       <c r="J834" s="85"/>
       <c r="K834" s="87"/>
       <c r="L834" s="85"/>
-      <c r="M834" s="519"/>
-      <c r="N834" s="305"/>
-      <c r="O834" s="305"/>
-      <c r="P834" s="306"/>
-      <c r="Q834" s="306"/>
-      <c r="R834" s="306"/>
-      <c r="S834" s="306"/>
-      <c r="T834" s="305"/>
+      <c r="M834" s="518">
+        <v>45180</v>
+      </c>
+      <c r="N834" s="280" t="s">
+        <v>59</v>
+      </c>
+      <c r="O834" s="280">
+        <v>1375</v>
+      </c>
+      <c r="P834" s="264" t="s">
+        <v>1726</v>
+      </c>
+      <c r="Q834" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="R834" s="264" t="s">
+        <v>1727</v>
+      </c>
+      <c r="S834" s="264" t="s">
+        <v>1727</v>
+      </c>
+      <c r="T834" s="280"/>
       <c r="U834" s="87"/>
     </row>
     <row r="835" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A835" s="153"/>
-      <c r="B835" s="154"/>
-      <c r="C835" s="154"/>
-      <c r="D835" s="154"/>
+      <c r="A835" s="153">
+        <v>45178</v>
+      </c>
+      <c r="B835" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C835" s="154" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D835" s="154" t="s">
+        <v>1748</v>
+      </c>
       <c r="E835" s="88"/>
-      <c r="F835" s="88"/>
+      <c r="F835" s="88">
+        <v>637.54999999999995</v>
+      </c>
       <c r="G835" s="53">
         <f t="shared" si="73"/>
-        <v>14109.789999999999</v>
+        <v>13436.2</v>
       </c>
       <c r="H835" s="87"/>
       <c r="I835" s="87"/>
       <c r="J835" s="85"/>
       <c r="K835" s="87"/>
       <c r="L835" s="87"/>
-      <c r="M835" s="519"/>
-      <c r="N835" s="305"/>
-      <c r="O835" s="305"/>
-      <c r="P835" s="306"/>
-      <c r="Q835" s="306"/>
-      <c r="R835" s="306"/>
-      <c r="S835" s="306"/>
-      <c r="T835" s="305"/>
+      <c r="M835" s="518">
+        <v>45180</v>
+      </c>
+      <c r="N835" s="280" t="s">
+        <v>27</v>
+      </c>
+      <c r="O835" s="280">
+        <v>230</v>
+      </c>
+      <c r="P835" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q835" s="264" t="s">
+        <v>1728</v>
+      </c>
+      <c r="R835" s="264" t="s">
+        <v>1729</v>
+      </c>
+      <c r="S835" s="264" t="s">
+        <v>1729</v>
+      </c>
+      <c r="T835" s="280"/>
       <c r="U835" s="87"/>
     </row>
     <row r="836" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A836" s="153"/>
-      <c r="B836" s="154"/>
-      <c r="C836" s="154"/>
-      <c r="D836" s="154"/>
+      <c r="A836" s="153">
+        <v>45180</v>
+      </c>
+      <c r="B836" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C836" s="154" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D836" s="154" t="s">
+        <v>1748</v>
+      </c>
       <c r="E836" s="88"/>
-      <c r="F836" s="88"/>
+      <c r="F836" s="88">
+        <v>212.3</v>
+      </c>
       <c r="G836" s="53">
         <f>G835+E836-F836</f>
-        <v>14109.789999999999</v>
+        <v>13223.900000000001</v>
       </c>
       <c r="H836" s="87"/>
       <c r="I836" s="87"/>
       <c r="J836" s="85"/>
       <c r="K836" s="87"/>
       <c r="L836" s="85"/>
-      <c r="M836" s="37"/>
-      <c r="N836" s="38"/>
-      <c r="O836" s="38"/>
-      <c r="P836" s="39"/>
-      <c r="Q836" s="39"/>
-      <c r="R836" s="39"/>
-      <c r="S836" s="39"/>
-      <c r="T836" s="38"/>
+      <c r="M836" s="518">
+        <v>45180</v>
+      </c>
+      <c r="N836" s="280" t="s">
+        <v>18</v>
+      </c>
+      <c r="O836" s="280">
+        <v>1393</v>
+      </c>
+      <c r="P836" s="264" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q836" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="R836" s="264" t="s">
+        <v>1730</v>
+      </c>
+      <c r="S836" s="264" t="s">
+        <v>1730</v>
+      </c>
+      <c r="T836" s="280"/>
       <c r="U836" s="87"/>
     </row>
     <row r="837" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A837" s="521"/>
-      <c r="B837" s="522"/>
-      <c r="C837" s="522"/>
-      <c r="D837" s="522"/>
+      <c r="A837" s="521">
+        <v>45180</v>
+      </c>
+      <c r="B837" s="522" t="s">
+        <v>15</v>
+      </c>
+      <c r="C837" s="522" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D837" s="522" t="s">
+        <v>789</v>
+      </c>
       <c r="E837" s="523"/>
-      <c r="F837" s="523"/>
+      <c r="F837" s="523">
+        <v>400</v>
+      </c>
       <c r="G837" s="53">
         <f t="shared" ref="G837:G838" si="74">G836+E837-F837</f>
-        <v>14109.789999999999</v>
+        <v>12823.900000000001</v>
       </c>
       <c r="H837" s="87"/>
       <c r="I837" s="87"/>
       <c r="J837" s="85"/>
       <c r="K837" s="87"/>
       <c r="L837" s="85"/>
-      <c r="M837" s="37"/>
-      <c r="N837" s="38"/>
-      <c r="O837" s="38"/>
-      <c r="P837" s="39"/>
-      <c r="Q837" s="39"/>
-      <c r="R837" s="39"/>
-      <c r="S837" s="39"/>
-      <c r="T837" s="38"/>
+      <c r="M837" s="518">
+        <v>45180</v>
+      </c>
+      <c r="N837" s="280" t="s">
+        <v>38</v>
+      </c>
+      <c r="O837" s="280">
+        <v>634</v>
+      </c>
+      <c r="P837" s="264" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q837" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="R837" s="264" t="s">
+        <v>1731</v>
+      </c>
+      <c r="S837" s="264" t="s">
+        <v>1731</v>
+      </c>
+      <c r="T837" s="280"/>
       <c r="U837" s="87"/>
     </row>
     <row r="838" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A838" s="521"/>
-      <c r="B838" s="522"/>
-      <c r="C838" s="522"/>
-      <c r="D838" s="522"/>
-      <c r="E838" s="523"/>
+      <c r="A838" s="521">
+        <v>45180</v>
+      </c>
+      <c r="B838" s="522" t="s">
+        <v>53</v>
+      </c>
+      <c r="C838" s="522" t="s">
+        <v>64</v>
+      </c>
+      <c r="D838" s="522" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E838" s="523">
+        <v>455</v>
+      </c>
       <c r="F838" s="523"/>
       <c r="G838" s="53">
         <f t="shared" si="74"/>
-        <v>14109.789999999999</v>
+        <v>13278.900000000001</v>
       </c>
       <c r="H838" s="87"/>
       <c r="I838" s="87"/>
       <c r="J838" s="85"/>
       <c r="K838" s="87"/>
       <c r="L838" s="85"/>
-      <c r="M838" s="37"/>
-      <c r="N838" s="38"/>
-      <c r="O838" s="38"/>
-      <c r="P838" s="39"/>
-      <c r="Q838" s="39"/>
-      <c r="R838" s="39"/>
-      <c r="S838" s="39"/>
-      <c r="T838" s="38"/>
+      <c r="M838" s="518">
+        <v>45180</v>
+      </c>
+      <c r="N838" s="280" t="s">
+        <v>38</v>
+      </c>
+      <c r="O838" s="280">
+        <v>499</v>
+      </c>
+      <c r="P838" s="264" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q838" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="R838" s="264" t="s">
+        <v>1732</v>
+      </c>
+      <c r="S838" s="264" t="s">
+        <v>1732</v>
+      </c>
+      <c r="T838" s="280"/>
       <c r="U838" s="87"/>
     </row>
     <row r="839" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A839" s="521"/>
-      <c r="B839" s="522"/>
-      <c r="C839" s="522"/>
-      <c r="D839" s="522"/>
-      <c r="E839" s="523"/>
+      <c r="A839" s="521">
+        <v>45180</v>
+      </c>
+      <c r="B839" s="522" t="s">
+        <v>53</v>
+      </c>
+      <c r="C839" s="522" t="s">
+        <v>64</v>
+      </c>
+      <c r="D839" s="522" t="s">
+        <v>214</v>
+      </c>
+      <c r="E839" s="523">
+        <v>4771.8</v>
+      </c>
       <c r="F839" s="523"/>
       <c r="G839" s="53">
         <f>G838+E839-F839</f>
-        <v>14109.789999999999</v>
+        <v>18050.7</v>
       </c>
       <c r="H839" s="87"/>
       <c r="I839" s="87"/>
       <c r="J839" s="85"/>
       <c r="K839" s="87"/>
       <c r="L839" s="85"/>
-      <c r="M839" s="37"/>
-      <c r="N839" s="38"/>
-      <c r="O839" s="38"/>
-      <c r="P839" s="39"/>
-      <c r="Q839" s="39"/>
-      <c r="R839" s="39"/>
-      <c r="S839" s="39"/>
-      <c r="T839" s="38"/>
+      <c r="M839" s="518">
+        <v>45180</v>
+      </c>
+      <c r="N839" s="280" t="s">
+        <v>27</v>
+      </c>
+      <c r="O839" s="280">
+        <v>226</v>
+      </c>
+      <c r="P839" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q839" s="264" t="s">
+        <v>1733</v>
+      </c>
+      <c r="R839" s="264" t="s">
+        <v>1734</v>
+      </c>
+      <c r="S839" s="264" t="s">
+        <v>1734</v>
+      </c>
+      <c r="T839" s="280"/>
       <c r="U839" s="87"/>
     </row>
     <row r="840" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A840" s="153"/>
-      <c r="B840" s="154"/>
-      <c r="C840" s="154"/>
-      <c r="D840" s="156"/>
-      <c r="E840" s="156"/>
+      <c r="A840" s="153">
+        <v>45181</v>
+      </c>
+      <c r="B840" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C840" s="154" t="s">
+        <v>64</v>
+      </c>
+      <c r="D840" s="156" t="s">
+        <v>438</v>
+      </c>
+      <c r="E840" s="156">
+        <v>8451.74</v>
+      </c>
       <c r="F840" s="156"/>
       <c r="G840" s="53">
         <f>G839+E840-F840</f>
-        <v>14109.789999999999</v>
+        <v>26502.440000000002</v>
       </c>
       <c r="H840" s="87"/>
       <c r="I840" s="87"/>
       <c r="J840" s="85"/>
       <c r="K840" s="87"/>
       <c r="L840" s="85"/>
-      <c r="M840" s="37"/>
-      <c r="N840" s="38"/>
-      <c r="O840" s="38"/>
-      <c r="P840" s="39"/>
-      <c r="Q840" s="39"/>
-      <c r="R840" s="39"/>
-      <c r="S840" s="39"/>
-      <c r="T840" s="38"/>
+      <c r="M840" s="518">
+        <v>45181</v>
+      </c>
+      <c r="N840" s="280" t="s">
+        <v>27</v>
+      </c>
+      <c r="O840" s="280">
+        <v>226</v>
+      </c>
+      <c r="P840" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q840" s="264" t="s">
+        <v>1735</v>
+      </c>
+      <c r="R840" s="264" t="s">
+        <v>1736</v>
+      </c>
+      <c r="S840" s="264" t="s">
+        <v>1736</v>
+      </c>
+      <c r="T840" s="280"/>
       <c r="U840" s="87"/>
     </row>
     <row r="841" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A841" s="441"/>
-      <c r="B841" s="154"/>
-      <c r="C841" s="154"/>
-      <c r="D841" s="156"/>
+      <c r="A841" s="441">
+        <v>45181</v>
+      </c>
+      <c r="B841" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C841" s="154" t="s">
+        <v>65</v>
+      </c>
+      <c r="D841" s="156" t="s">
+        <v>251</v>
+      </c>
       <c r="E841" s="156"/>
-      <c r="F841" s="156"/>
+      <c r="F841" s="156">
+        <v>800</v>
+      </c>
       <c r="G841" s="53">
         <f t="shared" ref="G841" si="75">G840+E841-F841</f>
-        <v>14109.789999999999</v>
+        <v>25702.440000000002</v>
       </c>
       <c r="H841" s="87"/>
       <c r="I841" s="87"/>
       <c r="J841" s="85"/>
       <c r="K841" s="87"/>
       <c r="L841" s="85"/>
-      <c r="M841" s="37"/>
-      <c r="N841" s="38"/>
-      <c r="O841" s="38"/>
-      <c r="P841" s="39"/>
-      <c r="Q841" s="39"/>
-      <c r="R841" s="39"/>
-      <c r="S841" s="39"/>
-      <c r="T841" s="38"/>
+      <c r="M841" s="518">
+        <v>45181</v>
+      </c>
+      <c r="N841" s="280" t="s">
+        <v>27</v>
+      </c>
+      <c r="O841" s="280">
+        <v>52</v>
+      </c>
+      <c r="P841" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q841" s="264" t="s">
+        <v>1737</v>
+      </c>
+      <c r="R841" s="264" t="s">
+        <v>1738</v>
+      </c>
+      <c r="S841" s="264" t="s">
+        <v>1738</v>
+      </c>
+      <c r="T841" s="280"/>
       <c r="U841" s="87"/>
     </row>
     <row r="842" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A842" s="441"/>
-      <c r="B842" s="154"/>
-      <c r="C842" s="154"/>
-      <c r="D842" s="156"/>
+      <c r="A842" s="441">
+        <v>45181</v>
+      </c>
+      <c r="B842" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C842" s="154" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D842" s="156" t="s">
+        <v>1748</v>
+      </c>
       <c r="E842" s="156"/>
-      <c r="F842" s="156"/>
+      <c r="F842" s="156">
+        <v>10.49</v>
+      </c>
       <c r="G842" s="53">
         <f>G841+E842-F842</f>
-        <v>14109.789999999999</v>
+        <v>25691.95</v>
       </c>
       <c r="H842" s="87"/>
       <c r="I842" s="87"/>
       <c r="J842" s="85"/>
       <c r="K842" s="87"/>
       <c r="L842" s="85"/>
-      <c r="M842" s="37"/>
-      <c r="N842" s="38"/>
-      <c r="O842" s="38"/>
-      <c r="P842" s="39"/>
-      <c r="Q842" s="39"/>
-      <c r="R842" s="39"/>
-      <c r="S842" s="39"/>
-      <c r="T842" s="38"/>
+      <c r="M842" s="518">
+        <v>45182</v>
+      </c>
+      <c r="N842" s="280" t="s">
+        <v>59</v>
+      </c>
+      <c r="O842" s="280">
+        <v>1392</v>
+      </c>
+      <c r="P842" s="264" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Q842" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="R842" s="264" t="s">
+        <v>1740</v>
+      </c>
+      <c r="S842" s="264" t="s">
+        <v>1740</v>
+      </c>
+      <c r="T842" s="280"/>
       <c r="U842" s="87"/>
     </row>
     <row r="843" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A843" s="441"/>
-      <c r="B843" s="154"/>
-      <c r="C843" s="154"/>
-      <c r="D843" s="156"/>
+      <c r="A843" s="441">
+        <v>45181</v>
+      </c>
+      <c r="B843" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C843" s="154" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D843" s="156" t="s">
+        <v>1652</v>
+      </c>
       <c r="E843" s="156"/>
-      <c r="F843" s="156"/>
+      <c r="F843" s="156">
+        <v>100</v>
+      </c>
       <c r="G843" s="53">
         <f t="shared" ref="G843:G844" si="76">G842+E843-F843</f>
-        <v>14109.789999999999</v>
+        <v>25591.95</v>
       </c>
       <c r="H843" s="87"/>
       <c r="I843" s="87"/>
       <c r="J843" s="85"/>
       <c r="K843" s="87"/>
       <c r="L843" s="85"/>
-      <c r="M843" s="37"/>
-      <c r="N843" s="38"/>
-      <c r="O843" s="38"/>
-      <c r="P843" s="39"/>
-      <c r="Q843" s="39"/>
-      <c r="R843" s="39"/>
-      <c r="S843" s="39"/>
-      <c r="T843" s="38"/>
+      <c r="M843" s="518">
+        <v>45182</v>
+      </c>
+      <c r="N843" s="280" t="s">
+        <v>18</v>
+      </c>
+      <c r="O843" s="280">
+        <v>1395</v>
+      </c>
+      <c r="P843" s="264" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q843" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="R843" s="264" t="s">
+        <v>1741</v>
+      </c>
+      <c r="S843" s="264" t="s">
+        <v>1741</v>
+      </c>
+      <c r="T843" s="280"/>
       <c r="U843" s="87"/>
     </row>
     <row r="844" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A844" s="441"/>
-      <c r="B844" s="154"/>
-      <c r="C844" s="154"/>
-      <c r="D844" s="156"/>
+      <c r="A844" s="441">
+        <v>45181</v>
+      </c>
+      <c r="B844" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C844" s="154" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D844" s="156" t="s">
+        <v>1755</v>
+      </c>
       <c r="E844" s="156"/>
-      <c r="F844" s="156"/>
+      <c r="F844" s="156">
+        <v>238.56</v>
+      </c>
       <c r="G844" s="53">
         <f t="shared" si="76"/>
-        <v>14109.789999999999</v>
+        <v>25353.39</v>
       </c>
       <c r="H844" s="87"/>
       <c r="I844" s="87"/>
       <c r="J844" s="85"/>
       <c r="K844" s="87"/>
       <c r="L844" s="85"/>
-      <c r="M844" s="37"/>
-      <c r="N844" s="38"/>
-      <c r="O844" s="38"/>
-      <c r="P844" s="39"/>
-      <c r="Q844" s="39"/>
-      <c r="R844" s="39"/>
-      <c r="S844" s="39"/>
-      <c r="T844" s="44"/>
+      <c r="M844" s="518">
+        <v>45182</v>
+      </c>
+      <c r="N844" s="280" t="s">
+        <v>18</v>
+      </c>
+      <c r="O844" s="280">
+        <v>1371</v>
+      </c>
+      <c r="P844" s="264" t="s">
+        <v>1312</v>
+      </c>
+      <c r="Q844" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="R844" s="264" t="s">
+        <v>1742</v>
+      </c>
+      <c r="S844" s="264" t="s">
+        <v>1742</v>
+      </c>
+      <c r="T844" s="280"/>
       <c r="U844" s="87"/>
     </row>
     <row r="845" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A845" s="441"/>
-      <c r="B845" s="154"/>
-      <c r="C845" s="154"/>
-      <c r="D845" s="156"/>
+      <c r="A845" s="441">
+        <v>45181</v>
+      </c>
+      <c r="B845" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C845" s="154" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D845" s="156" t="s">
+        <v>1397</v>
+      </c>
       <c r="E845" s="156"/>
-      <c r="F845" s="156"/>
+      <c r="F845" s="156">
+        <v>500</v>
+      </c>
       <c r="G845" s="53">
         <f>G844+E845-F845</f>
-        <v>14109.789999999999</v>
+        <v>24853.39</v>
       </c>
       <c r="H845" s="87"/>
       <c r="I845" s="87"/>
       <c r="J845" s="87"/>
       <c r="K845" s="87"/>
       <c r="L845" s="85"/>
-      <c r="M845" s="37"/>
-      <c r="N845" s="38"/>
-      <c r="O845" s="38"/>
-      <c r="P845" s="39"/>
-      <c r="Q845" s="39"/>
-      <c r="R845" s="39"/>
-      <c r="S845" s="39"/>
-      <c r="T845" s="44"/>
+      <c r="M845" s="518">
+        <v>45182</v>
+      </c>
+      <c r="N845" s="280" t="s">
+        <v>18</v>
+      </c>
+      <c r="O845" s="280">
+        <v>1400</v>
+      </c>
+      <c r="P845" s="264" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q845" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="R845" s="264" t="s">
+        <v>1743</v>
+      </c>
+      <c r="S845" s="264" t="s">
+        <v>1743</v>
+      </c>
+      <c r="T845" s="280"/>
       <c r="U845" s="87"/>
     </row>
     <row r="846" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A846" s="441"/>
-      <c r="B846" s="154"/>
-      <c r="C846" s="154"/>
-      <c r="D846" s="156"/>
+      <c r="A846" s="441">
+        <v>45181</v>
+      </c>
+      <c r="B846" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C846" s="154" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D846" s="156" t="s">
+        <v>1758</v>
+      </c>
       <c r="E846" s="156"/>
-      <c r="F846" s="156"/>
+      <c r="F846" s="156">
+        <v>2000</v>
+      </c>
       <c r="G846" s="53">
         <f t="shared" ref="G846:G854" si="77">G845+E846-F846</f>
-        <v>14109.789999999999</v>
+        <v>22853.39</v>
       </c>
       <c r="H846" s="87"/>
       <c r="I846" s="87"/>
       <c r="J846" s="85"/>
       <c r="K846" s="87"/>
       <c r="L846" s="85"/>
-      <c r="M846" s="37"/>
-      <c r="N846" s="38"/>
-      <c r="O846" s="38"/>
-      <c r="P846" s="39"/>
-      <c r="Q846" s="39"/>
-      <c r="R846" s="39"/>
-      <c r="S846" s="39"/>
-      <c r="T846" s="44"/>
+      <c r="M846" s="518">
+        <v>45182</v>
+      </c>
+      <c r="N846" s="280" t="s">
+        <v>18</v>
+      </c>
+      <c r="O846" s="280">
+        <v>1399</v>
+      </c>
+      <c r="P846" s="264" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q846" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="R846" s="264" t="s">
+        <v>1744</v>
+      </c>
+      <c r="S846" s="264" t="s">
+        <v>1744</v>
+      </c>
+      <c r="T846" s="280"/>
       <c r="U846" s="87"/>
     </row>
     <row r="847" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A847" s="441"/>
-      <c r="B847" s="154"/>
-      <c r="C847" s="154"/>
-      <c r="D847" s="156"/>
-      <c r="E847" s="156"/>
+      <c r="A847" s="441">
+        <v>45181</v>
+      </c>
+      <c r="B847" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C847" s="154" t="s">
+        <v>64</v>
+      </c>
+      <c r="D847" s="156" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E847" s="156">
+        <v>387.78</v>
+      </c>
       <c r="F847" s="156"/>
       <c r="G847" s="53">
         <f t="shared" si="77"/>
-        <v>14109.789999999999</v>
+        <v>23241.17</v>
       </c>
       <c r="H847" s="87"/>
       <c r="I847" s="87"/>
       <c r="J847" s="85"/>
       <c r="K847" s="87"/>
       <c r="L847" s="87"/>
-      <c r="M847" s="37"/>
-      <c r="N847" s="38"/>
-      <c r="O847" s="38"/>
-      <c r="P847" s="39"/>
-      <c r="Q847" s="39"/>
-      <c r="R847" s="39"/>
-      <c r="S847" s="39"/>
-      <c r="T847" s="44"/>
+      <c r="M847" s="518">
+        <v>45182</v>
+      </c>
+      <c r="N847" s="280" t="s">
+        <v>18</v>
+      </c>
+      <c r="O847" s="280">
+        <v>1397</v>
+      </c>
+      <c r="P847" s="264" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q847" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="R847" s="264" t="s">
+        <v>1745</v>
+      </c>
+      <c r="S847" s="264" t="s">
+        <v>1745</v>
+      </c>
+      <c r="T847" s="280"/>
       <c r="U847" s="87"/>
     </row>
     <row r="848" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A848" s="441"/>
-      <c r="B848" s="154"/>
-      <c r="C848" s="136"/>
-      <c r="D848" s="156"/>
+      <c r="A848" s="441">
+        <v>45182</v>
+      </c>
+      <c r="B848" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C848" s="136" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D848" s="156" t="s">
+        <v>1657</v>
+      </c>
       <c r="E848" s="156"/>
-      <c r="F848" s="156"/>
+      <c r="F848" s="156">
+        <v>200</v>
+      </c>
       <c r="G848" s="53">
         <f t="shared" si="77"/>
-        <v>14109.789999999999</v>
+        <v>23041.17</v>
       </c>
       <c r="H848" s="87"/>
       <c r="I848" s="87"/>
@@ -43381,19 +45169,29 @@
       <c r="Q848" s="264"/>
       <c r="R848" s="264"/>
       <c r="S848" s="264"/>
-      <c r="T848" s="435"/>
+      <c r="T848" s="280"/>
       <c r="U848" s="87"/>
     </row>
     <row r="849" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A849" s="441"/>
-      <c r="B849" s="154"/>
-      <c r="C849" s="154"/>
-      <c r="D849" s="156"/>
+      <c r="A849" s="441">
+        <v>45182</v>
+      </c>
+      <c r="B849" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C849" s="154" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D849" s="156" t="s">
+        <v>1657</v>
+      </c>
       <c r="E849" s="156"/>
-      <c r="F849" s="156"/>
+      <c r="F849" s="156">
+        <v>100</v>
+      </c>
       <c r="G849" s="53">
         <f t="shared" si="77"/>
-        <v>14109.789999999999</v>
+        <v>22941.17</v>
       </c>
       <c r="H849" s="87"/>
       <c r="I849" s="87"/>
@@ -43407,19 +45205,29 @@
       <c r="Q849" s="264"/>
       <c r="R849" s="264"/>
       <c r="S849" s="264"/>
-      <c r="T849" s="435"/>
+      <c r="T849" s="280"/>
       <c r="U849" s="87"/>
     </row>
     <row r="850" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A850" s="441"/>
-      <c r="B850" s="154"/>
-      <c r="C850" s="154"/>
-      <c r="D850" s="156"/>
+      <c r="A850" s="441">
+        <v>45182</v>
+      </c>
+      <c r="B850" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C850" s="154" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D850" s="156" t="s">
+        <v>1763</v>
+      </c>
       <c r="E850" s="156"/>
-      <c r="F850" s="156"/>
+      <c r="F850" s="156">
+        <v>220</v>
+      </c>
       <c r="G850" s="53">
         <f t="shared" si="77"/>
-        <v>14109.789999999999</v>
+        <v>22721.17</v>
       </c>
       <c r="H850" s="87"/>
       <c r="I850" s="87"/>
@@ -43433,19 +45241,29 @@
       <c r="Q850" s="264"/>
       <c r="R850" s="264"/>
       <c r="S850" s="264"/>
-      <c r="T850" s="435"/>
+      <c r="T850" s="280"/>
       <c r="U850" s="87"/>
     </row>
     <row r="851" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A851" s="441"/>
-      <c r="B851" s="154"/>
-      <c r="C851" s="154"/>
-      <c r="D851" s="156"/>
+      <c r="A851" s="441">
+        <v>45182</v>
+      </c>
+      <c r="B851" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C851" s="154" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D851" s="156" t="s">
+        <v>1763</v>
+      </c>
       <c r="E851" s="156"/>
-      <c r="F851" s="156"/>
+      <c r="F851" s="156">
+        <v>400</v>
+      </c>
       <c r="G851" s="53">
         <f t="shared" si="77"/>
-        <v>14109.789999999999</v>
+        <v>22321.17</v>
       </c>
       <c r="H851" s="87"/>
       <c r="I851" s="87"/>
@@ -43459,7 +45277,7 @@
       <c r="Q851" s="264"/>
       <c r="R851" s="264"/>
       <c r="S851" s="264"/>
-      <c r="T851" s="443"/>
+      <c r="T851" s="280"/>
       <c r="U851" s="87"/>
     </row>
     <row r="852" spans="1:21" x14ac:dyDescent="0.25">
@@ -43468,10 +45286,12 @@
       <c r="C852" s="154"/>
       <c r="D852" s="156"/>
       <c r="E852" s="156"/>
-      <c r="F852" s="156"/>
+      <c r="F852" s="156">
+        <v>1100</v>
+      </c>
       <c r="G852" s="53">
         <f t="shared" si="77"/>
-        <v>14109.789999999999</v>
+        <v>21221.17</v>
       </c>
       <c r="H852" s="87"/>
       <c r="I852" s="87"/>
@@ -43485,7 +45305,7 @@
       <c r="Q852" s="264"/>
       <c r="R852" s="264"/>
       <c r="S852" s="264"/>
-      <c r="T852" s="443"/>
+      <c r="T852" s="280"/>
       <c r="U852" s="87"/>
     </row>
     <row r="853" spans="1:21" x14ac:dyDescent="0.25">
@@ -43494,10 +45314,12 @@
       <c r="C853" s="154"/>
       <c r="D853" s="156"/>
       <c r="E853" s="156"/>
-      <c r="F853" s="156"/>
+      <c r="F853" s="156">
+        <v>1510</v>
+      </c>
       <c r="G853" s="53">
         <f t="shared" si="77"/>
-        <v>14109.789999999999</v>
+        <v>19711.169999999998</v>
       </c>
       <c r="H853" s="87"/>
       <c r="I853" s="87"/>
@@ -43511,7 +45333,7 @@
       <c r="Q853" s="264"/>
       <c r="R853" s="264"/>
       <c r="S853" s="264"/>
-      <c r="T853" s="443"/>
+      <c r="T853" s="280"/>
       <c r="U853" s="87"/>
     </row>
     <row r="854" spans="1:21" x14ac:dyDescent="0.25">
@@ -43520,10 +45342,12 @@
       <c r="C854" s="154"/>
       <c r="D854" s="156"/>
       <c r="E854" s="156"/>
-      <c r="F854" s="156"/>
+      <c r="F854" s="156">
+        <v>490</v>
+      </c>
       <c r="G854" s="53">
         <f t="shared" si="77"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="H854" s="87"/>
       <c r="I854" s="87"/>
@@ -43537,7 +45361,7 @@
       <c r="Q854" s="264"/>
       <c r="R854" s="264"/>
       <c r="S854" s="264"/>
-      <c r="T854" s="443"/>
+      <c r="T854" s="280"/>
       <c r="U854" s="87"/>
     </row>
     <row r="855" spans="1:21" x14ac:dyDescent="0.25">
@@ -43549,7 +45373,7 @@
       <c r="F855" s="156"/>
       <c r="G855" s="53">
         <f>G854+E855-F855</f>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="H855" s="87"/>
       <c r="I855" s="87"/>
@@ -43563,7 +45387,7 @@
       <c r="Q855" s="264"/>
       <c r="R855" s="264"/>
       <c r="S855" s="264"/>
-      <c r="T855" s="443"/>
+      <c r="T855" s="280"/>
       <c r="U855" s="87"/>
     </row>
     <row r="856" spans="1:21" x14ac:dyDescent="0.25">
@@ -43575,7 +45399,7 @@
       <c r="F856" s="156"/>
       <c r="G856" s="53">
         <f t="shared" ref="G856:G864" si="78">G855+E856-F856</f>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="H856" s="87"/>
       <c r="I856" s="87"/>
@@ -43589,7 +45413,7 @@
       <c r="Q856" s="264"/>
       <c r="R856" s="264"/>
       <c r="S856" s="264"/>
-      <c r="T856" s="443"/>
+      <c r="T856" s="280"/>
       <c r="U856" s="87"/>
     </row>
     <row r="857" spans="1:21" x14ac:dyDescent="0.25">
@@ -43601,7 +45425,7 @@
       <c r="F857" s="156"/>
       <c r="G857" s="53">
         <f t="shared" si="78"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="H857" s="87"/>
       <c r="I857" s="87"/>
@@ -43615,7 +45439,7 @@
       <c r="Q857" s="264"/>
       <c r="R857" s="264"/>
       <c r="S857" s="264"/>
-      <c r="T857" s="501"/>
+      <c r="T857" s="443"/>
       <c r="U857" s="87"/>
     </row>
     <row r="858" spans="1:21" x14ac:dyDescent="0.25">
@@ -43627,7 +45451,7 @@
       <c r="F858" s="156"/>
       <c r="G858" s="53">
         <f t="shared" si="78"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="H858" s="87"/>
       <c r="I858" s="87"/>
@@ -43653,7 +45477,7 @@
       <c r="F859" s="156"/>
       <c r="G859" s="53">
         <f t="shared" si="78"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="H859" s="87"/>
       <c r="I859" s="87"/>
@@ -43679,7 +45503,7 @@
       <c r="F860" s="156"/>
       <c r="G860" s="53">
         <f t="shared" si="78"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="H860" s="87"/>
       <c r="I860" s="87"/>
@@ -43705,7 +45529,7 @@
       <c r="F861" s="156"/>
       <c r="G861" s="53">
         <f t="shared" si="78"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="H861" s="87"/>
       <c r="I861" s="87"/>
@@ -43731,7 +45555,7 @@
       <c r="F862" s="156"/>
       <c r="G862" s="53">
         <f t="shared" si="78"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="H862" s="87"/>
       <c r="I862" s="87"/>
@@ -43757,7 +45581,7 @@
       <c r="F863" s="156"/>
       <c r="G863" s="53">
         <f t="shared" si="78"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="H863" s="87"/>
       <c r="I863" s="87"/>
@@ -43771,7 +45595,7 @@
       <c r="Q863" s="264"/>
       <c r="R863" s="264"/>
       <c r="S863" s="264"/>
-      <c r="T863" s="443"/>
+      <c r="T863" s="501"/>
       <c r="U863" s="87"/>
     </row>
     <row r="864" spans="1:21" x14ac:dyDescent="0.25">
@@ -43783,7 +45607,7 @@
       <c r="F864" s="156"/>
       <c r="G864" s="53">
         <f t="shared" si="78"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="H864" s="87"/>
       <c r="I864" s="87"/>
@@ -43809,7 +45633,7 @@
       <c r="F865" s="156"/>
       <c r="G865" s="53">
         <f>G864+E865-F865</f>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="H865" s="87"/>
       <c r="I865" s="87"/>
@@ -43835,7 +45659,7 @@
       <c r="F866" s="156"/>
       <c r="G866" s="53">
         <f t="shared" ref="G866:G881" si="79">G865+E866-F866</f>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="H866" s="87"/>
       <c r="I866" s="87"/>
@@ -43849,7 +45673,7 @@
       <c r="Q866" s="264"/>
       <c r="R866" s="264"/>
       <c r="S866" s="264"/>
-      <c r="T866" s="501"/>
+      <c r="T866" s="443"/>
       <c r="U866" s="87"/>
     </row>
     <row r="867" spans="1:21" x14ac:dyDescent="0.25">
@@ -43861,7 +45685,7 @@
       <c r="F867" s="156"/>
       <c r="G867" s="53">
         <f t="shared" si="79"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="H867" s="87"/>
       <c r="I867" s="87"/>
@@ -43887,7 +45711,7 @@
       <c r="F868" s="156"/>
       <c r="G868" s="53">
         <f t="shared" si="79"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="H868" s="87"/>
       <c r="I868" s="87"/>
@@ -43913,7 +45737,7 @@
       <c r="F869" s="156"/>
       <c r="G869" s="53">
         <f t="shared" si="79"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="H869" s="87"/>
       <c r="I869" s="87"/>
@@ -43939,7 +45763,7 @@
       <c r="F870" s="156"/>
       <c r="G870" s="53">
         <f t="shared" si="79"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="H870" s="87"/>
       <c r="I870" s="87"/>
@@ -43965,7 +45789,7 @@
       <c r="F871" s="156"/>
       <c r="G871" s="53">
         <f t="shared" si="79"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="H871" s="87"/>
       <c r="I871" s="87"/>
@@ -43979,7 +45803,7 @@
       <c r="Q871" s="264"/>
       <c r="R871" s="264"/>
       <c r="S871" s="264"/>
-      <c r="T871" s="443"/>
+      <c r="T871" s="501"/>
       <c r="U871" s="87"/>
     </row>
     <row r="872" spans="1:21" x14ac:dyDescent="0.25">
@@ -43991,7 +45815,7 @@
       <c r="F872" s="156"/>
       <c r="G872" s="53">
         <f t="shared" si="79"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="H872" s="87"/>
       <c r="I872" s="87"/>
@@ -44005,7 +45829,7 @@
       <c r="Q872" s="264"/>
       <c r="R872" s="264"/>
       <c r="S872" s="264"/>
-      <c r="T872" s="443"/>
+      <c r="T872" s="504"/>
       <c r="U872" s="87"/>
     </row>
     <row r="873" spans="1:21" x14ac:dyDescent="0.25">
@@ -44017,7 +45841,7 @@
       <c r="F873" s="156"/>
       <c r="G873" s="53">
         <f t="shared" si="79"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="H873" s="87"/>
       <c r="I873" s="87"/>
@@ -44031,7 +45855,7 @@
       <c r="Q873" s="264"/>
       <c r="R873" s="264"/>
       <c r="S873" s="264"/>
-      <c r="T873" s="443"/>
+      <c r="T873" s="505"/>
       <c r="U873" s="87"/>
     </row>
     <row r="874" spans="1:21" x14ac:dyDescent="0.25">
@@ -44043,7 +45867,7 @@
       <c r="F874" s="156"/>
       <c r="G874" s="53">
         <f t="shared" si="79"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M874" s="518"/>
       <c r="N874" s="280"/>
@@ -44052,7 +45876,7 @@
       <c r="Q874" s="264"/>
       <c r="R874" s="264"/>
       <c r="S874" s="264"/>
-      <c r="T874" s="501"/>
+      <c r="T874" s="505"/>
       <c r="U874" s="87"/>
     </row>
     <row r="875" spans="1:21" x14ac:dyDescent="0.25">
@@ -44064,7 +45888,7 @@
       <c r="F875" s="156"/>
       <c r="G875" s="53">
         <f t="shared" si="79"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M875" s="518"/>
       <c r="N875" s="280"/>
@@ -44073,7 +45897,7 @@
       <c r="Q875" s="264"/>
       <c r="R875" s="264"/>
       <c r="S875" s="264"/>
-      <c r="T875" s="504"/>
+      <c r="T875" s="505"/>
       <c r="U875" s="87"/>
     </row>
     <row r="876" spans="1:21" x14ac:dyDescent="0.25">
@@ -44085,7 +45909,7 @@
       <c r="F876" s="156"/>
       <c r="G876" s="53">
         <f t="shared" si="79"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M876" s="518"/>
       <c r="N876" s="280"/>
@@ -44106,7 +45930,7 @@
       <c r="F877" s="156"/>
       <c r="G877" s="53">
         <f t="shared" si="79"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M877" s="518"/>
       <c r="N877" s="280"/>
@@ -44127,7 +45951,7 @@
       <c r="F878" s="156"/>
       <c r="G878" s="53">
         <f t="shared" si="79"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M878" s="518"/>
       <c r="N878" s="280"/>
@@ -44148,7 +45972,7 @@
       <c r="F879" s="156"/>
       <c r="G879" s="53">
         <f t="shared" si="79"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M879" s="518"/>
       <c r="N879" s="280"/>
@@ -44169,7 +45993,7 @@
       <c r="F880" s="156"/>
       <c r="G880" s="53">
         <f t="shared" si="79"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M880" s="518"/>
       <c r="N880" s="280"/>
@@ -44190,7 +46014,7 @@
       <c r="F881" s="156"/>
       <c r="G881" s="53">
         <f t="shared" si="79"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M881" s="518"/>
       <c r="N881" s="280"/>
@@ -44211,7 +46035,7 @@
       <c r="F882" s="156"/>
       <c r="G882" s="53">
         <f>G881+E882-F882</f>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M882" s="518"/>
       <c r="N882" s="280"/>
@@ -44232,7 +46056,7 @@
       <c r="F883" s="156"/>
       <c r="G883" s="53">
         <f>G882+E883-F883</f>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M883" s="518"/>
       <c r="N883" s="280"/>
@@ -44241,7 +46065,7 @@
       <c r="Q883" s="264"/>
       <c r="R883" s="264"/>
       <c r="S883" s="264"/>
-      <c r="T883" s="505"/>
+      <c r="T883" s="500"/>
       <c r="U883" s="87"/>
     </row>
     <row r="884" spans="1:21" x14ac:dyDescent="0.25">
@@ -44253,7 +46077,7 @@
       <c r="F884" s="156"/>
       <c r="G884" s="53">
         <f t="shared" ref="G884" si="80">G883+E884-F884</f>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M884" s="518"/>
       <c r="N884" s="280"/>
@@ -44262,7 +46086,7 @@
       <c r="Q884" s="264"/>
       <c r="R884" s="264"/>
       <c r="S884" s="264"/>
-      <c r="T884" s="505"/>
+      <c r="T884" s="305"/>
       <c r="U884" s="87"/>
     </row>
     <row r="885" spans="1:21" x14ac:dyDescent="0.25">
@@ -44274,7 +46098,7 @@
       <c r="F885" s="156"/>
       <c r="G885" s="53">
         <f>G884+E885-F885</f>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M885" s="518"/>
       <c r="N885" s="280"/>
@@ -44283,7 +46107,7 @@
       <c r="Q885" s="264"/>
       <c r="R885" s="264"/>
       <c r="S885" s="264"/>
-      <c r="T885" s="505"/>
+      <c r="T885" s="280"/>
       <c r="U885" s="87"/>
     </row>
     <row r="886" spans="1:21" x14ac:dyDescent="0.25">
@@ -44295,7 +46119,7 @@
       <c r="F886" s="156"/>
       <c r="G886" s="53">
         <f>G885+E886-F886</f>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M886" s="518"/>
       <c r="N886" s="280"/>
@@ -44304,7 +46128,7 @@
       <c r="Q886" s="264"/>
       <c r="R886" s="264"/>
       <c r="S886" s="264"/>
-      <c r="T886" s="500"/>
+      <c r="T886" s="280"/>
       <c r="U886" s="87"/>
     </row>
     <row r="887" spans="1:21" x14ac:dyDescent="0.25">
@@ -44316,7 +46140,7 @@
       <c r="F887" s="156"/>
       <c r="G887" s="53">
         <f t="shared" ref="G887:G888" si="81">G886+E887-F887</f>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M887" s="518"/>
       <c r="N887" s="280"/>
@@ -44325,7 +46149,7 @@
       <c r="Q887" s="264"/>
       <c r="R887" s="264"/>
       <c r="S887" s="264"/>
-      <c r="T887" s="305"/>
+      <c r="T887" s="280"/>
       <c r="U887" s="87"/>
     </row>
     <row r="888" spans="1:21" x14ac:dyDescent="0.25">
@@ -44337,7 +46161,7 @@
       <c r="F888" s="156"/>
       <c r="G888" s="53">
         <f t="shared" si="81"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M888" s="518"/>
       <c r="N888" s="280"/>
@@ -44358,7 +46182,7 @@
       <c r="F889" s="156"/>
       <c r="G889" s="53">
         <f>G888+E889-F889</f>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M889" s="518"/>
       <c r="N889" s="280"/>
@@ -44379,7 +46203,7 @@
       <c r="F890" s="156"/>
       <c r="G890" s="53">
         <f t="shared" ref="G890:G919" si="82">G889+E890-F890</f>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M890" s="518"/>
       <c r="N890" s="280"/>
@@ -44400,7 +46224,7 @@
       <c r="F891" s="156"/>
       <c r="G891" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M891" s="518"/>
       <c r="N891" s="280"/>
@@ -44421,7 +46245,7 @@
       <c r="F892" s="156"/>
       <c r="G892" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M892" s="518"/>
       <c r="N892" s="280"/>
@@ -44442,7 +46266,7 @@
       <c r="F893" s="156"/>
       <c r="G893" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M893" s="518"/>
       <c r="N893" s="280"/>
@@ -44463,16 +46287,16 @@
       <c r="F894" s="156"/>
       <c r="G894" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
-      </c>
-      <c r="M894" s="518"/>
-      <c r="N894" s="280"/>
-      <c r="O894" s="280"/>
-      <c r="P894" s="264"/>
-      <c r="Q894" s="264"/>
-      <c r="R894" s="264"/>
-      <c r="S894" s="264"/>
-      <c r="T894" s="280"/>
+        <v>19221.169999999998</v>
+      </c>
+      <c r="M894" s="37"/>
+      <c r="N894" s="38"/>
+      <c r="O894" s="38"/>
+      <c r="P894" s="39"/>
+      <c r="Q894" s="39"/>
+      <c r="R894" s="39"/>
+      <c r="S894" s="39"/>
+      <c r="T894" s="38"/>
       <c r="U894" s="87"/>
     </row>
     <row r="895" spans="1:21" x14ac:dyDescent="0.25">
@@ -44484,16 +46308,16 @@
       <c r="F895" s="156"/>
       <c r="G895" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
-      </c>
-      <c r="M895" s="518"/>
-      <c r="N895" s="280"/>
-      <c r="O895" s="280"/>
-      <c r="P895" s="264"/>
-      <c r="Q895" s="264"/>
-      <c r="R895" s="264"/>
-      <c r="S895" s="264"/>
-      <c r="T895" s="280"/>
+        <v>19221.169999999998</v>
+      </c>
+      <c r="M895" s="37"/>
+      <c r="N895" s="38"/>
+      <c r="O895" s="38"/>
+      <c r="P895" s="39"/>
+      <c r="Q895" s="39"/>
+      <c r="R895" s="39"/>
+      <c r="S895" s="39"/>
+      <c r="T895" s="38"/>
       <c r="U895" s="87"/>
     </row>
     <row r="896" spans="1:21" x14ac:dyDescent="0.25">
@@ -44505,16 +46329,16 @@
       <c r="F896" s="156"/>
       <c r="G896" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
-      </c>
-      <c r="M896" s="518"/>
-      <c r="N896" s="280"/>
-      <c r="O896" s="280"/>
-      <c r="P896" s="264"/>
-      <c r="Q896" s="264"/>
-      <c r="R896" s="264"/>
-      <c r="S896" s="264"/>
-      <c r="T896" s="280"/>
+        <v>19221.169999999998</v>
+      </c>
+      <c r="M896" s="37"/>
+      <c r="N896" s="38"/>
+      <c r="O896" s="38"/>
+      <c r="P896" s="39"/>
+      <c r="Q896" s="39"/>
+      <c r="R896" s="39"/>
+      <c r="S896" s="39"/>
+      <c r="T896" s="38"/>
       <c r="U896" s="87"/>
     </row>
     <row r="897" spans="1:21" x14ac:dyDescent="0.25">
@@ -44526,7 +46350,7 @@
       <c r="F897" s="156"/>
       <c r="G897" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M897" s="37"/>
       <c r="N897" s="38"/>
@@ -44547,7 +46371,7 @@
       <c r="F898" s="156"/>
       <c r="G898" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M898" s="37"/>
       <c r="N898" s="38"/>
@@ -44568,7 +46392,7 @@
       <c r="F899" s="156"/>
       <c r="G899" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M899" s="37"/>
       <c r="N899" s="38"/>
@@ -44577,7 +46401,7 @@
       <c r="Q899" s="39"/>
       <c r="R899" s="39"/>
       <c r="S899" s="39"/>
-      <c r="T899" s="38"/>
+      <c r="T899" s="40"/>
       <c r="U899" s="87"/>
     </row>
     <row r="900" spans="1:21" x14ac:dyDescent="0.25">
@@ -44589,7 +46413,7 @@
       <c r="F900" s="156"/>
       <c r="G900" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M900" s="37"/>
       <c r="N900" s="38"/>
@@ -44610,7 +46434,7 @@
       <c r="F901" s="156"/>
       <c r="G901" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M901" s="37"/>
       <c r="N901" s="38"/>
@@ -44631,7 +46455,7 @@
       <c r="F902" s="156"/>
       <c r="G902" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M902" s="37"/>
       <c r="N902" s="38"/>
@@ -44640,7 +46464,7 @@
       <c r="Q902" s="39"/>
       <c r="R902" s="39"/>
       <c r="S902" s="39"/>
-      <c r="T902" s="40"/>
+      <c r="T902" s="38"/>
       <c r="U902" s="87"/>
     </row>
     <row r="903" spans="1:21" x14ac:dyDescent="0.25">
@@ -44652,18 +46476,18 @@
       <c r="F903" s="156"/>
       <c r="G903" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
-      </c>
-      <c r="M903" s="37"/>
-      <c r="N903" s="38"/>
-      <c r="O903" s="38"/>
-      <c r="P903" s="39"/>
-      <c r="Q903" s="39"/>
-      <c r="R903" s="39"/>
-      <c r="S903" s="39"/>
-      <c r="T903" s="38"/>
-    </row>
-    <row r="904" spans="1:21" x14ac:dyDescent="0.25">
+        <v>19221.169999999998</v>
+      </c>
+      <c r="M903" s="519"/>
+      <c r="N903" s="305"/>
+      <c r="O903" s="305"/>
+      <c r="P903" s="306"/>
+      <c r="Q903" s="306"/>
+      <c r="R903" s="306"/>
+      <c r="S903" s="306"/>
+      <c r="T903" s="305"/>
+    </row>
+    <row r="904" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A904" s="526"/>
       <c r="B904" s="527"/>
       <c r="C904" s="527"/>
@@ -44672,17 +46496,17 @@
       <c r="F904" s="527"/>
       <c r="G904" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="H904" s="36"/>
-      <c r="M904" s="37"/>
-      <c r="N904" s="38"/>
-      <c r="O904" s="38"/>
-      <c r="P904" s="39"/>
-      <c r="Q904" s="39"/>
-      <c r="R904" s="39"/>
-      <c r="S904" s="39"/>
-      <c r="T904" s="38"/>
+      <c r="M904" s="519"/>
+      <c r="N904" s="305"/>
+      <c r="O904" s="305"/>
+      <c r="P904" s="306"/>
+      <c r="Q904" s="306"/>
+      <c r="R904" s="306"/>
+      <c r="S904" s="306"/>
+      <c r="T904" s="305"/>
     </row>
     <row r="905" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A905" s="441"/>
@@ -44693,16 +46517,16 @@
       <c r="F905" s="156"/>
       <c r="G905" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
-      </c>
-      <c r="M905" s="37"/>
-      <c r="N905" s="38"/>
-      <c r="O905" s="38"/>
-      <c r="P905" s="39"/>
-      <c r="Q905" s="39"/>
-      <c r="R905" s="39"/>
-      <c r="S905" s="39"/>
-      <c r="T905" s="38"/>
+        <v>19221.169999999998</v>
+      </c>
+      <c r="M905" s="519"/>
+      <c r="N905" s="305"/>
+      <c r="O905" s="305"/>
+      <c r="P905" s="306"/>
+      <c r="Q905" s="306"/>
+      <c r="R905" s="306"/>
+      <c r="S905" s="306"/>
+      <c r="T905" s="305"/>
     </row>
     <row r="906" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A906" s="441"/>
@@ -44713,7 +46537,7 @@
       <c r="F906" s="156"/>
       <c r="G906" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M906" s="519"/>
       <c r="N906" s="305"/>
@@ -44722,7 +46546,7 @@
       <c r="Q906" s="306"/>
       <c r="R906" s="306"/>
       <c r="S906" s="306"/>
-      <c r="T906" s="305"/>
+      <c r="T906" s="480"/>
     </row>
     <row r="907" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A907" s="441"/>
@@ -44733,7 +46557,7 @@
       <c r="F907" s="156"/>
       <c r="G907" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M907" s="519"/>
       <c r="N907" s="305"/>
@@ -44742,7 +46566,7 @@
       <c r="Q907" s="306"/>
       <c r="R907" s="306"/>
       <c r="S907" s="306"/>
-      <c r="T907" s="305"/>
+      <c r="T907" s="480"/>
     </row>
     <row r="908" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A908" s="441"/>
@@ -44753,7 +46577,7 @@
       <c r="F908" s="156"/>
       <c r="G908" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M908" s="519"/>
       <c r="N908" s="305"/>
@@ -44762,7 +46586,7 @@
       <c r="Q908" s="306"/>
       <c r="R908" s="306"/>
       <c r="S908" s="306"/>
-      <c r="T908" s="305"/>
+      <c r="T908" s="480"/>
     </row>
     <row r="909" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A909" s="441"/>
@@ -44773,7 +46597,7 @@
       <c r="F909" s="156"/>
       <c r="G909" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M909" s="519"/>
       <c r="N909" s="305"/>
@@ -44793,16 +46617,16 @@
       <c r="F910" s="156"/>
       <c r="G910" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
-      </c>
-      <c r="M910" s="519"/>
-      <c r="N910" s="305"/>
-      <c r="O910" s="305"/>
-      <c r="P910" s="306"/>
-      <c r="Q910" s="306"/>
-      <c r="R910" s="306"/>
-      <c r="S910" s="306"/>
-      <c r="T910" s="480"/>
+        <v>19221.169999999998</v>
+      </c>
+      <c r="M910" s="520"/>
+      <c r="N910" s="378"/>
+      <c r="O910" s="378"/>
+      <c r="P910" s="95"/>
+      <c r="Q910" s="95"/>
+      <c r="R910" s="95"/>
+      <c r="S910" s="95"/>
+      <c r="T910" s="430"/>
     </row>
     <row r="911" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A911" s="155"/>
@@ -44813,16 +46637,16 @@
       <c r="F911" s="156"/>
       <c r="G911" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
-      </c>
-      <c r="M911" s="519"/>
-      <c r="N911" s="305"/>
-      <c r="O911" s="305"/>
-      <c r="P911" s="306"/>
-      <c r="Q911" s="306"/>
-      <c r="R911" s="306"/>
-      <c r="S911" s="306"/>
-      <c r="T911" s="480"/>
+        <v>19221.169999999998</v>
+      </c>
+      <c r="M911" s="520"/>
+      <c r="N911" s="378"/>
+      <c r="O911" s="378"/>
+      <c r="P911" s="95"/>
+      <c r="Q911" s="95"/>
+      <c r="R911" s="95"/>
+      <c r="S911" s="95"/>
+      <c r="T911" s="430"/>
     </row>
     <row r="912" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A912" s="155"/>
@@ -44833,16 +46657,16 @@
       <c r="F912" s="156"/>
       <c r="G912" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
-      </c>
-      <c r="M912" s="519"/>
-      <c r="N912" s="305"/>
-      <c r="O912" s="305"/>
-      <c r="P912" s="306"/>
-      <c r="Q912" s="306"/>
-      <c r="R912" s="306"/>
-      <c r="S912" s="306"/>
-      <c r="T912" s="480"/>
+        <v>19221.169999999998</v>
+      </c>
+      <c r="M912" s="520"/>
+      <c r="N912" s="378"/>
+      <c r="O912" s="378"/>
+      <c r="P912" s="95"/>
+      <c r="Q912" s="95"/>
+      <c r="R912" s="95"/>
+      <c r="S912" s="95"/>
+      <c r="T912" s="430"/>
     </row>
     <row r="913" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A913" s="155"/>
@@ -44853,7 +46677,7 @@
       <c r="F913" s="156"/>
       <c r="G913" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M913" s="520"/>
       <c r="N913" s="378"/>
@@ -44873,7 +46697,7 @@
       <c r="F914" s="156"/>
       <c r="G914" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M914" s="520"/>
       <c r="N914" s="378"/>
@@ -44882,7 +46706,7 @@
       <c r="Q914" s="95"/>
       <c r="R914" s="95"/>
       <c r="S914" s="95"/>
-      <c r="T914" s="430"/>
+      <c r="T914" s="223"/>
     </row>
     <row r="915" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A915" s="155"/>
@@ -44893,16 +46717,15 @@
       <c r="F915" s="156"/>
       <c r="G915" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
       <c r="M915" s="520"/>
       <c r="N915" s="378"/>
       <c r="O915" s="378"/>
       <c r="P915" s="95"/>
       <c r="Q915" s="95"/>
-      <c r="R915" s="95"/>
-      <c r="S915" s="95"/>
-      <c r="T915" s="430"/>
+      <c r="R915" s="87"/>
+      <c r="S915" s="87"/>
     </row>
     <row r="916" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A916" s="155"/>
@@ -44913,16 +46736,8 @@
       <c r="F916" s="156"/>
       <c r="G916" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
-      </c>
-      <c r="M916" s="520"/>
-      <c r="N916" s="378"/>
-      <c r="O916" s="378"/>
-      <c r="P916" s="95"/>
-      <c r="Q916" s="95"/>
-      <c r="R916" s="95"/>
-      <c r="S916" s="95"/>
-      <c r="T916" s="430"/>
+        <v>19221.169999999998</v>
+      </c>
     </row>
     <row r="917" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A917" s="154"/>
@@ -44933,16 +46748,8 @@
       <c r="F917" s="156"/>
       <c r="G917" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
-      </c>
-      <c r="M917" s="520"/>
-      <c r="N917" s="378"/>
-      <c r="O917" s="378"/>
-      <c r="P917" s="95"/>
-      <c r="Q917" s="95"/>
-      <c r="R917" s="95"/>
-      <c r="S917" s="95"/>
-      <c r="T917" s="223"/>
+        <v>19221.169999999998</v>
+      </c>
     </row>
     <row r="918" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A918" s="154"/>
@@ -44953,15 +46760,8 @@
       <c r="F918" s="156"/>
       <c r="G918" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
-      </c>
-      <c r="M918" s="520"/>
-      <c r="N918" s="378"/>
-      <c r="O918" s="378"/>
-      <c r="P918" s="95"/>
-      <c r="Q918" s="95"/>
-      <c r="R918" s="87"/>
-      <c r="S918" s="87"/>
+        <v>19221.169999999998</v>
+      </c>
     </row>
     <row r="919" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A919" s="136"/>
@@ -44972,7 +46772,7 @@
       <c r="F919" s="157"/>
       <c r="G919" s="53">
         <f t="shared" si="82"/>
-        <v>14109.789999999999</v>
+        <v>19221.169999999998</v>
       </c>
     </row>
   </sheetData>

--- a/DOC 2023/BANCOS.xlsx
+++ b/DOC 2023/BANCOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34486F1-D3D8-4773-BD98-CC7599A561C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB4309B-9F21-436D-8ECF-B6325800D083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="1765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5851" uniqueCount="1764">
   <si>
     <t>ABRILTRANS S.A</t>
   </si>
@@ -5321,9 +5321,6 @@
   </si>
   <si>
     <t>CH1401</t>
-  </si>
-  <si>
-    <t>SERV</t>
   </si>
   <si>
     <t>CH1402</t>
@@ -5769,7 +5766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="556">
+  <cellXfs count="559">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7054,12 +7051,6 @@
     <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="20" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7142,6 +7133,15 @@
     <xf numFmtId="2" fontId="4" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9232,8 +9232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A836" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="G854" sqref="G854"/>
+    <sheetView tabSelected="1" topLeftCell="B836" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="J847" sqref="J847"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9242,15 +9242,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D2" s="544" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="544"/>
-      <c r="F2" s="544"/>
-      <c r="O2" s="544" t="s">
+      <c r="D2" s="542" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="542"/>
+      <c r="F2" s="542"/>
+      <c r="O2" s="542" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="544"/>
+      <c r="P2" s="542"/>
       <c r="Q2" s="1" t="s">
         <v>0</v>
       </c>
@@ -12637,15 +12637,15 @@
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D89" s="544" t="s">
-        <v>0</v>
-      </c>
-      <c r="E89" s="544"/>
-      <c r="F89" s="544"/>
-      <c r="O89" s="544" t="s">
+      <c r="D89" s="542" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="542"/>
+      <c r="F89" s="542"/>
+      <c r="O89" s="542" t="s">
         <v>10</v>
       </c>
-      <c r="P89" s="544"/>
+      <c r="P89" s="542"/>
       <c r="Q89" s="1" t="s">
         <v>0</v>
       </c>
@@ -17101,15 +17101,15 @@
       </c>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D209" s="544" t="s">
-        <v>0</v>
-      </c>
-      <c r="E209" s="544"/>
-      <c r="F209" s="544"/>
-      <c r="O209" s="544" t="s">
+      <c r="D209" s="542" t="s">
+        <v>0</v>
+      </c>
+      <c r="E209" s="542"/>
+      <c r="F209" s="542"/>
+      <c r="O209" s="542" t="s">
         <v>10</v>
       </c>
-      <c r="P209" s="544"/>
+      <c r="P209" s="542"/>
       <c r="Q209" s="1" t="s">
         <v>0</v>
       </c>
@@ -21036,15 +21036,15 @@
       </c>
     </row>
     <row r="329" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D329" s="544" t="s">
-        <v>0</v>
-      </c>
-      <c r="E329" s="544"/>
-      <c r="F329" s="544"/>
-      <c r="O329" s="544" t="s">
+      <c r="D329" s="542" t="s">
+        <v>0</v>
+      </c>
+      <c r="E329" s="542"/>
+      <c r="F329" s="542"/>
+      <c r="O329" s="542" t="s">
         <v>10</v>
       </c>
-      <c r="P329" s="544"/>
+      <c r="P329" s="542"/>
       <c r="Q329" s="1" t="s">
         <v>0</v>
       </c>
@@ -25664,15 +25664,15 @@
       <c r="F428" s="83"/>
     </row>
     <row r="433" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D433" s="544" t="s">
-        <v>0</v>
-      </c>
-      <c r="E433" s="544"/>
-      <c r="F433" s="544"/>
-      <c r="O433" s="544" t="s">
+      <c r="D433" s="542" t="s">
+        <v>0</v>
+      </c>
+      <c r="E433" s="542"/>
+      <c r="F433" s="542"/>
+      <c r="O433" s="542" t="s">
         <v>10</v>
       </c>
-      <c r="P433" s="544"/>
+      <c r="P433" s="542"/>
       <c r="Q433" s="1" t="s">
         <v>0</v>
       </c>
@@ -30646,15 +30646,15 @@
       <c r="T539" s="263"/>
     </row>
     <row r="544" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D544" s="544" t="s">
-        <v>0</v>
-      </c>
-      <c r="E544" s="544"/>
-      <c r="F544" s="544"/>
-      <c r="O544" s="544" t="s">
+      <c r="D544" s="542" t="s">
+        <v>0</v>
+      </c>
+      <c r="E544" s="542"/>
+      <c r="F544" s="542"/>
+      <c r="O544" s="542" t="s">
         <v>10</v>
       </c>
-      <c r="P544" s="544"/>
+      <c r="P544" s="542"/>
       <c r="Q544" s="1" t="s">
         <v>0</v>
       </c>
@@ -36151,15 +36151,15 @@
       <c r="A655" s="471"/>
     </row>
     <row r="659" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D659" s="544" t="s">
-        <v>0</v>
-      </c>
-      <c r="E659" s="544"/>
-      <c r="F659" s="544"/>
-      <c r="O659" s="544" t="s">
+      <c r="D659" s="542" t="s">
+        <v>0</v>
+      </c>
+      <c r="E659" s="542"/>
+      <c r="F659" s="542"/>
+      <c r="O659" s="542" t="s">
         <v>10</v>
       </c>
-      <c r="P659" s="544"/>
+      <c r="P659" s="542"/>
       <c r="Q659" s="1" t="s">
         <v>0</v>
       </c>
@@ -41398,7 +41398,7 @@
       <c r="U762" s="87"/>
     </row>
     <row r="763" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A763" s="539">
+      <c r="A763" s="537">
         <v>45163</v>
       </c>
       <c r="B763" s="345" t="s">
@@ -42490,15 +42490,15 @@
       </c>
     </row>
     <row r="792" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D792" s="544" t="s">
-        <v>0</v>
-      </c>
-      <c r="E792" s="544"/>
-      <c r="F792" s="544"/>
-      <c r="O792" s="544" t="s">
+      <c r="D792" s="542" t="s">
+        <v>0</v>
+      </c>
+      <c r="E792" s="542"/>
+      <c r="F792" s="542"/>
+      <c r="O792" s="542" t="s">
         <v>10</v>
       </c>
-      <c r="P792" s="544"/>
+      <c r="P792" s="542"/>
       <c r="Q792" s="1" t="s">
         <v>0</v>
       </c>
@@ -42680,19 +42680,19 @@
       <c r="J799" s="85"/>
       <c r="K799" s="85"/>
       <c r="L799" s="85"/>
-      <c r="M799" s="540">
+      <c r="M799" s="538">
         <v>45170</v>
       </c>
-      <c r="N799" s="541" t="s">
+      <c r="N799" s="539" t="s">
         <v>59</v>
       </c>
-      <c r="O799" s="541">
+      <c r="O799" s="539">
         <v>1353</v>
       </c>
-      <c r="P799" s="542" t="s">
+      <c r="P799" s="540" t="s">
         <v>1636</v>
       </c>
-      <c r="Q799" s="542" t="s">
+      <c r="Q799" s="540" t="s">
         <v>73</v>
       </c>
       <c r="R799" s="264" t="s">
@@ -42732,19 +42732,19 @@
       <c r="J800" s="85"/>
       <c r="K800" s="85"/>
       <c r="L800" s="85"/>
-      <c r="M800" s="533">
+      <c r="M800" s="531">
         <v>45170</v>
       </c>
-      <c r="N800" s="534" t="s">
+      <c r="N800" s="532" t="s">
         <v>18</v>
       </c>
-      <c r="O800" s="534">
+      <c r="O800" s="532">
         <v>1370</v>
       </c>
-      <c r="P800" s="535" t="s">
+      <c r="P800" s="533" t="s">
         <v>399</v>
       </c>
-      <c r="Q800" s="535" t="s">
+      <c r="Q800" s="533" t="s">
         <v>73</v>
       </c>
       <c r="R800" s="264" t="s">
@@ -42760,17 +42760,17 @@
       <c r="A801" s="441">
         <v>45170</v>
       </c>
-      <c r="B801" s="154" t="s">
+      <c r="B801" s="373" t="s">
         <v>15</v>
       </c>
-      <c r="C801" s="154" t="s">
+      <c r="C801" s="373" t="s">
         <v>1651</v>
       </c>
-      <c r="D801" s="154" t="s">
+      <c r="D801" s="373" t="s">
         <v>1652</v>
       </c>
-      <c r="E801" s="156"/>
-      <c r="F801" s="156">
+      <c r="E801" s="554"/>
+      <c r="F801" s="554">
         <v>260</v>
       </c>
       <c r="G801" s="53">
@@ -42784,19 +42784,19 @@
       <c r="J801" s="85"/>
       <c r="K801" s="85"/>
       <c r="L801" s="85"/>
-      <c r="M801" s="540">
+      <c r="M801" s="538">
         <v>45170</v>
       </c>
-      <c r="N801" s="541" t="s">
+      <c r="N801" s="539" t="s">
         <v>18</v>
       </c>
-      <c r="O801" s="541">
+      <c r="O801" s="539">
         <v>1368</v>
       </c>
-      <c r="P801" s="542" t="s">
+      <c r="P801" s="540" t="s">
         <v>1136</v>
       </c>
-      <c r="Q801" s="542" t="s">
+      <c r="Q801" s="540" t="s">
         <v>73</v>
       </c>
       <c r="R801" s="264" t="s">
@@ -42836,19 +42836,19 @@
       <c r="J802" s="85"/>
       <c r="K802" s="85"/>
       <c r="L802" s="85"/>
-      <c r="M802" s="533">
+      <c r="M802" s="531">
         <v>45170</v>
       </c>
-      <c r="N802" s="534" t="s">
+      <c r="N802" s="532" t="s">
         <v>18</v>
       </c>
-      <c r="O802" s="534">
+      <c r="O802" s="532">
         <v>1369</v>
       </c>
-      <c r="P802" s="535" t="s">
+      <c r="P802" s="533" t="s">
         <v>1640</v>
       </c>
-      <c r="Q802" s="535" t="s">
+      <c r="Q802" s="533" t="s">
         <v>73</v>
       </c>
       <c r="R802" s="264" t="s">
@@ -42888,19 +42888,19 @@
       <c r="J803" s="85"/>
       <c r="K803" s="85"/>
       <c r="L803" s="85"/>
-      <c r="M803" s="533">
+      <c r="M803" s="531">
         <v>45170</v>
       </c>
-      <c r="N803" s="534" t="s">
+      <c r="N803" s="532" t="s">
         <v>18</v>
       </c>
-      <c r="O803" s="534">
+      <c r="O803" s="532">
         <v>1372</v>
       </c>
-      <c r="P803" s="535" t="s">
+      <c r="P803" s="533" t="s">
         <v>274</v>
       </c>
-      <c r="Q803" s="535" t="s">
+      <c r="Q803" s="533" t="s">
         <v>73</v>
       </c>
       <c r="R803" s="264" t="s">
@@ -42940,19 +42940,19 @@
       <c r="J804" s="85"/>
       <c r="K804" s="85"/>
       <c r="L804" s="85"/>
-      <c r="M804" s="533">
+      <c r="M804" s="531">
         <v>45170</v>
       </c>
-      <c r="N804" s="534" t="s">
+      <c r="N804" s="532" t="s">
         <v>18</v>
       </c>
-      <c r="O804" s="534">
+      <c r="O804" s="532">
         <v>1373</v>
       </c>
-      <c r="P804" s="535" t="s">
+      <c r="P804" s="533" t="s">
         <v>1643</v>
       </c>
-      <c r="Q804" s="535" t="s">
+      <c r="Q804" s="533" t="s">
         <v>73</v>
       </c>
       <c r="R804" s="264" t="s">
@@ -42968,17 +42968,17 @@
       <c r="A805" s="441">
         <v>45170</v>
       </c>
-      <c r="B805" s="154" t="s">
+      <c r="B805" s="373" t="s">
         <v>15</v>
       </c>
-      <c r="C805" s="154" t="s">
+      <c r="C805" s="373" t="s">
         <v>1658</v>
       </c>
-      <c r="D805" s="154" t="s">
+      <c r="D805" s="373" t="s">
         <v>1659</v>
       </c>
-      <c r="E805" s="156"/>
-      <c r="F805" s="156">
+      <c r="E805" s="554"/>
+      <c r="F805" s="554">
         <v>490</v>
       </c>
       <c r="G805" s="53">
@@ -42992,19 +42992,19 @@
       <c r="J805" s="85"/>
       <c r="K805" s="85"/>
       <c r="L805" s="85"/>
-      <c r="M805" s="533">
+      <c r="M805" s="531">
         <v>45170</v>
       </c>
-      <c r="N805" s="534" t="s">
+      <c r="N805" s="532" t="s">
         <v>18</v>
       </c>
-      <c r="O805" s="534">
+      <c r="O805" s="532">
         <v>1374</v>
       </c>
-      <c r="P805" s="535" t="s">
+      <c r="P805" s="533" t="s">
         <v>515</v>
       </c>
-      <c r="Q805" s="535" t="s">
+      <c r="Q805" s="533" t="s">
         <v>73</v>
       </c>
       <c r="R805" s="264" t="s">
@@ -43023,7 +43023,7 @@
       <c r="B806" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="C806" s="536">
+      <c r="C806" s="534">
         <v>57495350</v>
       </c>
       <c r="D806" s="225" t="s">
@@ -43044,19 +43044,19 @@
       <c r="J806" s="85"/>
       <c r="K806" s="85"/>
       <c r="L806" s="85"/>
-      <c r="M806" s="533">
+      <c r="M806" s="531">
         <v>45170</v>
       </c>
-      <c r="N806" s="534" t="s">
+      <c r="N806" s="532" t="s">
         <v>38</v>
       </c>
-      <c r="O806" s="534">
+      <c r="O806" s="532">
         <v>634</v>
       </c>
-      <c r="P806" s="535" t="s">
+      <c r="P806" s="533" t="s">
         <v>1646</v>
       </c>
-      <c r="Q806" s="535" t="s">
+      <c r="Q806" s="533" t="s">
         <v>73</v>
       </c>
       <c r="R806" s="264" t="s">
@@ -43069,7 +43069,7 @@
       <c r="U806" s="87"/>
     </row>
     <row r="807" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A807" s="537">
+      <c r="A807" s="535">
         <v>45170</v>
       </c>
       <c r="B807" s="225" t="s">
@@ -43081,8 +43081,8 @@
       <c r="D807" s="225" t="s">
         <v>1660</v>
       </c>
-      <c r="E807" s="538"/>
-      <c r="F807" s="538">
+      <c r="E807" s="536"/>
+      <c r="F807" s="536">
         <v>2</v>
       </c>
       <c r="G807" s="53">
@@ -43096,19 +43096,19 @@
       <c r="J807" s="85"/>
       <c r="K807" s="85"/>
       <c r="L807" s="85"/>
-      <c r="M807" s="533">
+      <c r="M807" s="531">
         <v>45170</v>
       </c>
-      <c r="N807" s="534" t="s">
+      <c r="N807" s="532" t="s">
         <v>38</v>
       </c>
-      <c r="O807" s="534">
+      <c r="O807" s="532">
         <v>499</v>
       </c>
-      <c r="P807" s="535" t="s">
+      <c r="P807" s="533" t="s">
         <v>1174</v>
       </c>
-      <c r="Q807" s="535" t="s">
+      <c r="Q807" s="533" t="s">
         <v>73</v>
       </c>
       <c r="R807" s="264" t="s">
@@ -43589,20 +43589,20 @@
       <c r="U816" s="87"/>
     </row>
     <row r="817" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A817" s="552">
+      <c r="A817" s="550">
         <v>45173</v>
       </c>
-      <c r="B817" s="553" t="s">
+      <c r="B817" s="551" t="s">
         <v>15</v>
       </c>
-      <c r="C817" s="553" t="s">
+      <c r="C817" s="551" t="s">
         <v>1710</v>
       </c>
-      <c r="D817" s="553" t="s">
+      <c r="D817" s="551" t="s">
         <v>251</v>
       </c>
-      <c r="E817" s="554"/>
-      <c r="F817" s="554">
+      <c r="E817" s="552"/>
+      <c r="F817" s="552">
         <v>2000</v>
       </c>
       <c r="G817" s="53">
@@ -43689,17 +43689,17 @@
       <c r="U818" s="87"/>
     </row>
     <row r="819" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A819" s="552">
+      <c r="A819" s="550">
         <v>45173</v>
       </c>
-      <c r="B819" s="553" t="s">
+      <c r="B819" s="551" t="s">
         <v>53</v>
       </c>
-      <c r="C819" s="553" t="s">
+      <c r="C819" s="551" t="s">
         <v>64</v>
       </c>
-      <c r="D819" s="553"/>
-      <c r="E819" s="554">
+      <c r="D819" s="551"/>
+      <c r="E819" s="552">
         <v>534.6</v>
       </c>
       <c r="F819" s="360"/>
@@ -43852,7 +43852,7 @@
       <c r="E822" s="360">
         <v>855.7</v>
       </c>
-      <c r="F822" s="555"/>
+      <c r="F822" s="553"/>
       <c r="G822" s="53">
         <f t="shared" si="70"/>
         <v>16549.77</v>
@@ -43902,7 +43902,7 @@
       <c r="E823" s="360">
         <v>520</v>
       </c>
-      <c r="F823" s="555"/>
+      <c r="F823" s="553"/>
       <c r="G823" s="53">
         <f>G822+E823-F823</f>
         <v>17069.77</v>
@@ -43949,8 +43949,8 @@
       <c r="D824" s="311" t="s">
         <v>1657</v>
       </c>
-      <c r="E824" s="555"/>
-      <c r="F824" s="555">
+      <c r="E824" s="553"/>
+      <c r="F824" s="553">
         <v>270</v>
       </c>
       <c r="G824" s="53">
@@ -43999,8 +43999,8 @@
       <c r="D825" s="311" t="s">
         <v>1397</v>
       </c>
-      <c r="E825" s="555"/>
-      <c r="F825" s="555">
+      <c r="E825" s="553"/>
+      <c r="F825" s="553">
         <v>150</v>
       </c>
       <c r="G825" s="53">
@@ -44033,7 +44033,7 @@
       <c r="S825" s="264" t="s">
         <v>1694</v>
       </c>
-      <c r="T825" s="551"/>
+      <c r="T825" s="549"/>
       <c r="U825" s="87"/>
     </row>
     <row r="826" spans="1:21" x14ac:dyDescent="0.25">
@@ -44149,8 +44149,8 @@
       <c r="D828" s="311" t="s">
         <v>789</v>
       </c>
-      <c r="E828" s="555"/>
-      <c r="F828" s="555">
+      <c r="E828" s="553"/>
+      <c r="F828" s="553">
         <v>480</v>
       </c>
       <c r="G828" s="53">
@@ -44199,8 +44199,8 @@
       <c r="D829" s="311" t="s">
         <v>1712</v>
       </c>
-      <c r="E829" s="555"/>
-      <c r="F829" s="555">
+      <c r="E829" s="553"/>
+      <c r="F829" s="553">
         <v>500</v>
       </c>
       <c r="G829" s="53">
@@ -44250,7 +44250,7 @@
         <v>251</v>
       </c>
       <c r="E830" s="312"/>
-      <c r="F830" s="555">
+      <c r="F830" s="553">
         <v>200</v>
       </c>
       <c r="G830" s="53">
@@ -44302,7 +44302,7 @@
       <c r="E831" s="312">
         <v>374.22</v>
       </c>
-      <c r="F831" s="555"/>
+      <c r="F831" s="553"/>
       <c r="G831" s="53">
         <f>G830+E831-F831</f>
         <v>14110.789999999999</v>
@@ -44349,8 +44349,8 @@
       <c r="D832" s="311" t="s">
         <v>1660</v>
       </c>
-      <c r="E832" s="555"/>
-      <c r="F832" s="555">
+      <c r="E832" s="553"/>
+      <c r="F832" s="553">
         <v>1</v>
       </c>
       <c r="G832" s="53">
@@ -44362,19 +44362,19 @@
       <c r="J832" s="85"/>
       <c r="K832" s="87"/>
       <c r="L832" s="85"/>
-      <c r="M832" s="518">
+      <c r="M832" s="369">
         <v>45177</v>
       </c>
-      <c r="N832" s="280" t="s">
+      <c r="N832" s="370" t="s">
         <v>29</v>
       </c>
-      <c r="O832" s="280">
-        <v>0</v>
-      </c>
-      <c r="P832" s="264" t="s">
+      <c r="O832" s="370">
+        <v>0</v>
+      </c>
+      <c r="P832" s="371" t="s">
         <v>301</v>
       </c>
-      <c r="Q832" s="264" t="s">
+      <c r="Q832" s="371" t="s">
         <v>73</v>
       </c>
       <c r="R832" s="264" t="s">
@@ -44387,20 +44387,20 @@
       <c r="U832" s="87"/>
     </row>
     <row r="833" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A833" s="153">
+      <c r="A833" s="372">
         <v>45177</v>
       </c>
-      <c r="B833" s="154" t="s">
+      <c r="B833" s="373" t="s">
         <v>15</v>
       </c>
-      <c r="C833" s="154" t="s">
+      <c r="C833" s="373" t="s">
         <v>65</v>
       </c>
-      <c r="D833" s="154" t="s">
+      <c r="D833" s="373" t="s">
         <v>1746</v>
       </c>
-      <c r="E833" s="88"/>
-      <c r="F833" s="88">
+      <c r="E833" s="379"/>
+      <c r="F833" s="379">
         <v>35.82</v>
       </c>
       <c r="G833" s="53">
@@ -44412,19 +44412,19 @@
       <c r="J833" s="87"/>
       <c r="K833" s="87"/>
       <c r="L833" s="85"/>
-      <c r="M833" s="518">
+      <c r="M833" s="369">
         <v>45177</v>
       </c>
-      <c r="N833" s="280" t="s">
+      <c r="N833" s="370" t="s">
         <v>38</v>
       </c>
-      <c r="O833" s="280">
+      <c r="O833" s="370">
         <v>282</v>
       </c>
-      <c r="P833" s="264" t="s">
+      <c r="P833" s="371" t="s">
         <v>75</v>
       </c>
-      <c r="Q833" s="264" t="s">
+      <c r="Q833" s="371" t="s">
         <v>73</v>
       </c>
       <c r="R833" s="264" t="s">
@@ -44437,20 +44437,20 @@
       <c r="U833" s="87"/>
     </row>
     <row r="834" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A834" s="153">
+      <c r="A834" s="372">
         <v>45177</v>
       </c>
-      <c r="B834" s="154" t="s">
+      <c r="B834" s="373" t="s">
         <v>1582</v>
       </c>
-      <c r="C834" s="154" t="s">
+      <c r="C834" s="373" t="s">
         <v>65</v>
       </c>
-      <c r="D834" s="154" t="s">
+      <c r="D834" s="373" t="s">
         <v>1660</v>
       </c>
-      <c r="E834" s="88"/>
-      <c r="F834" s="88">
+      <c r="E834" s="379"/>
+      <c r="F834" s="379">
         <v>0.22</v>
       </c>
       <c r="G834" s="53">
@@ -44462,19 +44462,19 @@
       <c r="J834" s="85"/>
       <c r="K834" s="87"/>
       <c r="L834" s="85"/>
-      <c r="M834" s="518">
+      <c r="M834" s="369">
         <v>45180</v>
       </c>
-      <c r="N834" s="280" t="s">
+      <c r="N834" s="370" t="s">
         <v>59</v>
       </c>
-      <c r="O834" s="280">
+      <c r="O834" s="370">
         <v>1375</v>
       </c>
-      <c r="P834" s="264" t="s">
+      <c r="P834" s="371" t="s">
         <v>1726</v>
       </c>
-      <c r="Q834" s="264" t="s">
+      <c r="Q834" s="371" t="s">
         <v>73</v>
       </c>
       <c r="R834" s="264" t="s">
@@ -44512,19 +44512,19 @@
       <c r="J835" s="85"/>
       <c r="K835" s="87"/>
       <c r="L835" s="87"/>
-      <c r="M835" s="518">
+      <c r="M835" s="369">
         <v>45180</v>
       </c>
-      <c r="N835" s="280" t="s">
+      <c r="N835" s="370" t="s">
         <v>27</v>
       </c>
-      <c r="O835" s="280">
+      <c r="O835" s="370">
         <v>230</v>
       </c>
-      <c r="P835" s="264" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q835" s="264" t="s">
+      <c r="P835" s="371" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q835" s="371" t="s">
         <v>1728</v>
       </c>
       <c r="R835" s="264" t="s">
@@ -44540,17 +44540,17 @@
       <c r="A836" s="153">
         <v>45180</v>
       </c>
-      <c r="B836" s="154" t="s">
+      <c r="B836" s="373" t="s">
         <v>15</v>
       </c>
-      <c r="C836" s="154" t="s">
+      <c r="C836" s="373" t="s">
         <v>1749</v>
       </c>
-      <c r="D836" s="154" t="s">
+      <c r="D836" s="373" t="s">
         <v>1748</v>
       </c>
-      <c r="E836" s="88"/>
-      <c r="F836" s="88">
+      <c r="E836" s="379"/>
+      <c r="F836" s="379">
         <v>212.3</v>
       </c>
       <c r="G836" s="53">
@@ -44562,19 +44562,19 @@
       <c r="J836" s="85"/>
       <c r="K836" s="87"/>
       <c r="L836" s="85"/>
-      <c r="M836" s="518">
+      <c r="M836" s="369">
         <v>45180</v>
       </c>
-      <c r="N836" s="280" t="s">
+      <c r="N836" s="370" t="s">
         <v>18</v>
       </c>
-      <c r="O836" s="280">
+      <c r="O836" s="370">
         <v>1393</v>
       </c>
-      <c r="P836" s="264" t="s">
+      <c r="P836" s="371" t="s">
         <v>298</v>
       </c>
-      <c r="Q836" s="264" t="s">
+      <c r="Q836" s="371" t="s">
         <v>73</v>
       </c>
       <c r="R836" s="264" t="s">
@@ -44590,17 +44590,17 @@
       <c r="A837" s="521">
         <v>45180</v>
       </c>
-      <c r="B837" s="522" t="s">
+      <c r="B837" s="555" t="s">
         <v>15</v>
       </c>
-      <c r="C837" s="522" t="s">
+      <c r="C837" s="555" t="s">
         <v>1750</v>
       </c>
-      <c r="D837" s="522" t="s">
+      <c r="D837" s="555" t="s">
         <v>789</v>
       </c>
-      <c r="E837" s="523"/>
-      <c r="F837" s="523">
+      <c r="E837" s="556"/>
+      <c r="F837" s="556">
         <v>400</v>
       </c>
       <c r="G837" s="53">
@@ -44612,19 +44612,19 @@
       <c r="J837" s="85"/>
       <c r="K837" s="87"/>
       <c r="L837" s="85"/>
-      <c r="M837" s="518">
+      <c r="M837" s="369">
         <v>45180</v>
       </c>
-      <c r="N837" s="280" t="s">
+      <c r="N837" s="370" t="s">
         <v>38</v>
       </c>
-      <c r="O837" s="280">
+      <c r="O837" s="370">
         <v>634</v>
       </c>
-      <c r="P837" s="264" t="s">
+      <c r="P837" s="371" t="s">
         <v>1462</v>
       </c>
-      <c r="Q837" s="264" t="s">
+      <c r="Q837" s="371" t="s">
         <v>73</v>
       </c>
       <c r="R837" s="264" t="s">
@@ -44640,19 +44640,19 @@
       <c r="A838" s="521">
         <v>45180</v>
       </c>
-      <c r="B838" s="522" t="s">
+      <c r="B838" s="555" t="s">
         <v>53</v>
       </c>
-      <c r="C838" s="522" t="s">
+      <c r="C838" s="555" t="s">
         <v>64</v>
       </c>
-      <c r="D838" s="522" t="s">
+      <c r="D838" s="555" t="s">
         <v>1751</v>
       </c>
-      <c r="E838" s="523">
+      <c r="E838" s="556">
         <v>455</v>
       </c>
-      <c r="F838" s="523"/>
+      <c r="F838" s="556"/>
       <c r="G838" s="53">
         <f t="shared" si="74"/>
         <v>13278.900000000001</v>
@@ -44662,19 +44662,19 @@
       <c r="J838" s="85"/>
       <c r="K838" s="87"/>
       <c r="L838" s="85"/>
-      <c r="M838" s="518">
+      <c r="M838" s="369">
         <v>45180</v>
       </c>
-      <c r="N838" s="280" t="s">
+      <c r="N838" s="370" t="s">
         <v>38</v>
       </c>
-      <c r="O838" s="280">
+      <c r="O838" s="370">
         <v>499</v>
       </c>
-      <c r="P838" s="264" t="s">
+      <c r="P838" s="371" t="s">
         <v>1170</v>
       </c>
-      <c r="Q838" s="264" t="s">
+      <c r="Q838" s="371" t="s">
         <v>73</v>
       </c>
       <c r="R838" s="264" t="s">
@@ -44690,19 +44690,19 @@
       <c r="A839" s="521">
         <v>45180</v>
       </c>
-      <c r="B839" s="522" t="s">
+      <c r="B839" s="555" t="s">
         <v>53</v>
       </c>
-      <c r="C839" s="522" t="s">
+      <c r="C839" s="555" t="s">
         <v>64</v>
       </c>
-      <c r="D839" s="522" t="s">
+      <c r="D839" s="555" t="s">
         <v>214</v>
       </c>
-      <c r="E839" s="523">
+      <c r="E839" s="556">
         <v>4771.8</v>
       </c>
-      <c r="F839" s="523"/>
+      <c r="F839" s="556"/>
       <c r="G839" s="53">
         <f>G838+E839-F839</f>
         <v>18050.7</v>
@@ -44712,19 +44712,19 @@
       <c r="J839" s="85"/>
       <c r="K839" s="87"/>
       <c r="L839" s="85"/>
-      <c r="M839" s="518">
+      <c r="M839" s="369">
         <v>45180</v>
       </c>
-      <c r="N839" s="280" t="s">
+      <c r="N839" s="370" t="s">
         <v>27</v>
       </c>
-      <c r="O839" s="280">
+      <c r="O839" s="370">
         <v>226</v>
       </c>
-      <c r="P839" s="264" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q839" s="264" t="s">
+      <c r="P839" s="371" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q839" s="371" t="s">
         <v>1733</v>
       </c>
       <c r="R839" s="264" t="s">
@@ -44740,19 +44740,19 @@
       <c r="A840" s="153">
         <v>45181</v>
       </c>
-      <c r="B840" s="154" t="s">
+      <c r="B840" s="373" t="s">
         <v>53</v>
       </c>
-      <c r="C840" s="154" t="s">
+      <c r="C840" s="373" t="s">
         <v>64</v>
       </c>
-      <c r="D840" s="156" t="s">
+      <c r="D840" s="554" t="s">
         <v>438</v>
       </c>
-      <c r="E840" s="156">
+      <c r="E840" s="554">
         <v>8451.74</v>
       </c>
-      <c r="F840" s="156"/>
+      <c r="F840" s="554"/>
       <c r="G840" s="53">
         <f>G839+E840-F840</f>
         <v>26502.440000000002</v>
@@ -44762,19 +44762,19 @@
       <c r="J840" s="85"/>
       <c r="K840" s="87"/>
       <c r="L840" s="85"/>
-      <c r="M840" s="518">
+      <c r="M840" s="369">
         <v>45181</v>
       </c>
-      <c r="N840" s="280" t="s">
+      <c r="N840" s="370" t="s">
         <v>27</v>
       </c>
-      <c r="O840" s="280">
+      <c r="O840" s="370">
         <v>226</v>
       </c>
-      <c r="P840" s="264" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q840" s="264" t="s">
+      <c r="P840" s="371" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q840" s="371" t="s">
         <v>1735</v>
       </c>
       <c r="R840" s="264" t="s">
@@ -44790,17 +44790,17 @@
       <c r="A841" s="441">
         <v>45181</v>
       </c>
-      <c r="B841" s="154" t="s">
+      <c r="B841" s="373" t="s">
         <v>15</v>
       </c>
-      <c r="C841" s="154" t="s">
+      <c r="C841" s="373" t="s">
         <v>65</v>
       </c>
-      <c r="D841" s="156" t="s">
+      <c r="D841" s="554" t="s">
         <v>251</v>
       </c>
-      <c r="E841" s="156"/>
-      <c r="F841" s="156">
+      <c r="E841" s="554"/>
+      <c r="F841" s="554">
         <v>800</v>
       </c>
       <c r="G841" s="53">
@@ -44812,19 +44812,19 @@
       <c r="J841" s="85"/>
       <c r="K841" s="87"/>
       <c r="L841" s="85"/>
-      <c r="M841" s="518">
+      <c r="M841" s="369">
         <v>45181</v>
       </c>
-      <c r="N841" s="280" t="s">
+      <c r="N841" s="370" t="s">
         <v>27</v>
       </c>
-      <c r="O841" s="280">
+      <c r="O841" s="370">
         <v>52</v>
       </c>
-      <c r="P841" s="264" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q841" s="264" t="s">
+      <c r="P841" s="371" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q841" s="371" t="s">
         <v>1737</v>
       </c>
       <c r="R841" s="264" t="s">
@@ -44862,19 +44862,19 @@
       <c r="J842" s="85"/>
       <c r="K842" s="87"/>
       <c r="L842" s="85"/>
-      <c r="M842" s="518">
+      <c r="M842" s="369">
         <v>45182</v>
       </c>
-      <c r="N842" s="280" t="s">
+      <c r="N842" s="370" t="s">
         <v>59</v>
       </c>
-      <c r="O842" s="280">
+      <c r="O842" s="370">
         <v>1392</v>
       </c>
-      <c r="P842" s="264" t="s">
+      <c r="P842" s="371" t="s">
         <v>1739</v>
       </c>
-      <c r="Q842" s="264" t="s">
+      <c r="Q842" s="371" t="s">
         <v>73</v>
       </c>
       <c r="R842" s="264" t="s">
@@ -44890,17 +44890,17 @@
       <c r="A843" s="441">
         <v>45181</v>
       </c>
-      <c r="B843" s="154" t="s">
+      <c r="B843" s="373" t="s">
         <v>15</v>
       </c>
-      <c r="C843" s="154" t="s">
+      <c r="C843" s="373" t="s">
         <v>1753</v>
       </c>
-      <c r="D843" s="156" t="s">
+      <c r="D843" s="554" t="s">
         <v>1652</v>
       </c>
-      <c r="E843" s="156"/>
-      <c r="F843" s="156">
+      <c r="E843" s="554"/>
+      <c r="F843" s="554">
         <v>100</v>
       </c>
       <c r="G843" s="53">
@@ -44912,19 +44912,19 @@
       <c r="J843" s="85"/>
       <c r="K843" s="87"/>
       <c r="L843" s="85"/>
-      <c r="M843" s="518">
+      <c r="M843" s="369">
         <v>45182</v>
       </c>
-      <c r="N843" s="280" t="s">
+      <c r="N843" s="370" t="s">
         <v>18</v>
       </c>
-      <c r="O843" s="280">
+      <c r="O843" s="370">
         <v>1395</v>
       </c>
-      <c r="P843" s="264" t="s">
+      <c r="P843" s="371" t="s">
         <v>200</v>
       </c>
-      <c r="Q843" s="264" t="s">
+      <c r="Q843" s="371" t="s">
         <v>73</v>
       </c>
       <c r="R843" s="264" t="s">
@@ -44962,19 +44962,19 @@
       <c r="J844" s="85"/>
       <c r="K844" s="87"/>
       <c r="L844" s="85"/>
-      <c r="M844" s="518">
+      <c r="M844" s="369">
         <v>45182</v>
       </c>
-      <c r="N844" s="280" t="s">
+      <c r="N844" s="370" t="s">
         <v>18</v>
       </c>
-      <c r="O844" s="280">
+      <c r="O844" s="370">
         <v>1371</v>
       </c>
-      <c r="P844" s="264" t="s">
+      <c r="P844" s="371" t="s">
         <v>1312</v>
       </c>
-      <c r="Q844" s="264" t="s">
+      <c r="Q844" s="371" t="s">
         <v>73</v>
       </c>
       <c r="R844" s="264" t="s">
@@ -44990,17 +44990,17 @@
       <c r="A845" s="441">
         <v>45181</v>
       </c>
-      <c r="B845" s="154" t="s">
+      <c r="B845" s="373" t="s">
         <v>15</v>
       </c>
-      <c r="C845" s="154" t="s">
+      <c r="C845" s="373" t="s">
         <v>1756</v>
       </c>
-      <c r="D845" s="156" t="s">
+      <c r="D845" s="554" t="s">
         <v>1397</v>
       </c>
-      <c r="E845" s="156"/>
-      <c r="F845" s="156">
+      <c r="E845" s="554"/>
+      <c r="F845" s="554">
         <v>500</v>
       </c>
       <c r="G845" s="53">
@@ -45012,19 +45012,19 @@
       <c r="J845" s="87"/>
       <c r="K845" s="87"/>
       <c r="L845" s="85"/>
-      <c r="M845" s="518">
+      <c r="M845" s="369">
         <v>45182</v>
       </c>
-      <c r="N845" s="280" t="s">
+      <c r="N845" s="370" t="s">
         <v>18</v>
       </c>
-      <c r="O845" s="280">
+      <c r="O845" s="370">
         <v>1400</v>
       </c>
-      <c r="P845" s="264" t="s">
+      <c r="P845" s="371" t="s">
         <v>200</v>
       </c>
-      <c r="Q845" s="264" t="s">
+      <c r="Q845" s="371" t="s">
         <v>73</v>
       </c>
       <c r="R845" s="264" t="s">
@@ -45062,19 +45062,19 @@
       <c r="J846" s="85"/>
       <c r="K846" s="87"/>
       <c r="L846" s="85"/>
-      <c r="M846" s="518">
+      <c r="M846" s="369">
         <v>45182</v>
       </c>
-      <c r="N846" s="280" t="s">
+      <c r="N846" s="370" t="s">
         <v>18</v>
       </c>
-      <c r="O846" s="280">
+      <c r="O846" s="370">
         <v>1399</v>
       </c>
-      <c r="P846" s="264" t="s">
+      <c r="P846" s="371" t="s">
         <v>157</v>
       </c>
-      <c r="Q846" s="264" t="s">
+      <c r="Q846" s="371" t="s">
         <v>73</v>
       </c>
       <c r="R846" s="264" t="s">
@@ -45090,19 +45090,19 @@
       <c r="A847" s="441">
         <v>45181</v>
       </c>
-      <c r="B847" s="154" t="s">
+      <c r="B847" s="373" t="s">
         <v>53</v>
       </c>
-      <c r="C847" s="154" t="s">
+      <c r="C847" s="373" t="s">
         <v>64</v>
       </c>
-      <c r="D847" s="156" t="s">
+      <c r="D847" s="554" t="s">
         <v>1759</v>
       </c>
-      <c r="E847" s="156">
+      <c r="E847" s="554">
         <v>387.78</v>
       </c>
-      <c r="F847" s="156"/>
+      <c r="F847" s="554"/>
       <c r="G847" s="53">
         <f t="shared" si="77"/>
         <v>23241.17</v>
@@ -45112,19 +45112,19 @@
       <c r="J847" s="85"/>
       <c r="K847" s="87"/>
       <c r="L847" s="87"/>
-      <c r="M847" s="518">
+      <c r="M847" s="369">
         <v>45182</v>
       </c>
-      <c r="N847" s="280" t="s">
+      <c r="N847" s="370" t="s">
         <v>18</v>
       </c>
-      <c r="O847" s="280">
+      <c r="O847" s="370">
         <v>1397</v>
       </c>
-      <c r="P847" s="264" t="s">
+      <c r="P847" s="371" t="s">
         <v>399</v>
       </c>
-      <c r="Q847" s="264" t="s">
+      <c r="Q847" s="371" t="s">
         <v>73</v>
       </c>
       <c r="R847" s="264" t="s">
@@ -45140,17 +45140,17 @@
       <c r="A848" s="441">
         <v>45182</v>
       </c>
-      <c r="B848" s="154" t="s">
+      <c r="B848" s="373" t="s">
         <v>15</v>
       </c>
-      <c r="C848" s="136" t="s">
+      <c r="C848" s="558" t="s">
         <v>1760</v>
       </c>
-      <c r="D848" s="156" t="s">
+      <c r="D848" s="554" t="s">
         <v>1657</v>
       </c>
-      <c r="E848" s="156"/>
-      <c r="F848" s="156">
+      <c r="E848" s="554"/>
+      <c r="F848" s="554">
         <v>200</v>
       </c>
       <c r="G848" s="53">
@@ -45176,17 +45176,17 @@
       <c r="A849" s="441">
         <v>45182</v>
       </c>
-      <c r="B849" s="154" t="s">
+      <c r="B849" s="373" t="s">
         <v>15</v>
       </c>
-      <c r="C849" s="154" t="s">
+      <c r="C849" s="373" t="s">
         <v>1761</v>
       </c>
-      <c r="D849" s="156" t="s">
+      <c r="D849" s="554" t="s">
         <v>1657</v>
       </c>
-      <c r="E849" s="156"/>
-      <c r="F849" s="156">
+      <c r="E849" s="554"/>
+      <c r="F849" s="554">
         <v>100</v>
       </c>
       <c r="G849" s="53">
@@ -45219,7 +45219,7 @@
         <v>1762</v>
       </c>
       <c r="D850" s="156" t="s">
-        <v>1763</v>
+        <v>1592</v>
       </c>
       <c r="E850" s="156"/>
       <c r="F850" s="156">
@@ -45252,10 +45252,10 @@
         <v>15</v>
       </c>
       <c r="C851" s="154" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D851" s="156" t="s">
-        <v>1763</v>
+        <v>1592</v>
       </c>
       <c r="E851" s="156"/>
       <c r="F851" s="156">
@@ -45281,17 +45281,25 @@
       <c r="U851" s="87"/>
     </row>
     <row r="852" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A852" s="441"/>
-      <c r="B852" s="154"/>
-      <c r="C852" s="154"/>
-      <c r="D852" s="156"/>
-      <c r="E852" s="156"/>
-      <c r="F852" s="156">
-        <v>1100</v>
+      <c r="A852" s="557">
+        <v>45149</v>
+      </c>
+      <c r="B852" s="373" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C852" s="373" t="s">
+        <v>65</v>
+      </c>
+      <c r="D852" s="554" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E852" s="554"/>
+      <c r="F852" s="554">
+        <v>1</v>
       </c>
       <c r="G852" s="53">
         <f t="shared" si="77"/>
-        <v>21221.17</v>
+        <v>22320.17</v>
       </c>
       <c r="H852" s="87"/>
       <c r="I852" s="87"/>
@@ -45314,12 +45322,10 @@
       <c r="C853" s="154"/>
       <c r="D853" s="156"/>
       <c r="E853" s="156"/>
-      <c r="F853" s="156">
-        <v>1510</v>
-      </c>
+      <c r="F853" s="156"/>
       <c r="G853" s="53">
         <f t="shared" si="77"/>
-        <v>19711.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="H853" s="87"/>
       <c r="I853" s="87"/>
@@ -45342,12 +45348,10 @@
       <c r="C854" s="154"/>
       <c r="D854" s="156"/>
       <c r="E854" s="156"/>
-      <c r="F854" s="156">
-        <v>490</v>
-      </c>
+      <c r="F854" s="156"/>
       <c r="G854" s="53">
         <f t="shared" si="77"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="H854" s="87"/>
       <c r="I854" s="87"/>
@@ -45373,7 +45377,7 @@
       <c r="F855" s="156"/>
       <c r="G855" s="53">
         <f>G854+E855-F855</f>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="H855" s="87"/>
       <c r="I855" s="87"/>
@@ -45399,7 +45403,7 @@
       <c r="F856" s="156"/>
       <c r="G856" s="53">
         <f t="shared" ref="G856:G864" si="78">G855+E856-F856</f>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="H856" s="87"/>
       <c r="I856" s="87"/>
@@ -45425,7 +45429,7 @@
       <c r="F857" s="156"/>
       <c r="G857" s="53">
         <f t="shared" si="78"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="H857" s="87"/>
       <c r="I857" s="87"/>
@@ -45451,7 +45455,7 @@
       <c r="F858" s="156"/>
       <c r="G858" s="53">
         <f t="shared" si="78"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="H858" s="87"/>
       <c r="I858" s="87"/>
@@ -45477,7 +45481,7 @@
       <c r="F859" s="156"/>
       <c r="G859" s="53">
         <f t="shared" si="78"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="H859" s="87"/>
       <c r="I859" s="87"/>
@@ -45503,7 +45507,7 @@
       <c r="F860" s="156"/>
       <c r="G860" s="53">
         <f t="shared" si="78"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="H860" s="87"/>
       <c r="I860" s="87"/>
@@ -45529,7 +45533,7 @@
       <c r="F861" s="156"/>
       <c r="G861" s="53">
         <f t="shared" si="78"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="H861" s="87"/>
       <c r="I861" s="87"/>
@@ -45555,7 +45559,7 @@
       <c r="F862" s="156"/>
       <c r="G862" s="53">
         <f t="shared" si="78"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="H862" s="87"/>
       <c r="I862" s="87"/>
@@ -45581,7 +45585,7 @@
       <c r="F863" s="156"/>
       <c r="G863" s="53">
         <f t="shared" si="78"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="H863" s="87"/>
       <c r="I863" s="87"/>
@@ -45607,7 +45611,7 @@
       <c r="F864" s="156"/>
       <c r="G864" s="53">
         <f t="shared" si="78"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="H864" s="87"/>
       <c r="I864" s="87"/>
@@ -45633,7 +45637,7 @@
       <c r="F865" s="156"/>
       <c r="G865" s="53">
         <f>G864+E865-F865</f>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="H865" s="87"/>
       <c r="I865" s="87"/>
@@ -45659,7 +45663,7 @@
       <c r="F866" s="156"/>
       <c r="G866" s="53">
         <f t="shared" ref="G866:G881" si="79">G865+E866-F866</f>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="H866" s="87"/>
       <c r="I866" s="87"/>
@@ -45685,7 +45689,7 @@
       <c r="F867" s="156"/>
       <c r="G867" s="53">
         <f t="shared" si="79"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="H867" s="87"/>
       <c r="I867" s="87"/>
@@ -45711,7 +45715,7 @@
       <c r="F868" s="156"/>
       <c r="G868" s="53">
         <f t="shared" si="79"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="H868" s="87"/>
       <c r="I868" s="87"/>
@@ -45737,7 +45741,7 @@
       <c r="F869" s="156"/>
       <c r="G869" s="53">
         <f t="shared" si="79"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="H869" s="87"/>
       <c r="I869" s="87"/>
@@ -45763,7 +45767,7 @@
       <c r="F870" s="156"/>
       <c r="G870" s="53">
         <f t="shared" si="79"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="H870" s="87"/>
       <c r="I870" s="87"/>
@@ -45789,7 +45793,7 @@
       <c r="F871" s="156"/>
       <c r="G871" s="53">
         <f t="shared" si="79"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="H871" s="87"/>
       <c r="I871" s="87"/>
@@ -45815,7 +45819,7 @@
       <c r="F872" s="156"/>
       <c r="G872" s="53">
         <f t="shared" si="79"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="H872" s="87"/>
       <c r="I872" s="87"/>
@@ -45841,7 +45845,7 @@
       <c r="F873" s="156"/>
       <c r="G873" s="53">
         <f t="shared" si="79"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="H873" s="87"/>
       <c r="I873" s="87"/>
@@ -45867,7 +45871,7 @@
       <c r="F874" s="156"/>
       <c r="G874" s="53">
         <f t="shared" si="79"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M874" s="518"/>
       <c r="N874" s="280"/>
@@ -45888,7 +45892,7 @@
       <c r="F875" s="156"/>
       <c r="G875" s="53">
         <f t="shared" si="79"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M875" s="518"/>
       <c r="N875" s="280"/>
@@ -45902,14 +45906,14 @@
     </row>
     <row r="876" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A876" s="441"/>
-      <c r="B876" s="524"/>
-      <c r="C876" s="524"/>
-      <c r="D876" s="524"/>
-      <c r="E876" s="525"/>
+      <c r="B876" s="522"/>
+      <c r="C876" s="522"/>
+      <c r="D876" s="522"/>
+      <c r="E876" s="523"/>
       <c r="F876" s="156"/>
       <c r="G876" s="53">
         <f t="shared" si="79"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M876" s="518"/>
       <c r="N876" s="280"/>
@@ -45930,7 +45934,7 @@
       <c r="F877" s="156"/>
       <c r="G877" s="53">
         <f t="shared" si="79"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M877" s="518"/>
       <c r="N877" s="280"/>
@@ -45951,7 +45955,7 @@
       <c r="F878" s="156"/>
       <c r="G878" s="53">
         <f t="shared" si="79"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M878" s="518"/>
       <c r="N878" s="280"/>
@@ -45972,7 +45976,7 @@
       <c r="F879" s="156"/>
       <c r="G879" s="53">
         <f t="shared" si="79"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M879" s="518"/>
       <c r="N879" s="280"/>
@@ -45993,7 +45997,7 @@
       <c r="F880" s="156"/>
       <c r="G880" s="53">
         <f t="shared" si="79"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M880" s="518"/>
       <c r="N880" s="280"/>
@@ -46014,7 +46018,7 @@
       <c r="F881" s="156"/>
       <c r="G881" s="53">
         <f t="shared" si="79"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M881" s="518"/>
       <c r="N881" s="280"/>
@@ -46035,7 +46039,7 @@
       <c r="F882" s="156"/>
       <c r="G882" s="53">
         <f>G881+E882-F882</f>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M882" s="518"/>
       <c r="N882" s="280"/>
@@ -46056,7 +46060,7 @@
       <c r="F883" s="156"/>
       <c r="G883" s="53">
         <f>G882+E883-F883</f>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M883" s="518"/>
       <c r="N883" s="280"/>
@@ -46077,7 +46081,7 @@
       <c r="F884" s="156"/>
       <c r="G884" s="53">
         <f t="shared" ref="G884" si="80">G883+E884-F884</f>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M884" s="518"/>
       <c r="N884" s="280"/>
@@ -46098,7 +46102,7 @@
       <c r="F885" s="156"/>
       <c r="G885" s="53">
         <f>G884+E885-F885</f>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M885" s="518"/>
       <c r="N885" s="280"/>
@@ -46119,7 +46123,7 @@
       <c r="F886" s="156"/>
       <c r="G886" s="53">
         <f>G885+E886-F886</f>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M886" s="518"/>
       <c r="N886" s="280"/>
@@ -46140,7 +46144,7 @@
       <c r="F887" s="156"/>
       <c r="G887" s="53">
         <f t="shared" ref="G887:G888" si="81">G886+E887-F887</f>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M887" s="518"/>
       <c r="N887" s="280"/>
@@ -46161,7 +46165,7 @@
       <c r="F888" s="156"/>
       <c r="G888" s="53">
         <f t="shared" si="81"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M888" s="518"/>
       <c r="N888" s="280"/>
@@ -46182,7 +46186,7 @@
       <c r="F889" s="156"/>
       <c r="G889" s="53">
         <f>G888+E889-F889</f>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M889" s="518"/>
       <c r="N889" s="280"/>
@@ -46203,7 +46207,7 @@
       <c r="F890" s="156"/>
       <c r="G890" s="53">
         <f t="shared" ref="G890:G919" si="82">G889+E890-F890</f>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M890" s="518"/>
       <c r="N890" s="280"/>
@@ -46224,7 +46228,7 @@
       <c r="F891" s="156"/>
       <c r="G891" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M891" s="518"/>
       <c r="N891" s="280"/>
@@ -46245,7 +46249,7 @@
       <c r="F892" s="156"/>
       <c r="G892" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M892" s="518"/>
       <c r="N892" s="280"/>
@@ -46266,7 +46270,7 @@
       <c r="F893" s="156"/>
       <c r="G893" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M893" s="518"/>
       <c r="N893" s="280"/>
@@ -46287,7 +46291,7 @@
       <c r="F894" s="156"/>
       <c r="G894" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M894" s="37"/>
       <c r="N894" s="38"/>
@@ -46308,7 +46312,7 @@
       <c r="F895" s="156"/>
       <c r="G895" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M895" s="37"/>
       <c r="N895" s="38"/>
@@ -46329,7 +46333,7 @@
       <c r="F896" s="156"/>
       <c r="G896" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M896" s="37"/>
       <c r="N896" s="38"/>
@@ -46350,7 +46354,7 @@
       <c r="F897" s="156"/>
       <c r="G897" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M897" s="37"/>
       <c r="N897" s="38"/>
@@ -46371,7 +46375,7 @@
       <c r="F898" s="156"/>
       <c r="G898" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M898" s="37"/>
       <c r="N898" s="38"/>
@@ -46392,7 +46396,7 @@
       <c r="F899" s="156"/>
       <c r="G899" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M899" s="37"/>
       <c r="N899" s="38"/>
@@ -46413,7 +46417,7 @@
       <c r="F900" s="156"/>
       <c r="G900" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M900" s="37"/>
       <c r="N900" s="38"/>
@@ -46434,7 +46438,7 @@
       <c r="F901" s="156"/>
       <c r="G901" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M901" s="37"/>
       <c r="N901" s="38"/>
@@ -46455,7 +46459,7 @@
       <c r="F902" s="156"/>
       <c r="G902" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M902" s="37"/>
       <c r="N902" s="38"/>
@@ -46476,7 +46480,7 @@
       <c r="F903" s="156"/>
       <c r="G903" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M903" s="519"/>
       <c r="N903" s="305"/>
@@ -46488,15 +46492,15 @@
       <c r="T903" s="305"/>
     </row>
     <row r="904" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A904" s="526"/>
-      <c r="B904" s="527"/>
-      <c r="C904" s="527"/>
-      <c r="D904" s="527"/>
-      <c r="E904" s="527"/>
-      <c r="F904" s="527"/>
+      <c r="A904" s="524"/>
+      <c r="B904" s="525"/>
+      <c r="C904" s="525"/>
+      <c r="D904" s="525"/>
+      <c r="E904" s="525"/>
+      <c r="F904" s="525"/>
       <c r="G904" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="H904" s="36"/>
       <c r="M904" s="519"/>
@@ -46517,7 +46521,7 @@
       <c r="F905" s="156"/>
       <c r="G905" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M905" s="519"/>
       <c r="N905" s="305"/>
@@ -46537,7 +46541,7 @@
       <c r="F906" s="156"/>
       <c r="G906" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M906" s="519"/>
       <c r="N906" s="305"/>
@@ -46557,7 +46561,7 @@
       <c r="F907" s="156"/>
       <c r="G907" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M907" s="519"/>
       <c r="N907" s="305"/>
@@ -46577,7 +46581,7 @@
       <c r="F908" s="156"/>
       <c r="G908" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M908" s="519"/>
       <c r="N908" s="305"/>
@@ -46597,7 +46601,7 @@
       <c r="F909" s="156"/>
       <c r="G909" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M909" s="519"/>
       <c r="N909" s="305"/>
@@ -46617,7 +46621,7 @@
       <c r="F910" s="156"/>
       <c r="G910" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M910" s="520"/>
       <c r="N910" s="378"/>
@@ -46637,7 +46641,7 @@
       <c r="F911" s="156"/>
       <c r="G911" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M911" s="520"/>
       <c r="N911" s="378"/>
@@ -46657,7 +46661,7 @@
       <c r="F912" s="156"/>
       <c r="G912" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M912" s="520"/>
       <c r="N912" s="378"/>
@@ -46677,7 +46681,7 @@
       <c r="F913" s="156"/>
       <c r="G913" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M913" s="520"/>
       <c r="N913" s="378"/>
@@ -46697,7 +46701,7 @@
       <c r="F914" s="156"/>
       <c r="G914" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M914" s="520"/>
       <c r="N914" s="378"/>
@@ -46717,7 +46721,7 @@
       <c r="F915" s="156"/>
       <c r="G915" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
       <c r="M915" s="520"/>
       <c r="N915" s="378"/>
@@ -46736,7 +46740,7 @@
       <c r="F916" s="156"/>
       <c r="G916" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
     </row>
     <row r="917" spans="1:20" x14ac:dyDescent="0.25">
@@ -46748,7 +46752,7 @@
       <c r="F917" s="156"/>
       <c r="G917" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
     </row>
     <row r="918" spans="1:20" x14ac:dyDescent="0.25">
@@ -46760,7 +46764,7 @@
       <c r="F918" s="156"/>
       <c r="G918" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
     </row>
     <row r="919" spans="1:20" x14ac:dyDescent="0.25">
@@ -46772,7 +46776,7 @@
       <c r="F919" s="157"/>
       <c r="G919" s="53">
         <f t="shared" si="82"/>
-        <v>19221.169999999998</v>
+        <v>22320.17</v>
       </c>
     </row>
   </sheetData>
@@ -46791,15 +46795,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D1" s="544" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="544"/>
-      <c r="F1" s="544"/>
-      <c r="O1" s="544" t="s">
+      <c r="D1" s="542" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="542"/>
+      <c r="F1" s="542"/>
+      <c r="O1" s="542" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="544"/>
+      <c r="P1" s="542"/>
       <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
@@ -46900,25 +46904,25 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="531" t="s">
+      <c r="M6" s="529" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="531" t="s">
+      <c r="N6" s="529" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="531" t="s">
+      <c r="O6" s="529" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="531" t="s">
+      <c r="P6" s="529" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="531" t="s">
+      <c r="Q6" s="529" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="531" t="s">
+      <c r="R6" s="529" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="531" t="s">
+      <c r="S6" s="529" t="s">
         <v>36</v>
       </c>
     </row>
@@ -46939,15 +46943,15 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="543">
+      <c r="M7" s="541">
         <v>45170</v>
       </c>
       <c r="N7" s="83"/>
-      <c r="O7" s="545" t="s">
+      <c r="O7" s="543" t="s">
         <v>1193</v>
       </c>
-      <c r="P7" s="546"/>
-      <c r="Q7" s="547"/>
+      <c r="P7" s="544"/>
+      <c r="Q7" s="545"/>
       <c r="R7" s="83">
         <v>2531.86</v>
       </c>
@@ -47215,13 +47219,13 @@
       <c r="M16" s="167"/>
       <c r="N16" s="169"/>
       <c r="O16" s="169"/>
-      <c r="P16" s="532"/>
-      <c r="Q16" s="532"/>
+      <c r="P16" s="530"/>
+      <c r="Q16" s="530"/>
       <c r="R16" s="83">
         <f t="shared" si="0"/>
         <v>2531.86</v>
       </c>
-      <c r="S16" s="532"/>
+      <c r="S16" s="530"/>
       <c r="T16" s="35"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -47362,9 +47366,9 @@
       <c r="J21" s="85"/>
       <c r="K21" s="85"/>
       <c r="L21" s="85"/>
-      <c r="M21" s="528"/>
-      <c r="N21" s="529"/>
-      <c r="O21" s="529"/>
+      <c r="M21" s="526"/>
+      <c r="N21" s="527"/>
+      <c r="O21" s="527"/>
       <c r="P21" s="116"/>
       <c r="Q21" s="116"/>
       <c r="R21" s="83">
@@ -47715,7 +47719,7 @@
         <f t="shared" si="0"/>
         <v>2531.86</v>
       </c>
-      <c r="S33" s="530"/>
+      <c r="S33" s="528"/>
       <c r="T33" s="36"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -47814,10 +47818,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E2" s="544" t="s">
+      <c r="E2" s="542" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="544"/>
+      <c r="F2" s="542"/>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
@@ -49363,13 +49367,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="549" t="s">
+      <c r="B2" s="547" t="s">
         <v>725</v>
       </c>
-      <c r="C2" s="549"/>
-      <c r="D2" s="549"/>
-      <c r="E2" s="549"/>
-      <c r="F2" s="549"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="547"/>
+      <c r="E2" s="547"/>
+      <c r="F2" s="547"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -49383,10 +49387,10 @@
       <c r="B5" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="C5" s="550" t="s">
+      <c r="C5" s="548" t="s">
         <v>730</v>
       </c>
-      <c r="D5" s="550"/>
+      <c r="D5" s="548"/>
       <c r="E5" s="1" t="s">
         <v>728</v>
       </c>
@@ -49402,10 +49406,10 @@
       <c r="B7" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="C7" s="550" t="s">
+      <c r="C7" s="548" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="550"/>
+      <c r="D7" s="548"/>
       <c r="E7" s="1" t="s">
         <v>732</v>
       </c>
@@ -49422,10 +49426,10 @@
       <c r="B8" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C8" s="548" t="s">
+      <c r="C8" s="546" t="s">
         <v>733</v>
       </c>
-      <c r="D8" s="548"/>
+      <c r="D8" s="546"/>
       <c r="E8" s="1" t="s">
         <v>734</v>
       </c>
@@ -49458,10 +49462,10 @@
       <c r="B12" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C12" s="548" t="s">
+      <c r="C12" s="546" t="s">
         <v>733</v>
       </c>
-      <c r="D12" s="548"/>
+      <c r="D12" s="546"/>
       <c r="E12" s="1" t="s">
         <v>734</v>
       </c>
@@ -49487,10 +49491,10 @@
       <c r="B16" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C16" s="548" t="s">
+      <c r="C16" s="546" t="s">
         <v>733</v>
       </c>
-      <c r="D16" s="548"/>
+      <c r="D16" s="546"/>
       <c r="E16" s="1" t="s">
         <v>734</v>
       </c>

--- a/DOC 2023/BANCOS.xlsx
+++ b/DOC 2023/BANCOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB4309B-9F21-436D-8ECF-B6325800D083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58489A72-E59B-4392-A5F9-BFA173C6CC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOLIVARIANO" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5851" uniqueCount="1764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5938" uniqueCount="1790">
   <si>
     <t>ABRILTRANS S.A</t>
   </si>
@@ -5324,6 +5324,84 @@
   </si>
   <si>
     <t>CH1402</t>
+  </si>
+  <si>
+    <t>376.20</t>
+  </si>
+  <si>
+    <t>26,188.01</t>
+  </si>
+  <si>
+    <t>26,336.51</t>
+  </si>
+  <si>
+    <t>238.56</t>
+  </si>
+  <si>
+    <t>26,097.95</t>
+  </si>
+  <si>
+    <t>24,097.95</t>
+  </si>
+  <si>
+    <t>23,877.95</t>
+  </si>
+  <si>
+    <t>23,477.95</t>
+  </si>
+  <si>
+    <t>21,877.95</t>
+  </si>
+  <si>
+    <t>20,793.38</t>
+  </si>
+  <si>
+    <t>TRANSTAIRNERCOR</t>
+  </si>
+  <si>
+    <t>CH1404</t>
+  </si>
+  <si>
+    <t>CH1406</t>
+  </si>
+  <si>
+    <t>CHANGOLUISA</t>
+  </si>
+  <si>
+    <t>CH1407</t>
+  </si>
+  <si>
+    <t>COTRANPECC CIA</t>
+  </si>
+  <si>
+    <t>CH1408</t>
+  </si>
+  <si>
+    <t>CH1409</t>
+  </si>
+  <si>
+    <t>CH1410</t>
+  </si>
+  <si>
+    <t>CH1411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRILTRANS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVI BANCOS </t>
+  </si>
+  <si>
+    <t>UNIVIAST</t>
+  </si>
+  <si>
+    <t>PAGO PRESTAMOS</t>
+  </si>
+  <si>
+    <t>ABRILTRANS</t>
+  </si>
+  <si>
+    <t>UNIVIAS</t>
   </si>
 </sst>
 </file>
@@ -5766,7 +5844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="559">
+  <cellXfs count="560">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7142,6 +7220,9 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8568,6 +8649,67 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>847</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>847</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagen 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A565B9A-669B-4238-BE2C-74D29A026CA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="162525075"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>848</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -8579,10 +8721,376 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Imagen 24">
+        <xdr:cNvPr id="26" name="Imagen 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A565B9A-669B-4238-BE2C-74D29A026CA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CAF0492-19A4-48F0-81E0-B4CF90B9F539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="162725100"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>849</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>849</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagen 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B435A3EF-C0A5-4D26-AF31-40F11105D769}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="162925125"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>850</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>850</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Imagen 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B30C751-65C7-42D5-9110-642218BCB6CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="163125150"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>851</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>851</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Imagen 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{195432A4-8158-488F-A296-771E86AFA05A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="163325175"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>851</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>851</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Imagen 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219CAEFE-778B-44AA-8AAB-11DCA7E33C99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="163525200"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>847</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>847</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Imagen 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F71CDD3-ECD8-4C53-8A0C-6324E8726F5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="162325050"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>848</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>848</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Imagen 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1EB82D-B4CD-4343-9AEB-C6F618E30D5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8640,10 +9148,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Imagen 25">
+        <xdr:cNvPr id="33" name="Imagen 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CAF0492-19A4-48F0-81E0-B4CF90B9F539}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B6A66B4-8538-48F7-AA48-C9E7ADFA788B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8690,21 +9198,21 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>850</xdr:row>
+      <xdr:row>851</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>850</xdr:row>
+      <xdr:row>851</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Imagen 26">
+        <xdr:cNvPr id="34" name="Imagen 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B435A3EF-C0A5-4D26-AF31-40F11105D769}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80BC7A8-4494-46D3-A6C4-84349E66AE05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8727,68 +9235,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15001875" y="162925125"/>
-          <a:ext cx="247650" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>851</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>851</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Imagen 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B30C751-65C7-42D5-9110-642218BCB6CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="15001875" y="163125150"/>
+          <a:off x="15001875" y="163315650"/>
           <a:ext cx="247650" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8823,10 +9270,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Imagen 28">
+        <xdr:cNvPr id="35" name="Imagen 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{195432A4-8158-488F-A296-771E86AFA05A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611D7953-1CE6-4D62-8966-E59F81401D48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8849,7 +9296,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15001875" y="163325175"/>
+          <a:off x="15001875" y="163515675"/>
           <a:ext cx="247650" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8884,10 +9331,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Imagen 29">
+        <xdr:cNvPr id="36" name="Imagen 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219CAEFE-778B-44AA-8AAB-11DCA7E33C99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA334EB5-9C3F-4829-80AB-C2920AB0EBC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8910,7 +9357,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15001875" y="163525200"/>
+          <a:off x="15001875" y="163715700"/>
           <a:ext cx="247650" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9232,8 +9679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B836" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="J847" sqref="J847"/>
+    <sheetView topLeftCell="A845" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="H855" sqref="H855"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44940,17 +45387,17 @@
       <c r="A844" s="441">
         <v>45181</v>
       </c>
-      <c r="B844" s="154" t="s">
+      <c r="B844" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="C844" s="154" t="s">
+      <c r="C844" s="225" t="s">
         <v>1754</v>
       </c>
-      <c r="D844" s="156" t="s">
+      <c r="D844" s="226" t="s">
         <v>1755</v>
       </c>
-      <c r="E844" s="156"/>
-      <c r="F844" s="156">
+      <c r="E844" s="226"/>
+      <c r="F844" s="226">
         <v>238.56</v>
       </c>
       <c r="G844" s="53">
@@ -45040,17 +45487,17 @@
       <c r="A846" s="441">
         <v>45181</v>
       </c>
-      <c r="B846" s="154" t="s">
+      <c r="B846" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="C846" s="154" t="s">
+      <c r="C846" s="225" t="s">
         <v>1757</v>
       </c>
-      <c r="D846" s="156" t="s">
+      <c r="D846" s="226" t="s">
         <v>1758</v>
       </c>
-      <c r="E846" s="156"/>
-      <c r="F846" s="156">
+      <c r="E846" s="226"/>
+      <c r="F846" s="226">
         <v>2000</v>
       </c>
       <c r="G846" s="53">
@@ -45162,14 +45609,28 @@
       <c r="J848" s="85"/>
       <c r="K848" s="87"/>
       <c r="L848" s="85"/>
-      <c r="M848" s="518"/>
-      <c r="N848" s="280"/>
-      <c r="O848" s="280"/>
-      <c r="P848" s="264"/>
-      <c r="Q848" s="264"/>
-      <c r="R848" s="264"/>
-      <c r="S848" s="264"/>
-      <c r="T848" s="280"/>
+      <c r="M848" s="350">
+        <v>45182</v>
+      </c>
+      <c r="N848" s="351" t="s">
+        <v>27</v>
+      </c>
+      <c r="O848" s="351">
+        <v>903</v>
+      </c>
+      <c r="P848" s="352" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q848" s="352" t="s">
+        <v>1764</v>
+      </c>
+      <c r="R848" s="306" t="s">
+        <v>1765</v>
+      </c>
+      <c r="S848" s="306" t="s">
+        <v>1765</v>
+      </c>
+      <c r="T848" s="305"/>
       <c r="U848" s="87"/>
     </row>
     <row r="849" spans="1:21" x14ac:dyDescent="0.25">
@@ -45198,31 +45659,45 @@
       <c r="J849" s="85"/>
       <c r="K849" s="87"/>
       <c r="L849" s="85"/>
-      <c r="M849" s="518"/>
-      <c r="N849" s="280"/>
-      <c r="O849" s="280"/>
-      <c r="P849" s="264"/>
-      <c r="Q849" s="264"/>
-      <c r="R849" s="264"/>
-      <c r="S849" s="264"/>
-      <c r="T849" s="280"/>
+      <c r="M849" s="350">
+        <v>45182</v>
+      </c>
+      <c r="N849" s="351" t="s">
+        <v>27</v>
+      </c>
+      <c r="O849" s="351">
+        <v>230</v>
+      </c>
+      <c r="P849" s="352" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q849" s="352" t="s">
+        <v>1302</v>
+      </c>
+      <c r="R849" s="306" t="s">
+        <v>1766</v>
+      </c>
+      <c r="S849" s="306" t="s">
+        <v>1766</v>
+      </c>
+      <c r="T849" s="305"/>
       <c r="U849" s="87"/>
     </row>
     <row r="850" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A850" s="441">
         <v>45182</v>
       </c>
-      <c r="B850" s="154" t="s">
+      <c r="B850" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="C850" s="154" t="s">
+      <c r="C850" s="225" t="s">
         <v>1762</v>
       </c>
-      <c r="D850" s="156" t="s">
+      <c r="D850" s="226" t="s">
         <v>1592</v>
       </c>
-      <c r="E850" s="156"/>
-      <c r="F850" s="156">
+      <c r="E850" s="226"/>
+      <c r="F850" s="226">
         <v>220</v>
       </c>
       <c r="G850" s="53">
@@ -45234,31 +45709,45 @@
       <c r="J850" s="85"/>
       <c r="K850" s="87"/>
       <c r="L850" s="85"/>
-      <c r="M850" s="518"/>
-      <c r="N850" s="280"/>
-      <c r="O850" s="280"/>
-      <c r="P850" s="264"/>
-      <c r="Q850" s="264"/>
-      <c r="R850" s="264"/>
-      <c r="S850" s="264"/>
-      <c r="T850" s="280"/>
+      <c r="M850" s="350">
+        <v>45183</v>
+      </c>
+      <c r="N850" s="351" t="s">
+        <v>59</v>
+      </c>
+      <c r="O850" s="351">
+        <v>1396</v>
+      </c>
+      <c r="P850" s="352" t="s">
+        <v>1767</v>
+      </c>
+      <c r="Q850" s="352" t="s">
+        <v>73</v>
+      </c>
+      <c r="R850" s="306" t="s">
+        <v>1768</v>
+      </c>
+      <c r="S850" s="306" t="s">
+        <v>1768</v>
+      </c>
+      <c r="T850" s="305"/>
       <c r="U850" s="87"/>
     </row>
     <row r="851" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A851" s="441">
         <v>45182</v>
       </c>
-      <c r="B851" s="154" t="s">
+      <c r="B851" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="C851" s="154" t="s">
+      <c r="C851" s="225" t="s">
         <v>1763</v>
       </c>
-      <c r="D851" s="156" t="s">
+      <c r="D851" s="226" t="s">
         <v>1592</v>
       </c>
-      <c r="E851" s="156"/>
-      <c r="F851" s="156">
+      <c r="E851" s="226"/>
+      <c r="F851" s="226">
         <v>400</v>
       </c>
       <c r="G851" s="53">
@@ -45270,14 +45759,28 @@
       <c r="J851" s="85"/>
       <c r="K851" s="87"/>
       <c r="L851" s="85"/>
-      <c r="M851" s="518"/>
-      <c r="N851" s="280"/>
-      <c r="O851" s="280"/>
-      <c r="P851" s="264"/>
-      <c r="Q851" s="264"/>
-      <c r="R851" s="264"/>
-      <c r="S851" s="264"/>
-      <c r="T851" s="280"/>
+      <c r="M851" s="350">
+        <v>45183</v>
+      </c>
+      <c r="N851" s="351" t="s">
+        <v>59</v>
+      </c>
+      <c r="O851" s="351">
+        <v>1398</v>
+      </c>
+      <c r="P851" s="352" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q851" s="352" t="s">
+        <v>73</v>
+      </c>
+      <c r="R851" s="306" t="s">
+        <v>1769</v>
+      </c>
+      <c r="S851" s="306" t="s">
+        <v>1769</v>
+      </c>
+      <c r="T851" s="305"/>
       <c r="U851" s="87"/>
     </row>
     <row r="852" spans="1:21" x14ac:dyDescent="0.25">
@@ -45306,248 +45809,394 @@
       <c r="J852" s="85"/>
       <c r="K852" s="87"/>
       <c r="L852" s="85"/>
-      <c r="M852" s="518"/>
-      <c r="N852" s="280"/>
-      <c r="O852" s="280"/>
-      <c r="P852" s="264"/>
-      <c r="Q852" s="264"/>
-      <c r="R852" s="264"/>
-      <c r="S852" s="264"/>
-      <c r="T852" s="280"/>
+      <c r="M852" s="350">
+        <v>45183</v>
+      </c>
+      <c r="N852" s="351" t="s">
+        <v>18</v>
+      </c>
+      <c r="O852" s="351">
+        <v>1401</v>
+      </c>
+      <c r="P852" s="352" t="s">
+        <v>1136</v>
+      </c>
+      <c r="Q852" s="352" t="s">
+        <v>73</v>
+      </c>
+      <c r="R852" s="306" t="s">
+        <v>1770</v>
+      </c>
+      <c r="S852" s="306" t="s">
+        <v>1770</v>
+      </c>
+      <c r="T852" s="305"/>
       <c r="U852" s="87"/>
     </row>
     <row r="853" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A853" s="441"/>
-      <c r="B853" s="154"/>
-      <c r="C853" s="154"/>
-      <c r="D853" s="156"/>
-      <c r="E853" s="156"/>
-      <c r="F853" s="156"/>
+      <c r="A853" s="354">
+        <v>45182</v>
+      </c>
+      <c r="B853" s="225" t="s">
+        <v>53</v>
+      </c>
+      <c r="C853" s="225" t="s">
+        <v>64</v>
+      </c>
+      <c r="D853" s="226" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E853" s="226">
+        <v>376</v>
+      </c>
+      <c r="F853" s="226"/>
       <c r="G853" s="53">
         <f t="shared" si="77"/>
-        <v>22320.17</v>
+        <v>22696.17</v>
       </c>
       <c r="H853" s="87"/>
       <c r="I853" s="87"/>
       <c r="J853" s="85"/>
       <c r="K853" s="87"/>
       <c r="L853" s="85"/>
-      <c r="M853" s="518"/>
-      <c r="N853" s="280"/>
-      <c r="O853" s="280"/>
-      <c r="P853" s="264"/>
-      <c r="Q853" s="264"/>
-      <c r="R853" s="264"/>
-      <c r="S853" s="264"/>
-      <c r="T853" s="280"/>
+      <c r="M853" s="350">
+        <v>45183</v>
+      </c>
+      <c r="N853" s="351" t="s">
+        <v>18</v>
+      </c>
+      <c r="O853" s="351">
+        <v>1402</v>
+      </c>
+      <c r="P853" s="352" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q853" s="352" t="s">
+        <v>73</v>
+      </c>
+      <c r="R853" s="306" t="s">
+        <v>1771</v>
+      </c>
+      <c r="S853" s="306" t="s">
+        <v>1771</v>
+      </c>
+      <c r="T853" s="305"/>
       <c r="U853" s="87"/>
     </row>
     <row r="854" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A854" s="441"/>
-      <c r="B854" s="154"/>
-      <c r="C854" s="154"/>
-      <c r="D854" s="156"/>
-      <c r="E854" s="156"/>
-      <c r="F854" s="156"/>
+      <c r="A854" s="354">
+        <v>45182</v>
+      </c>
+      <c r="B854" s="225" t="s">
+        <v>53</v>
+      </c>
+      <c r="C854" s="225" t="s">
+        <v>64</v>
+      </c>
+      <c r="D854" s="226" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E854" s="226">
+        <v>148.5</v>
+      </c>
+      <c r="F854" s="226"/>
       <c r="G854" s="53">
         <f t="shared" si="77"/>
-        <v>22320.17</v>
+        <v>22844.67</v>
       </c>
       <c r="H854" s="87"/>
       <c r="I854" s="87"/>
       <c r="J854" s="85"/>
       <c r="K854" s="87"/>
       <c r="L854" s="85"/>
-      <c r="M854" s="518"/>
-      <c r="N854" s="280"/>
-      <c r="O854" s="280"/>
-      <c r="P854" s="264"/>
-      <c r="Q854" s="264"/>
-      <c r="R854" s="264"/>
-      <c r="S854" s="264"/>
-      <c r="T854" s="280"/>
+      <c r="M854" s="350">
+        <v>45183</v>
+      </c>
+      <c r="N854" s="351" t="s">
+        <v>18</v>
+      </c>
+      <c r="O854" s="351">
+        <v>1408</v>
+      </c>
+      <c r="P854" s="352" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q854" s="352" t="s">
+        <v>73</v>
+      </c>
+      <c r="R854" s="306" t="s">
+        <v>1772</v>
+      </c>
+      <c r="S854" s="306" t="s">
+        <v>1772</v>
+      </c>
+      <c r="T854" s="305"/>
       <c r="U854" s="87"/>
     </row>
     <row r="855" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A855" s="441"/>
-      <c r="B855" s="154"/>
-      <c r="C855" s="136"/>
-      <c r="D855" s="156"/>
+      <c r="A855" s="441">
+        <v>45183</v>
+      </c>
+      <c r="B855" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C855" s="136" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D855" s="156" t="s">
+        <v>1748</v>
+      </c>
       <c r="E855" s="156"/>
-      <c r="F855" s="156"/>
+      <c r="F855" s="156">
+        <v>312.08999999999997</v>
+      </c>
       <c r="G855" s="53">
         <f>G854+E855-F855</f>
-        <v>22320.17</v>
+        <v>22532.579999999998</v>
       </c>
       <c r="H855" s="87"/>
       <c r="I855" s="87"/>
       <c r="J855" s="85"/>
       <c r="K855" s="87"/>
       <c r="L855" s="85"/>
-      <c r="M855" s="518"/>
-      <c r="N855" s="280"/>
-      <c r="O855" s="280"/>
-      <c r="P855" s="264"/>
-      <c r="Q855" s="264"/>
-      <c r="R855" s="264"/>
-      <c r="S855" s="264"/>
-      <c r="T855" s="280"/>
+      <c r="M855" s="350">
+        <v>45183</v>
+      </c>
+      <c r="N855" s="351" t="s">
+        <v>18</v>
+      </c>
+      <c r="O855" s="351">
+        <v>1410</v>
+      </c>
+      <c r="P855" s="352" t="s">
+        <v>1502</v>
+      </c>
+      <c r="Q855" s="352" t="s">
+        <v>73</v>
+      </c>
+      <c r="R855" s="306" t="s">
+        <v>1773</v>
+      </c>
+      <c r="S855" s="306" t="s">
+        <v>1773</v>
+      </c>
+      <c r="T855" s="305"/>
       <c r="U855" s="87"/>
     </row>
     <row r="856" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A856" s="441"/>
-      <c r="B856" s="154"/>
-      <c r="C856" s="154"/>
-      <c r="D856" s="154"/>
+      <c r="A856" s="441">
+        <v>45183</v>
+      </c>
+      <c r="B856" s="155" t="s">
+        <v>15</v>
+      </c>
+      <c r="C856" s="154" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D856" s="154" t="s">
+        <v>1777</v>
+      </c>
       <c r="E856" s="156"/>
-      <c r="F856" s="156"/>
+      <c r="F856" s="156">
+        <v>1510</v>
+      </c>
       <c r="G856" s="53">
         <f t="shared" ref="G856:G864" si="78">G855+E856-F856</f>
-        <v>22320.17</v>
+        <v>21022.579999999998</v>
       </c>
       <c r="H856" s="87"/>
       <c r="I856" s="87"/>
       <c r="J856" s="85"/>
       <c r="K856" s="87"/>
       <c r="L856" s="85"/>
-      <c r="M856" s="518"/>
-      <c r="N856" s="280"/>
-      <c r="O856" s="280"/>
-      <c r="P856" s="264"/>
-      <c r="Q856" s="264"/>
-      <c r="R856" s="264"/>
-      <c r="S856" s="264"/>
-      <c r="T856" s="280"/>
+      <c r="M856" s="519"/>
+      <c r="N856" s="305"/>
+      <c r="O856" s="305"/>
+      <c r="P856" s="306"/>
+      <c r="Q856" s="306"/>
+      <c r="R856" s="306"/>
+      <c r="S856" s="306"/>
+      <c r="T856" s="305"/>
       <c r="U856" s="87"/>
     </row>
     <row r="857" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A857" s="441"/>
-      <c r="B857" s="154"/>
-      <c r="C857" s="136"/>
-      <c r="D857" s="154"/>
+      <c r="A857" s="441">
+        <v>45183</v>
+      </c>
+      <c r="B857" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C857" s="136" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D857" s="154" t="s">
+        <v>1779</v>
+      </c>
       <c r="E857" s="156"/>
-      <c r="F857" s="156"/>
+      <c r="F857" s="156">
+        <v>490</v>
+      </c>
       <c r="G857" s="53">
         <f t="shared" si="78"/>
-        <v>22320.17</v>
+        <v>20532.579999999998</v>
       </c>
       <c r="H857" s="87"/>
       <c r="I857" s="87"/>
       <c r="J857" s="87"/>
       <c r="K857" s="87"/>
       <c r="L857" s="85"/>
-      <c r="M857" s="518"/>
-      <c r="N857" s="280"/>
-      <c r="O857" s="280"/>
-      <c r="P857" s="264"/>
-      <c r="Q857" s="264"/>
-      <c r="R857" s="264"/>
-      <c r="S857" s="264"/>
-      <c r="T857" s="443"/>
+      <c r="M857" s="519"/>
+      <c r="N857" s="305"/>
+      <c r="O857" s="305"/>
+      <c r="P857" s="306"/>
+      <c r="Q857" s="306"/>
+      <c r="R857" s="306"/>
+      <c r="S857" s="306"/>
+      <c r="T857" s="305"/>
       <c r="U857" s="87"/>
     </row>
     <row r="858" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A858" s="441"/>
-      <c r="B858" s="154"/>
-      <c r="C858" s="154"/>
-      <c r="D858" s="154"/>
-      <c r="E858" s="156"/>
-      <c r="F858" s="156"/>
+      <c r="A858" s="354">
+        <v>45183</v>
+      </c>
+      <c r="B858" s="225" t="s">
+        <v>15</v>
+      </c>
+      <c r="C858" s="225" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D858" s="225" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E858" s="226"/>
+      <c r="F858" s="226">
+        <v>1600</v>
+      </c>
       <c r="G858" s="53">
         <f t="shared" si="78"/>
-        <v>22320.17</v>
+        <v>18932.579999999998</v>
       </c>
       <c r="H858" s="87"/>
       <c r="I858" s="87"/>
       <c r="J858" s="87"/>
       <c r="K858" s="87"/>
       <c r="L858" s="85"/>
-      <c r="M858" s="518"/>
-      <c r="N858" s="280"/>
-      <c r="O858" s="280"/>
-      <c r="P858" s="264"/>
-      <c r="Q858" s="264"/>
-      <c r="R858" s="264"/>
-      <c r="S858" s="264"/>
-      <c r="T858" s="443"/>
+      <c r="M858" s="519"/>
+      <c r="N858" s="305"/>
+      <c r="O858" s="305"/>
+      <c r="P858" s="306"/>
+      <c r="Q858" s="306"/>
+      <c r="R858" s="306"/>
+      <c r="S858" s="306"/>
+      <c r="T858" s="305"/>
       <c r="U858" s="87"/>
     </row>
     <row r="859" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A859" s="441"/>
-      <c r="B859" s="154"/>
-      <c r="C859" s="154"/>
-      <c r="D859" s="154"/>
+      <c r="A859" s="441">
+        <v>45183</v>
+      </c>
+      <c r="B859" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C859" s="154" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D859" s="154" t="s">
+        <v>251</v>
+      </c>
       <c r="E859" s="156"/>
-      <c r="F859" s="156"/>
+      <c r="F859" s="156">
+        <v>3009.94</v>
+      </c>
       <c r="G859" s="53">
         <f t="shared" si="78"/>
-        <v>22320.17</v>
+        <v>15922.639999999998</v>
       </c>
       <c r="H859" s="87"/>
       <c r="I859" s="87"/>
       <c r="J859" s="87"/>
       <c r="K859" s="87"/>
       <c r="L859" s="87"/>
-      <c r="M859" s="518"/>
-      <c r="N859" s="280"/>
-      <c r="O859" s="280"/>
-      <c r="P859" s="264"/>
-      <c r="Q859" s="264"/>
-      <c r="R859" s="264"/>
-      <c r="S859" s="264"/>
-      <c r="T859" s="443"/>
+      <c r="M859" s="519"/>
+      <c r="N859" s="305"/>
+      <c r="O859" s="305"/>
+      <c r="P859" s="306"/>
+      <c r="Q859" s="306"/>
+      <c r="R859" s="306"/>
+      <c r="S859" s="306"/>
+      <c r="T859" s="305"/>
       <c r="U859" s="87"/>
     </row>
     <row r="860" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A860" s="441"/>
-      <c r="B860" s="154"/>
-      <c r="C860" s="154"/>
-      <c r="D860" s="154"/>
-      <c r="E860" s="156"/>
-      <c r="F860" s="156"/>
+      <c r="A860" s="354">
+        <v>45183</v>
+      </c>
+      <c r="B860" s="225" t="s">
+        <v>15</v>
+      </c>
+      <c r="C860" s="225" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D860" s="225" t="s">
+        <v>436</v>
+      </c>
+      <c r="E860" s="226"/>
+      <c r="F860" s="226">
+        <v>1084.57</v>
+      </c>
       <c r="G860" s="53">
         <f t="shared" si="78"/>
-        <v>22320.17</v>
+        <v>14838.069999999998</v>
       </c>
       <c r="H860" s="87"/>
       <c r="I860" s="87"/>
       <c r="J860" s="87"/>
       <c r="K860" s="87"/>
       <c r="L860" s="87"/>
-      <c r="M860" s="518"/>
-      <c r="N860" s="280"/>
-      <c r="O860" s="280"/>
-      <c r="P860" s="264"/>
-      <c r="Q860" s="264"/>
-      <c r="R860" s="264"/>
-      <c r="S860" s="264"/>
-      <c r="T860" s="443"/>
+      <c r="M860" s="519"/>
+      <c r="N860" s="305"/>
+      <c r="O860" s="305"/>
+      <c r="P860" s="306"/>
+      <c r="Q860" s="306"/>
+      <c r="R860" s="306"/>
+      <c r="S860" s="306"/>
+      <c r="T860" s="305"/>
       <c r="U860" s="87"/>
     </row>
     <row r="861" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A861" s="441"/>
-      <c r="B861" s="154"/>
-      <c r="C861" s="154"/>
-      <c r="D861" s="154"/>
+      <c r="A861" s="441">
+        <v>45183</v>
+      </c>
+      <c r="B861" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C861" s="154" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D861" s="154" t="s">
+        <v>1712</v>
+      </c>
       <c r="E861" s="156"/>
-      <c r="F861" s="156"/>
+      <c r="F861" s="156">
+        <v>670.54</v>
+      </c>
       <c r="G861" s="53">
         <f t="shared" si="78"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="H861" s="87"/>
       <c r="I861" s="87"/>
       <c r="J861" s="87"/>
       <c r="K861" s="87"/>
       <c r="L861" s="87"/>
-      <c r="M861" s="518"/>
-      <c r="N861" s="280"/>
-      <c r="O861" s="280"/>
-      <c r="P861" s="264"/>
-      <c r="Q861" s="264"/>
-      <c r="R861" s="264"/>
-      <c r="S861" s="264"/>
-      <c r="T861" s="443"/>
+      <c r="M861" s="519"/>
+      <c r="N861" s="305"/>
+      <c r="O861" s="305"/>
+      <c r="P861" s="306"/>
+      <c r="Q861" s="306"/>
+      <c r="R861" s="306"/>
+      <c r="S861" s="306"/>
+      <c r="T861" s="305"/>
       <c r="U861" s="87"/>
     </row>
     <row r="862" spans="1:21" x14ac:dyDescent="0.25">
@@ -45559,21 +46208,21 @@
       <c r="F862" s="156"/>
       <c r="G862" s="53">
         <f t="shared" si="78"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="H862" s="87"/>
       <c r="I862" s="87"/>
       <c r="J862" s="87"/>
       <c r="K862" s="87"/>
       <c r="L862" s="87"/>
-      <c r="M862" s="518"/>
-      <c r="N862" s="280"/>
-      <c r="O862" s="280"/>
-      <c r="P862" s="264"/>
-      <c r="Q862" s="264"/>
-      <c r="R862" s="264"/>
-      <c r="S862" s="264"/>
-      <c r="T862" s="443"/>
+      <c r="M862" s="519"/>
+      <c r="N862" s="305"/>
+      <c r="O862" s="305"/>
+      <c r="P862" s="306"/>
+      <c r="Q862" s="306"/>
+      <c r="R862" s="306"/>
+      <c r="S862" s="306"/>
+      <c r="T862" s="305"/>
       <c r="U862" s="87"/>
     </row>
     <row r="863" spans="1:21" x14ac:dyDescent="0.25">
@@ -45585,7 +46234,7 @@
       <c r="F863" s="156"/>
       <c r="G863" s="53">
         <f t="shared" si="78"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="H863" s="87"/>
       <c r="I863" s="87"/>
@@ -45599,7 +46248,7 @@
       <c r="Q863" s="264"/>
       <c r="R863" s="264"/>
       <c r="S863" s="264"/>
-      <c r="T863" s="501"/>
+      <c r="T863" s="443"/>
       <c r="U863" s="87"/>
     </row>
     <row r="864" spans="1:21" x14ac:dyDescent="0.25">
@@ -45611,7 +46260,7 @@
       <c r="F864" s="156"/>
       <c r="G864" s="53">
         <f t="shared" si="78"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="H864" s="87"/>
       <c r="I864" s="87"/>
@@ -45637,7 +46286,7 @@
       <c r="F865" s="156"/>
       <c r="G865" s="53">
         <f>G864+E865-F865</f>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="H865" s="87"/>
       <c r="I865" s="87"/>
@@ -45663,7 +46312,7 @@
       <c r="F866" s="156"/>
       <c r="G866" s="53">
         <f t="shared" ref="G866:G881" si="79">G865+E866-F866</f>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="H866" s="87"/>
       <c r="I866" s="87"/>
@@ -45689,7 +46338,7 @@
       <c r="F867" s="156"/>
       <c r="G867" s="53">
         <f t="shared" si="79"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="H867" s="87"/>
       <c r="I867" s="87"/>
@@ -45715,7 +46364,7 @@
       <c r="F868" s="156"/>
       <c r="G868" s="53">
         <f t="shared" si="79"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="H868" s="87"/>
       <c r="I868" s="87"/>
@@ -45741,7 +46390,7 @@
       <c r="F869" s="156"/>
       <c r="G869" s="53">
         <f t="shared" si="79"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="H869" s="87"/>
       <c r="I869" s="87"/>
@@ -45755,7 +46404,7 @@
       <c r="Q869" s="264"/>
       <c r="R869" s="264"/>
       <c r="S869" s="264"/>
-      <c r="T869" s="443"/>
+      <c r="T869" s="501"/>
       <c r="U869" s="87"/>
     </row>
     <row r="870" spans="1:21" x14ac:dyDescent="0.25">
@@ -45767,7 +46416,7 @@
       <c r="F870" s="156"/>
       <c r="G870" s="53">
         <f t="shared" si="79"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="H870" s="87"/>
       <c r="I870" s="87"/>
@@ -45781,7 +46430,7 @@
       <c r="Q870" s="264"/>
       <c r="R870" s="264"/>
       <c r="S870" s="264"/>
-      <c r="T870" s="443"/>
+      <c r="T870" s="504"/>
       <c r="U870" s="87"/>
     </row>
     <row r="871" spans="1:21" x14ac:dyDescent="0.25">
@@ -45793,7 +46442,7 @@
       <c r="F871" s="156"/>
       <c r="G871" s="53">
         <f t="shared" si="79"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="H871" s="87"/>
       <c r="I871" s="87"/>
@@ -45807,7 +46456,7 @@
       <c r="Q871" s="264"/>
       <c r="R871" s="264"/>
       <c r="S871" s="264"/>
-      <c r="T871" s="501"/>
+      <c r="T871" s="505"/>
       <c r="U871" s="87"/>
     </row>
     <row r="872" spans="1:21" x14ac:dyDescent="0.25">
@@ -45819,7 +46468,7 @@
       <c r="F872" s="156"/>
       <c r="G872" s="53">
         <f t="shared" si="79"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="H872" s="87"/>
       <c r="I872" s="87"/>
@@ -45833,7 +46482,7 @@
       <c r="Q872" s="264"/>
       <c r="R872" s="264"/>
       <c r="S872" s="264"/>
-      <c r="T872" s="504"/>
+      <c r="T872" s="505"/>
       <c r="U872" s="87"/>
     </row>
     <row r="873" spans="1:21" x14ac:dyDescent="0.25">
@@ -45845,7 +46494,7 @@
       <c r="F873" s="156"/>
       <c r="G873" s="53">
         <f t="shared" si="79"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="H873" s="87"/>
       <c r="I873" s="87"/>
@@ -45871,7 +46520,7 @@
       <c r="F874" s="156"/>
       <c r="G874" s="53">
         <f t="shared" si="79"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M874" s="518"/>
       <c r="N874" s="280"/>
@@ -45892,7 +46541,7 @@
       <c r="F875" s="156"/>
       <c r="G875" s="53">
         <f t="shared" si="79"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M875" s="518"/>
       <c r="N875" s="280"/>
@@ -45913,7 +46562,7 @@
       <c r="F876" s="156"/>
       <c r="G876" s="53">
         <f t="shared" si="79"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M876" s="518"/>
       <c r="N876" s="280"/>
@@ -45934,7 +46583,7 @@
       <c r="F877" s="156"/>
       <c r="G877" s="53">
         <f t="shared" si="79"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M877" s="518"/>
       <c r="N877" s="280"/>
@@ -45955,7 +46604,7 @@
       <c r="F878" s="156"/>
       <c r="G878" s="53">
         <f t="shared" si="79"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M878" s="518"/>
       <c r="N878" s="280"/>
@@ -45976,7 +46625,7 @@
       <c r="F879" s="156"/>
       <c r="G879" s="53">
         <f t="shared" si="79"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M879" s="518"/>
       <c r="N879" s="280"/>
@@ -45997,7 +46646,7 @@
       <c r="F880" s="156"/>
       <c r="G880" s="53">
         <f t="shared" si="79"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M880" s="518"/>
       <c r="N880" s="280"/>
@@ -46018,7 +46667,7 @@
       <c r="F881" s="156"/>
       <c r="G881" s="53">
         <f t="shared" si="79"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M881" s="518"/>
       <c r="N881" s="280"/>
@@ -46027,7 +46676,7 @@
       <c r="Q881" s="264"/>
       <c r="R881" s="264"/>
       <c r="S881" s="264"/>
-      <c r="T881" s="505"/>
+      <c r="T881" s="500"/>
       <c r="U881" s="87"/>
     </row>
     <row r="882" spans="1:21" x14ac:dyDescent="0.25">
@@ -46039,7 +46688,7 @@
       <c r="F882" s="156"/>
       <c r="G882" s="53">
         <f>G881+E882-F882</f>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M882" s="518"/>
       <c r="N882" s="280"/>
@@ -46048,7 +46697,7 @@
       <c r="Q882" s="264"/>
       <c r="R882" s="264"/>
       <c r="S882" s="264"/>
-      <c r="T882" s="505"/>
+      <c r="T882" s="305"/>
       <c r="U882" s="87"/>
     </row>
     <row r="883" spans="1:21" x14ac:dyDescent="0.25">
@@ -46060,7 +46709,7 @@
       <c r="F883" s="156"/>
       <c r="G883" s="53">
         <f>G882+E883-F883</f>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M883" s="518"/>
       <c r="N883" s="280"/>
@@ -46069,7 +46718,7 @@
       <c r="Q883" s="264"/>
       <c r="R883" s="264"/>
       <c r="S883" s="264"/>
-      <c r="T883" s="500"/>
+      <c r="T883" s="280"/>
       <c r="U883" s="87"/>
     </row>
     <row r="884" spans="1:21" x14ac:dyDescent="0.25">
@@ -46081,7 +46730,7 @@
       <c r="F884" s="156"/>
       <c r="G884" s="53">
         <f t="shared" ref="G884" si="80">G883+E884-F884</f>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M884" s="518"/>
       <c r="N884" s="280"/>
@@ -46090,7 +46739,7 @@
       <c r="Q884" s="264"/>
       <c r="R884" s="264"/>
       <c r="S884" s="264"/>
-      <c r="T884" s="305"/>
+      <c r="T884" s="280"/>
       <c r="U884" s="87"/>
     </row>
     <row r="885" spans="1:21" x14ac:dyDescent="0.25">
@@ -46102,7 +46751,7 @@
       <c r="F885" s="156"/>
       <c r="G885" s="53">
         <f>G884+E885-F885</f>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M885" s="518"/>
       <c r="N885" s="280"/>
@@ -46123,7 +46772,7 @@
       <c r="F886" s="156"/>
       <c r="G886" s="53">
         <f>G885+E886-F886</f>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M886" s="518"/>
       <c r="N886" s="280"/>
@@ -46144,7 +46793,7 @@
       <c r="F887" s="156"/>
       <c r="G887" s="53">
         <f t="shared" ref="G887:G888" si="81">G886+E887-F887</f>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M887" s="518"/>
       <c r="N887" s="280"/>
@@ -46165,7 +46814,7 @@
       <c r="F888" s="156"/>
       <c r="G888" s="53">
         <f t="shared" si="81"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M888" s="518"/>
       <c r="N888" s="280"/>
@@ -46186,7 +46835,7 @@
       <c r="F889" s="156"/>
       <c r="G889" s="53">
         <f>G888+E889-F889</f>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M889" s="518"/>
       <c r="N889" s="280"/>
@@ -46207,7 +46856,7 @@
       <c r="F890" s="156"/>
       <c r="G890" s="53">
         <f t="shared" ref="G890:G919" si="82">G889+E890-F890</f>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M890" s="518"/>
       <c r="N890" s="280"/>
@@ -46228,7 +46877,7 @@
       <c r="F891" s="156"/>
       <c r="G891" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M891" s="518"/>
       <c r="N891" s="280"/>
@@ -46249,16 +46898,16 @@
       <c r="F892" s="156"/>
       <c r="G892" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
-      </c>
-      <c r="M892" s="518"/>
-      <c r="N892" s="280"/>
-      <c r="O892" s="280"/>
-      <c r="P892" s="264"/>
-      <c r="Q892" s="264"/>
-      <c r="R892" s="264"/>
-      <c r="S892" s="264"/>
-      <c r="T892" s="280"/>
+        <v>14167.529999999999</v>
+      </c>
+      <c r="M892" s="37"/>
+      <c r="N892" s="38"/>
+      <c r="O892" s="38"/>
+      <c r="P892" s="39"/>
+      <c r="Q892" s="39"/>
+      <c r="R892" s="39"/>
+      <c r="S892" s="39"/>
+      <c r="T892" s="38"/>
       <c r="U892" s="87"/>
     </row>
     <row r="893" spans="1:21" x14ac:dyDescent="0.25">
@@ -46270,16 +46919,16 @@
       <c r="F893" s="156"/>
       <c r="G893" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
-      </c>
-      <c r="M893" s="518"/>
-      <c r="N893" s="280"/>
-      <c r="O893" s="280"/>
-      <c r="P893" s="264"/>
-      <c r="Q893" s="264"/>
-      <c r="R893" s="264"/>
-      <c r="S893" s="264"/>
-      <c r="T893" s="280"/>
+        <v>14167.529999999999</v>
+      </c>
+      <c r="M893" s="37"/>
+      <c r="N893" s="38"/>
+      <c r="O893" s="38"/>
+      <c r="P893" s="39"/>
+      <c r="Q893" s="39"/>
+      <c r="R893" s="39"/>
+      <c r="S893" s="39"/>
+      <c r="T893" s="38"/>
       <c r="U893" s="87"/>
     </row>
     <row r="894" spans="1:21" x14ac:dyDescent="0.25">
@@ -46291,7 +46940,7 @@
       <c r="F894" s="156"/>
       <c r="G894" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M894" s="37"/>
       <c r="N894" s="38"/>
@@ -46312,7 +46961,7 @@
       <c r="F895" s="156"/>
       <c r="G895" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M895" s="37"/>
       <c r="N895" s="38"/>
@@ -46333,7 +46982,7 @@
       <c r="F896" s="156"/>
       <c r="G896" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M896" s="37"/>
       <c r="N896" s="38"/>
@@ -46354,7 +47003,7 @@
       <c r="F897" s="156"/>
       <c r="G897" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M897" s="37"/>
       <c r="N897" s="38"/>
@@ -46363,7 +47012,7 @@
       <c r="Q897" s="39"/>
       <c r="R897" s="39"/>
       <c r="S897" s="39"/>
-      <c r="T897" s="38"/>
+      <c r="T897" s="40"/>
       <c r="U897" s="87"/>
     </row>
     <row r="898" spans="1:21" x14ac:dyDescent="0.25">
@@ -46375,7 +47024,7 @@
       <c r="F898" s="156"/>
       <c r="G898" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M898" s="37"/>
       <c r="N898" s="38"/>
@@ -46396,7 +47045,7 @@
       <c r="F899" s="156"/>
       <c r="G899" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M899" s="37"/>
       <c r="N899" s="38"/>
@@ -46405,7 +47054,7 @@
       <c r="Q899" s="39"/>
       <c r="R899" s="39"/>
       <c r="S899" s="39"/>
-      <c r="T899" s="40"/>
+      <c r="T899" s="38"/>
       <c r="U899" s="87"/>
     </row>
     <row r="900" spans="1:21" x14ac:dyDescent="0.25">
@@ -46417,7 +47066,7 @@
       <c r="F900" s="156"/>
       <c r="G900" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M900" s="37"/>
       <c r="N900" s="38"/>
@@ -46438,16 +47087,16 @@
       <c r="F901" s="156"/>
       <c r="G901" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
-      </c>
-      <c r="M901" s="37"/>
-      <c r="N901" s="38"/>
-      <c r="O901" s="38"/>
-      <c r="P901" s="39"/>
-      <c r="Q901" s="39"/>
-      <c r="R901" s="39"/>
-      <c r="S901" s="39"/>
-      <c r="T901" s="38"/>
+        <v>14167.529999999999</v>
+      </c>
+      <c r="M901" s="519"/>
+      <c r="N901" s="305"/>
+      <c r="O901" s="305"/>
+      <c r="P901" s="306"/>
+      <c r="Q901" s="306"/>
+      <c r="R901" s="306"/>
+      <c r="S901" s="306"/>
+      <c r="T901" s="305"/>
       <c r="U901" s="87"/>
     </row>
     <row r="902" spans="1:21" x14ac:dyDescent="0.25">
@@ -46459,16 +47108,16 @@
       <c r="F902" s="156"/>
       <c r="G902" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
-      </c>
-      <c r="M902" s="37"/>
-      <c r="N902" s="38"/>
-      <c r="O902" s="38"/>
-      <c r="P902" s="39"/>
-      <c r="Q902" s="39"/>
-      <c r="R902" s="39"/>
-      <c r="S902" s="39"/>
-      <c r="T902" s="38"/>
+        <v>14167.529999999999</v>
+      </c>
+      <c r="M902" s="519"/>
+      <c r="N902" s="305"/>
+      <c r="O902" s="305"/>
+      <c r="P902" s="306"/>
+      <c r="Q902" s="306"/>
+      <c r="R902" s="306"/>
+      <c r="S902" s="306"/>
+      <c r="T902" s="305"/>
       <c r="U902" s="87"/>
     </row>
     <row r="903" spans="1:21" x14ac:dyDescent="0.25">
@@ -46480,7 +47129,7 @@
       <c r="F903" s="156"/>
       <c r="G903" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M903" s="519"/>
       <c r="N903" s="305"/>
@@ -46500,7 +47149,7 @@
       <c r="F904" s="525"/>
       <c r="G904" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="H904" s="36"/>
       <c r="M904" s="519"/>
@@ -46510,7 +47159,7 @@
       <c r="Q904" s="306"/>
       <c r="R904" s="306"/>
       <c r="S904" s="306"/>
-      <c r="T904" s="305"/>
+      <c r="T904" s="480"/>
     </row>
     <row r="905" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A905" s="441"/>
@@ -46521,7 +47170,7 @@
       <c r="F905" s="156"/>
       <c r="G905" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M905" s="519"/>
       <c r="N905" s="305"/>
@@ -46530,7 +47179,7 @@
       <c r="Q905" s="306"/>
       <c r="R905" s="306"/>
       <c r="S905" s="306"/>
-      <c r="T905" s="305"/>
+      <c r="T905" s="480"/>
     </row>
     <row r="906" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A906" s="441"/>
@@ -46541,7 +47190,7 @@
       <c r="F906" s="156"/>
       <c r="G906" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M906" s="519"/>
       <c r="N906" s="305"/>
@@ -46561,7 +47210,7 @@
       <c r="F907" s="156"/>
       <c r="G907" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M907" s="519"/>
       <c r="N907" s="305"/>
@@ -46581,16 +47230,16 @@
       <c r="F908" s="156"/>
       <c r="G908" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
-      </c>
-      <c r="M908" s="519"/>
-      <c r="N908" s="305"/>
-      <c r="O908" s="305"/>
-      <c r="P908" s="306"/>
-      <c r="Q908" s="306"/>
-      <c r="R908" s="306"/>
-      <c r="S908" s="306"/>
-      <c r="T908" s="480"/>
+        <v>14167.529999999999</v>
+      </c>
+      <c r="M908" s="520"/>
+      <c r="N908" s="378"/>
+      <c r="O908" s="378"/>
+      <c r="P908" s="95"/>
+      <c r="Q908" s="95"/>
+      <c r="R908" s="95"/>
+      <c r="S908" s="95"/>
+      <c r="T908" s="430"/>
     </row>
     <row r="909" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A909" s="441"/>
@@ -46601,16 +47250,16 @@
       <c r="F909" s="156"/>
       <c r="G909" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
-      </c>
-      <c r="M909" s="519"/>
-      <c r="N909" s="305"/>
-      <c r="O909" s="305"/>
-      <c r="P909" s="306"/>
-      <c r="Q909" s="306"/>
-      <c r="R909" s="306"/>
-      <c r="S909" s="306"/>
-      <c r="T909" s="480"/>
+        <v>14167.529999999999</v>
+      </c>
+      <c r="M909" s="520"/>
+      <c r="N909" s="378"/>
+      <c r="O909" s="378"/>
+      <c r="P909" s="95"/>
+      <c r="Q909" s="95"/>
+      <c r="R909" s="95"/>
+      <c r="S909" s="95"/>
+      <c r="T909" s="430"/>
     </row>
     <row r="910" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A910" s="441"/>
@@ -46621,7 +47270,7 @@
       <c r="F910" s="156"/>
       <c r="G910" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M910" s="520"/>
       <c r="N910" s="378"/>
@@ -46641,7 +47290,7 @@
       <c r="F911" s="156"/>
       <c r="G911" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M911" s="520"/>
       <c r="N911" s="378"/>
@@ -46661,7 +47310,7 @@
       <c r="F912" s="156"/>
       <c r="G912" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M912" s="520"/>
       <c r="N912" s="378"/>
@@ -46670,9 +47319,9 @@
       <c r="Q912" s="95"/>
       <c r="R912" s="95"/>
       <c r="S912" s="95"/>
-      <c r="T912" s="430"/>
-    </row>
-    <row r="913" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T912" s="223"/>
+    </row>
+    <row r="913" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A913" s="155"/>
       <c r="B913" s="154"/>
       <c r="C913" s="154"/>
@@ -46681,18 +47330,17 @@
       <c r="F913" s="156"/>
       <c r="G913" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
       <c r="M913" s="520"/>
       <c r="N913" s="378"/>
       <c r="O913" s="378"/>
       <c r="P913" s="95"/>
       <c r="Q913" s="95"/>
-      <c r="R913" s="95"/>
-      <c r="S913" s="95"/>
-      <c r="T913" s="430"/>
-    </row>
-    <row r="914" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R913" s="87"/>
+      <c r="S913" s="87"/>
+    </row>
+    <row r="914" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A914" s="155"/>
       <c r="B914" s="154"/>
       <c r="C914" s="154"/>
@@ -46701,18 +47349,10 @@
       <c r="F914" s="156"/>
       <c r="G914" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
-      </c>
-      <c r="M914" s="520"/>
-      <c r="N914" s="378"/>
-      <c r="O914" s="378"/>
-      <c r="P914" s="95"/>
-      <c r="Q914" s="95"/>
-      <c r="R914" s="95"/>
-      <c r="S914" s="95"/>
-      <c r="T914" s="223"/>
-    </row>
-    <row r="915" spans="1:20" x14ac:dyDescent="0.25">
+        <v>14167.529999999999</v>
+      </c>
+    </row>
+    <row r="915" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A915" s="155"/>
       <c r="B915" s="154"/>
       <c r="C915" s="154"/>
@@ -46721,17 +47361,10 @@
       <c r="F915" s="156"/>
       <c r="G915" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
-      </c>
-      <c r="M915" s="520"/>
-      <c r="N915" s="378"/>
-      <c r="O915" s="378"/>
-      <c r="P915" s="95"/>
-      <c r="Q915" s="95"/>
-      <c r="R915" s="87"/>
-      <c r="S915" s="87"/>
-    </row>
-    <row r="916" spans="1:20" x14ac:dyDescent="0.25">
+        <v>14167.529999999999</v>
+      </c>
+    </row>
+    <row r="916" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A916" s="155"/>
       <c r="B916" s="154"/>
       <c r="C916" s="154"/>
@@ -46740,10 +47373,10 @@
       <c r="F916" s="156"/>
       <c r="G916" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
-      </c>
-    </row>
-    <row r="917" spans="1:20" x14ac:dyDescent="0.25">
+        <v>14167.529999999999</v>
+      </c>
+    </row>
+    <row r="917" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A917" s="154"/>
       <c r="B917" s="154"/>
       <c r="C917" s="154"/>
@@ -46752,10 +47385,10 @@
       <c r="F917" s="156"/>
       <c r="G917" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
-      </c>
-    </row>
-    <row r="918" spans="1:20" x14ac:dyDescent="0.25">
+        <v>14167.529999999999</v>
+      </c>
+    </row>
+    <row r="918" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A918" s="154"/>
       <c r="B918" s="154"/>
       <c r="C918" s="154"/>
@@ -46764,10 +47397,10 @@
       <c r="F918" s="156"/>
       <c r="G918" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
-      </c>
-    </row>
-    <row r="919" spans="1:20" x14ac:dyDescent="0.25">
+        <v>14167.529999999999</v>
+      </c>
+    </row>
+    <row r="919" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A919" s="136"/>
       <c r="B919" s="136"/>
       <c r="C919" s="136"/>
@@ -46776,7 +47409,7 @@
       <c r="F919" s="157"/>
       <c r="G919" s="53">
         <f t="shared" si="82"/>
-        <v>22320.17</v>
+        <v>14167.529999999999</v>
       </c>
     </row>
   </sheetData>
@@ -46790,9 +47423,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="15" max="15" width="23.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D1" s="542" t="s">
@@ -46936,7 +47576,7 @@
       <c r="E7" s="53"/>
       <c r="F7" s="53"/>
       <c r="G7" s="158">
-        <v>300</v>
+        <v>2528.62</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -46953,21 +47593,31 @@
       <c r="P7" s="544"/>
       <c r="Q7" s="545"/>
       <c r="R7" s="83">
-        <v>2531.86</v>
+        <v>2528.62</v>
       </c>
       <c r="S7" s="83"/>
       <c r="T7" s="83"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="153"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
+      <c r="A8" s="153">
+        <v>45173</v>
+      </c>
+      <c r="B8" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="154" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="154" t="s">
+        <v>1784</v>
+      </c>
       <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
+      <c r="F8" s="53">
+        <v>5</v>
+      </c>
       <c r="G8" s="53">
         <f>G7+E8-F8</f>
-        <v>300</v>
+        <v>2523.62</v>
       </c>
       <c r="H8" s="85"/>
       <c r="I8" s="86" t="b">
@@ -46976,28 +47626,46 @@
       <c r="J8" s="85"/>
       <c r="K8" s="85"/>
       <c r="L8" s="85"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83">
+      <c r="M8" s="541">
+        <v>45173</v>
+      </c>
+      <c r="N8" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="83" t="s">
+        <v>1788</v>
+      </c>
+      <c r="P8" s="84">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84">
         <f>R7+Q8-P8</f>
-        <v>2531.86</v>
+        <v>2523.62</v>
       </c>
       <c r="S8" s="83"/>
       <c r="T8" s="83"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="153"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
+      <c r="A9" s="153">
+        <v>45173</v>
+      </c>
+      <c r="B9" s="154" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C9" s="154" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="154" t="s">
+        <v>1785</v>
+      </c>
       <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="F9" s="53">
+        <v>0.4</v>
+      </c>
       <c r="G9" s="53">
         <f>G8+E9-F9</f>
-        <v>300</v>
+        <v>2523.2199999999998</v>
       </c>
       <c r="H9" s="85"/>
       <c r="I9" s="86" t="b">
@@ -47006,28 +47674,46 @@
       <c r="J9" s="85"/>
       <c r="K9" s="85"/>
       <c r="L9" s="85"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83">
+      <c r="M9" s="541">
+        <v>45174</v>
+      </c>
+      <c r="N9" s="83" t="s">
+        <v>1181</v>
+      </c>
+      <c r="O9" s="83" t="s">
+        <v>1660</v>
+      </c>
+      <c r="P9" s="84">
+        <v>0.4</v>
+      </c>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84">
         <f t="shared" ref="R9:R43" si="0">R8+Q9-P9</f>
-        <v>2531.86</v>
+        <v>2523.2199999999998</v>
       </c>
       <c r="S9" s="83"/>
       <c r="T9" s="83"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="153"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="53"/>
+      <c r="A10" s="153">
+        <v>45174</v>
+      </c>
+      <c r="B10" s="154" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="154" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="154" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E10" s="53">
+        <v>643.5</v>
+      </c>
       <c r="F10" s="53"/>
       <c r="G10" s="53">
         <f>G9+E10-F10</f>
-        <v>300</v>
+        <v>3166.72</v>
       </c>
       <c r="H10" s="85"/>
       <c r="I10" s="86" t="b">
@@ -47036,28 +47722,46 @@
       <c r="J10" s="85"/>
       <c r="K10" s="85"/>
       <c r="L10" s="85"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83">
+      <c r="M10" s="541">
+        <v>45174</v>
+      </c>
+      <c r="N10" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="83" t="s">
+        <v>1789</v>
+      </c>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84">
+        <v>643.5</v>
+      </c>
+      <c r="R10" s="84">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>3166.72</v>
       </c>
       <c r="S10" s="83"/>
       <c r="T10" s="83"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="153"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="176"/>
+      <c r="A11" s="153">
+        <v>45176</v>
+      </c>
+      <c r="B11" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="154" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="176" t="s">
+        <v>1787</v>
+      </c>
       <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="F11" s="53">
+        <v>1027.25</v>
+      </c>
       <c r="G11" s="53">
         <f t="shared" ref="G11:G34" si="1">G10+E11-F11</f>
-        <v>300</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="H11" s="85"/>
       <c r="I11" s="86" t="b">
@@ -47066,14 +47770,22 @@
       <c r="J11" s="85"/>
       <c r="K11" s="85"/>
       <c r="L11" s="85"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83">
+      <c r="M11" s="541">
+        <v>45176</v>
+      </c>
+      <c r="N11" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="83" t="s">
+        <v>1787</v>
+      </c>
+      <c r="P11" s="84">
+        <v>1027.25</v>
+      </c>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="S11" s="83"/>
       <c r="T11" s="83"/>
@@ -47087,7 +47799,7 @@
       <c r="F12" s="53"/>
       <c r="G12" s="53">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="H12" s="85"/>
       <c r="I12" s="86" t="b">
@@ -47099,11 +47811,11 @@
       <c r="M12" s="83"/>
       <c r="N12" s="83"/>
       <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="83">
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="84">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="S12" s="83"/>
       <c r="T12" s="83"/>
@@ -47117,7 +47829,7 @@
       <c r="F13" s="53"/>
       <c r="G13" s="53">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="H13" s="85"/>
       <c r="I13" s="86" t="b">
@@ -47129,11 +47841,11 @@
       <c r="M13" s="83"/>
       <c r="N13" s="83"/>
       <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="83">
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="S13" s="83"/>
       <c r="T13" s="83"/>
@@ -47147,7 +47859,7 @@
       <c r="F14" s="53"/>
       <c r="G14" s="53">
         <f>G13+E14-F14</f>
-        <v>300</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="H14" s="85"/>
       <c r="I14" s="86" t="b">
@@ -47159,11 +47871,11 @@
       <c r="M14" s="83"/>
       <c r="N14" s="83"/>
       <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83">
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="S14" s="83"/>
       <c r="T14" s="83"/>
@@ -47177,7 +47889,7 @@
       <c r="F15" s="53"/>
       <c r="G15" s="53">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="H15" s="85"/>
       <c r="I15" s="86" t="b">
@@ -47189,11 +47901,11 @@
       <c r="M15" s="83"/>
       <c r="N15" s="83"/>
       <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83">
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="S15" s="83"/>
       <c r="T15" s="83"/>
@@ -47207,7 +47919,7 @@
       <c r="F16" s="53"/>
       <c r="G16" s="53">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="H16" s="85"/>
       <c r="I16" s="86" t="b">
@@ -47219,11 +47931,11 @@
       <c r="M16" s="167"/>
       <c r="N16" s="169"/>
       <c r="O16" s="169"/>
-      <c r="P16" s="530"/>
-      <c r="Q16" s="530"/>
-      <c r="R16" s="83">
+      <c r="P16" s="170"/>
+      <c r="Q16" s="170"/>
+      <c r="R16" s="84">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="S16" s="530"/>
       <c r="T16" s="35"/>
@@ -47237,7 +47949,7 @@
       <c r="F17" s="53"/>
       <c r="G17" s="53">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="H17" s="85"/>
       <c r="I17" s="86" t="b">
@@ -47249,11 +47961,11 @@
       <c r="M17" s="37"/>
       <c r="N17" s="38"/>
       <c r="O17" s="38"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="83">
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="84">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="S17" s="39"/>
       <c r="T17" s="34"/>
@@ -47267,7 +47979,7 @@
       <c r="F18" s="53"/>
       <c r="G18" s="53">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="H18" s="85"/>
       <c r="I18" s="86" t="b">
@@ -47279,11 +47991,11 @@
       <c r="M18" s="37"/>
       <c r="N18" s="38"/>
       <c r="O18" s="38"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="83">
+      <c r="P18" s="89"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="84">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="S18" s="39"/>
       <c r="T18" s="34"/>
@@ -47297,7 +48009,7 @@
       <c r="F19" s="53"/>
       <c r="G19" s="53">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="H19" s="85"/>
       <c r="I19" s="86" t="b">
@@ -47309,11 +48021,11 @@
       <c r="M19" s="37"/>
       <c r="N19" s="38"/>
       <c r="O19" s="38"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="83">
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="84">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="S19" s="39"/>
       <c r="T19" s="35"/>
@@ -47327,7 +48039,7 @@
       <c r="F20" s="53"/>
       <c r="G20" s="53">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="H20" s="85"/>
       <c r="I20" s="86" t="b">
@@ -47339,11 +48051,11 @@
       <c r="M20" s="37"/>
       <c r="N20" s="38"/>
       <c r="O20" s="38"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="83">
+      <c r="P20" s="89"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="84">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="S20" s="39"/>
       <c r="T20" s="35"/>
@@ -47357,7 +48069,7 @@
       <c r="F21" s="53"/>
       <c r="G21" s="53">
         <f>G20+E21-F21</f>
-        <v>300</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="H21" s="85"/>
       <c r="I21" s="86" t="b">
@@ -47369,11 +48081,11 @@
       <c r="M21" s="526"/>
       <c r="N21" s="527"/>
       <c r="O21" s="527"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="83">
+      <c r="P21" s="559"/>
+      <c r="Q21" s="559"/>
+      <c r="R21" s="84">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="S21" s="116"/>
       <c r="T21" s="109"/>
@@ -47387,7 +48099,7 @@
       <c r="F22" s="53"/>
       <c r="G22" s="53">
         <f>G21+E22-F22</f>
-        <v>300</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="H22" s="85"/>
       <c r="I22" s="86" t="b">
@@ -47399,11 +48111,11 @@
       <c r="M22" s="37"/>
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="83">
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="84">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="S22" s="39"/>
       <c r="T22" s="44"/>
@@ -47417,7 +48129,7 @@
       <c r="F23" s="53"/>
       <c r="G23" s="53">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="H23" s="85"/>
       <c r="I23" s="86" t="b">
@@ -47429,11 +48141,11 @@
       <c r="M23" s="37"/>
       <c r="N23" s="38"/>
       <c r="O23" s="38"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="83">
+      <c r="P23" s="89"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="84">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="S23" s="39"/>
       <c r="T23" s="44"/>
@@ -47447,7 +48159,7 @@
       <c r="F24" s="53"/>
       <c r="G24" s="53">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="H24" s="85"/>
       <c r="I24" s="86" t="b">
@@ -47459,11 +48171,11 @@
       <c r="M24" s="37"/>
       <c r="N24" s="38"/>
       <c r="O24" s="38"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="83">
+      <c r="P24" s="89"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="84">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="S24" s="39"/>
       <c r="T24" s="44"/>
@@ -47477,7 +48189,7 @@
       <c r="F25" s="53"/>
       <c r="G25" s="53">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="H25" s="85"/>
       <c r="I25" s="86" t="b">
@@ -47493,7 +48205,7 @@
       <c r="Q25" s="39"/>
       <c r="R25" s="83">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="S25" s="39"/>
       <c r="T25" s="44"/>
@@ -47507,7 +48219,7 @@
       <c r="F26" s="53"/>
       <c r="G26" s="53">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="H26" s="85"/>
       <c r="I26" s="86"/>
@@ -47521,7 +48233,7 @@
       <c r="Q26" s="39"/>
       <c r="R26" s="83">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="S26" s="39"/>
       <c r="T26" s="44"/>
@@ -47535,7 +48247,7 @@
       <c r="F27" s="53"/>
       <c r="G27" s="48">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="H27" s="87"/>
       <c r="I27" s="87"/>
@@ -47549,7 +48261,7 @@
       <c r="Q27" s="39"/>
       <c r="R27" s="83">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="S27" s="39"/>
       <c r="T27" s="159"/>
@@ -47563,7 +48275,7 @@
       <c r="F28" s="53"/>
       <c r="G28" s="53">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="H28" s="87"/>
       <c r="I28" s="87"/>
@@ -47577,7 +48289,7 @@
       <c r="Q28" s="39"/>
       <c r="R28" s="83">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="S28" s="39"/>
       <c r="T28" s="35"/>
@@ -47591,7 +48303,7 @@
       <c r="F29" s="53"/>
       <c r="G29" s="53">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="H29" s="87"/>
       <c r="I29" s="87"/>
@@ -47605,7 +48317,7 @@
       <c r="Q29" s="39"/>
       <c r="R29" s="83">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="S29" s="39"/>
       <c r="T29" s="35"/>
@@ -47619,7 +48331,7 @@
       <c r="F30" s="53"/>
       <c r="G30" s="53">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="H30" s="87"/>
       <c r="I30" s="87"/>
@@ -47633,7 +48345,7 @@
       <c r="Q30" s="39"/>
       <c r="R30" s="83">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="S30" s="39"/>
       <c r="T30" s="35"/>
@@ -47647,7 +48359,7 @@
       <c r="F31" s="53"/>
       <c r="G31" s="53">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="H31" s="87"/>
       <c r="I31" s="87"/>
@@ -47661,7 +48373,7 @@
       <c r="Q31" s="39"/>
       <c r="R31" s="83">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="S31" s="39"/>
       <c r="T31" s="35"/>
@@ -47675,7 +48387,7 @@
       <c r="F32" s="53"/>
       <c r="G32" s="53">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="H32" s="87"/>
       <c r="I32" s="87"/>
@@ -47689,7 +48401,7 @@
       <c r="Q32" s="39"/>
       <c r="R32" s="83">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="S32" s="39"/>
       <c r="T32" s="34"/>
@@ -47703,7 +48415,7 @@
       <c r="F33" s="53"/>
       <c r="G33" s="53">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="H33" s="87"/>
       <c r="I33" s="87"/>
@@ -47717,7 +48429,7 @@
       <c r="Q33" s="39"/>
       <c r="R33" s="83">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="S33" s="528"/>
       <c r="T33" s="36"/>
@@ -47731,7 +48443,7 @@
       <c r="F34" s="53"/>
       <c r="G34" s="53">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="H34" s="87"/>
       <c r="I34" s="87"/>
@@ -47745,7 +48457,7 @@
       <c r="Q34" s="170"/>
       <c r="R34" s="83">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
       <c r="S34" s="89"/>
       <c r="T34" s="35"/>
@@ -47753,55 +48465,55 @@
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R35" s="83">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R36" s="83">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R37" s="83">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R38" s="83">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R39" s="83">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R40" s="83">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R41" s="83">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R42" s="83">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="R43" s="83">
         <f t="shared" si="0"/>
-        <v>2531.86</v>
+        <v>2139.4699999999998</v>
       </c>
     </row>
   </sheetData>

--- a/DOC 2023/BANCOS.xlsx
+++ b/DOC 2023/BANCOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58489A72-E59B-4392-A5F9-BFA173C6CC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240CFCDF-ACAC-4DA5-9C0A-D33E9A399B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOLIVARIANO" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5938" uniqueCount="1790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5944" uniqueCount="1794">
   <si>
     <t>ABRILTRANS S.A</t>
   </si>
@@ -5402,6 +5402,18 @@
   </si>
   <si>
     <t>UNIVIAS</t>
+  </si>
+  <si>
+    <t>ch1412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando Abril </t>
+  </si>
+  <si>
+    <t>CH1413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaime abril </t>
   </si>
 </sst>
 </file>
@@ -9679,8 +9691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U919"/>
   <sheetViews>
-    <sheetView topLeftCell="A845" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="H855" sqref="H855"/>
+    <sheetView tabSelected="1" topLeftCell="A845" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="G863" sqref="G863"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46200,15 +46212,25 @@
       <c r="U861" s="87"/>
     </row>
     <row r="862" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A862" s="441"/>
-      <c r="B862" s="154"/>
-      <c r="C862" s="154"/>
-      <c r="D862" s="154"/>
+      <c r="A862" s="441">
+        <v>45183</v>
+      </c>
+      <c r="B862" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C862" s="154" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D862" s="154" t="s">
+        <v>1791</v>
+      </c>
       <c r="E862" s="156"/>
-      <c r="F862" s="156"/>
+      <c r="F862" s="156">
+        <v>300</v>
+      </c>
       <c r="G862" s="53">
         <f t="shared" si="78"/>
-        <v>14167.529999999999</v>
+        <v>13867.529999999999</v>
       </c>
       <c r="H862" s="87"/>
       <c r="I862" s="87"/>
@@ -46226,15 +46248,25 @@
       <c r="U862" s="87"/>
     </row>
     <row r="863" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A863" s="441"/>
-      <c r="B863" s="154"/>
-      <c r="C863" s="154"/>
-      <c r="D863" s="154"/>
+      <c r="A863" s="441">
+        <v>45152</v>
+      </c>
+      <c r="B863" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C863" s="154" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D863" s="154" t="s">
+        <v>1793</v>
+      </c>
       <c r="E863" s="156"/>
-      <c r="F863" s="156"/>
+      <c r="F863" s="156">
+        <v>150</v>
+      </c>
       <c r="G863" s="53">
         <f t="shared" si="78"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="H863" s="87"/>
       <c r="I863" s="87"/>
@@ -46260,7 +46292,7 @@
       <c r="F864" s="156"/>
       <c r="G864" s="53">
         <f t="shared" si="78"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="H864" s="87"/>
       <c r="I864" s="87"/>
@@ -46286,7 +46318,7 @@
       <c r="F865" s="156"/>
       <c r="G865" s="53">
         <f>G864+E865-F865</f>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="H865" s="87"/>
       <c r="I865" s="87"/>
@@ -46312,7 +46344,7 @@
       <c r="F866" s="156"/>
       <c r="G866" s="53">
         <f t="shared" ref="G866:G881" si="79">G865+E866-F866</f>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="H866" s="87"/>
       <c r="I866" s="87"/>
@@ -46338,7 +46370,7 @@
       <c r="F867" s="156"/>
       <c r="G867" s="53">
         <f t="shared" si="79"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="H867" s="87"/>
       <c r="I867" s="87"/>
@@ -46364,7 +46396,7 @@
       <c r="F868" s="156"/>
       <c r="G868" s="53">
         <f t="shared" si="79"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="H868" s="87"/>
       <c r="I868" s="87"/>
@@ -46390,7 +46422,7 @@
       <c r="F869" s="156"/>
       <c r="G869" s="53">
         <f t="shared" si="79"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="H869" s="87"/>
       <c r="I869" s="87"/>
@@ -46416,7 +46448,7 @@
       <c r="F870" s="156"/>
       <c r="G870" s="53">
         <f t="shared" si="79"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="H870" s="87"/>
       <c r="I870" s="87"/>
@@ -46442,7 +46474,7 @@
       <c r="F871" s="156"/>
       <c r="G871" s="53">
         <f t="shared" si="79"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="H871" s="87"/>
       <c r="I871" s="87"/>
@@ -46468,7 +46500,7 @@
       <c r="F872" s="156"/>
       <c r="G872" s="53">
         <f t="shared" si="79"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="H872" s="87"/>
       <c r="I872" s="87"/>
@@ -46494,7 +46526,7 @@
       <c r="F873" s="156"/>
       <c r="G873" s="53">
         <f t="shared" si="79"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="H873" s="87"/>
       <c r="I873" s="87"/>
@@ -46520,7 +46552,7 @@
       <c r="F874" s="156"/>
       <c r="G874" s="53">
         <f t="shared" si="79"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M874" s="518"/>
       <c r="N874" s="280"/>
@@ -46541,7 +46573,7 @@
       <c r="F875" s="156"/>
       <c r="G875" s="53">
         <f t="shared" si="79"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M875" s="518"/>
       <c r="N875" s="280"/>
@@ -46562,7 +46594,7 @@
       <c r="F876" s="156"/>
       <c r="G876" s="53">
         <f t="shared" si="79"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M876" s="518"/>
       <c r="N876" s="280"/>
@@ -46583,7 +46615,7 @@
       <c r="F877" s="156"/>
       <c r="G877" s="53">
         <f t="shared" si="79"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M877" s="518"/>
       <c r="N877" s="280"/>
@@ -46604,7 +46636,7 @@
       <c r="F878" s="156"/>
       <c r="G878" s="53">
         <f t="shared" si="79"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M878" s="518"/>
       <c r="N878" s="280"/>
@@ -46625,7 +46657,7 @@
       <c r="F879" s="156"/>
       <c r="G879" s="53">
         <f t="shared" si="79"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M879" s="518"/>
       <c r="N879" s="280"/>
@@ -46646,7 +46678,7 @@
       <c r="F880" s="156"/>
       <c r="G880" s="53">
         <f t="shared" si="79"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M880" s="518"/>
       <c r="N880" s="280"/>
@@ -46667,7 +46699,7 @@
       <c r="F881" s="156"/>
       <c r="G881" s="53">
         <f t="shared" si="79"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M881" s="518"/>
       <c r="N881" s="280"/>
@@ -46688,7 +46720,7 @@
       <c r="F882" s="156"/>
       <c r="G882" s="53">
         <f>G881+E882-F882</f>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M882" s="518"/>
       <c r="N882" s="280"/>
@@ -46709,7 +46741,7 @@
       <c r="F883" s="156"/>
       <c r="G883" s="53">
         <f>G882+E883-F883</f>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M883" s="518"/>
       <c r="N883" s="280"/>
@@ -46730,7 +46762,7 @@
       <c r="F884" s="156"/>
       <c r="G884" s="53">
         <f t="shared" ref="G884" si="80">G883+E884-F884</f>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M884" s="518"/>
       <c r="N884" s="280"/>
@@ -46751,7 +46783,7 @@
       <c r="F885" s="156"/>
       <c r="G885" s="53">
         <f>G884+E885-F885</f>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M885" s="518"/>
       <c r="N885" s="280"/>
@@ -46772,7 +46804,7 @@
       <c r="F886" s="156"/>
       <c r="G886" s="53">
         <f>G885+E886-F886</f>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M886" s="518"/>
       <c r="N886" s="280"/>
@@ -46793,7 +46825,7 @@
       <c r="F887" s="156"/>
       <c r="G887" s="53">
         <f t="shared" ref="G887:G888" si="81">G886+E887-F887</f>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M887" s="518"/>
       <c r="N887" s="280"/>
@@ -46814,7 +46846,7 @@
       <c r="F888" s="156"/>
       <c r="G888" s="53">
         <f t="shared" si="81"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M888" s="518"/>
       <c r="N888" s="280"/>
@@ -46835,7 +46867,7 @@
       <c r="F889" s="156"/>
       <c r="G889" s="53">
         <f>G888+E889-F889</f>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M889" s="518"/>
       <c r="N889" s="280"/>
@@ -46856,7 +46888,7 @@
       <c r="F890" s="156"/>
       <c r="G890" s="53">
         <f t="shared" ref="G890:G919" si="82">G889+E890-F890</f>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M890" s="518"/>
       <c r="N890" s="280"/>
@@ -46877,7 +46909,7 @@
       <c r="F891" s="156"/>
       <c r="G891" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M891" s="518"/>
       <c r="N891" s="280"/>
@@ -46898,7 +46930,7 @@
       <c r="F892" s="156"/>
       <c r="G892" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M892" s="37"/>
       <c r="N892" s="38"/>
@@ -46919,7 +46951,7 @@
       <c r="F893" s="156"/>
       <c r="G893" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M893" s="37"/>
       <c r="N893" s="38"/>
@@ -46940,7 +46972,7 @@
       <c r="F894" s="156"/>
       <c r="G894" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M894" s="37"/>
       <c r="N894" s="38"/>
@@ -46961,7 +46993,7 @@
       <c r="F895" s="156"/>
       <c r="G895" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M895" s="37"/>
       <c r="N895" s="38"/>
@@ -46982,7 +47014,7 @@
       <c r="F896" s="156"/>
       <c r="G896" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M896" s="37"/>
       <c r="N896" s="38"/>
@@ -47003,7 +47035,7 @@
       <c r="F897" s="156"/>
       <c r="G897" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M897" s="37"/>
       <c r="N897" s="38"/>
@@ -47024,7 +47056,7 @@
       <c r="F898" s="156"/>
       <c r="G898" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M898" s="37"/>
       <c r="N898" s="38"/>
@@ -47045,7 +47077,7 @@
       <c r="F899" s="156"/>
       <c r="G899" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M899" s="37"/>
       <c r="N899" s="38"/>
@@ -47066,7 +47098,7 @@
       <c r="F900" s="156"/>
       <c r="G900" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M900" s="37"/>
       <c r="N900" s="38"/>
@@ -47087,7 +47119,7 @@
       <c r="F901" s="156"/>
       <c r="G901" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M901" s="519"/>
       <c r="N901" s="305"/>
@@ -47108,7 +47140,7 @@
       <c r="F902" s="156"/>
       <c r="G902" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M902" s="519"/>
       <c r="N902" s="305"/>
@@ -47129,7 +47161,7 @@
       <c r="F903" s="156"/>
       <c r="G903" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M903" s="519"/>
       <c r="N903" s="305"/>
@@ -47149,7 +47181,7 @@
       <c r="F904" s="525"/>
       <c r="G904" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="H904" s="36"/>
       <c r="M904" s="519"/>
@@ -47170,7 +47202,7 @@
       <c r="F905" s="156"/>
       <c r="G905" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M905" s="519"/>
       <c r="N905" s="305"/>
@@ -47190,7 +47222,7 @@
       <c r="F906" s="156"/>
       <c r="G906" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M906" s="519"/>
       <c r="N906" s="305"/>
@@ -47210,7 +47242,7 @@
       <c r="F907" s="156"/>
       <c r="G907" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M907" s="519"/>
       <c r="N907" s="305"/>
@@ -47230,7 +47262,7 @@
       <c r="F908" s="156"/>
       <c r="G908" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M908" s="520"/>
       <c r="N908" s="378"/>
@@ -47250,7 +47282,7 @@
       <c r="F909" s="156"/>
       <c r="G909" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M909" s="520"/>
       <c r="N909" s="378"/>
@@ -47270,7 +47302,7 @@
       <c r="F910" s="156"/>
       <c r="G910" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M910" s="520"/>
       <c r="N910" s="378"/>
@@ -47290,7 +47322,7 @@
       <c r="F911" s="156"/>
       <c r="G911" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M911" s="520"/>
       <c r="N911" s="378"/>
@@ -47310,7 +47342,7 @@
       <c r="F912" s="156"/>
       <c r="G912" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M912" s="520"/>
       <c r="N912" s="378"/>
@@ -47330,7 +47362,7 @@
       <c r="F913" s="156"/>
       <c r="G913" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
       <c r="M913" s="520"/>
       <c r="N913" s="378"/>
@@ -47349,7 +47381,7 @@
       <c r="F914" s="156"/>
       <c r="G914" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
     </row>
     <row r="915" spans="1:19" x14ac:dyDescent="0.25">
@@ -47361,7 +47393,7 @@
       <c r="F915" s="156"/>
       <c r="G915" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
     </row>
     <row r="916" spans="1:19" x14ac:dyDescent="0.25">
@@ -47373,7 +47405,7 @@
       <c r="F916" s="156"/>
       <c r="G916" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
     </row>
     <row r="917" spans="1:19" x14ac:dyDescent="0.25">
@@ -47385,7 +47417,7 @@
       <c r="F917" s="156"/>
       <c r="G917" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
     </row>
     <row r="918" spans="1:19" x14ac:dyDescent="0.25">
@@ -47397,7 +47429,7 @@
       <c r="F918" s="156"/>
       <c r="G918" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
     </row>
     <row r="919" spans="1:19" x14ac:dyDescent="0.25">
@@ -47409,7 +47441,7 @@
       <c r="F919" s="157"/>
       <c r="G919" s="53">
         <f t="shared" si="82"/>
-        <v>14167.529999999999</v>
+        <v>13717.529999999999</v>
       </c>
     </row>
   </sheetData>
@@ -47423,7 +47455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>

--- a/DOC 2023/BANCOS.xlsx
+++ b/DOC 2023/BANCOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240CFCDF-ACAC-4DA5-9C0A-D33E9A399B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9865EF5A-E010-479E-8D80-1E00B0EB0EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5944" uniqueCount="1794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5999" uniqueCount="1810">
   <si>
     <t>ABRILTRANS S.A</t>
   </si>
@@ -5414,6 +5414,54 @@
   </si>
   <si>
     <t xml:space="preserve">Jaime abril </t>
+  </si>
+  <si>
+    <t>670.54</t>
+  </si>
+  <si>
+    <t>20,122.84</t>
+  </si>
+  <si>
+    <t>10.49</t>
+  </si>
+  <si>
+    <t>20,112.35</t>
+  </si>
+  <si>
+    <t>637.55</t>
+  </si>
+  <si>
+    <t>19,474.80</t>
+  </si>
+  <si>
+    <t>19,294.80</t>
+  </si>
+  <si>
+    <t>19,293.80</t>
+  </si>
+  <si>
+    <t>18,893.80</t>
+  </si>
+  <si>
+    <t>18,892.80</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>18,812.80</t>
+  </si>
+  <si>
+    <t>1,504.97</t>
+  </si>
+  <si>
+    <t>17,307.83</t>
+  </si>
+  <si>
+    <t>15,802.86</t>
+  </si>
+  <si>
+    <t>15,588.57</t>
   </si>
 </sst>
 </file>
@@ -5856,7 +5904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="560">
+  <cellXfs count="564">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7235,6 +7283,16 @@
     <xf numFmtId="2" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="18" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9389,6 +9447,555 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>855</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>855</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Imagen 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{330B51A1-B7E2-424A-BFF4-B8F84859149D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="163849050"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>856</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>856</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Imagen 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10757379-990D-4FBB-906C-AB056D634AB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="164049075"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>857</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>857</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Imagen 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A055D790-7C90-4E76-BD42-A7D37EA13627}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="164249100"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>859</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>859</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Imagen 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7B10E5A-06CF-4979-9102-932B9F11E888}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="164420550"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>860</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>860</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Imagen 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729C85D7-7525-4408-BBA8-38A0F9DB1A63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="164620575"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>861</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>861</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Imagen 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4264B9-CEE8-477F-BCF6-7BA1B8DA29E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="164820600"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>862</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>862</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Imagen 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1FCE25-346B-4A8B-810B-5CD3480DAECE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="165020625"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>863</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>863</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Imagen 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7562E15-EA06-4A39-A5D8-8CF14668E978}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="165220650"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>864</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>864</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Imagen 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36EBC3BE-C165-4323-B76E-70BFD5D8E152}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="165420675"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9691,8 +10298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A845" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="G863" sqref="G863"/>
+    <sheetView tabSelected="1" topLeftCell="D851" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="M868" sqref="M868"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46021,14 +46628,28 @@
       <c r="J856" s="85"/>
       <c r="K856" s="87"/>
       <c r="L856" s="85"/>
-      <c r="M856" s="519"/>
-      <c r="N856" s="305"/>
-      <c r="O856" s="305"/>
-      <c r="P856" s="306"/>
-      <c r="Q856" s="306"/>
-      <c r="R856" s="306"/>
-      <c r="S856" s="306"/>
-      <c r="T856" s="305"/>
+      <c r="M856" s="519">
+        <v>45183</v>
+      </c>
+      <c r="N856" s="305" t="s">
+        <v>18</v>
+      </c>
+      <c r="O856" s="305">
+        <v>1411</v>
+      </c>
+      <c r="P856" s="306" t="s">
+        <v>1794</v>
+      </c>
+      <c r="Q856" s="306" t="s">
+        <v>73</v>
+      </c>
+      <c r="R856" s="306" t="s">
+        <v>1795</v>
+      </c>
+      <c r="S856" s="306" t="s">
+        <v>1795</v>
+      </c>
+      <c r="T856" s="435"/>
       <c r="U856" s="87"/>
     </row>
     <row r="857" spans="1:21" x14ac:dyDescent="0.25">
@@ -46057,14 +46678,28 @@
       <c r="J857" s="87"/>
       <c r="K857" s="87"/>
       <c r="L857" s="85"/>
-      <c r="M857" s="519"/>
-      <c r="N857" s="305"/>
-      <c r="O857" s="305"/>
-      <c r="P857" s="306"/>
-      <c r="Q857" s="306"/>
-      <c r="R857" s="306"/>
-      <c r="S857" s="306"/>
-      <c r="T857" s="305"/>
+      <c r="M857" s="519">
+        <v>45184</v>
+      </c>
+      <c r="N857" s="305" t="s">
+        <v>59</v>
+      </c>
+      <c r="O857" s="305">
+        <v>1394</v>
+      </c>
+      <c r="P857" s="306" t="s">
+        <v>1796</v>
+      </c>
+      <c r="Q857" s="306" t="s">
+        <v>73</v>
+      </c>
+      <c r="R857" s="306" t="s">
+        <v>1797</v>
+      </c>
+      <c r="S857" s="306" t="s">
+        <v>1797</v>
+      </c>
+      <c r="T857" s="435"/>
       <c r="U857" s="87"/>
     </row>
     <row r="858" spans="1:21" x14ac:dyDescent="0.25">
@@ -46093,14 +46728,28 @@
       <c r="J858" s="87"/>
       <c r="K858" s="87"/>
       <c r="L858" s="85"/>
-      <c r="M858" s="519"/>
-      <c r="N858" s="305"/>
-      <c r="O858" s="305"/>
-      <c r="P858" s="306"/>
-      <c r="Q858" s="306"/>
-      <c r="R858" s="306"/>
-      <c r="S858" s="306"/>
-      <c r="T858" s="305"/>
+      <c r="M858" s="519">
+        <v>45184</v>
+      </c>
+      <c r="N858" s="305" t="s">
+        <v>59</v>
+      </c>
+      <c r="O858" s="305">
+        <v>1391</v>
+      </c>
+      <c r="P858" s="306" t="s">
+        <v>1798</v>
+      </c>
+      <c r="Q858" s="306" t="s">
+        <v>73</v>
+      </c>
+      <c r="R858" s="306" t="s">
+        <v>1799</v>
+      </c>
+      <c r="S858" s="306" t="s">
+        <v>1799</v>
+      </c>
+      <c r="T858" s="435"/>
       <c r="U858" s="87"/>
     </row>
     <row r="859" spans="1:21" x14ac:dyDescent="0.25">
@@ -46129,14 +46778,28 @@
       <c r="J859" s="87"/>
       <c r="K859" s="87"/>
       <c r="L859" s="87"/>
-      <c r="M859" s="519"/>
-      <c r="N859" s="305"/>
-      <c r="O859" s="305"/>
-      <c r="P859" s="306"/>
-      <c r="Q859" s="306"/>
-      <c r="R859" s="306"/>
-      <c r="S859" s="306"/>
-      <c r="T859" s="305"/>
+      <c r="M859" s="519">
+        <v>45184</v>
+      </c>
+      <c r="N859" s="305" t="s">
+        <v>38</v>
+      </c>
+      <c r="O859" s="305">
+        <v>634</v>
+      </c>
+      <c r="P859" s="306" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q859" s="306" t="s">
+        <v>73</v>
+      </c>
+      <c r="R859" s="306" t="s">
+        <v>1800</v>
+      </c>
+      <c r="S859" s="306" t="s">
+        <v>1800</v>
+      </c>
+      <c r="T859" s="435"/>
       <c r="U859" s="87"/>
     </row>
     <row r="860" spans="1:21" x14ac:dyDescent="0.25">
@@ -46165,13 +46828,27 @@
       <c r="J860" s="87"/>
       <c r="K860" s="87"/>
       <c r="L860" s="87"/>
-      <c r="M860" s="519"/>
-      <c r="N860" s="305"/>
-      <c r="O860" s="305"/>
-      <c r="P860" s="306"/>
-      <c r="Q860" s="306"/>
-      <c r="R860" s="306"/>
-      <c r="S860" s="306"/>
+      <c r="M860" s="519">
+        <v>45184</v>
+      </c>
+      <c r="N860" s="305" t="s">
+        <v>38</v>
+      </c>
+      <c r="O860" s="305">
+        <v>499</v>
+      </c>
+      <c r="P860" s="306" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q860" s="306" t="s">
+        <v>73</v>
+      </c>
+      <c r="R860" s="306" t="s">
+        <v>1801</v>
+      </c>
+      <c r="S860" s="306" t="s">
+        <v>1801</v>
+      </c>
       <c r="T860" s="305"/>
       <c r="U860" s="87"/>
     </row>
@@ -46201,13 +46878,27 @@
       <c r="J861" s="87"/>
       <c r="K861" s="87"/>
       <c r="L861" s="87"/>
-      <c r="M861" s="519"/>
-      <c r="N861" s="305"/>
-      <c r="O861" s="305"/>
-      <c r="P861" s="306"/>
-      <c r="Q861" s="306"/>
-      <c r="R861" s="306"/>
-      <c r="S861" s="306"/>
+      <c r="M861" s="519">
+        <v>45184</v>
+      </c>
+      <c r="N861" s="305" t="s">
+        <v>38</v>
+      </c>
+      <c r="O861" s="305">
+        <v>634</v>
+      </c>
+      <c r="P861" s="306" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q861" s="306" t="s">
+        <v>73</v>
+      </c>
+      <c r="R861" s="306" t="s">
+        <v>1802</v>
+      </c>
+      <c r="S861" s="306" t="s">
+        <v>1802</v>
+      </c>
       <c r="T861" s="305"/>
       <c r="U861" s="87"/>
     </row>
@@ -46237,13 +46928,27 @@
       <c r="J862" s="87"/>
       <c r="K862" s="87"/>
       <c r="L862" s="87"/>
-      <c r="M862" s="519"/>
-      <c r="N862" s="305"/>
-      <c r="O862" s="305"/>
-      <c r="P862" s="306"/>
-      <c r="Q862" s="306"/>
-      <c r="R862" s="306"/>
-      <c r="S862" s="306"/>
+      <c r="M862" s="519">
+        <v>45184</v>
+      </c>
+      <c r="N862" s="305" t="s">
+        <v>38</v>
+      </c>
+      <c r="O862" s="305">
+        <v>499</v>
+      </c>
+      <c r="P862" s="306" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q862" s="306" t="s">
+        <v>73</v>
+      </c>
+      <c r="R862" s="306" t="s">
+        <v>1803</v>
+      </c>
+      <c r="S862" s="306" t="s">
+        <v>1803</v>
+      </c>
       <c r="T862" s="305"/>
       <c r="U862" s="87"/>
     </row>
@@ -46273,14 +46978,28 @@
       <c r="J863" s="87"/>
       <c r="K863" s="87"/>
       <c r="L863" s="87"/>
-      <c r="M863" s="518"/>
-      <c r="N863" s="280"/>
-      <c r="O863" s="280"/>
-      <c r="P863" s="264"/>
-      <c r="Q863" s="264"/>
-      <c r="R863" s="264"/>
-      <c r="S863" s="264"/>
-      <c r="T863" s="443"/>
+      <c r="M863" s="519">
+        <v>45184</v>
+      </c>
+      <c r="N863" s="305" t="s">
+        <v>18</v>
+      </c>
+      <c r="O863" s="305">
+        <v>1414</v>
+      </c>
+      <c r="P863" s="306" t="s">
+        <v>1804</v>
+      </c>
+      <c r="Q863" s="306" t="s">
+        <v>73</v>
+      </c>
+      <c r="R863" s="306" t="s">
+        <v>1805</v>
+      </c>
+      <c r="S863" s="306" t="s">
+        <v>1805</v>
+      </c>
+      <c r="T863" s="305"/>
       <c r="U863" s="87"/>
     </row>
     <row r="864" spans="1:21" x14ac:dyDescent="0.25">
@@ -46299,14 +47018,28 @@
       <c r="J864" s="87"/>
       <c r="K864" s="87"/>
       <c r="L864" s="87"/>
-      <c r="M864" s="518"/>
-      <c r="N864" s="280"/>
-      <c r="O864" s="280"/>
-      <c r="P864" s="264"/>
-      <c r="Q864" s="264"/>
-      <c r="R864" s="264"/>
-      <c r="S864" s="264"/>
-      <c r="T864" s="443"/>
+      <c r="M864" s="519">
+        <v>45187</v>
+      </c>
+      <c r="N864" s="305" t="s">
+        <v>18</v>
+      </c>
+      <c r="O864" s="305">
+        <v>1420</v>
+      </c>
+      <c r="P864" s="306" t="s">
+        <v>1806</v>
+      </c>
+      <c r="Q864" s="306" t="s">
+        <v>73</v>
+      </c>
+      <c r="R864" s="306" t="s">
+        <v>1807</v>
+      </c>
+      <c r="S864" s="306" t="s">
+        <v>1807</v>
+      </c>
+      <c r="T864" s="305"/>
       <c r="U864" s="87"/>
     </row>
     <row r="865" spans="1:21" x14ac:dyDescent="0.25">
@@ -46325,14 +47058,28 @@
       <c r="J865" s="87"/>
       <c r="K865" s="87"/>
       <c r="L865" s="87"/>
-      <c r="M865" s="518"/>
-      <c r="N865" s="280"/>
-      <c r="O865" s="280"/>
-      <c r="P865" s="264"/>
-      <c r="Q865" s="264"/>
-      <c r="R865" s="264"/>
-      <c r="S865" s="264"/>
-      <c r="T865" s="443"/>
+      <c r="M865" s="519">
+        <v>45187</v>
+      </c>
+      <c r="N865" s="305" t="s">
+        <v>18</v>
+      </c>
+      <c r="O865" s="305">
+        <v>1419</v>
+      </c>
+      <c r="P865" s="306" t="s">
+        <v>1806</v>
+      </c>
+      <c r="Q865" s="306" t="s">
+        <v>73</v>
+      </c>
+      <c r="R865" s="306" t="s">
+        <v>1808</v>
+      </c>
+      <c r="S865" s="306" t="s">
+        <v>1808</v>
+      </c>
+      <c r="T865" s="305"/>
       <c r="U865" s="87"/>
     </row>
     <row r="866" spans="1:21" x14ac:dyDescent="0.25">
@@ -46351,14 +47098,28 @@
       <c r="J866" s="87"/>
       <c r="K866" s="87"/>
       <c r="L866" s="87"/>
-      <c r="M866" s="518"/>
-      <c r="N866" s="280"/>
-      <c r="O866" s="280"/>
-      <c r="P866" s="264"/>
-      <c r="Q866" s="264"/>
-      <c r="R866" s="264"/>
-      <c r="S866" s="264"/>
-      <c r="T866" s="443"/>
+      <c r="M866" s="519">
+        <v>45187</v>
+      </c>
+      <c r="N866" s="305" t="s">
+        <v>18</v>
+      </c>
+      <c r="O866" s="305">
+        <v>1382</v>
+      </c>
+      <c r="P866" s="306" t="s">
+        <v>1664</v>
+      </c>
+      <c r="Q866" s="306" t="s">
+        <v>73</v>
+      </c>
+      <c r="R866" s="306" t="s">
+        <v>1809</v>
+      </c>
+      <c r="S866" s="306" t="s">
+        <v>1809</v>
+      </c>
+      <c r="T866" s="563"/>
       <c r="U866" s="87"/>
     </row>
     <row r="867" spans="1:21" x14ac:dyDescent="0.25">
@@ -46377,14 +47138,14 @@
       <c r="J867" s="87"/>
       <c r="K867" s="87"/>
       <c r="L867" s="87"/>
-      <c r="M867" s="518"/>
-      <c r="N867" s="280"/>
-      <c r="O867" s="280"/>
-      <c r="P867" s="264"/>
-      <c r="Q867" s="264"/>
-      <c r="R867" s="264"/>
-      <c r="S867" s="264"/>
-      <c r="T867" s="443"/>
+      <c r="M867" s="560"/>
+      <c r="N867" s="491"/>
+      <c r="O867" s="491"/>
+      <c r="P867" s="561"/>
+      <c r="Q867" s="561"/>
+      <c r="R867" s="561"/>
+      <c r="S867" s="561"/>
+      <c r="T867" s="562"/>
       <c r="U867" s="87"/>
     </row>
     <row r="868" spans="1:21" x14ac:dyDescent="0.25">
@@ -46410,7 +47171,7 @@
       <c r="Q868" s="264"/>
       <c r="R868" s="264"/>
       <c r="S868" s="264"/>
-      <c r="T868" s="443"/>
+      <c r="T868" s="501"/>
       <c r="U868" s="87"/>
     </row>
     <row r="869" spans="1:21" x14ac:dyDescent="0.25">
@@ -46436,7 +47197,7 @@
       <c r="Q869" s="264"/>
       <c r="R869" s="264"/>
       <c r="S869" s="264"/>
-      <c r="T869" s="501"/>
+      <c r="T869" s="504"/>
       <c r="U869" s="87"/>
     </row>
     <row r="870" spans="1:21" x14ac:dyDescent="0.25">
@@ -46462,7 +47223,7 @@
       <c r="Q870" s="264"/>
       <c r="R870" s="264"/>
       <c r="S870" s="264"/>
-      <c r="T870" s="504"/>
+      <c r="T870" s="505"/>
       <c r="U870" s="87"/>
     </row>
     <row r="871" spans="1:21" x14ac:dyDescent="0.25">
@@ -46687,7 +47448,7 @@
       <c r="Q880" s="264"/>
       <c r="R880" s="264"/>
       <c r="S880" s="264"/>
-      <c r="T880" s="505"/>
+      <c r="T880" s="500"/>
       <c r="U880" s="87"/>
     </row>
     <row r="881" spans="1:21" x14ac:dyDescent="0.25">
@@ -46708,7 +47469,7 @@
       <c r="Q881" s="264"/>
       <c r="R881" s="264"/>
       <c r="S881" s="264"/>
-      <c r="T881" s="500"/>
+      <c r="T881" s="305"/>
       <c r="U881" s="87"/>
     </row>
     <row r="882" spans="1:21" x14ac:dyDescent="0.25">
@@ -46729,7 +47490,7 @@
       <c r="Q882" s="264"/>
       <c r="R882" s="264"/>
       <c r="S882" s="264"/>
-      <c r="T882" s="305"/>
+      <c r="T882" s="280"/>
       <c r="U882" s="87"/>
     </row>
     <row r="883" spans="1:21" x14ac:dyDescent="0.25">
@@ -46911,14 +47672,14 @@
         <f t="shared" si="82"/>
         <v>13717.529999999999</v>
       </c>
-      <c r="M891" s="518"/>
-      <c r="N891" s="280"/>
-      <c r="O891" s="280"/>
-      <c r="P891" s="264"/>
-      <c r="Q891" s="264"/>
-      <c r="R891" s="264"/>
-      <c r="S891" s="264"/>
-      <c r="T891" s="280"/>
+      <c r="M891" s="37"/>
+      <c r="N891" s="38"/>
+      <c r="O891" s="38"/>
+      <c r="P891" s="39"/>
+      <c r="Q891" s="39"/>
+      <c r="R891" s="39"/>
+      <c r="S891" s="39"/>
+      <c r="T891" s="38"/>
       <c r="U891" s="87"/>
     </row>
     <row r="892" spans="1:21" x14ac:dyDescent="0.25">
@@ -47023,7 +47784,7 @@
       <c r="Q896" s="39"/>
       <c r="R896" s="39"/>
       <c r="S896" s="39"/>
-      <c r="T896" s="38"/>
+      <c r="T896" s="40"/>
       <c r="U896" s="87"/>
     </row>
     <row r="897" spans="1:21" x14ac:dyDescent="0.25">
@@ -47044,7 +47805,7 @@
       <c r="Q897" s="39"/>
       <c r="R897" s="39"/>
       <c r="S897" s="39"/>
-      <c r="T897" s="40"/>
+      <c r="T897" s="38"/>
       <c r="U897" s="87"/>
     </row>
     <row r="898" spans="1:21" x14ac:dyDescent="0.25">
@@ -47100,14 +47861,14 @@
         <f t="shared" si="82"/>
         <v>13717.529999999999</v>
       </c>
-      <c r="M900" s="37"/>
-      <c r="N900" s="38"/>
-      <c r="O900" s="38"/>
-      <c r="P900" s="39"/>
-      <c r="Q900" s="39"/>
-      <c r="R900" s="39"/>
-      <c r="S900" s="39"/>
-      <c r="T900" s="38"/>
+      <c r="M900" s="519"/>
+      <c r="N900" s="305"/>
+      <c r="O900" s="305"/>
+      <c r="P900" s="306"/>
+      <c r="Q900" s="306"/>
+      <c r="R900" s="306"/>
+      <c r="S900" s="306"/>
+      <c r="T900" s="305"/>
       <c r="U900" s="87"/>
     </row>
     <row r="901" spans="1:21" x14ac:dyDescent="0.25">
@@ -47170,7 +47931,7 @@
       <c r="Q903" s="306"/>
       <c r="R903" s="306"/>
       <c r="S903" s="306"/>
-      <c r="T903" s="305"/>
+      <c r="T903" s="480"/>
     </row>
     <row r="904" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A904" s="524"/>
@@ -47244,14 +48005,14 @@
         <f t="shared" si="82"/>
         <v>13717.529999999999</v>
       </c>
-      <c r="M907" s="519"/>
-      <c r="N907" s="305"/>
-      <c r="O907" s="305"/>
-      <c r="P907" s="306"/>
-      <c r="Q907" s="306"/>
-      <c r="R907" s="306"/>
-      <c r="S907" s="306"/>
-      <c r="T907" s="480"/>
+      <c r="M907" s="520"/>
+      <c r="N907" s="378"/>
+      <c r="O907" s="378"/>
+      <c r="P907" s="95"/>
+      <c r="Q907" s="95"/>
+      <c r="R907" s="95"/>
+      <c r="S907" s="95"/>
+      <c r="T907" s="430"/>
     </row>
     <row r="908" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A908" s="441"/>
@@ -47331,7 +48092,7 @@
       <c r="Q911" s="95"/>
       <c r="R911" s="95"/>
       <c r="S911" s="95"/>
-      <c r="T911" s="430"/>
+      <c r="T911" s="223"/>
     </row>
     <row r="912" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A912" s="155"/>
@@ -47349,11 +48110,10 @@
       <c r="O912" s="378"/>
       <c r="P912" s="95"/>
       <c r="Q912" s="95"/>
-      <c r="R912" s="95"/>
-      <c r="S912" s="95"/>
-      <c r="T912" s="223"/>
-    </row>
-    <row r="913" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R912" s="87"/>
+      <c r="S912" s="87"/>
+    </row>
+    <row r="913" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A913" s="155"/>
       <c r="B913" s="154"/>
       <c r="C913" s="154"/>
@@ -47364,15 +48124,8 @@
         <f t="shared" si="82"/>
         <v>13717.529999999999</v>
       </c>
-      <c r="M913" s="520"/>
-      <c r="N913" s="378"/>
-      <c r="O913" s="378"/>
-      <c r="P913" s="95"/>
-      <c r="Q913" s="95"/>
-      <c r="R913" s="87"/>
-      <c r="S913" s="87"/>
-    </row>
-    <row r="914" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="914" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A914" s="155"/>
       <c r="B914" s="154"/>
       <c r="C914" s="154"/>
@@ -47384,7 +48137,7 @@
         <v>13717.529999999999</v>
       </c>
     </row>
-    <row r="915" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A915" s="155"/>
       <c r="B915" s="154"/>
       <c r="C915" s="154"/>
@@ -47396,7 +48149,7 @@
         <v>13717.529999999999</v>
       </c>
     </row>
-    <row r="916" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A916" s="155"/>
       <c r="B916" s="154"/>
       <c r="C916" s="154"/>
@@ -47408,7 +48161,7 @@
         <v>13717.529999999999</v>
       </c>
     </row>
-    <row r="917" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A917" s="154"/>
       <c r="B917" s="154"/>
       <c r="C917" s="154"/>
@@ -47420,7 +48173,7 @@
         <v>13717.529999999999</v>
       </c>
     </row>
-    <row r="918" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A918" s="154"/>
       <c r="B918" s="154"/>
       <c r="C918" s="154"/>
@@ -47432,7 +48185,7 @@
         <v>13717.529999999999</v>
       </c>
     </row>
-    <row r="919" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A919" s="136"/>
       <c r="B919" s="136"/>
       <c r="C919" s="136"/>

--- a/DOC 2023/BANCOS.xlsx
+++ b/DOC 2023/BANCOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9865EF5A-E010-479E-8D80-1E00B0EB0EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2899340E-FF06-4D21-935B-F4E6A883371C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5999" uniqueCount="1810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6017" uniqueCount="1816">
   <si>
     <t>ABRILTRANS S.A</t>
   </si>
@@ -5377,9 +5377,6 @@
     <t>CH1408</t>
   </si>
   <si>
-    <t>CH1409</t>
-  </si>
-  <si>
     <t>CH1410</t>
   </si>
   <si>
@@ -5462,6 +5459,27 @@
   </si>
   <si>
     <t>15,588.57</t>
+  </si>
+  <si>
+    <t>CH1414</t>
+  </si>
+  <si>
+    <t>CH1417</t>
+  </si>
+  <si>
+    <t>CH1420</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>VEGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVIMIENTO BANCOS </t>
+  </si>
+  <si>
+    <t>CH1419</t>
   </si>
 </sst>
 </file>
@@ -5904,7 +5922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="564">
+  <cellXfs count="566">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7292,7 +7310,15 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="19" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10298,8 +10324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D851" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="M868" sqref="M868"/>
+    <sheetView tabSelected="1" topLeftCell="A851" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="I821" sqref="I821"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44603,20 +44629,20 @@
       <c r="U815" s="87"/>
     </row>
     <row r="816" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A816" s="153">
+      <c r="A816" s="204">
         <v>45173</v>
       </c>
-      <c r="B816" s="154" t="s">
+      <c r="B816" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="C816" s="154" t="s">
+      <c r="C816" s="205" t="s">
         <v>1709</v>
       </c>
-      <c r="D816" s="154" t="s">
+      <c r="D816" s="205" t="s">
         <v>251</v>
       </c>
-      <c r="E816" s="53"/>
-      <c r="F816" s="53">
+      <c r="E816" s="206"/>
+      <c r="F816" s="206">
         <v>214.29</v>
       </c>
       <c r="G816" s="53">
@@ -45556,17 +45582,17 @@
       <c r="A835" s="153">
         <v>45178</v>
       </c>
-      <c r="B835" s="154" t="s">
+      <c r="B835" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="C835" s="154" t="s">
+      <c r="C835" s="205" t="s">
         <v>1747</v>
       </c>
-      <c r="D835" s="154" t="s">
+      <c r="D835" s="205" t="s">
         <v>1748</v>
       </c>
-      <c r="E835" s="88"/>
-      <c r="F835" s="88">
+      <c r="E835" s="499"/>
+      <c r="F835" s="499">
         <v>637.54999999999995</v>
       </c>
       <c r="G835" s="53">
@@ -45906,17 +45932,17 @@
       <c r="A842" s="441">
         <v>45181</v>
       </c>
-      <c r="B842" s="154" t="s">
+      <c r="B842" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="C842" s="154" t="s">
+      <c r="C842" s="205" t="s">
         <v>1752</v>
       </c>
-      <c r="D842" s="156" t="s">
+      <c r="D842" s="213" t="s">
         <v>1748</v>
       </c>
-      <c r="E842" s="156"/>
-      <c r="F842" s="156">
+      <c r="E842" s="213"/>
+      <c r="F842" s="213">
         <v>10.49</v>
       </c>
       <c r="G842" s="53">
@@ -46628,26 +46654,26 @@
       <c r="J856" s="85"/>
       <c r="K856" s="87"/>
       <c r="L856" s="85"/>
-      <c r="M856" s="519">
+      <c r="M856" s="563">
         <v>45183</v>
       </c>
-      <c r="N856" s="305" t="s">
+      <c r="N856" s="564" t="s">
         <v>18</v>
       </c>
-      <c r="O856" s="305">
+      <c r="O856" s="564">
         <v>1411</v>
       </c>
-      <c r="P856" s="306" t="s">
+      <c r="P856" s="565" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q856" s="565" t="s">
+        <v>73</v>
+      </c>
+      <c r="R856" s="306" t="s">
         <v>1794</v>
       </c>
-      <c r="Q856" s="306" t="s">
-        <v>73</v>
-      </c>
-      <c r="R856" s="306" t="s">
-        <v>1795</v>
-      </c>
       <c r="S856" s="306" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="T856" s="435"/>
       <c r="U856" s="87"/>
@@ -46678,26 +46704,26 @@
       <c r="J857" s="87"/>
       <c r="K857" s="87"/>
       <c r="L857" s="85"/>
-      <c r="M857" s="519">
+      <c r="M857" s="563">
         <v>45184</v>
       </c>
-      <c r="N857" s="305" t="s">
+      <c r="N857" s="564" t="s">
         <v>59</v>
       </c>
-      <c r="O857" s="305">
+      <c r="O857" s="564">
         <v>1394</v>
       </c>
-      <c r="P857" s="306" t="s">
+      <c r="P857" s="565" t="s">
+        <v>1795</v>
+      </c>
+      <c r="Q857" s="565" t="s">
+        <v>73</v>
+      </c>
+      <c r="R857" s="306" t="s">
         <v>1796</v>
       </c>
-      <c r="Q857" s="306" t="s">
-        <v>73</v>
-      </c>
-      <c r="R857" s="306" t="s">
-        <v>1797</v>
-      </c>
       <c r="S857" s="306" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="T857" s="435"/>
       <c r="U857" s="87"/>
@@ -46728,76 +46754,66 @@
       <c r="J858" s="87"/>
       <c r="K858" s="87"/>
       <c r="L858" s="85"/>
-      <c r="M858" s="519">
+      <c r="M858" s="563">
         <v>45184</v>
       </c>
-      <c r="N858" s="305" t="s">
+      <c r="N858" s="564" t="s">
         <v>59</v>
       </c>
-      <c r="O858" s="305">
+      <c r="O858" s="564">
         <v>1391</v>
       </c>
-      <c r="P858" s="306" t="s">
+      <c r="P858" s="565" t="s">
+        <v>1797</v>
+      </c>
+      <c r="Q858" s="565" t="s">
+        <v>73</v>
+      </c>
+      <c r="R858" s="306" t="s">
         <v>1798</v>
       </c>
-      <c r="Q858" s="306" t="s">
-        <v>73</v>
-      </c>
-      <c r="R858" s="306" t="s">
-        <v>1799</v>
-      </c>
       <c r="S858" s="306" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="T858" s="435"/>
       <c r="U858" s="87"/>
     </row>
     <row r="859" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A859" s="441">
-        <v>45183</v>
-      </c>
-      <c r="B859" s="154" t="s">
-        <v>15</v>
-      </c>
-      <c r="C859" s="154" t="s">
-        <v>1781</v>
-      </c>
-      <c r="D859" s="154" t="s">
-        <v>251</v>
-      </c>
+      <c r="A859" s="441"/>
+      <c r="B859" s="154"/>
+      <c r="C859" s="154"/>
+      <c r="D859" s="154"/>
       <c r="E859" s="156"/>
-      <c r="F859" s="156">
-        <v>3009.94</v>
-      </c>
+      <c r="F859" s="156"/>
       <c r="G859" s="53">
         <f t="shared" si="78"/>
-        <v>15922.639999999998</v>
+        <v>18932.579999999998</v>
       </c>
       <c r="H859" s="87"/>
       <c r="I859" s="87"/>
       <c r="J859" s="87"/>
       <c r="K859" s="87"/>
       <c r="L859" s="87"/>
-      <c r="M859" s="519">
+      <c r="M859" s="563">
         <v>45184</v>
       </c>
-      <c r="N859" s="305" t="s">
+      <c r="N859" s="564" t="s">
         <v>38</v>
       </c>
-      <c r="O859" s="305">
+      <c r="O859" s="564">
         <v>634</v>
       </c>
-      <c r="P859" s="306" t="s">
+      <c r="P859" s="565" t="s">
         <v>432</v>
       </c>
-      <c r="Q859" s="306" t="s">
+      <c r="Q859" s="565" t="s">
         <v>73</v>
       </c>
       <c r="R859" s="306" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="S859" s="306" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="T859" s="435"/>
       <c r="U859" s="87"/>
@@ -46810,7 +46826,7 @@
         <v>15</v>
       </c>
       <c r="C860" s="225" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="D860" s="225" t="s">
         <v>436</v>
@@ -46821,83 +46837,83 @@
       </c>
       <c r="G860" s="53">
         <f t="shared" si="78"/>
-        <v>14838.069999999998</v>
+        <v>17848.009999999998</v>
       </c>
       <c r="H860" s="87"/>
       <c r="I860" s="87"/>
       <c r="J860" s="87"/>
       <c r="K860" s="87"/>
       <c r="L860" s="87"/>
-      <c r="M860" s="519">
+      <c r="M860" s="563">
         <v>45184</v>
       </c>
-      <c r="N860" s="305" t="s">
+      <c r="N860" s="564" t="s">
         <v>38</v>
       </c>
-      <c r="O860" s="305">
+      <c r="O860" s="564">
         <v>499</v>
       </c>
-      <c r="P860" s="306" t="s">
+      <c r="P860" s="565" t="s">
         <v>1170</v>
       </c>
-      <c r="Q860" s="306" t="s">
+      <c r="Q860" s="565" t="s">
         <v>73</v>
       </c>
       <c r="R860" s="306" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="S860" s="306" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="T860" s="305"/>
       <c r="U860" s="87"/>
     </row>
     <row r="861" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A861" s="441">
+      <c r="A861" s="368">
         <v>45183</v>
       </c>
-      <c r="B861" s="154" t="s">
+      <c r="B861" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="C861" s="154" t="s">
-        <v>1783</v>
-      </c>
-      <c r="D861" s="154" t="s">
+      <c r="C861" s="205" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D861" s="205" t="s">
         <v>1712</v>
       </c>
-      <c r="E861" s="156"/>
-      <c r="F861" s="156">
+      <c r="E861" s="213"/>
+      <c r="F861" s="213">
         <v>670.54</v>
       </c>
       <c r="G861" s="53">
         <f t="shared" si="78"/>
-        <v>14167.529999999999</v>
+        <v>17177.469999999998</v>
       </c>
       <c r="H861" s="87"/>
       <c r="I861" s="87"/>
       <c r="J861" s="87"/>
       <c r="K861" s="87"/>
       <c r="L861" s="87"/>
-      <c r="M861" s="519">
+      <c r="M861" s="563">
         <v>45184</v>
       </c>
-      <c r="N861" s="305" t="s">
+      <c r="N861" s="564" t="s">
         <v>38</v>
       </c>
-      <c r="O861" s="305">
+      <c r="O861" s="564">
         <v>634</v>
       </c>
-      <c r="P861" s="306" t="s">
+      <c r="P861" s="565" t="s">
         <v>298</v>
       </c>
-      <c r="Q861" s="306" t="s">
+      <c r="Q861" s="565" t="s">
         <v>73</v>
       </c>
       <c r="R861" s="306" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="S861" s="306" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="T861" s="305"/>
       <c r="U861" s="87"/>
@@ -46910,10 +46926,10 @@
         <v>15</v>
       </c>
       <c r="C862" s="154" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D862" s="154" t="s">
         <v>1790</v>
-      </c>
-      <c r="D862" s="154" t="s">
-        <v>1791</v>
       </c>
       <c r="E862" s="156"/>
       <c r="F862" s="156">
@@ -46921,49 +46937,49 @@
       </c>
       <c r="G862" s="53">
         <f t="shared" si="78"/>
-        <v>13867.529999999999</v>
+        <v>16877.469999999998</v>
       </c>
       <c r="H862" s="87"/>
       <c r="I862" s="87"/>
       <c r="J862" s="87"/>
       <c r="K862" s="87"/>
       <c r="L862" s="87"/>
-      <c r="M862" s="519">
+      <c r="M862" s="563">
         <v>45184</v>
       </c>
-      <c r="N862" s="305" t="s">
+      <c r="N862" s="564" t="s">
         <v>38</v>
       </c>
-      <c r="O862" s="305">
+      <c r="O862" s="564">
         <v>499</v>
       </c>
-      <c r="P862" s="306" t="s">
+      <c r="P862" s="565" t="s">
         <v>1170</v>
       </c>
-      <c r="Q862" s="306" t="s">
+      <c r="Q862" s="565" t="s">
         <v>73</v>
       </c>
       <c r="R862" s="306" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="S862" s="306" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="T862" s="305"/>
       <c r="U862" s="87"/>
     </row>
     <row r="863" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A863" s="441">
-        <v>45152</v>
+        <v>45183</v>
       </c>
       <c r="B863" s="154" t="s">
         <v>15</v>
       </c>
       <c r="C863" s="154" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D863" s="154" t="s">
         <v>1792</v>
-      </c>
-      <c r="D863" s="154" t="s">
-        <v>1793</v>
       </c>
       <c r="E863" s="156"/>
       <c r="F863" s="156">
@@ -46971,167 +46987,207 @@
       </c>
       <c r="G863" s="53">
         <f t="shared" si="78"/>
-        <v>13717.529999999999</v>
+        <v>16727.469999999998</v>
       </c>
       <c r="H863" s="87"/>
       <c r="I863" s="87"/>
       <c r="J863" s="87"/>
       <c r="K863" s="87"/>
       <c r="L863" s="87"/>
-      <c r="M863" s="519">
+      <c r="M863" s="563">
         <v>45184</v>
       </c>
-      <c r="N863" s="305" t="s">
+      <c r="N863" s="564" t="s">
         <v>18</v>
       </c>
-      <c r="O863" s="305">
+      <c r="O863" s="564">
         <v>1414</v>
       </c>
-      <c r="P863" s="306" t="s">
+      <c r="P863" s="565" t="s">
+        <v>1803</v>
+      </c>
+      <c r="Q863" s="565" t="s">
+        <v>73</v>
+      </c>
+      <c r="R863" s="306" t="s">
         <v>1804</v>
       </c>
-      <c r="Q863" s="306" t="s">
-        <v>73</v>
-      </c>
-      <c r="R863" s="306" t="s">
-        <v>1805</v>
-      </c>
       <c r="S863" s="306" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="T863" s="305"/>
       <c r="U863" s="87"/>
     </row>
     <row r="864" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A864" s="441"/>
-      <c r="B864" s="154"/>
-      <c r="C864" s="154"/>
-      <c r="D864" s="154"/>
-      <c r="E864" s="156"/>
-      <c r="F864" s="156"/>
+      <c r="A864" s="368">
+        <v>45153</v>
+      </c>
+      <c r="B864" s="205" t="s">
+        <v>15</v>
+      </c>
+      <c r="C864" s="205" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D864" s="205" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E864" s="213"/>
+      <c r="F864" s="213">
+        <v>80</v>
+      </c>
       <c r="G864" s="53">
         <f t="shared" si="78"/>
-        <v>13717.529999999999</v>
+        <v>16647.469999999998</v>
       </c>
       <c r="H864" s="87"/>
       <c r="I864" s="87"/>
       <c r="J864" s="87"/>
       <c r="K864" s="87"/>
       <c r="L864" s="87"/>
-      <c r="M864" s="519">
+      <c r="M864" s="563">
         <v>45187</v>
       </c>
-      <c r="N864" s="305" t="s">
+      <c r="N864" s="564" t="s">
         <v>18</v>
       </c>
-      <c r="O864" s="305">
+      <c r="O864" s="564">
         <v>1420</v>
       </c>
-      <c r="P864" s="306" t="s">
+      <c r="P864" s="565" t="s">
+        <v>1805</v>
+      </c>
+      <c r="Q864" s="565" t="s">
+        <v>73</v>
+      </c>
+      <c r="R864" s="306" t="s">
         <v>1806</v>
       </c>
-      <c r="Q864" s="306" t="s">
-        <v>73</v>
-      </c>
-      <c r="R864" s="306" t="s">
-        <v>1807</v>
-      </c>
       <c r="S864" s="306" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="T864" s="305"/>
       <c r="U864" s="87"/>
     </row>
     <row r="865" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A865" s="441"/>
-      <c r="B865" s="154"/>
-      <c r="C865" s="154"/>
-      <c r="D865" s="154"/>
+      <c r="A865" s="441">
+        <v>45184</v>
+      </c>
+      <c r="B865" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C865" s="154" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D865" s="154" t="s">
+        <v>789</v>
+      </c>
       <c r="E865" s="156"/>
-      <c r="F865" s="156"/>
+      <c r="F865" s="156">
+        <v>300</v>
+      </c>
       <c r="G865" s="53">
         <f>G864+E865-F865</f>
-        <v>13717.529999999999</v>
+        <v>16347.469999999998</v>
       </c>
       <c r="H865" s="87"/>
       <c r="I865" s="87"/>
       <c r="J865" s="87"/>
       <c r="K865" s="87"/>
       <c r="L865" s="87"/>
-      <c r="M865" s="519">
+      <c r="M865" s="563">
         <v>45187</v>
       </c>
-      <c r="N865" s="305" t="s">
+      <c r="N865" s="564" t="s">
         <v>18</v>
       </c>
-      <c r="O865" s="305">
+      <c r="O865" s="564">
         <v>1419</v>
       </c>
-      <c r="P865" s="306" t="s">
-        <v>1806</v>
-      </c>
-      <c r="Q865" s="306" t="s">
+      <c r="P865" s="565" t="s">
+        <v>1805</v>
+      </c>
+      <c r="Q865" s="565" t="s">
         <v>73</v>
       </c>
       <c r="R865" s="306" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="S865" s="306" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="T865" s="305"/>
       <c r="U865" s="87"/>
     </row>
     <row r="866" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A866" s="441"/>
-      <c r="B866" s="154"/>
-      <c r="C866" s="154"/>
-      <c r="D866" s="154"/>
-      <c r="E866" s="156"/>
-      <c r="F866" s="156"/>
+      <c r="A866" s="368">
+        <v>45184</v>
+      </c>
+      <c r="B866" s="205" t="s">
+        <v>15</v>
+      </c>
+      <c r="C866" s="205" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D866" s="205" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E866" s="213"/>
+      <c r="F866" s="213">
+        <v>180</v>
+      </c>
       <c r="G866" s="53">
         <f t="shared" ref="G866:G881" si="79">G865+E866-F866</f>
-        <v>13717.529999999999</v>
+        <v>16167.469999999998</v>
       </c>
       <c r="H866" s="87"/>
       <c r="I866" s="87"/>
       <c r="J866" s="87"/>
       <c r="K866" s="87"/>
       <c r="L866" s="87"/>
-      <c r="M866" s="519">
+      <c r="M866" s="563">
         <v>45187</v>
       </c>
-      <c r="N866" s="305" t="s">
+      <c r="N866" s="564" t="s">
         <v>18</v>
       </c>
-      <c r="O866" s="305">
+      <c r="O866" s="564">
         <v>1382</v>
       </c>
-      <c r="P866" s="306" t="s">
+      <c r="P866" s="565" t="s">
         <v>1664</v>
       </c>
-      <c r="Q866" s="306" t="s">
+      <c r="Q866" s="565" t="s">
         <v>73</v>
       </c>
       <c r="R866" s="306" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="S866" s="306" t="s">
-        <v>1809</v>
-      </c>
-      <c r="T866" s="563"/>
+        <v>1808</v>
+      </c>
+      <c r="T866" s="136"/>
       <c r="U866" s="87"/>
     </row>
     <row r="867" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A867" s="441"/>
-      <c r="B867" s="154"/>
-      <c r="C867" s="154"/>
-      <c r="D867" s="154"/>
-      <c r="E867" s="156"/>
-      <c r="F867" s="156"/>
+      <c r="A867" s="368">
+        <v>45184</v>
+      </c>
+      <c r="B867" s="205" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C867" s="205" t="s">
+        <v>65</v>
+      </c>
+      <c r="D867" s="205" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E867" s="213"/>
+      <c r="F867" s="213">
+        <v>2</v>
+      </c>
       <c r="G867" s="53">
         <f t="shared" si="79"/>
-        <v>13717.529999999999</v>
+        <v>16165.469999999998</v>
       </c>
       <c r="H867" s="87"/>
       <c r="I867" s="87"/>
@@ -47149,15 +47205,25 @@
       <c r="U867" s="87"/>
     </row>
     <row r="868" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A868" s="441"/>
-      <c r="B868" s="154"/>
-      <c r="C868" s="154"/>
-      <c r="D868" s="154"/>
-      <c r="E868" s="156"/>
-      <c r="F868" s="156"/>
+      <c r="A868" s="368">
+        <v>45184</v>
+      </c>
+      <c r="B868" s="205" t="s">
+        <v>15</v>
+      </c>
+      <c r="C868" s="205" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D868" s="205" t="s">
+        <v>789</v>
+      </c>
+      <c r="E868" s="213"/>
+      <c r="F868" s="213">
+        <v>400</v>
+      </c>
       <c r="G868" s="53">
         <f t="shared" si="79"/>
-        <v>13717.529999999999</v>
+        <v>15765.469999999998</v>
       </c>
       <c r="H868" s="87"/>
       <c r="I868" s="87"/>
@@ -47175,15 +47241,25 @@
       <c r="U868" s="87"/>
     </row>
     <row r="869" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A869" s="441"/>
-      <c r="B869" s="154"/>
-      <c r="C869" s="154"/>
-      <c r="D869" s="154"/>
-      <c r="E869" s="156"/>
-      <c r="F869" s="156"/>
+      <c r="A869" s="368">
+        <v>45187</v>
+      </c>
+      <c r="B869" s="205" t="s">
+        <v>15</v>
+      </c>
+      <c r="C869" s="205" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D869" s="205" t="s">
+        <v>251</v>
+      </c>
+      <c r="E869" s="213"/>
+      <c r="F869" s="213">
+        <v>1504.97</v>
+      </c>
       <c r="G869" s="53">
         <f t="shared" si="79"/>
-        <v>13717.529999999999</v>
+        <v>14260.499999999998</v>
       </c>
       <c r="H869" s="87"/>
       <c r="I869" s="87"/>
@@ -47201,15 +47277,25 @@
       <c r="U869" s="87"/>
     </row>
     <row r="870" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A870" s="441"/>
-      <c r="B870" s="154"/>
-      <c r="C870" s="154"/>
-      <c r="D870" s="154"/>
-      <c r="E870" s="156"/>
-      <c r="F870" s="156"/>
+      <c r="A870" s="368">
+        <v>45187</v>
+      </c>
+      <c r="B870" s="205" t="s">
+        <v>15</v>
+      </c>
+      <c r="C870" s="205" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D870" s="205" t="s">
+        <v>251</v>
+      </c>
+      <c r="E870" s="213"/>
+      <c r="F870" s="213">
+        <v>1504.97</v>
+      </c>
       <c r="G870" s="53">
         <f t="shared" si="79"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="H870" s="87"/>
       <c r="I870" s="87"/>
@@ -47235,7 +47321,7 @@
       <c r="F871" s="156"/>
       <c r="G871" s="53">
         <f t="shared" si="79"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="H871" s="87"/>
       <c r="I871" s="87"/>
@@ -47261,7 +47347,7 @@
       <c r="F872" s="156"/>
       <c r="G872" s="53">
         <f t="shared" si="79"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="H872" s="87"/>
       <c r="I872" s="87"/>
@@ -47287,7 +47373,7 @@
       <c r="F873" s="156"/>
       <c r="G873" s="53">
         <f t="shared" si="79"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="H873" s="87"/>
       <c r="I873" s="87"/>
@@ -47313,7 +47399,7 @@
       <c r="F874" s="156"/>
       <c r="G874" s="53">
         <f t="shared" si="79"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M874" s="518"/>
       <c r="N874" s="280"/>
@@ -47334,7 +47420,7 @@
       <c r="F875" s="156"/>
       <c r="G875" s="53">
         <f t="shared" si="79"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M875" s="518"/>
       <c r="N875" s="280"/>
@@ -47355,7 +47441,7 @@
       <c r="F876" s="156"/>
       <c r="G876" s="53">
         <f t="shared" si="79"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M876" s="518"/>
       <c r="N876" s="280"/>
@@ -47376,7 +47462,7 @@
       <c r="F877" s="156"/>
       <c r="G877" s="53">
         <f t="shared" si="79"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M877" s="518"/>
       <c r="N877" s="280"/>
@@ -47397,7 +47483,7 @@
       <c r="F878" s="156"/>
       <c r="G878" s="53">
         <f t="shared" si="79"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M878" s="518"/>
       <c r="N878" s="280"/>
@@ -47418,7 +47504,7 @@
       <c r="F879" s="156"/>
       <c r="G879" s="53">
         <f t="shared" si="79"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M879" s="518"/>
       <c r="N879" s="280"/>
@@ -47439,7 +47525,7 @@
       <c r="F880" s="156"/>
       <c r="G880" s="53">
         <f t="shared" si="79"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M880" s="518"/>
       <c r="N880" s="280"/>
@@ -47460,7 +47546,7 @@
       <c r="F881" s="156"/>
       <c r="G881" s="53">
         <f t="shared" si="79"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M881" s="518"/>
       <c r="N881" s="280"/>
@@ -47481,7 +47567,7 @@
       <c r="F882" s="156"/>
       <c r="G882" s="53">
         <f>G881+E882-F882</f>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M882" s="518"/>
       <c r="N882" s="280"/>
@@ -47502,7 +47588,7 @@
       <c r="F883" s="156"/>
       <c r="G883" s="53">
         <f>G882+E883-F883</f>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M883" s="518"/>
       <c r="N883" s="280"/>
@@ -47523,7 +47609,7 @@
       <c r="F884" s="156"/>
       <c r="G884" s="53">
         <f t="shared" ref="G884" si="80">G883+E884-F884</f>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M884" s="518"/>
       <c r="N884" s="280"/>
@@ -47544,7 +47630,7 @@
       <c r="F885" s="156"/>
       <c r="G885" s="53">
         <f>G884+E885-F885</f>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M885" s="518"/>
       <c r="N885" s="280"/>
@@ -47565,7 +47651,7 @@
       <c r="F886" s="156"/>
       <c r="G886" s="53">
         <f>G885+E886-F886</f>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M886" s="518"/>
       <c r="N886" s="280"/>
@@ -47586,7 +47672,7 @@
       <c r="F887" s="156"/>
       <c r="G887" s="53">
         <f t="shared" ref="G887:G888" si="81">G886+E887-F887</f>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M887" s="518"/>
       <c r="N887" s="280"/>
@@ -47607,7 +47693,7 @@
       <c r="F888" s="156"/>
       <c r="G888" s="53">
         <f t="shared" si="81"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M888" s="518"/>
       <c r="N888" s="280"/>
@@ -47628,7 +47714,7 @@
       <c r="F889" s="156"/>
       <c r="G889" s="53">
         <f>G888+E889-F889</f>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M889" s="518"/>
       <c r="N889" s="280"/>
@@ -47649,7 +47735,7 @@
       <c r="F890" s="156"/>
       <c r="G890" s="53">
         <f t="shared" ref="G890:G919" si="82">G889+E890-F890</f>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M890" s="518"/>
       <c r="N890" s="280"/>
@@ -47670,7 +47756,7 @@
       <c r="F891" s="156"/>
       <c r="G891" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M891" s="37"/>
       <c r="N891" s="38"/>
@@ -47691,7 +47777,7 @@
       <c r="F892" s="156"/>
       <c r="G892" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M892" s="37"/>
       <c r="N892" s="38"/>
@@ -47712,7 +47798,7 @@
       <c r="F893" s="156"/>
       <c r="G893" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M893" s="37"/>
       <c r="N893" s="38"/>
@@ -47733,7 +47819,7 @@
       <c r="F894" s="156"/>
       <c r="G894" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M894" s="37"/>
       <c r="N894" s="38"/>
@@ -47754,7 +47840,7 @@
       <c r="F895" s="156"/>
       <c r="G895" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M895" s="37"/>
       <c r="N895" s="38"/>
@@ -47775,7 +47861,7 @@
       <c r="F896" s="156"/>
       <c r="G896" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M896" s="37"/>
       <c r="N896" s="38"/>
@@ -47796,7 +47882,7 @@
       <c r="F897" s="156"/>
       <c r="G897" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M897" s="37"/>
       <c r="N897" s="38"/>
@@ -47817,7 +47903,7 @@
       <c r="F898" s="156"/>
       <c r="G898" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M898" s="37"/>
       <c r="N898" s="38"/>
@@ -47838,7 +47924,7 @@
       <c r="F899" s="156"/>
       <c r="G899" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M899" s="37"/>
       <c r="N899" s="38"/>
@@ -47859,7 +47945,7 @@
       <c r="F900" s="156"/>
       <c r="G900" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M900" s="519"/>
       <c r="N900" s="305"/>
@@ -47880,7 +47966,7 @@
       <c r="F901" s="156"/>
       <c r="G901" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M901" s="519"/>
       <c r="N901" s="305"/>
@@ -47901,7 +47987,7 @@
       <c r="F902" s="156"/>
       <c r="G902" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M902" s="519"/>
       <c r="N902" s="305"/>
@@ -47922,7 +48008,7 @@
       <c r="F903" s="156"/>
       <c r="G903" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M903" s="519"/>
       <c r="N903" s="305"/>
@@ -47942,7 +48028,7 @@
       <c r="F904" s="525"/>
       <c r="G904" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="H904" s="36"/>
       <c r="M904" s="519"/>
@@ -47963,7 +48049,7 @@
       <c r="F905" s="156"/>
       <c r="G905" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M905" s="519"/>
       <c r="N905" s="305"/>
@@ -47983,7 +48069,7 @@
       <c r="F906" s="156"/>
       <c r="G906" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M906" s="519"/>
       <c r="N906" s="305"/>
@@ -48003,7 +48089,7 @@
       <c r="F907" s="156"/>
       <c r="G907" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M907" s="520"/>
       <c r="N907" s="378"/>
@@ -48023,7 +48109,7 @@
       <c r="F908" s="156"/>
       <c r="G908" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M908" s="520"/>
       <c r="N908" s="378"/>
@@ -48043,7 +48129,7 @@
       <c r="F909" s="156"/>
       <c r="G909" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M909" s="520"/>
       <c r="N909" s="378"/>
@@ -48063,7 +48149,7 @@
       <c r="F910" s="156"/>
       <c r="G910" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M910" s="520"/>
       <c r="N910" s="378"/>
@@ -48083,7 +48169,7 @@
       <c r="F911" s="156"/>
       <c r="G911" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M911" s="520"/>
       <c r="N911" s="378"/>
@@ -48103,7 +48189,7 @@
       <c r="F912" s="156"/>
       <c r="G912" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
       <c r="M912" s="520"/>
       <c r="N912" s="378"/>
@@ -48122,7 +48208,7 @@
       <c r="F913" s="156"/>
       <c r="G913" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
     </row>
     <row r="914" spans="1:7" x14ac:dyDescent="0.25">
@@ -48134,7 +48220,7 @@
       <c r="F914" s="156"/>
       <c r="G914" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
     </row>
     <row r="915" spans="1:7" x14ac:dyDescent="0.25">
@@ -48146,7 +48232,7 @@
       <c r="F915" s="156"/>
       <c r="G915" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
     </row>
     <row r="916" spans="1:7" x14ac:dyDescent="0.25">
@@ -48158,7 +48244,7 @@
       <c r="F916" s="156"/>
       <c r="G916" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
     </row>
     <row r="917" spans="1:7" x14ac:dyDescent="0.25">
@@ -48170,7 +48256,7 @@
       <c r="F917" s="156"/>
       <c r="G917" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
     </row>
     <row r="918" spans="1:7" x14ac:dyDescent="0.25">
@@ -48182,7 +48268,7 @@
       <c r="F918" s="156"/>
       <c r="G918" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
     </row>
     <row r="919" spans="1:7" x14ac:dyDescent="0.25">
@@ -48194,7 +48280,7 @@
       <c r="F919" s="157"/>
       <c r="G919" s="53">
         <f t="shared" si="82"/>
-        <v>13717.529999999999</v>
+        <v>12755.529999999999</v>
       </c>
     </row>
   </sheetData>
@@ -48394,7 +48480,7 @@
         <v>65</v>
       </c>
       <c r="D8" s="154" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="E8" s="53"/>
       <c r="F8" s="53">
@@ -48418,7 +48504,7 @@
         <v>65</v>
       </c>
       <c r="O8" s="83" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="P8" s="84">
         <v>5</v>
@@ -48442,7 +48528,7 @@
         <v>65</v>
       </c>
       <c r="D9" s="154" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="E9" s="53"/>
       <c r="F9" s="53">
@@ -48490,7 +48576,7 @@
         <v>64</v>
       </c>
       <c r="D10" s="154" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="E10" s="53">
         <v>643.5</v>
@@ -48514,7 +48600,7 @@
         <v>64</v>
       </c>
       <c r="O10" s="83" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="P10" s="84"/>
       <c r="Q10" s="84">
@@ -48538,7 +48624,7 @@
         <v>65</v>
       </c>
       <c r="D11" s="176" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="E11" s="53"/>
       <c r="F11" s="53">
@@ -48562,7 +48648,7 @@
         <v>65</v>
       </c>
       <c r="O11" s="83" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="P11" s="84">
         <v>1027.25</v>

--- a/DOC 2023/BANCOS.xlsx
+++ b/DOC 2023/BANCOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA85A699-9F94-4CDB-B2F8-BE3D543019E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC2F716-EC10-44A5-A042-7E7B743DAA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6147" uniqueCount="1851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6192" uniqueCount="1865">
   <si>
     <t>ABRILTRANS S.A</t>
   </si>
@@ -5585,6 +5585,48 @@
   </si>
   <si>
     <t>21,320.91</t>
+  </si>
+  <si>
+    <t>630.00</t>
+  </si>
+  <si>
+    <t>19,923.66</t>
+  </si>
+  <si>
+    <t>20,690.91</t>
+  </si>
+  <si>
+    <t>19,922.66</t>
+  </si>
+  <si>
+    <t>20,689.91</t>
+  </si>
+  <si>
+    <t>19,422.66</t>
+  </si>
+  <si>
+    <t>20,189.91</t>
+  </si>
+  <si>
+    <t>19,222.66</t>
+  </si>
+  <si>
+    <t>19,989.91</t>
+  </si>
+  <si>
+    <t>19,221.66</t>
+  </si>
+  <si>
+    <t>19,988.91</t>
+  </si>
+  <si>
+    <t>ANDRADE LAVA</t>
+  </si>
+  <si>
+    <t>ESTHER CHOEZ PLASTICOS</t>
+  </si>
+  <si>
+    <t>CH1424</t>
   </si>
 </sst>
 </file>
@@ -6027,7 +6069,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="566">
+  <cellXfs count="562">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7300,9 +7342,6 @@
     <xf numFmtId="0" fontId="11" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="19" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7415,15 +7454,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11103,6 +11133,311 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>884</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>884</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Imagen 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0759FF1A-654E-4C89-AD78-A4AB5B567DF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="169183050"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>885</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>885</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Imagen 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA0FABB-355F-4AB5-992B-B9389B7575E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="169383075"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>886</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>886</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Imagen 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A053FF04-0946-4B92-A43C-D3A1F424F2B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="169583100"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>887</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>887</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Imagen 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D14377B-421A-4065-A6E6-3D3BFC1946A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="169783125"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>888</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>888</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Imagen 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA533CD5-FEDE-48D4-B4C7-ADB0AADB605C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="169983150"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11406,8 +11741,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A2:U919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A869" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="H875" sqref="H875"/>
+    <sheetView tabSelected="1" topLeftCell="A872" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="I876" sqref="I876"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11416,15 +11751,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D2" s="540" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="540"/>
-      <c r="F2" s="540"/>
-      <c r="O2" s="540" t="s">
+      <c r="D2" s="539" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="539"/>
+      <c r="F2" s="539"/>
+      <c r="O2" s="539" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="540"/>
+      <c r="P2" s="539"/>
       <c r="Q2" s="1" t="s">
         <v>0</v>
       </c>
@@ -14811,15 +15146,15 @@
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D89" s="540" t="s">
-        <v>0</v>
-      </c>
-      <c r="E89" s="540"/>
-      <c r="F89" s="540"/>
-      <c r="O89" s="540" t="s">
+      <c r="D89" s="539" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="539"/>
+      <c r="F89" s="539"/>
+      <c r="O89" s="539" t="s">
         <v>10</v>
       </c>
-      <c r="P89" s="540"/>
+      <c r="P89" s="539"/>
       <c r="Q89" s="1" t="s">
         <v>0</v>
       </c>
@@ -19275,15 +19610,15 @@
       </c>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D209" s="540" t="s">
-        <v>0</v>
-      </c>
-      <c r="E209" s="540"/>
-      <c r="F209" s="540"/>
-      <c r="O209" s="540" t="s">
+      <c r="D209" s="539" t="s">
+        <v>0</v>
+      </c>
+      <c r="E209" s="539"/>
+      <c r="F209" s="539"/>
+      <c r="O209" s="539" t="s">
         <v>10</v>
       </c>
-      <c r="P209" s="540"/>
+      <c r="P209" s="539"/>
       <c r="Q209" s="1" t="s">
         <v>0</v>
       </c>
@@ -23210,15 +23545,15 @@
       </c>
     </row>
     <row r="329" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D329" s="540" t="s">
-        <v>0</v>
-      </c>
-      <c r="E329" s="540"/>
-      <c r="F329" s="540"/>
-      <c r="O329" s="540" t="s">
+      <c r="D329" s="539" t="s">
+        <v>0</v>
+      </c>
+      <c r="E329" s="539"/>
+      <c r="F329" s="539"/>
+      <c r="O329" s="539" t="s">
         <v>10</v>
       </c>
-      <c r="P329" s="540"/>
+      <c r="P329" s="539"/>
       <c r="Q329" s="1" t="s">
         <v>0</v>
       </c>
@@ -27838,15 +28173,15 @@
       <c r="F428" s="83"/>
     </row>
     <row r="433" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D433" s="540" t="s">
-        <v>0</v>
-      </c>
-      <c r="E433" s="540"/>
-      <c r="F433" s="540"/>
-      <c r="O433" s="540" t="s">
+      <c r="D433" s="539" t="s">
+        <v>0</v>
+      </c>
+      <c r="E433" s="539"/>
+      <c r="F433" s="539"/>
+      <c r="O433" s="539" t="s">
         <v>10</v>
       </c>
-      <c r="P433" s="540"/>
+      <c r="P433" s="539"/>
       <c r="Q433" s="1" t="s">
         <v>0</v>
       </c>
@@ -32820,15 +33155,15 @@
       <c r="T539" s="263"/>
     </row>
     <row r="544" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D544" s="540" t="s">
-        <v>0</v>
-      </c>
-      <c r="E544" s="540"/>
-      <c r="F544" s="540"/>
-      <c r="O544" s="540" t="s">
+      <c r="D544" s="539" t="s">
+        <v>0</v>
+      </c>
+      <c r="E544" s="539"/>
+      <c r="F544" s="539"/>
+      <c r="O544" s="539" t="s">
         <v>10</v>
       </c>
-      <c r="P544" s="540"/>
+      <c r="P544" s="539"/>
       <c r="Q544" s="1" t="s">
         <v>0</v>
       </c>
@@ -38325,15 +38660,15 @@
       <c r="A655" s="471"/>
     </row>
     <row r="659" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D659" s="540" t="s">
-        <v>0</v>
-      </c>
-      <c r="E659" s="540"/>
-      <c r="F659" s="540"/>
-      <c r="O659" s="540" t="s">
+      <c r="D659" s="539" t="s">
+        <v>0</v>
+      </c>
+      <c r="E659" s="539"/>
+      <c r="F659" s="539"/>
+      <c r="O659" s="539" t="s">
         <v>10</v>
       </c>
-      <c r="P659" s="540"/>
+      <c r="P659" s="539"/>
       <c r="Q659" s="1" t="s">
         <v>0</v>
       </c>
@@ -43572,7 +43907,7 @@
       <c r="U762" s="87"/>
     </row>
     <row r="763" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A763" s="535">
+      <c r="A763" s="534">
         <v>45163</v>
       </c>
       <c r="B763" s="345" t="s">
@@ -44664,15 +44999,15 @@
       </c>
     </row>
     <row r="792" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D792" s="540" t="s">
-        <v>0</v>
-      </c>
-      <c r="E792" s="540"/>
-      <c r="F792" s="540"/>
-      <c r="O792" s="540" t="s">
+      <c r="D792" s="539" t="s">
+        <v>0</v>
+      </c>
+      <c r="E792" s="539"/>
+      <c r="F792" s="539"/>
+      <c r="O792" s="539" t="s">
         <v>10</v>
       </c>
-      <c r="P792" s="540"/>
+      <c r="P792" s="539"/>
       <c r="Q792" s="1" t="s">
         <v>0</v>
       </c>
@@ -44854,19 +45189,19 @@
       <c r="J799" s="85"/>
       <c r="K799" s="85"/>
       <c r="L799" s="85"/>
-      <c r="M799" s="536">
+      <c r="M799" s="535">
         <v>45170</v>
       </c>
-      <c r="N799" s="537" t="s">
+      <c r="N799" s="536" t="s">
         <v>59</v>
       </c>
-      <c r="O799" s="537">
+      <c r="O799" s="536">
         <v>1353</v>
       </c>
-      <c r="P799" s="538" t="s">
+      <c r="P799" s="537" t="s">
         <v>1636</v>
       </c>
-      <c r="Q799" s="538" t="s">
+      <c r="Q799" s="537" t="s">
         <v>73</v>
       </c>
       <c r="R799" s="264" t="s">
@@ -44906,19 +45241,19 @@
       <c r="J800" s="85"/>
       <c r="K800" s="85"/>
       <c r="L800" s="85"/>
-      <c r="M800" s="529">
+      <c r="M800" s="528">
         <v>45170</v>
       </c>
-      <c r="N800" s="530" t="s">
+      <c r="N800" s="529" t="s">
         <v>18</v>
       </c>
-      <c r="O800" s="530">
+      <c r="O800" s="529">
         <v>1370</v>
       </c>
-      <c r="P800" s="531" t="s">
+      <c r="P800" s="530" t="s">
         <v>399</v>
       </c>
-      <c r="Q800" s="531" t="s">
+      <c r="Q800" s="530" t="s">
         <v>73</v>
       </c>
       <c r="R800" s="264" t="s">
@@ -44943,8 +45278,8 @@
       <c r="D801" s="373" t="s">
         <v>1652</v>
       </c>
-      <c r="E801" s="552"/>
-      <c r="F801" s="552">
+      <c r="E801" s="551"/>
+      <c r="F801" s="551">
         <v>260</v>
       </c>
       <c r="G801" s="53">
@@ -44958,19 +45293,19 @@
       <c r="J801" s="85"/>
       <c r="K801" s="85"/>
       <c r="L801" s="85"/>
-      <c r="M801" s="536">
+      <c r="M801" s="535">
         <v>45170</v>
       </c>
-      <c r="N801" s="537" t="s">
+      <c r="N801" s="536" t="s">
         <v>18</v>
       </c>
-      <c r="O801" s="537">
+      <c r="O801" s="536">
         <v>1368</v>
       </c>
-      <c r="P801" s="538" t="s">
+      <c r="P801" s="537" t="s">
         <v>1136</v>
       </c>
-      <c r="Q801" s="538" t="s">
+      <c r="Q801" s="537" t="s">
         <v>73</v>
       </c>
       <c r="R801" s="264" t="s">
@@ -45010,19 +45345,19 @@
       <c r="J802" s="85"/>
       <c r="K802" s="85"/>
       <c r="L802" s="85"/>
-      <c r="M802" s="529">
+      <c r="M802" s="528">
         <v>45170</v>
       </c>
-      <c r="N802" s="530" t="s">
+      <c r="N802" s="529" t="s">
         <v>18</v>
       </c>
-      <c r="O802" s="530">
+      <c r="O802" s="529">
         <v>1369</v>
       </c>
-      <c r="P802" s="531" t="s">
+      <c r="P802" s="530" t="s">
         <v>1640</v>
       </c>
-      <c r="Q802" s="531" t="s">
+      <c r="Q802" s="530" t="s">
         <v>73</v>
       </c>
       <c r="R802" s="264" t="s">
@@ -45062,19 +45397,19 @@
       <c r="J803" s="85"/>
       <c r="K803" s="85"/>
       <c r="L803" s="85"/>
-      <c r="M803" s="529">
+      <c r="M803" s="528">
         <v>45170</v>
       </c>
-      <c r="N803" s="530" t="s">
+      <c r="N803" s="529" t="s">
         <v>18</v>
       </c>
-      <c r="O803" s="530">
+      <c r="O803" s="529">
         <v>1372</v>
       </c>
-      <c r="P803" s="531" t="s">
+      <c r="P803" s="530" t="s">
         <v>274</v>
       </c>
-      <c r="Q803" s="531" t="s">
+      <c r="Q803" s="530" t="s">
         <v>73</v>
       </c>
       <c r="R803" s="264" t="s">
@@ -45114,19 +45449,19 @@
       <c r="J804" s="85"/>
       <c r="K804" s="85"/>
       <c r="L804" s="85"/>
-      <c r="M804" s="529">
+      <c r="M804" s="528">
         <v>45170</v>
       </c>
-      <c r="N804" s="530" t="s">
+      <c r="N804" s="529" t="s">
         <v>18</v>
       </c>
-      <c r="O804" s="530">
+      <c r="O804" s="529">
         <v>1373</v>
       </c>
-      <c r="P804" s="531" t="s">
+      <c r="P804" s="530" t="s">
         <v>1643</v>
       </c>
-      <c r="Q804" s="531" t="s">
+      <c r="Q804" s="530" t="s">
         <v>73</v>
       </c>
       <c r="R804" s="264" t="s">
@@ -45151,8 +45486,8 @@
       <c r="D805" s="373" t="s">
         <v>1659</v>
       </c>
-      <c r="E805" s="552"/>
-      <c r="F805" s="552">
+      <c r="E805" s="551"/>
+      <c r="F805" s="551">
         <v>490</v>
       </c>
       <c r="G805" s="53">
@@ -45166,19 +45501,19 @@
       <c r="J805" s="85"/>
       <c r="K805" s="85"/>
       <c r="L805" s="85"/>
-      <c r="M805" s="529">
+      <c r="M805" s="528">
         <v>45170</v>
       </c>
-      <c r="N805" s="530" t="s">
+      <c r="N805" s="529" t="s">
         <v>18</v>
       </c>
-      <c r="O805" s="530">
+      <c r="O805" s="529">
         <v>1374</v>
       </c>
-      <c r="P805" s="531" t="s">
+      <c r="P805" s="530" t="s">
         <v>515</v>
       </c>
-      <c r="Q805" s="531" t="s">
+      <c r="Q805" s="530" t="s">
         <v>73</v>
       </c>
       <c r="R805" s="264" t="s">
@@ -45197,7 +45532,7 @@
       <c r="B806" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="C806" s="532">
+      <c r="C806" s="531">
         <v>57495350</v>
       </c>
       <c r="D806" s="225" t="s">
@@ -45218,19 +45553,19 @@
       <c r="J806" s="85"/>
       <c r="K806" s="85"/>
       <c r="L806" s="85"/>
-      <c r="M806" s="529">
+      <c r="M806" s="528">
         <v>45170</v>
       </c>
-      <c r="N806" s="530" t="s">
+      <c r="N806" s="529" t="s">
         <v>38</v>
       </c>
-      <c r="O806" s="530">
+      <c r="O806" s="529">
         <v>634</v>
       </c>
-      <c r="P806" s="531" t="s">
+      <c r="P806" s="530" t="s">
         <v>1646</v>
       </c>
-      <c r="Q806" s="531" t="s">
+      <c r="Q806" s="530" t="s">
         <v>73</v>
       </c>
       <c r="R806" s="264" t="s">
@@ -45243,7 +45578,7 @@
       <c r="U806" s="87"/>
     </row>
     <row r="807" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A807" s="533">
+      <c r="A807" s="532">
         <v>45170</v>
       </c>
       <c r="B807" s="225" t="s">
@@ -45255,8 +45590,8 @@
       <c r="D807" s="225" t="s">
         <v>1660</v>
       </c>
-      <c r="E807" s="534"/>
-      <c r="F807" s="534">
+      <c r="E807" s="533"/>
+      <c r="F807" s="533">
         <v>2</v>
       </c>
       <c r="G807" s="53">
@@ -45270,19 +45605,19 @@
       <c r="J807" s="85"/>
       <c r="K807" s="85"/>
       <c r="L807" s="85"/>
-      <c r="M807" s="529">
+      <c r="M807" s="528">
         <v>45170</v>
       </c>
-      <c r="N807" s="530" t="s">
+      <c r="N807" s="529" t="s">
         <v>38</v>
       </c>
-      <c r="O807" s="530">
+      <c r="O807" s="529">
         <v>499</v>
       </c>
-      <c r="P807" s="531" t="s">
+      <c r="P807" s="530" t="s">
         <v>1174</v>
       </c>
-      <c r="Q807" s="531" t="s">
+      <c r="Q807" s="530" t="s">
         <v>73</v>
       </c>
       <c r="R807" s="264" t="s">
@@ -45763,20 +46098,20 @@
       <c r="U816" s="87"/>
     </row>
     <row r="817" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A817" s="548">
+      <c r="A817" s="547">
         <v>45173</v>
       </c>
-      <c r="B817" s="549" t="s">
+      <c r="B817" s="548" t="s">
         <v>15</v>
       </c>
-      <c r="C817" s="549" t="s">
+      <c r="C817" s="548" t="s">
         <v>1710</v>
       </c>
-      <c r="D817" s="549" t="s">
+      <c r="D817" s="548" t="s">
         <v>251</v>
       </c>
-      <c r="E817" s="550"/>
-      <c r="F817" s="550">
+      <c r="E817" s="549"/>
+      <c r="F817" s="549">
         <v>2000</v>
       </c>
       <c r="G817" s="53">
@@ -45863,17 +46198,17 @@
       <c r="U818" s="87"/>
     </row>
     <row r="819" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A819" s="548">
+      <c r="A819" s="547">
         <v>45173</v>
       </c>
-      <c r="B819" s="549" t="s">
+      <c r="B819" s="548" t="s">
         <v>53</v>
       </c>
-      <c r="C819" s="549" t="s">
+      <c r="C819" s="548" t="s">
         <v>64</v>
       </c>
-      <c r="D819" s="549"/>
-      <c r="E819" s="550">
+      <c r="D819" s="548"/>
+      <c r="E819" s="549">
         <v>534.6</v>
       </c>
       <c r="F819" s="360"/>
@@ -46026,7 +46361,7 @@
       <c r="E822" s="360">
         <v>855.7</v>
       </c>
-      <c r="F822" s="551"/>
+      <c r="F822" s="550"/>
       <c r="G822" s="53">
         <f t="shared" si="70"/>
         <v>16549.77</v>
@@ -46076,7 +46411,7 @@
       <c r="E823" s="360">
         <v>520</v>
       </c>
-      <c r="F823" s="551"/>
+      <c r="F823" s="550"/>
       <c r="G823" s="53">
         <f>G822+E823-F823</f>
         <v>17069.77</v>
@@ -46123,8 +46458,8 @@
       <c r="D824" s="311" t="s">
         <v>1657</v>
       </c>
-      <c r="E824" s="551"/>
-      <c r="F824" s="551">
+      <c r="E824" s="550"/>
+      <c r="F824" s="550">
         <v>270</v>
       </c>
       <c r="G824" s="53">
@@ -46173,8 +46508,8 @@
       <c r="D825" s="311" t="s">
         <v>1397</v>
       </c>
-      <c r="E825" s="551"/>
-      <c r="F825" s="551">
+      <c r="E825" s="550"/>
+      <c r="F825" s="550">
         <v>150</v>
       </c>
       <c r="G825" s="53">
@@ -46207,7 +46542,7 @@
       <c r="S825" s="264" t="s">
         <v>1694</v>
       </c>
-      <c r="T825" s="547"/>
+      <c r="T825" s="546"/>
       <c r="U825" s="87"/>
     </row>
     <row r="826" spans="1:21" x14ac:dyDescent="0.25">
@@ -46323,8 +46658,8 @@
       <c r="D828" s="311" t="s">
         <v>789</v>
       </c>
-      <c r="E828" s="551"/>
-      <c r="F828" s="551">
+      <c r="E828" s="550"/>
+      <c r="F828" s="550">
         <v>480</v>
       </c>
       <c r="G828" s="53">
@@ -46373,8 +46708,8 @@
       <c r="D829" s="311" t="s">
         <v>1712</v>
       </c>
-      <c r="E829" s="551"/>
-      <c r="F829" s="551">
+      <c r="E829" s="550"/>
+      <c r="F829" s="550">
         <v>500</v>
       </c>
       <c r="G829" s="53">
@@ -46424,7 +46759,7 @@
         <v>251</v>
       </c>
       <c r="E830" s="312"/>
-      <c r="F830" s="551">
+      <c r="F830" s="550">
         <v>200</v>
       </c>
       <c r="G830" s="53">
@@ -46476,7 +46811,7 @@
       <c r="E831" s="312">
         <v>374.22</v>
       </c>
-      <c r="F831" s="551"/>
+      <c r="F831" s="550"/>
       <c r="G831" s="53">
         <f>G830+E831-F831</f>
         <v>14110.789999999999</v>
@@ -46523,8 +46858,8 @@
       <c r="D832" s="311" t="s">
         <v>1660</v>
       </c>
-      <c r="E832" s="551"/>
-      <c r="F832" s="551">
+      <c r="E832" s="550"/>
+      <c r="F832" s="550">
         <v>1</v>
       </c>
       <c r="G832" s="53">
@@ -46761,20 +47096,20 @@
       <c r="U836" s="87"/>
     </row>
     <row r="837" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A837" s="521">
+      <c r="A837" s="520">
         <v>45180</v>
       </c>
-      <c r="B837" s="553" t="s">
+      <c r="B837" s="552" t="s">
         <v>15</v>
       </c>
-      <c r="C837" s="553" t="s">
+      <c r="C837" s="552" t="s">
         <v>1750</v>
       </c>
-      <c r="D837" s="553" t="s">
+      <c r="D837" s="552" t="s">
         <v>789</v>
       </c>
-      <c r="E837" s="554"/>
-      <c r="F837" s="554">
+      <c r="E837" s="553"/>
+      <c r="F837" s="553">
         <v>400</v>
       </c>
       <c r="G837" s="53">
@@ -46811,22 +47146,22 @@
       <c r="U837" s="87"/>
     </row>
     <row r="838" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A838" s="521">
+      <c r="A838" s="520">
         <v>45180</v>
       </c>
-      <c r="B838" s="553" t="s">
+      <c r="B838" s="552" t="s">
         <v>53</v>
       </c>
-      <c r="C838" s="553" t="s">
+      <c r="C838" s="552" t="s">
         <v>64</v>
       </c>
-      <c r="D838" s="553" t="s">
+      <c r="D838" s="552" t="s">
         <v>1751</v>
       </c>
-      <c r="E838" s="554">
+      <c r="E838" s="553">
         <v>455</v>
       </c>
-      <c r="F838" s="554"/>
+      <c r="F838" s="553"/>
       <c r="G838" s="53">
         <f t="shared" si="74"/>
         <v>13278.900000000001</v>
@@ -46861,22 +47196,22 @@
       <c r="U838" s="87"/>
     </row>
     <row r="839" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A839" s="521">
+      <c r="A839" s="520">
         <v>45180</v>
       </c>
-      <c r="B839" s="553" t="s">
+      <c r="B839" s="552" t="s">
         <v>53</v>
       </c>
-      <c r="C839" s="553" t="s">
+      <c r="C839" s="552" t="s">
         <v>64</v>
       </c>
-      <c r="D839" s="553" t="s">
+      <c r="D839" s="552" t="s">
         <v>214</v>
       </c>
-      <c r="E839" s="554">
+      <c r="E839" s="553">
         <v>4771.8</v>
       </c>
-      <c r="F839" s="554"/>
+      <c r="F839" s="553"/>
       <c r="G839" s="53">
         <f>G838+E839-F839</f>
         <v>18050.7</v>
@@ -46920,13 +47255,13 @@
       <c r="C840" s="373" t="s">
         <v>64</v>
       </c>
-      <c r="D840" s="552" t="s">
+      <c r="D840" s="551" t="s">
         <v>438</v>
       </c>
-      <c r="E840" s="552">
+      <c r="E840" s="551">
         <v>8451.74</v>
       </c>
-      <c r="F840" s="552"/>
+      <c r="F840" s="551"/>
       <c r="G840" s="53">
         <f>G839+E840-F840</f>
         <v>26502.440000000002</v>
@@ -46970,11 +47305,11 @@
       <c r="C841" s="373" t="s">
         <v>65</v>
       </c>
-      <c r="D841" s="552" t="s">
+      <c r="D841" s="551" t="s">
         <v>251</v>
       </c>
-      <c r="E841" s="552"/>
-      <c r="F841" s="552">
+      <c r="E841" s="551"/>
+      <c r="F841" s="551">
         <v>800</v>
       </c>
       <c r="G841" s="53">
@@ -47070,11 +47405,11 @@
       <c r="C843" s="373" t="s">
         <v>1753</v>
       </c>
-      <c r="D843" s="552" t="s">
+      <c r="D843" s="551" t="s">
         <v>1652</v>
       </c>
-      <c r="E843" s="552"/>
-      <c r="F843" s="552">
+      <c r="E843" s="551"/>
+      <c r="F843" s="551">
         <v>100</v>
       </c>
       <c r="G843" s="53">
@@ -47170,11 +47505,11 @@
       <c r="C845" s="373" t="s">
         <v>1756</v>
       </c>
-      <c r="D845" s="552" t="s">
+      <c r="D845" s="551" t="s">
         <v>1397</v>
       </c>
-      <c r="E845" s="552"/>
-      <c r="F845" s="552">
+      <c r="E845" s="551"/>
+      <c r="F845" s="551">
         <v>500</v>
       </c>
       <c r="G845" s="53">
@@ -47270,13 +47605,13 @@
       <c r="C847" s="373" t="s">
         <v>64</v>
       </c>
-      <c r="D847" s="552" t="s">
+      <c r="D847" s="551" t="s">
         <v>1759</v>
       </c>
-      <c r="E847" s="552">
+      <c r="E847" s="551">
         <v>387.78</v>
       </c>
-      <c r="F847" s="552"/>
+      <c r="F847" s="551"/>
       <c r="G847" s="53">
         <f t="shared" si="77"/>
         <v>23241.17</v>
@@ -47317,14 +47652,14 @@
       <c r="B848" s="373" t="s">
         <v>15</v>
       </c>
-      <c r="C848" s="556" t="s">
+      <c r="C848" s="555" t="s">
         <v>1760</v>
       </c>
-      <c r="D848" s="552" t="s">
+      <c r="D848" s="551" t="s">
         <v>1657</v>
       </c>
-      <c r="E848" s="552"/>
-      <c r="F848" s="552">
+      <c r="E848" s="551"/>
+      <c r="F848" s="551">
         <v>200</v>
       </c>
       <c r="G848" s="53">
@@ -47370,11 +47705,11 @@
       <c r="C849" s="373" t="s">
         <v>1761</v>
       </c>
-      <c r="D849" s="552" t="s">
+      <c r="D849" s="551" t="s">
         <v>1657</v>
       </c>
-      <c r="E849" s="552"/>
-      <c r="F849" s="552">
+      <c r="E849" s="551"/>
+      <c r="F849" s="551">
         <v>100</v>
       </c>
       <c r="G849" s="53">
@@ -47511,7 +47846,7 @@
       <c r="U851" s="87"/>
     </row>
     <row r="852" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A852" s="555">
+      <c r="A852" s="554">
         <v>45149</v>
       </c>
       <c r="B852" s="373" t="s">
@@ -47520,11 +47855,11 @@
       <c r="C852" s="373" t="s">
         <v>65</v>
       </c>
-      <c r="D852" s="552" t="s">
+      <c r="D852" s="551" t="s">
         <v>1660</v>
       </c>
-      <c r="E852" s="552"/>
-      <c r="F852" s="552">
+      <c r="E852" s="551"/>
+      <c r="F852" s="551">
         <v>1</v>
       </c>
       <c r="G852" s="53">
@@ -47736,19 +48071,19 @@
       <c r="J856" s="85"/>
       <c r="K856" s="87"/>
       <c r="L856" s="85"/>
-      <c r="M856" s="558">
+      <c r="M856" s="557">
         <v>45183</v>
       </c>
-      <c r="N856" s="559" t="s">
+      <c r="N856" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="O856" s="559">
+      <c r="O856" s="558">
         <v>1411</v>
       </c>
-      <c r="P856" s="560" t="s">
+      <c r="P856" s="559" t="s">
         <v>1793</v>
       </c>
-      <c r="Q856" s="560" t="s">
+      <c r="Q856" s="559" t="s">
         <v>73</v>
       </c>
       <c r="R856" s="306" t="s">
@@ -47786,19 +48121,19 @@
       <c r="J857" s="87"/>
       <c r="K857" s="87"/>
       <c r="L857" s="85"/>
-      <c r="M857" s="558">
+      <c r="M857" s="557">
         <v>45184</v>
       </c>
-      <c r="N857" s="559" t="s">
+      <c r="N857" s="558" t="s">
         <v>59</v>
       </c>
-      <c r="O857" s="559">
+      <c r="O857" s="558">
         <v>1394</v>
       </c>
-      <c r="P857" s="560" t="s">
+      <c r="P857" s="559" t="s">
         <v>1795</v>
       </c>
-      <c r="Q857" s="560" t="s">
+      <c r="Q857" s="559" t="s">
         <v>73</v>
       </c>
       <c r="R857" s="306" t="s">
@@ -47836,19 +48171,19 @@
       <c r="J858" s="87"/>
       <c r="K858" s="87"/>
       <c r="L858" s="85"/>
-      <c r="M858" s="558">
+      <c r="M858" s="557">
         <v>45184</v>
       </c>
-      <c r="N858" s="559" t="s">
+      <c r="N858" s="558" t="s">
         <v>59</v>
       </c>
-      <c r="O858" s="559">
+      <c r="O858" s="558">
         <v>1391</v>
       </c>
-      <c r="P858" s="560" t="s">
+      <c r="P858" s="559" t="s">
         <v>1797</v>
       </c>
-      <c r="Q858" s="560" t="s">
+      <c r="Q858" s="559" t="s">
         <v>73</v>
       </c>
       <c r="R858" s="306" t="s">
@@ -47876,19 +48211,19 @@
       <c r="J859" s="87"/>
       <c r="K859" s="87"/>
       <c r="L859" s="87"/>
-      <c r="M859" s="558">
+      <c r="M859" s="557">
         <v>45184</v>
       </c>
-      <c r="N859" s="559" t="s">
+      <c r="N859" s="558" t="s">
         <v>38</v>
       </c>
-      <c r="O859" s="559">
+      <c r="O859" s="558">
         <v>634</v>
       </c>
-      <c r="P859" s="560" t="s">
+      <c r="P859" s="559" t="s">
         <v>432</v>
       </c>
-      <c r="Q859" s="560" t="s">
+      <c r="Q859" s="559" t="s">
         <v>73</v>
       </c>
       <c r="R859" s="306" t="s">
@@ -47926,19 +48261,19 @@
       <c r="J860" s="87"/>
       <c r="K860" s="87"/>
       <c r="L860" s="87"/>
-      <c r="M860" s="558">
+      <c r="M860" s="557">
         <v>45184</v>
       </c>
-      <c r="N860" s="559" t="s">
+      <c r="N860" s="558" t="s">
         <v>38</v>
       </c>
-      <c r="O860" s="559">
+      <c r="O860" s="558">
         <v>499</v>
       </c>
-      <c r="P860" s="560" t="s">
+      <c r="P860" s="559" t="s">
         <v>1170</v>
       </c>
-      <c r="Q860" s="560" t="s">
+      <c r="Q860" s="559" t="s">
         <v>73</v>
       </c>
       <c r="R860" s="306" t="s">
@@ -47976,19 +48311,19 @@
       <c r="J861" s="87"/>
       <c r="K861" s="87"/>
       <c r="L861" s="87"/>
-      <c r="M861" s="558">
+      <c r="M861" s="557">
         <v>45184</v>
       </c>
-      <c r="N861" s="559" t="s">
+      <c r="N861" s="558" t="s">
         <v>38</v>
       </c>
-      <c r="O861" s="559">
+      <c r="O861" s="558">
         <v>634</v>
       </c>
-      <c r="P861" s="560" t="s">
+      <c r="P861" s="559" t="s">
         <v>298</v>
       </c>
-      <c r="Q861" s="560" t="s">
+      <c r="Q861" s="559" t="s">
         <v>73</v>
       </c>
       <c r="R861" s="306" t="s">
@@ -48026,19 +48361,19 @@
       <c r="J862" s="87"/>
       <c r="K862" s="87"/>
       <c r="L862" s="87"/>
-      <c r="M862" s="558">
+      <c r="M862" s="557">
         <v>45184</v>
       </c>
-      <c r="N862" s="559" t="s">
+      <c r="N862" s="558" t="s">
         <v>38</v>
       </c>
-      <c r="O862" s="559">
+      <c r="O862" s="558">
         <v>499</v>
       </c>
-      <c r="P862" s="560" t="s">
+      <c r="P862" s="559" t="s">
         <v>1170</v>
       </c>
-      <c r="Q862" s="560" t="s">
+      <c r="Q862" s="559" t="s">
         <v>73</v>
       </c>
       <c r="R862" s="306" t="s">
@@ -48076,19 +48411,19 @@
       <c r="J863" s="87"/>
       <c r="K863" s="87"/>
       <c r="L863" s="87"/>
-      <c r="M863" s="558">
+      <c r="M863" s="557">
         <v>45184</v>
       </c>
-      <c r="N863" s="559" t="s">
+      <c r="N863" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="O863" s="559">
+      <c r="O863" s="558">
         <v>1414</v>
       </c>
-      <c r="P863" s="560" t="s">
+      <c r="P863" s="559" t="s">
         <v>1803</v>
       </c>
-      <c r="Q863" s="560" t="s">
+      <c r="Q863" s="559" t="s">
         <v>73</v>
       </c>
       <c r="R863" s="306" t="s">
@@ -48126,19 +48461,19 @@
       <c r="J864" s="87"/>
       <c r="K864" s="87"/>
       <c r="L864" s="87"/>
-      <c r="M864" s="558">
+      <c r="M864" s="557">
         <v>45187</v>
       </c>
-      <c r="N864" s="559" t="s">
+      <c r="N864" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="O864" s="559">
+      <c r="O864" s="558">
         <v>1420</v>
       </c>
-      <c r="P864" s="560" t="s">
+      <c r="P864" s="559" t="s">
         <v>1805</v>
       </c>
-      <c r="Q864" s="560" t="s">
+      <c r="Q864" s="559" t="s">
         <v>73</v>
       </c>
       <c r="R864" s="306" t="s">
@@ -48176,19 +48511,19 @@
       <c r="J865" s="87"/>
       <c r="K865" s="87"/>
       <c r="L865" s="87"/>
-      <c r="M865" s="558">
+      <c r="M865" s="557">
         <v>45187</v>
       </c>
-      <c r="N865" s="559" t="s">
+      <c r="N865" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="O865" s="559">
+      <c r="O865" s="558">
         <v>1419</v>
       </c>
-      <c r="P865" s="560" t="s">
+      <c r="P865" s="559" t="s">
         <v>1805</v>
       </c>
-      <c r="Q865" s="560" t="s">
+      <c r="Q865" s="559" t="s">
         <v>73</v>
       </c>
       <c r="R865" s="306" t="s">
@@ -48226,19 +48561,19 @@
       <c r="J866" s="87"/>
       <c r="K866" s="87"/>
       <c r="L866" s="87"/>
-      <c r="M866" s="558">
+      <c r="M866" s="557">
         <v>45187</v>
       </c>
-      <c r="N866" s="559" t="s">
+      <c r="N866" s="558" t="s">
         <v>18</v>
       </c>
-      <c r="O866" s="559">
+      <c r="O866" s="558">
         <v>1382</v>
       </c>
-      <c r="P866" s="560" t="s">
+      <c r="P866" s="559" t="s">
         <v>1664</v>
       </c>
-      <c r="Q866" s="560" t="s">
+      <c r="Q866" s="559" t="s">
         <v>73</v>
       </c>
       <c r="R866" s="306" t="s">
@@ -48694,16 +49029,16 @@
       <c r="A876" s="354">
         <v>45188</v>
       </c>
-      <c r="B876" s="561" t="s">
+      <c r="B876" s="560" t="s">
         <v>53</v>
       </c>
-      <c r="C876" s="561" t="s">
+      <c r="C876" s="560" t="s">
         <v>64</v>
       </c>
-      <c r="D876" s="561" t="s">
+      <c r="D876" s="560" t="s">
         <v>332</v>
       </c>
-      <c r="E876" s="562">
+      <c r="E876" s="561">
         <v>441</v>
       </c>
       <c r="F876" s="226"/>
@@ -48780,7 +49115,7 @@
       <c r="T877" s="38"/>
       <c r="U877" s="87"/>
     </row>
-    <row r="878" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A878" s="354">
         <v>45188</v>
       </c>
@@ -48801,424 +49136,554 @@
         <f t="shared" si="79"/>
         <v>17408.18</v>
       </c>
-      <c r="M878" s="563">
+      <c r="M878" s="307">
         <v>45189</v>
       </c>
-      <c r="N878" s="263" t="s">
+      <c r="N878" s="308" t="s">
         <v>27</v>
       </c>
-      <c r="O878" s="263">
+      <c r="O878" s="308">
         <v>226</v>
       </c>
-      <c r="P878" s="295" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q878" s="295" t="s">
+      <c r="P878" s="309" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q878" s="309" t="s">
         <v>217</v>
       </c>
-      <c r="R878" s="295" t="s">
+      <c r="R878" s="481" t="s">
         <v>1834</v>
       </c>
-      <c r="S878" s="295" t="s">
+      <c r="S878" s="481" t="s">
         <v>1834</v>
       </c>
-      <c r="T878" s="263"/>
+      <c r="T878" s="480"/>
       <c r="U878" s="87"/>
     </row>
-    <row r="879" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A879" s="441">
+    <row r="879" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A879" s="355">
         <v>45189</v>
       </c>
-      <c r="B879" s="154" t="s">
+      <c r="B879" s="311" t="s">
         <v>53</v>
       </c>
-      <c r="C879" s="154" t="s">
+      <c r="C879" s="311" t="s">
         <v>64</v>
       </c>
-      <c r="D879" s="154"/>
-      <c r="E879" s="156">
+      <c r="D879" s="311" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E879" s="312">
         <v>300</v>
       </c>
-      <c r="F879" s="156"/>
+      <c r="F879" s="312"/>
       <c r="G879" s="53">
         <f t="shared" si="79"/>
         <v>17708.18</v>
       </c>
-      <c r="M879" s="563">
+      <c r="M879" s="307">
         <v>45189</v>
       </c>
-      <c r="N879" s="263" t="s">
+      <c r="N879" s="308" t="s">
         <v>83</v>
       </c>
-      <c r="O879" s="263">
+      <c r="O879" s="308">
         <v>1</v>
       </c>
-      <c r="P879" s="295" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q879" s="295" t="s">
+      <c r="P879" s="309" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q879" s="309" t="s">
         <v>1835</v>
       </c>
-      <c r="R879" s="295" t="s">
+      <c r="R879" s="481" t="s">
         <v>1834</v>
       </c>
-      <c r="S879" s="295" t="s">
+      <c r="S879" s="481" t="s">
         <v>1836</v>
       </c>
-      <c r="T879" s="263"/>
+      <c r="T879" s="480"/>
       <c r="U879" s="87"/>
     </row>
-    <row r="880" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A880" s="441">
+    <row r="880" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A880" s="355">
         <v>45189</v>
       </c>
-      <c r="B880" s="154" t="s">
+      <c r="B880" s="311" t="s">
         <v>53</v>
       </c>
-      <c r="C880" s="154" t="s">
+      <c r="C880" s="311" t="s">
         <v>64</v>
       </c>
-      <c r="D880" s="154"/>
-      <c r="E880" s="156">
+      <c r="D880" s="311" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E880" s="312">
         <v>767.25</v>
       </c>
-      <c r="F880" s="156"/>
+      <c r="F880" s="312"/>
       <c r="G880" s="53">
         <f t="shared" si="79"/>
         <v>18475.43</v>
       </c>
-      <c r="M880" s="563">
+      <c r="M880" s="307">
         <v>45189</v>
       </c>
-      <c r="N880" s="263" t="s">
+      <c r="N880" s="308" t="s">
         <v>27</v>
       </c>
-      <c r="O880" s="263">
+      <c r="O880" s="308">
         <v>230</v>
       </c>
-      <c r="P880" s="295" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q880" s="295" t="s">
+      <c r="P880" s="309" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q880" s="309" t="s">
         <v>1837</v>
       </c>
-      <c r="R880" s="295" t="s">
+      <c r="R880" s="481" t="s">
         <v>1838</v>
       </c>
-      <c r="S880" s="295" t="s">
+      <c r="S880" s="481" t="s">
         <v>1839</v>
       </c>
-      <c r="T880" s="263"/>
+      <c r="T880" s="480"/>
       <c r="U880" s="87"/>
     </row>
-    <row r="881" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A881" s="441">
+    <row r="881" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A881" s="355">
         <v>45189</v>
       </c>
-      <c r="B881" s="154" t="s">
+      <c r="B881" s="311" t="s">
         <v>53</v>
       </c>
-      <c r="C881" s="154" t="s">
+      <c r="C881" s="311" t="s">
         <v>64</v>
       </c>
-      <c r="D881" s="154"/>
-      <c r="E881" s="156">
+      <c r="D881" s="311" t="s">
+        <v>1863</v>
+      </c>
+      <c r="E881" s="312">
         <v>3267</v>
       </c>
-      <c r="F881" s="156"/>
+      <c r="F881" s="312"/>
       <c r="G881" s="53">
         <f t="shared" si="79"/>
         <v>21742.43</v>
       </c>
-      <c r="M881" s="563">
+      <c r="M881" s="307">
         <v>45189</v>
       </c>
-      <c r="N881" s="263" t="s">
+      <c r="N881" s="308" t="s">
         <v>27</v>
       </c>
-      <c r="O881" s="263">
+      <c r="O881" s="308">
         <v>226</v>
       </c>
-      <c r="P881" s="295" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q881" s="295" t="s">
+      <c r="P881" s="309" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q881" s="309" t="s">
         <v>1840</v>
       </c>
-      <c r="R881" s="295" t="s">
+      <c r="R881" s="481" t="s">
         <v>1841</v>
       </c>
-      <c r="S881" s="295" t="s">
+      <c r="S881" s="481" t="s">
         <v>1842</v>
       </c>
-      <c r="T881" s="263"/>
+      <c r="T881" s="480"/>
       <c r="U881" s="87"/>
     </row>
-    <row r="882" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A882" s="441">
+    <row r="882" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A882" s="355">
         <v>45189</v>
       </c>
-      <c r="B882" s="154" t="s">
+      <c r="B882" s="311" t="s">
         <v>53</v>
       </c>
-      <c r="C882" s="154" t="s">
+      <c r="C882" s="311" t="s">
         <v>64</v>
       </c>
-      <c r="D882" s="154"/>
-      <c r="E882" s="156">
+      <c r="D882" s="311" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E882" s="312">
         <v>347.57</v>
       </c>
-      <c r="F882" s="156"/>
+      <c r="F882" s="312"/>
       <c r="G882" s="53">
         <f>G881+E882-F882</f>
         <v>22090</v>
       </c>
-      <c r="M882" s="563">
+      <c r="M882" s="307">
         <v>45189</v>
       </c>
-      <c r="N882" s="263" t="s">
+      <c r="N882" s="308" t="s">
         <v>27</v>
       </c>
-      <c r="O882" s="263">
+      <c r="O882" s="308">
         <v>226</v>
       </c>
-      <c r="P882" s="295" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q882" s="295" t="s">
+      <c r="P882" s="309" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q882" s="309" t="s">
         <v>1843</v>
       </c>
-      <c r="R882" s="295" t="s">
+      <c r="R882" s="481" t="s">
         <v>1844</v>
       </c>
-      <c r="S882" s="295" t="s">
+      <c r="S882" s="481" t="s">
         <v>1845</v>
       </c>
-      <c r="T882" s="263"/>
+      <c r="T882" s="480"/>
       <c r="U882" s="87"/>
     </row>
-    <row r="883" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A883" s="441">
+    <row r="883" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A883" s="355">
         <v>45189</v>
       </c>
-      <c r="B883" s="154" t="s">
+      <c r="B883" s="311" t="s">
         <v>53</v>
       </c>
-      <c r="C883" s="154" t="s">
+      <c r="C883" s="311" t="s">
         <v>64</v>
       </c>
-      <c r="D883" s="154"/>
-      <c r="E883" s="156">
+      <c r="D883" s="311" t="s">
+        <v>850</v>
+      </c>
+      <c r="E883" s="312">
         <v>683.1</v>
       </c>
-      <c r="F883" s="156"/>
+      <c r="F883" s="312"/>
       <c r="G883" s="53">
         <f>G882+E883-F883</f>
         <v>22773.1</v>
       </c>
-      <c r="M883" s="563">
+      <c r="M883" s="307">
         <v>45190</v>
       </c>
-      <c r="N883" s="263" t="s">
+      <c r="N883" s="308" t="s">
         <v>38</v>
       </c>
-      <c r="O883" s="263">
+      <c r="O883" s="308">
         <v>634</v>
       </c>
-      <c r="P883" s="295" t="s">
+      <c r="P883" s="309" t="s">
         <v>1846</v>
       </c>
-      <c r="Q883" s="295" t="s">
-        <v>73</v>
-      </c>
-      <c r="R883" s="295" t="s">
+      <c r="Q883" s="309" t="s">
+        <v>73</v>
+      </c>
+      <c r="R883" s="481" t="s">
         <v>1847</v>
       </c>
-      <c r="S883" s="295" t="s">
+      <c r="S883" s="481" t="s">
         <v>1848</v>
       </c>
-      <c r="T883" s="263"/>
+      <c r="T883" s="480"/>
       <c r="U883" s="87"/>
     </row>
-    <row r="884" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A884" s="441">
+    <row r="884" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A884" s="355">
         <v>45190</v>
       </c>
-      <c r="B884" s="154" t="s">
+      <c r="B884" s="311" t="s">
         <v>15</v>
       </c>
-      <c r="C884" s="154" t="s">
+      <c r="C884" s="311" t="s">
         <v>1812</v>
       </c>
-      <c r="D884" s="154" t="s">
+      <c r="D884" s="311" t="s">
         <v>1715</v>
       </c>
-      <c r="E884" s="156"/>
-      <c r="F884" s="156">
+      <c r="E884" s="312"/>
+      <c r="F884" s="312">
         <v>2324.23</v>
       </c>
       <c r="G884" s="53">
         <f t="shared" ref="G884" si="80">G883+E884-F884</f>
         <v>20448.87</v>
       </c>
-      <c r="M884" s="564">
+      <c r="M884" s="307">
         <v>45190</v>
       </c>
-      <c r="N884" s="333" t="s">
+      <c r="N884" s="308" t="s">
         <v>38</v>
       </c>
-      <c r="O884" s="333">
+      <c r="O884" s="308">
         <v>499</v>
       </c>
-      <c r="P884" s="565" t="s">
+      <c r="P884" s="309" t="s">
         <v>1170</v>
       </c>
-      <c r="Q884" s="565" t="s">
-        <v>73</v>
-      </c>
-      <c r="R884" s="565" t="s">
+      <c r="Q884" s="309" t="s">
+        <v>73</v>
+      </c>
+      <c r="R884" s="483" t="s">
         <v>1849</v>
       </c>
-      <c r="S884" s="565" t="s">
+      <c r="S884" s="483" t="s">
         <v>1850</v>
       </c>
-      <c r="T884" s="333"/>
+      <c r="T884" s="482"/>
       <c r="U884" s="87"/>
     </row>
     <row r="885" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A885" s="441">
+      <c r="A885" s="355">
         <v>45190</v>
       </c>
-      <c r="B885" s="154" t="s">
+      <c r="B885" s="311" t="s">
         <v>1582</v>
       </c>
-      <c r="C885" s="154" t="s">
+      <c r="C885" s="311" t="s">
         <v>65</v>
       </c>
-      <c r="D885" s="154" t="s">
+      <c r="D885" s="311" t="s">
         <v>1660</v>
       </c>
-      <c r="E885" s="156"/>
-      <c r="F885" s="156">
+      <c r="E885" s="312"/>
+      <c r="F885" s="312">
         <v>1</v>
       </c>
       <c r="G885" s="53">
         <f>G884+E885-F885</f>
         <v>20447.87</v>
       </c>
-      <c r="M885" s="518"/>
-      <c r="N885" s="280"/>
-      <c r="O885" s="280"/>
-      <c r="P885" s="264"/>
-      <c r="Q885" s="264"/>
-      <c r="R885" s="264"/>
-      <c r="S885" s="264"/>
-      <c r="T885" s="280"/>
+      <c r="M885" s="307">
+        <v>45190</v>
+      </c>
+      <c r="N885" s="308" t="s">
+        <v>38</v>
+      </c>
+      <c r="O885" s="308">
+        <v>634</v>
+      </c>
+      <c r="P885" s="309" t="s">
+        <v>1851</v>
+      </c>
+      <c r="Q885" s="309" t="s">
+        <v>73</v>
+      </c>
+      <c r="R885" s="481" t="s">
+        <v>1852</v>
+      </c>
+      <c r="S885" s="481" t="s">
+        <v>1853</v>
+      </c>
+      <c r="T885" s="480"/>
       <c r="U885" s="87"/>
     </row>
     <row r="886" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A886" s="441"/>
-      <c r="B886" s="154"/>
-      <c r="C886" s="154"/>
-      <c r="D886" s="154"/>
-      <c r="E886" s="156"/>
-      <c r="F886" s="156"/>
+      <c r="A886" s="355">
+        <v>45190</v>
+      </c>
+      <c r="B886" s="311" t="s">
+        <v>15</v>
+      </c>
+      <c r="C886" s="311" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D886" s="311" t="s">
+        <v>789</v>
+      </c>
+      <c r="E886" s="312"/>
+      <c r="F886" s="312">
+        <v>630</v>
+      </c>
       <c r="G886" s="53">
         <f>G885+E886-F886</f>
-        <v>20447.87</v>
-      </c>
-      <c r="M886" s="518"/>
-      <c r="N886" s="280"/>
-      <c r="O886" s="280"/>
-      <c r="P886" s="264"/>
-      <c r="Q886" s="264"/>
-      <c r="R886" s="264"/>
-      <c r="S886" s="264"/>
-      <c r="T886" s="280"/>
+        <v>19817.87</v>
+      </c>
+      <c r="M886" s="307">
+        <v>45190</v>
+      </c>
+      <c r="N886" s="308" t="s">
+        <v>38</v>
+      </c>
+      <c r="O886" s="308">
+        <v>499</v>
+      </c>
+      <c r="P886" s="309" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q886" s="309" t="s">
+        <v>73</v>
+      </c>
+      <c r="R886" s="481" t="s">
+        <v>1854</v>
+      </c>
+      <c r="S886" s="481" t="s">
+        <v>1855</v>
+      </c>
+      <c r="T886" s="480"/>
       <c r="U886" s="87"/>
     </row>
     <row r="887" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A887" s="441"/>
-      <c r="B887" s="154"/>
-      <c r="C887" s="154"/>
-      <c r="D887" s="154"/>
-      <c r="E887" s="156"/>
-      <c r="F887" s="156"/>
+      <c r="A887" s="355">
+        <v>45190</v>
+      </c>
+      <c r="B887" s="311" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C887" s="311" t="s">
+        <v>65</v>
+      </c>
+      <c r="D887" s="311" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E887" s="312"/>
+      <c r="F887" s="312">
+        <v>1</v>
+      </c>
       <c r="G887" s="53">
         <f t="shared" ref="G887:G888" si="81">G886+E887-F887</f>
-        <v>20447.87</v>
-      </c>
-      <c r="M887" s="518"/>
-      <c r="N887" s="280"/>
-      <c r="O887" s="280"/>
-      <c r="P887" s="264"/>
-      <c r="Q887" s="264"/>
-      <c r="R887" s="264"/>
-      <c r="S887" s="264"/>
-      <c r="T887" s="280"/>
+        <v>19816.87</v>
+      </c>
+      <c r="M887" s="307">
+        <v>45190</v>
+      </c>
+      <c r="N887" s="308" t="s">
+        <v>18</v>
+      </c>
+      <c r="O887" s="308">
+        <v>1424</v>
+      </c>
+      <c r="P887" s="309" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q887" s="309" t="s">
+        <v>73</v>
+      </c>
+      <c r="R887" s="481" t="s">
+        <v>1856</v>
+      </c>
+      <c r="S887" s="481" t="s">
+        <v>1857</v>
+      </c>
+      <c r="T887" s="480"/>
       <c r="U887" s="87"/>
     </row>
     <row r="888" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A888" s="441"/>
-      <c r="B888" s="154"/>
-      <c r="C888" s="154"/>
-      <c r="D888" s="154"/>
-      <c r="E888" s="156"/>
-      <c r="F888" s="156"/>
+      <c r="A888" s="355">
+        <v>45190</v>
+      </c>
+      <c r="B888" s="311" t="s">
+        <v>15</v>
+      </c>
+      <c r="C888" s="311" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D888" s="311" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E888" s="312"/>
+      <c r="F888" s="312">
+        <v>500</v>
+      </c>
       <c r="G888" s="53">
         <f t="shared" si="81"/>
-        <v>20447.87</v>
-      </c>
-      <c r="M888" s="518"/>
-      <c r="N888" s="280"/>
-      <c r="O888" s="280"/>
-      <c r="P888" s="264"/>
-      <c r="Q888" s="264"/>
-      <c r="R888" s="264"/>
-      <c r="S888" s="264"/>
-      <c r="T888" s="280"/>
+        <v>19316.87</v>
+      </c>
+      <c r="M888" s="307">
+        <v>45190</v>
+      </c>
+      <c r="N888" s="308" t="s">
+        <v>38</v>
+      </c>
+      <c r="O888" s="308">
+        <v>634</v>
+      </c>
+      <c r="P888" s="309" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q888" s="309" t="s">
+        <v>73</v>
+      </c>
+      <c r="R888" s="481" t="s">
+        <v>1858</v>
+      </c>
+      <c r="S888" s="481" t="s">
+        <v>1859</v>
+      </c>
+      <c r="T888" s="480"/>
       <c r="U888" s="87"/>
     </row>
     <row r="889" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A889" s="441"/>
-      <c r="B889" s="154"/>
-      <c r="C889" s="154"/>
-      <c r="D889" s="154"/>
-      <c r="E889" s="156"/>
-      <c r="F889" s="156"/>
+      <c r="A889" s="355">
+        <v>45190</v>
+      </c>
+      <c r="B889" s="311" t="s">
+        <v>15</v>
+      </c>
+      <c r="C889" s="311" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D889" s="311" t="s">
+        <v>789</v>
+      </c>
+      <c r="E889" s="312"/>
+      <c r="F889" s="312">
+        <v>200</v>
+      </c>
       <c r="G889" s="53">
         <f>G888+E889-F889</f>
-        <v>20447.87</v>
-      </c>
-      <c r="M889" s="37"/>
-      <c r="N889" s="38"/>
-      <c r="O889" s="38"/>
-      <c r="P889" s="39"/>
-      <c r="Q889" s="39"/>
-      <c r="R889" s="39"/>
-      <c r="S889" s="39"/>
-      <c r="T889" s="38"/>
+        <v>19116.87</v>
+      </c>
+      <c r="M889" s="307">
+        <v>45190</v>
+      </c>
+      <c r="N889" s="308" t="s">
+        <v>38</v>
+      </c>
+      <c r="O889" s="308">
+        <v>499</v>
+      </c>
+      <c r="P889" s="309" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q889" s="309" t="s">
+        <v>73</v>
+      </c>
+      <c r="R889" s="483" t="s">
+        <v>1860</v>
+      </c>
+      <c r="S889" s="483" t="s">
+        <v>1861</v>
+      </c>
+      <c r="T889" s="482"/>
       <c r="U889" s="87"/>
     </row>
     <row r="890" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A890" s="441"/>
-      <c r="B890" s="154"/>
-      <c r="C890" s="154"/>
-      <c r="D890" s="154"/>
-      <c r="E890" s="156"/>
-      <c r="F890" s="156"/>
+      <c r="A890" s="355">
+        <v>45190</v>
+      </c>
+      <c r="B890" s="311" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C890" s="311" t="s">
+        <v>65</v>
+      </c>
+      <c r="D890" s="311" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E890" s="312"/>
+      <c r="F890" s="312">
+        <v>1</v>
+      </c>
       <c r="G890" s="53">
         <f t="shared" ref="G890:G919" si="82">G889+E890-F890</f>
-        <v>20447.87</v>
-      </c>
-      <c r="M890" s="37"/>
-      <c r="N890" s="38"/>
-      <c r="O890" s="38"/>
-      <c r="P890" s="39"/>
-      <c r="Q890" s="39"/>
-      <c r="R890" s="39"/>
-      <c r="S890" s="39"/>
-      <c r="T890" s="38"/>
+        <v>19115.87</v>
+      </c>
+      <c r="M890" s="167"/>
+      <c r="N890" s="169"/>
+      <c r="O890" s="169"/>
+      <c r="P890" s="527"/>
+      <c r="Q890" s="527"/>
+      <c r="R890" s="527"/>
+      <c r="S890" s="527"/>
+      <c r="T890" s="169"/>
       <c r="U890" s="87"/>
     </row>
     <row r="891" spans="1:21" x14ac:dyDescent="0.25">
@@ -49230,7 +49695,7 @@
       <c r="F891" s="156"/>
       <c r="G891" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
+        <v>19115.87</v>
       </c>
       <c r="M891" s="37"/>
       <c r="N891" s="38"/>
@@ -49251,7 +49716,7 @@
       <c r="F892" s="156"/>
       <c r="G892" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
+        <v>19115.87</v>
       </c>
       <c r="M892" s="37"/>
       <c r="N892" s="38"/>
@@ -49272,7 +49737,7 @@
       <c r="F893" s="156"/>
       <c r="G893" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
+        <v>19115.87</v>
       </c>
       <c r="M893" s="37"/>
       <c r="N893" s="38"/>
@@ -49293,7 +49758,7 @@
       <c r="F894" s="156"/>
       <c r="G894" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
+        <v>19115.87</v>
       </c>
       <c r="M894" s="37"/>
       <c r="N894" s="38"/>
@@ -49314,7 +49779,7 @@
       <c r="F895" s="156"/>
       <c r="G895" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
+        <v>19115.87</v>
       </c>
       <c r="M895" s="37"/>
       <c r="N895" s="38"/>
@@ -49335,7 +49800,7 @@
       <c r="F896" s="156"/>
       <c r="G896" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
+        <v>19115.87</v>
       </c>
       <c r="M896" s="37"/>
       <c r="N896" s="38"/>
@@ -49356,7 +49821,7 @@
       <c r="F897" s="156"/>
       <c r="G897" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
+        <v>19115.87</v>
       </c>
       <c r="M897" s="37"/>
       <c r="N897" s="38"/>
@@ -49377,9 +49842,9 @@
       <c r="F898" s="156"/>
       <c r="G898" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
-      </c>
-      <c r="M898" s="519"/>
+        <v>19115.87</v>
+      </c>
+      <c r="M898" s="518"/>
       <c r="N898" s="305"/>
       <c r="O898" s="305"/>
       <c r="P898" s="306"/>
@@ -49398,9 +49863,9 @@
       <c r="F899" s="156"/>
       <c r="G899" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
-      </c>
-      <c r="M899" s="519"/>
+        <v>19115.87</v>
+      </c>
+      <c r="M899" s="518"/>
       <c r="N899" s="305"/>
       <c r="O899" s="305"/>
       <c r="P899" s="306"/>
@@ -49419,9 +49884,9 @@
       <c r="F900" s="156"/>
       <c r="G900" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
-      </c>
-      <c r="M900" s="519"/>
+        <v>19115.87</v>
+      </c>
+      <c r="M900" s="518"/>
       <c r="N900" s="305"/>
       <c r="O900" s="305"/>
       <c r="P900" s="306"/>
@@ -49440,9 +49905,9 @@
       <c r="F901" s="156"/>
       <c r="G901" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
-      </c>
-      <c r="M901" s="519"/>
+        <v>19115.87</v>
+      </c>
+      <c r="M901" s="518"/>
       <c r="N901" s="305"/>
       <c r="O901" s="305"/>
       <c r="P901" s="306"/>
@@ -49461,9 +49926,9 @@
       <c r="F902" s="156"/>
       <c r="G902" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
-      </c>
-      <c r="M902" s="519"/>
+        <v>19115.87</v>
+      </c>
+      <c r="M902" s="518"/>
       <c r="N902" s="305"/>
       <c r="O902" s="305"/>
       <c r="P902" s="306"/>
@@ -49482,9 +49947,9 @@
       <c r="F903" s="156"/>
       <c r="G903" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
-      </c>
-      <c r="M903" s="519"/>
+        <v>19115.87</v>
+      </c>
+      <c r="M903" s="518"/>
       <c r="N903" s="305"/>
       <c r="O903" s="305"/>
       <c r="P903" s="306"/>
@@ -49494,18 +49959,18 @@
       <c r="T903" s="480"/>
     </row>
     <row r="904" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A904" s="522"/>
-      <c r="B904" s="523"/>
-      <c r="C904" s="523"/>
-      <c r="D904" s="523"/>
-      <c r="E904" s="523"/>
-      <c r="F904" s="523"/>
+      <c r="A904" s="521"/>
+      <c r="B904" s="522"/>
+      <c r="C904" s="522"/>
+      <c r="D904" s="522"/>
+      <c r="E904" s="522"/>
+      <c r="F904" s="522"/>
       <c r="G904" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
+        <v>19115.87</v>
       </c>
       <c r="H904" s="36"/>
-      <c r="M904" s="519"/>
+      <c r="M904" s="518"/>
       <c r="N904" s="305"/>
       <c r="O904" s="305"/>
       <c r="P904" s="306"/>
@@ -49523,9 +49988,9 @@
       <c r="F905" s="156"/>
       <c r="G905" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
-      </c>
-      <c r="M905" s="520"/>
+        <v>19115.87</v>
+      </c>
+      <c r="M905" s="519"/>
       <c r="N905" s="378"/>
       <c r="O905" s="378"/>
       <c r="P905" s="95"/>
@@ -49543,9 +50008,9 @@
       <c r="F906" s="156"/>
       <c r="G906" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
-      </c>
-      <c r="M906" s="520"/>
+        <v>19115.87</v>
+      </c>
+      <c r="M906" s="519"/>
       <c r="N906" s="378"/>
       <c r="O906" s="378"/>
       <c r="P906" s="95"/>
@@ -49563,9 +50028,9 @@
       <c r="F907" s="156"/>
       <c r="G907" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
-      </c>
-      <c r="M907" s="520"/>
+        <v>19115.87</v>
+      </c>
+      <c r="M907" s="519"/>
       <c r="N907" s="378"/>
       <c r="O907" s="378"/>
       <c r="P907" s="95"/>
@@ -49583,9 +50048,9 @@
       <c r="F908" s="156"/>
       <c r="G908" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
-      </c>
-      <c r="M908" s="520"/>
+        <v>19115.87</v>
+      </c>
+      <c r="M908" s="519"/>
       <c r="N908" s="378"/>
       <c r="O908" s="378"/>
       <c r="P908" s="95"/>
@@ -49603,9 +50068,9 @@
       <c r="F909" s="156"/>
       <c r="G909" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
-      </c>
-      <c r="M909" s="520"/>
+        <v>19115.87</v>
+      </c>
+      <c r="M909" s="519"/>
       <c r="N909" s="378"/>
       <c r="O909" s="378"/>
       <c r="P909" s="95"/>
@@ -49623,9 +50088,9 @@
       <c r="F910" s="156"/>
       <c r="G910" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
-      </c>
-      <c r="M910" s="520"/>
+        <v>19115.87</v>
+      </c>
+      <c r="M910" s="519"/>
       <c r="N910" s="378"/>
       <c r="O910" s="378"/>
       <c r="P910" s="95"/>
@@ -49642,7 +50107,7 @@
       <c r="F911" s="156"/>
       <c r="G911" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
+        <v>19115.87</v>
       </c>
     </row>
     <row r="912" spans="1:21" x14ac:dyDescent="0.25">
@@ -49654,7 +50119,7 @@
       <c r="F912" s="156"/>
       <c r="G912" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
+        <v>19115.87</v>
       </c>
     </row>
     <row r="913" spans="1:7" x14ac:dyDescent="0.25">
@@ -49666,7 +50131,7 @@
       <c r="F913" s="156"/>
       <c r="G913" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
+        <v>19115.87</v>
       </c>
     </row>
     <row r="914" spans="1:7" x14ac:dyDescent="0.25">
@@ -49678,7 +50143,7 @@
       <c r="F914" s="156"/>
       <c r="G914" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
+        <v>19115.87</v>
       </c>
     </row>
     <row r="915" spans="1:7" x14ac:dyDescent="0.25">
@@ -49690,7 +50155,7 @@
       <c r="F915" s="156"/>
       <c r="G915" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
+        <v>19115.87</v>
       </c>
     </row>
     <row r="916" spans="1:7" x14ac:dyDescent="0.25">
@@ -49702,7 +50167,7 @@
       <c r="F916" s="156"/>
       <c r="G916" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
+        <v>19115.87</v>
       </c>
     </row>
     <row r="917" spans="1:7" x14ac:dyDescent="0.25">
@@ -49714,7 +50179,7 @@
       <c r="F917" s="156"/>
       <c r="G917" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
+        <v>19115.87</v>
       </c>
     </row>
     <row r="918" spans="1:7" x14ac:dyDescent="0.25">
@@ -49726,7 +50191,7 @@
       <c r="F918" s="156"/>
       <c r="G918" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
+        <v>19115.87</v>
       </c>
     </row>
     <row r="919" spans="1:7" x14ac:dyDescent="0.25">
@@ -49738,7 +50203,7 @@
       <c r="F919" s="157"/>
       <c r="G919" s="53">
         <f t="shared" si="82"/>
-        <v>20447.87</v>
+        <v>19115.87</v>
       </c>
     </row>
   </sheetData>
@@ -49764,15 +50229,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D1" s="540" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="540"/>
-      <c r="F1" s="540"/>
-      <c r="O1" s="540" t="s">
+      <c r="D1" s="539" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="539"/>
+      <c r="F1" s="539"/>
+      <c r="O1" s="539" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="540"/>
+      <c r="P1" s="539"/>
       <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
@@ -49873,25 +50338,25 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="527" t="s">
+      <c r="M6" s="526" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="527" t="s">
+      <c r="N6" s="526" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="527" t="s">
+      <c r="O6" s="526" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="527" t="s">
+      <c r="P6" s="526" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="527" t="s">
+      <c r="Q6" s="526" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="527" t="s">
+      <c r="R6" s="526" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="527" t="s">
+      <c r="S6" s="526" t="s">
         <v>36</v>
       </c>
     </row>
@@ -49912,15 +50377,15 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="539">
+      <c r="M7" s="538">
         <v>45170</v>
       </c>
       <c r="N7" s="83"/>
-      <c r="O7" s="541" t="s">
+      <c r="O7" s="540" t="s">
         <v>1193</v>
       </c>
-      <c r="P7" s="542"/>
-      <c r="Q7" s="543"/>
+      <c r="P7" s="541"/>
+      <c r="Q7" s="542"/>
       <c r="R7" s="83">
         <v>2528.62</v>
       </c>
@@ -49955,7 +50420,7 @@
       <c r="J8" s="85"/>
       <c r="K8" s="85"/>
       <c r="L8" s="85"/>
-      <c r="M8" s="539">
+      <c r="M8" s="538">
         <v>45173</v>
       </c>
       <c r="N8" s="83" t="s">
@@ -50003,7 +50468,7 @@
       <c r="J9" s="85"/>
       <c r="K9" s="85"/>
       <c r="L9" s="85"/>
-      <c r="M9" s="539">
+      <c r="M9" s="538">
         <v>45174</v>
       </c>
       <c r="N9" s="83" t="s">
@@ -50051,7 +50516,7 @@
       <c r="J10" s="85"/>
       <c r="K10" s="85"/>
       <c r="L10" s="85"/>
-      <c r="M10" s="539">
+      <c r="M10" s="538">
         <v>45174</v>
       </c>
       <c r="N10" s="83" t="s">
@@ -50099,7 +50564,7 @@
       <c r="J11" s="85"/>
       <c r="K11" s="85"/>
       <c r="L11" s="85"/>
-      <c r="M11" s="539">
+      <c r="M11" s="538">
         <v>45176</v>
       </c>
       <c r="N11" s="83" t="s">
@@ -50266,7 +50731,7 @@
         <f t="shared" si="0"/>
         <v>2139.4699999999998</v>
       </c>
-      <c r="S16" s="528"/>
+      <c r="S16" s="527"/>
       <c r="T16" s="35"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -50407,11 +50872,11 @@
       <c r="J21" s="85"/>
       <c r="K21" s="85"/>
       <c r="L21" s="85"/>
-      <c r="M21" s="524"/>
-      <c r="N21" s="525"/>
-      <c r="O21" s="525"/>
-      <c r="P21" s="557"/>
-      <c r="Q21" s="557"/>
+      <c r="M21" s="523"/>
+      <c r="N21" s="524"/>
+      <c r="O21" s="524"/>
+      <c r="P21" s="556"/>
+      <c r="Q21" s="556"/>
       <c r="R21" s="84">
         <f t="shared" si="0"/>
         <v>2139.4699999999998</v>
@@ -50760,7 +51225,7 @@
         <f t="shared" si="0"/>
         <v>2139.4699999999998</v>
       </c>
-      <c r="S33" s="526"/>
+      <c r="S33" s="525"/>
       <c r="T33" s="36"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -50859,10 +51324,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E2" s="540" t="s">
+      <c r="E2" s="539" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="540"/>
+      <c r="F2" s="539"/>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
@@ -52408,13 +52873,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="545" t="s">
+      <c r="B2" s="544" t="s">
         <v>725</v>
       </c>
-      <c r="C2" s="545"/>
-      <c r="D2" s="545"/>
-      <c r="E2" s="545"/>
-      <c r="F2" s="545"/>
+      <c r="C2" s="544"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="544"/>
+      <c r="F2" s="544"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -52428,10 +52893,10 @@
       <c r="B5" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="C5" s="546" t="s">
+      <c r="C5" s="545" t="s">
         <v>730</v>
       </c>
-      <c r="D5" s="546"/>
+      <c r="D5" s="545"/>
       <c r="E5" s="1" t="s">
         <v>728</v>
       </c>
@@ -52447,10 +52912,10 @@
       <c r="B7" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="C7" s="546" t="s">
+      <c r="C7" s="545" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="546"/>
+      <c r="D7" s="545"/>
       <c r="E7" s="1" t="s">
         <v>732</v>
       </c>
@@ -52467,10 +52932,10 @@
       <c r="B8" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C8" s="544" t="s">
+      <c r="C8" s="543" t="s">
         <v>733</v>
       </c>
-      <c r="D8" s="544"/>
+      <c r="D8" s="543"/>
       <c r="E8" s="1" t="s">
         <v>734</v>
       </c>
@@ -52503,10 +52968,10 @@
       <c r="B12" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C12" s="544" t="s">
+      <c r="C12" s="543" t="s">
         <v>733</v>
       </c>
-      <c r="D12" s="544"/>
+      <c r="D12" s="543"/>
       <c r="E12" s="1" t="s">
         <v>734</v>
       </c>
@@ -52532,10 +52997,10 @@
       <c r="B16" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C16" s="544" t="s">
+      <c r="C16" s="543" t="s">
         <v>733</v>
       </c>
-      <c r="D16" s="544"/>
+      <c r="D16" s="543"/>
       <c r="E16" s="1" t="s">
         <v>734</v>
       </c>

--- a/DOC 2023/BANCOS.xlsx
+++ b/DOC 2023/BANCOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC2F716-EC10-44A5-A042-7E7B743DAA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB11D4AA-7815-4235-8BFD-1D7EE3B5FB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOLIVARIANO" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6192" uniqueCount="1865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6224" uniqueCount="1872">
   <si>
     <t>ABRILTRANS S.A</t>
   </si>
@@ -5627,6 +5627,27 @@
   </si>
   <si>
     <t>CH1424</t>
+  </si>
+  <si>
+    <t>20,147.31</t>
+  </si>
+  <si>
+    <t>279.00</t>
+  </si>
+  <si>
+    <t>19,868.31</t>
+  </si>
+  <si>
+    <t>19,867.31</t>
+  </si>
+  <si>
+    <t>CH1425</t>
+  </si>
+  <si>
+    <t>CH1427</t>
+  </si>
+  <si>
+    <t>CH1428</t>
   </si>
 </sst>
 </file>
@@ -6069,7 +6090,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="562">
+  <cellXfs count="563">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7454,6 +7475,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11438,6 +11460,128 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>889</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>889</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Imagen 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA8ED82-CAC6-42E3-9DF6-7B4CF00A1631}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="170326050"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>890</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>890</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Imagen 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14FA67C1-52DF-4541-A55F-DCCEB2EBDE74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="170526075"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11741,8 +11885,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A2:U919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A872" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="I876" sqref="I876"/>
+    <sheetView topLeftCell="A882" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="O896" sqref="O896"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49676,68 +49820,140 @@
         <f t="shared" ref="G890:G919" si="82">G889+E890-F890</f>
         <v>19115.87</v>
       </c>
-      <c r="M890" s="167"/>
-      <c r="N890" s="169"/>
-      <c r="O890" s="169"/>
-      <c r="P890" s="527"/>
-      <c r="Q890" s="527"/>
-      <c r="R890" s="527"/>
-      <c r="S890" s="527"/>
-      <c r="T890" s="169"/>
+      <c r="M890" s="297">
+        <v>45190</v>
+      </c>
+      <c r="N890" s="298" t="s">
+        <v>27</v>
+      </c>
+      <c r="O890" s="298">
+        <v>230</v>
+      </c>
+      <c r="P890" s="299" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q890" s="299" t="s">
+        <v>77</v>
+      </c>
+      <c r="R890" s="264" t="s">
+        <v>1865</v>
+      </c>
+      <c r="S890" s="264" t="s">
+        <v>1865</v>
+      </c>
+      <c r="T890" s="280"/>
       <c r="U890" s="87"/>
     </row>
     <row r="891" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A891" s="441"/>
-      <c r="B891" s="154"/>
-      <c r="C891" s="154"/>
-      <c r="D891" s="154"/>
+      <c r="A891" s="441">
+        <v>45190</v>
+      </c>
+      <c r="B891" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C891" s="154" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D891" s="154" t="s">
+        <v>1657</v>
+      </c>
       <c r="E891" s="156"/>
-      <c r="F891" s="156"/>
+      <c r="F891" s="156">
+        <v>1600</v>
+      </c>
       <c r="G891" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
-      </c>
-      <c r="M891" s="37"/>
-      <c r="N891" s="38"/>
-      <c r="O891" s="38"/>
-      <c r="P891" s="39"/>
-      <c r="Q891" s="39"/>
-      <c r="R891" s="39"/>
-      <c r="S891" s="39"/>
-      <c r="T891" s="38"/>
+        <v>17515.87</v>
+      </c>
+      <c r="M891" s="297">
+        <v>45190</v>
+      </c>
+      <c r="N891" s="298" t="s">
+        <v>38</v>
+      </c>
+      <c r="O891" s="298">
+        <v>537</v>
+      </c>
+      <c r="P891" s="299" t="s">
+        <v>1866</v>
+      </c>
+      <c r="Q891" s="299" t="s">
+        <v>73</v>
+      </c>
+      <c r="R891" s="264" t="s">
+        <v>1867</v>
+      </c>
+      <c r="S891" s="264" t="s">
+        <v>1867</v>
+      </c>
+      <c r="T891" s="280"/>
       <c r="U891" s="87"/>
     </row>
     <row r="892" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A892" s="441"/>
-      <c r="B892" s="154"/>
-      <c r="C892" s="154"/>
-      <c r="D892" s="154"/>
-      <c r="E892" s="156"/>
-      <c r="F892" s="156"/>
+      <c r="A892" s="562">
+        <v>45190</v>
+      </c>
+      <c r="B892" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="C892" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="D892" s="71" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E892" s="72">
+        <v>158.4</v>
+      </c>
+      <c r="F892" s="72"/>
       <c r="G892" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
-      </c>
-      <c r="M892" s="37"/>
-      <c r="N892" s="38"/>
-      <c r="O892" s="38"/>
-      <c r="P892" s="39"/>
-      <c r="Q892" s="39"/>
-      <c r="R892" s="39"/>
-      <c r="S892" s="39"/>
-      <c r="T892" s="38"/>
+        <v>17674.27</v>
+      </c>
+      <c r="M892" s="297">
+        <v>45190</v>
+      </c>
+      <c r="N892" s="298" t="s">
+        <v>38</v>
+      </c>
+      <c r="O892" s="298">
+        <v>875</v>
+      </c>
+      <c r="P892" s="299" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q892" s="299" t="s">
+        <v>73</v>
+      </c>
+      <c r="R892" s="264" t="s">
+        <v>1868</v>
+      </c>
+      <c r="S892" s="264" t="s">
+        <v>1868</v>
+      </c>
+      <c r="T892" s="280"/>
       <c r="U892" s="87"/>
     </row>
     <row r="893" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A893" s="441"/>
-      <c r="B893" s="154"/>
-      <c r="C893" s="154"/>
-      <c r="D893" s="154"/>
-      <c r="E893" s="156"/>
-      <c r="F893" s="156"/>
+      <c r="A893" s="562">
+        <v>45190</v>
+      </c>
+      <c r="B893" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C893" s="71">
+        <v>57769888</v>
+      </c>
+      <c r="D893" s="71" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E893" s="72"/>
+      <c r="F893" s="72">
+        <v>279</v>
+      </c>
       <c r="G893" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>17395.27</v>
       </c>
       <c r="M893" s="37"/>
       <c r="N893" s="38"/>
@@ -49746,19 +49962,29 @@
       <c r="Q893" s="39"/>
       <c r="R893" s="39"/>
       <c r="S893" s="39"/>
-      <c r="T893" s="38"/>
+      <c r="T893" s="40"/>
       <c r="U893" s="87"/>
     </row>
     <row r="894" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A894" s="441"/>
-      <c r="B894" s="154"/>
-      <c r="C894" s="154"/>
-      <c r="D894" s="154"/>
-      <c r="E894" s="156"/>
-      <c r="F894" s="156"/>
+      <c r="A894" s="562">
+        <v>45190</v>
+      </c>
+      <c r="B894" s="71" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C894" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="D894" s="71" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E894" s="72"/>
+      <c r="F894" s="72">
+        <v>1</v>
+      </c>
       <c r="G894" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>17394.27</v>
       </c>
       <c r="M894" s="37"/>
       <c r="N894" s="38"/>
@@ -49767,19 +49993,29 @@
       <c r="Q894" s="39"/>
       <c r="R894" s="39"/>
       <c r="S894" s="39"/>
-      <c r="T894" s="40"/>
+      <c r="T894" s="38"/>
       <c r="U894" s="87"/>
     </row>
     <row r="895" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A895" s="441"/>
-      <c r="B895" s="154"/>
-      <c r="C895" s="154"/>
-      <c r="D895" s="154"/>
+      <c r="A895" s="441">
+        <v>45191</v>
+      </c>
+      <c r="B895" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C895" s="154" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D895" s="154" t="s">
+        <v>251</v>
+      </c>
       <c r="E895" s="156"/>
-      <c r="F895" s="156"/>
+      <c r="F895" s="156">
+        <v>1153.76</v>
+      </c>
       <c r="G895" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>16240.51</v>
       </c>
       <c r="M895" s="37"/>
       <c r="N895" s="38"/>
@@ -49792,15 +50028,25 @@
       <c r="U895" s="87"/>
     </row>
     <row r="896" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A896" s="441"/>
-      <c r="B896" s="154"/>
-      <c r="C896" s="154"/>
-      <c r="D896" s="154"/>
+      <c r="A896" s="441">
+        <v>45191</v>
+      </c>
+      <c r="B896" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C896" s="154" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D896" s="154" t="s">
+        <v>251</v>
+      </c>
       <c r="E896" s="156"/>
-      <c r="F896" s="156"/>
+      <c r="F896" s="156">
+        <v>1153.76</v>
+      </c>
       <c r="G896" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>15086.75</v>
       </c>
       <c r="M896" s="37"/>
       <c r="N896" s="38"/>
@@ -49821,16 +50067,16 @@
       <c r="F897" s="156"/>
       <c r="G897" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
-      </c>
-      <c r="M897" s="37"/>
-      <c r="N897" s="38"/>
-      <c r="O897" s="38"/>
-      <c r="P897" s="39"/>
-      <c r="Q897" s="39"/>
-      <c r="R897" s="39"/>
-      <c r="S897" s="39"/>
-      <c r="T897" s="38"/>
+        <v>15086.75</v>
+      </c>
+      <c r="M897" s="518"/>
+      <c r="N897" s="305"/>
+      <c r="O897" s="305"/>
+      <c r="P897" s="306"/>
+      <c r="Q897" s="306"/>
+      <c r="R897" s="306"/>
+      <c r="S897" s="306"/>
+      <c r="T897" s="305"/>
       <c r="U897" s="87"/>
     </row>
     <row r="898" spans="1:21" x14ac:dyDescent="0.25">
@@ -49842,7 +50088,7 @@
       <c r="F898" s="156"/>
       <c r="G898" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>15086.75</v>
       </c>
       <c r="M898" s="518"/>
       <c r="N898" s="305"/>
@@ -49863,7 +50109,7 @@
       <c r="F899" s="156"/>
       <c r="G899" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>15086.75</v>
       </c>
       <c r="M899" s="518"/>
       <c r="N899" s="305"/>
@@ -49884,7 +50130,7 @@
       <c r="F900" s="156"/>
       <c r="G900" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>15086.75</v>
       </c>
       <c r="M900" s="518"/>
       <c r="N900" s="305"/>
@@ -49893,7 +50139,7 @@
       <c r="Q900" s="306"/>
       <c r="R900" s="306"/>
       <c r="S900" s="306"/>
-      <c r="T900" s="305"/>
+      <c r="T900" s="480"/>
       <c r="U900" s="87"/>
     </row>
     <row r="901" spans="1:21" x14ac:dyDescent="0.25">
@@ -49905,7 +50151,7 @@
       <c r="F901" s="156"/>
       <c r="G901" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>15086.75</v>
       </c>
       <c r="M901" s="518"/>
       <c r="N901" s="305"/>
@@ -49926,7 +50172,7 @@
       <c r="F902" s="156"/>
       <c r="G902" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>15086.75</v>
       </c>
       <c r="M902" s="518"/>
       <c r="N902" s="305"/>
@@ -49947,7 +50193,7 @@
       <c r="F903" s="156"/>
       <c r="G903" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>15086.75</v>
       </c>
       <c r="M903" s="518"/>
       <c r="N903" s="305"/>
@@ -49967,17 +50213,17 @@
       <c r="F904" s="522"/>
       <c r="G904" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>15086.75</v>
       </c>
       <c r="H904" s="36"/>
-      <c r="M904" s="518"/>
-      <c r="N904" s="305"/>
-      <c r="O904" s="305"/>
-      <c r="P904" s="306"/>
-      <c r="Q904" s="306"/>
-      <c r="R904" s="306"/>
-      <c r="S904" s="306"/>
-      <c r="T904" s="480"/>
+      <c r="M904" s="519"/>
+      <c r="N904" s="378"/>
+      <c r="O904" s="378"/>
+      <c r="P904" s="95"/>
+      <c r="Q904" s="95"/>
+      <c r="R904" s="95"/>
+      <c r="S904" s="95"/>
+      <c r="T904" s="430"/>
     </row>
     <row r="905" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A905" s="441"/>
@@ -49988,7 +50234,7 @@
       <c r="F905" s="156"/>
       <c r="G905" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>15086.75</v>
       </c>
       <c r="M905" s="519"/>
       <c r="N905" s="378"/>
@@ -50008,7 +50254,7 @@
       <c r="F906" s="156"/>
       <c r="G906" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>15086.75</v>
       </c>
       <c r="M906" s="519"/>
       <c r="N906" s="378"/>
@@ -50028,7 +50274,7 @@
       <c r="F907" s="156"/>
       <c r="G907" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>15086.75</v>
       </c>
       <c r="M907" s="519"/>
       <c r="N907" s="378"/>
@@ -50048,7 +50294,7 @@
       <c r="F908" s="156"/>
       <c r="G908" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>15086.75</v>
       </c>
       <c r="M908" s="519"/>
       <c r="N908" s="378"/>
@@ -50057,7 +50303,7 @@
       <c r="Q908" s="95"/>
       <c r="R908" s="95"/>
       <c r="S908" s="95"/>
-      <c r="T908" s="430"/>
+      <c r="T908" s="223"/>
     </row>
     <row r="909" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A909" s="441"/>
@@ -50068,16 +50314,15 @@
       <c r="F909" s="156"/>
       <c r="G909" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>15086.75</v>
       </c>
       <c r="M909" s="519"/>
       <c r="N909" s="378"/>
       <c r="O909" s="378"/>
       <c r="P909" s="95"/>
       <c r="Q909" s="95"/>
-      <c r="R909" s="95"/>
-      <c r="S909" s="95"/>
-      <c r="T909" s="223"/>
+      <c r="R909" s="87"/>
+      <c r="S909" s="87"/>
     </row>
     <row r="910" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A910" s="441"/>
@@ -50088,15 +50333,8 @@
       <c r="F910" s="156"/>
       <c r="G910" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
-      </c>
-      <c r="M910" s="519"/>
-      <c r="N910" s="378"/>
-      <c r="O910" s="378"/>
-      <c r="P910" s="95"/>
-      <c r="Q910" s="95"/>
-      <c r="R910" s="87"/>
-      <c r="S910" s="87"/>
+        <v>15086.75</v>
+      </c>
     </row>
     <row r="911" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A911" s="155"/>
@@ -50107,7 +50345,7 @@
       <c r="F911" s="156"/>
       <c r="G911" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>15086.75</v>
       </c>
     </row>
     <row r="912" spans="1:21" x14ac:dyDescent="0.25">
@@ -50119,7 +50357,7 @@
       <c r="F912" s="156"/>
       <c r="G912" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>15086.75</v>
       </c>
     </row>
     <row r="913" spans="1:7" x14ac:dyDescent="0.25">
@@ -50131,7 +50369,7 @@
       <c r="F913" s="156"/>
       <c r="G913" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>15086.75</v>
       </c>
     </row>
     <row r="914" spans="1:7" x14ac:dyDescent="0.25">
@@ -50143,7 +50381,7 @@
       <c r="F914" s="156"/>
       <c r="G914" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>15086.75</v>
       </c>
     </row>
     <row r="915" spans="1:7" x14ac:dyDescent="0.25">
@@ -50155,7 +50393,7 @@
       <c r="F915" s="156"/>
       <c r="G915" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>15086.75</v>
       </c>
     </row>
     <row r="916" spans="1:7" x14ac:dyDescent="0.25">
@@ -50167,7 +50405,7 @@
       <c r="F916" s="156"/>
       <c r="G916" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>15086.75</v>
       </c>
     </row>
     <row r="917" spans="1:7" x14ac:dyDescent="0.25">
@@ -50179,7 +50417,7 @@
       <c r="F917" s="156"/>
       <c r="G917" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>15086.75</v>
       </c>
     </row>
     <row r="918" spans="1:7" x14ac:dyDescent="0.25">
@@ -50191,7 +50429,7 @@
       <c r="F918" s="156"/>
       <c r="G918" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>15086.75</v>
       </c>
     </row>
     <row r="919" spans="1:7" x14ac:dyDescent="0.25">
@@ -50203,7 +50441,7 @@
       <c r="F919" s="157"/>
       <c r="G919" s="53">
         <f t="shared" si="82"/>
-        <v>19115.87</v>
+        <v>15086.75</v>
       </c>
     </row>
   </sheetData>
@@ -50217,7 +50455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>

--- a/DOC 2023/BANCOS.xlsx
+++ b/DOC 2023/BANCOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB11D4AA-7815-4235-8BFD-1D7EE3B5FB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC098D32-76AF-4022-885A-E64C32B0BAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOLIVARIANO" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6224" uniqueCount="1872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6295" uniqueCount="1891">
   <si>
     <t>ABRILTRANS S.A</t>
   </si>
@@ -5648,6 +5648,63 @@
   </si>
   <si>
     <t>CH1428</t>
+  </si>
+  <si>
+    <t>18,267.31</t>
+  </si>
+  <si>
+    <t>1,153.76</t>
+  </si>
+  <si>
+    <t>17,113.55</t>
+  </si>
+  <si>
+    <t>15,959.79</t>
+  </si>
+  <si>
+    <t>15,679.79</t>
+  </si>
+  <si>
+    <t>15,678.79</t>
+  </si>
+  <si>
+    <t>15,368.79</t>
+  </si>
+  <si>
+    <t>435.60</t>
+  </si>
+  <si>
+    <t>15,804.39</t>
+  </si>
+  <si>
+    <t>15,454.39</t>
+  </si>
+  <si>
+    <t>15,632.59</t>
+  </si>
+  <si>
+    <t>CH1429</t>
+  </si>
+  <si>
+    <t>CH1430</t>
+  </si>
+  <si>
+    <t>CH1431</t>
+  </si>
+  <si>
+    <t>CH1432</t>
+  </si>
+  <si>
+    <t>RIGOBERTO FUENTES</t>
+  </si>
+  <si>
+    <t>CH1434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVIMIENTOS DE BANCOS </t>
+  </si>
+  <si>
+    <t>FLEXNET</t>
   </si>
 </sst>
 </file>
@@ -5783,7 +5840,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5970,6 +6027,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -6090,7 +6153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="563">
+  <cellXfs count="569">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7363,17 +7426,12 @@
     <xf numFmtId="0" fontId="11" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7476,6 +7534,27 @@
     <xf numFmtId="0" fontId="4" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="32" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="32" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="32" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11582,6 +11661,494 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>892</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>892</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Imagen 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5703EE9-8B0D-43AA-9D9F-014F68C1F3F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="170897550"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>893</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>893</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Imagen 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB2611D-7029-43DF-B49F-D0B37444001C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="171097575"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>894</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>894</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Imagen 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0861276A-3957-4F04-BAAA-E2A05FAF3136}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="171297600"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>895</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>895</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Imagen 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ABF1DE9-F954-4B56-BFF6-15381B3A0A69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="171497625"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>896</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>896</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Imagen 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A2C71B-975F-4F1B-B3F5-340E736F311E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="171697650"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>897</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>897</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Imagen 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761F631E-860E-4932-B067-25A9D71D212D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="171897675"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>898</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>898</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Imagen 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{329E9DDE-0148-479D-B133-23DD01762048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="172097700"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>899</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>899</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Imagen 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73825B22-D48A-401D-ACF8-3D7BC62C138F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="172297725"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11885,8 +12452,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A2:U919"/>
   <sheetViews>
-    <sheetView topLeftCell="A882" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="O896" sqref="O896"/>
+    <sheetView tabSelected="1" topLeftCell="D855" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="A905" sqref="A905:F905"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11895,15 +12462,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D2" s="539" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="539"/>
-      <c r="F2" s="539"/>
-      <c r="O2" s="539" t="s">
+      <c r="D2" s="536" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="536"/>
+      <c r="F2" s="536"/>
+      <c r="O2" s="536" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="539"/>
+      <c r="P2" s="536"/>
       <c r="Q2" s="1" t="s">
         <v>0</v>
       </c>
@@ -15290,15 +15857,15 @@
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D89" s="539" t="s">
-        <v>0</v>
-      </c>
-      <c r="E89" s="539"/>
-      <c r="F89" s="539"/>
-      <c r="O89" s="539" t="s">
+      <c r="D89" s="536" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="536"/>
+      <c r="F89" s="536"/>
+      <c r="O89" s="536" t="s">
         <v>10</v>
       </c>
-      <c r="P89" s="539"/>
+      <c r="P89" s="536"/>
       <c r="Q89" s="1" t="s">
         <v>0</v>
       </c>
@@ -19754,15 +20321,15 @@
       </c>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D209" s="539" t="s">
-        <v>0</v>
-      </c>
-      <c r="E209" s="539"/>
-      <c r="F209" s="539"/>
-      <c r="O209" s="539" t="s">
+      <c r="D209" s="536" t="s">
+        <v>0</v>
+      </c>
+      <c r="E209" s="536"/>
+      <c r="F209" s="536"/>
+      <c r="O209" s="536" t="s">
         <v>10</v>
       </c>
-      <c r="P209" s="539"/>
+      <c r="P209" s="536"/>
       <c r="Q209" s="1" t="s">
         <v>0</v>
       </c>
@@ -23689,15 +24256,15 @@
       </c>
     </row>
     <row r="329" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D329" s="539" t="s">
-        <v>0</v>
-      </c>
-      <c r="E329" s="539"/>
-      <c r="F329" s="539"/>
-      <c r="O329" s="539" t="s">
+      <c r="D329" s="536" t="s">
+        <v>0</v>
+      </c>
+      <c r="E329" s="536"/>
+      <c r="F329" s="536"/>
+      <c r="O329" s="536" t="s">
         <v>10</v>
       </c>
-      <c r="P329" s="539"/>
+      <c r="P329" s="536"/>
       <c r="Q329" s="1" t="s">
         <v>0</v>
       </c>
@@ -28317,15 +28884,15 @@
       <c r="F428" s="83"/>
     </row>
     <row r="433" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D433" s="539" t="s">
-        <v>0</v>
-      </c>
-      <c r="E433" s="539"/>
-      <c r="F433" s="539"/>
-      <c r="O433" s="539" t="s">
+      <c r="D433" s="536" t="s">
+        <v>0</v>
+      </c>
+      <c r="E433" s="536"/>
+      <c r="F433" s="536"/>
+      <c r="O433" s="536" t="s">
         <v>10</v>
       </c>
-      <c r="P433" s="539"/>
+      <c r="P433" s="536"/>
       <c r="Q433" s="1" t="s">
         <v>0</v>
       </c>
@@ -33299,15 +33866,15 @@
       <c r="T539" s="263"/>
     </row>
     <row r="544" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D544" s="539" t="s">
-        <v>0</v>
-      </c>
-      <c r="E544" s="539"/>
-      <c r="F544" s="539"/>
-      <c r="O544" s="539" t="s">
+      <c r="D544" s="536" t="s">
+        <v>0</v>
+      </c>
+      <c r="E544" s="536"/>
+      <c r="F544" s="536"/>
+      <c r="O544" s="536" t="s">
         <v>10</v>
       </c>
-      <c r="P544" s="539"/>
+      <c r="P544" s="536"/>
       <c r="Q544" s="1" t="s">
         <v>0</v>
       </c>
@@ -38804,15 +39371,15 @@
       <c r="A655" s="471"/>
     </row>
     <row r="659" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D659" s="539" t="s">
-        <v>0</v>
-      </c>
-      <c r="E659" s="539"/>
-      <c r="F659" s="539"/>
-      <c r="O659" s="539" t="s">
+      <c r="D659" s="536" t="s">
+        <v>0</v>
+      </c>
+      <c r="E659" s="536"/>
+      <c r="F659" s="536"/>
+      <c r="O659" s="536" t="s">
         <v>10</v>
       </c>
-      <c r="P659" s="539"/>
+      <c r="P659" s="536"/>
       <c r="Q659" s="1" t="s">
         <v>0</v>
       </c>
@@ -44051,7 +44618,7 @@
       <c r="U762" s="87"/>
     </row>
     <row r="763" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A763" s="534">
+      <c r="A763" s="531">
         <v>45163</v>
       </c>
       <c r="B763" s="345" t="s">
@@ -45143,15 +45710,15 @@
       </c>
     </row>
     <row r="792" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D792" s="539" t="s">
-        <v>0</v>
-      </c>
-      <c r="E792" s="539"/>
-      <c r="F792" s="539"/>
-      <c r="O792" s="539" t="s">
+      <c r="D792" s="536" t="s">
+        <v>0</v>
+      </c>
+      <c r="E792" s="536"/>
+      <c r="F792" s="536"/>
+      <c r="O792" s="536" t="s">
         <v>10</v>
       </c>
-      <c r="P792" s="539"/>
+      <c r="P792" s="536"/>
       <c r="Q792" s="1" t="s">
         <v>0</v>
       </c>
@@ -45333,19 +45900,19 @@
       <c r="J799" s="85"/>
       <c r="K799" s="85"/>
       <c r="L799" s="85"/>
-      <c r="M799" s="535">
+      <c r="M799" s="532">
         <v>45170</v>
       </c>
-      <c r="N799" s="536" t="s">
+      <c r="N799" s="533" t="s">
         <v>59</v>
       </c>
-      <c r="O799" s="536">
+      <c r="O799" s="533">
         <v>1353</v>
       </c>
-      <c r="P799" s="537" t="s">
+      <c r="P799" s="534" t="s">
         <v>1636</v>
       </c>
-      <c r="Q799" s="537" t="s">
+      <c r="Q799" s="534" t="s">
         <v>73</v>
       </c>
       <c r="R799" s="264" t="s">
@@ -45385,19 +45952,19 @@
       <c r="J800" s="85"/>
       <c r="K800" s="85"/>
       <c r="L800" s="85"/>
-      <c r="M800" s="528">
+      <c r="M800" s="525">
         <v>45170</v>
       </c>
-      <c r="N800" s="529" t="s">
+      <c r="N800" s="526" t="s">
         <v>18</v>
       </c>
-      <c r="O800" s="529">
+      <c r="O800" s="526">
         <v>1370</v>
       </c>
-      <c r="P800" s="530" t="s">
+      <c r="P800" s="527" t="s">
         <v>399</v>
       </c>
-      <c r="Q800" s="530" t="s">
+      <c r="Q800" s="527" t="s">
         <v>73</v>
       </c>
       <c r="R800" s="264" t="s">
@@ -45422,8 +45989,8 @@
       <c r="D801" s="373" t="s">
         <v>1652</v>
       </c>
-      <c r="E801" s="551"/>
-      <c r="F801" s="551">
+      <c r="E801" s="548"/>
+      <c r="F801" s="548">
         <v>260</v>
       </c>
       <c r="G801" s="53">
@@ -45437,19 +46004,19 @@
       <c r="J801" s="85"/>
       <c r="K801" s="85"/>
       <c r="L801" s="85"/>
-      <c r="M801" s="535">
+      <c r="M801" s="532">
         <v>45170</v>
       </c>
-      <c r="N801" s="536" t="s">
+      <c r="N801" s="533" t="s">
         <v>18</v>
       </c>
-      <c r="O801" s="536">
+      <c r="O801" s="533">
         <v>1368</v>
       </c>
-      <c r="P801" s="537" t="s">
+      <c r="P801" s="534" t="s">
         <v>1136</v>
       </c>
-      <c r="Q801" s="537" t="s">
+      <c r="Q801" s="534" t="s">
         <v>73</v>
       </c>
       <c r="R801" s="264" t="s">
@@ -45489,19 +46056,19 @@
       <c r="J802" s="85"/>
       <c r="K802" s="85"/>
       <c r="L802" s="85"/>
-      <c r="M802" s="528">
+      <c r="M802" s="525">
         <v>45170</v>
       </c>
-      <c r="N802" s="529" t="s">
+      <c r="N802" s="526" t="s">
         <v>18</v>
       </c>
-      <c r="O802" s="529">
+      <c r="O802" s="526">
         <v>1369</v>
       </c>
-      <c r="P802" s="530" t="s">
+      <c r="P802" s="527" t="s">
         <v>1640</v>
       </c>
-      <c r="Q802" s="530" t="s">
+      <c r="Q802" s="527" t="s">
         <v>73</v>
       </c>
       <c r="R802" s="264" t="s">
@@ -45541,19 +46108,19 @@
       <c r="J803" s="85"/>
       <c r="K803" s="85"/>
       <c r="L803" s="85"/>
-      <c r="M803" s="528">
+      <c r="M803" s="525">
         <v>45170</v>
       </c>
-      <c r="N803" s="529" t="s">
+      <c r="N803" s="526" t="s">
         <v>18</v>
       </c>
-      <c r="O803" s="529">
+      <c r="O803" s="526">
         <v>1372</v>
       </c>
-      <c r="P803" s="530" t="s">
+      <c r="P803" s="527" t="s">
         <v>274</v>
       </c>
-      <c r="Q803" s="530" t="s">
+      <c r="Q803" s="527" t="s">
         <v>73</v>
       </c>
       <c r="R803" s="264" t="s">
@@ -45593,19 +46160,19 @@
       <c r="J804" s="85"/>
       <c r="K804" s="85"/>
       <c r="L804" s="85"/>
-      <c r="M804" s="528">
+      <c r="M804" s="525">
         <v>45170</v>
       </c>
-      <c r="N804" s="529" t="s">
+      <c r="N804" s="526" t="s">
         <v>18</v>
       </c>
-      <c r="O804" s="529">
+      <c r="O804" s="526">
         <v>1373</v>
       </c>
-      <c r="P804" s="530" t="s">
+      <c r="P804" s="527" t="s">
         <v>1643</v>
       </c>
-      <c r="Q804" s="530" t="s">
+      <c r="Q804" s="527" t="s">
         <v>73</v>
       </c>
       <c r="R804" s="264" t="s">
@@ -45630,8 +46197,8 @@
       <c r="D805" s="373" t="s">
         <v>1659</v>
       </c>
-      <c r="E805" s="551"/>
-      <c r="F805" s="551">
+      <c r="E805" s="548"/>
+      <c r="F805" s="548">
         <v>490</v>
       </c>
       <c r="G805" s="53">
@@ -45645,19 +46212,19 @@
       <c r="J805" s="85"/>
       <c r="K805" s="85"/>
       <c r="L805" s="85"/>
-      <c r="M805" s="528">
+      <c r="M805" s="525">
         <v>45170</v>
       </c>
-      <c r="N805" s="529" t="s">
+      <c r="N805" s="526" t="s">
         <v>18</v>
       </c>
-      <c r="O805" s="529">
+      <c r="O805" s="526">
         <v>1374</v>
       </c>
-      <c r="P805" s="530" t="s">
+      <c r="P805" s="527" t="s">
         <v>515</v>
       </c>
-      <c r="Q805" s="530" t="s">
+      <c r="Q805" s="527" t="s">
         <v>73</v>
       </c>
       <c r="R805" s="264" t="s">
@@ -45676,7 +46243,7 @@
       <c r="B806" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="C806" s="531">
+      <c r="C806" s="528">
         <v>57495350</v>
       </c>
       <c r="D806" s="225" t="s">
@@ -45697,19 +46264,19 @@
       <c r="J806" s="85"/>
       <c r="K806" s="85"/>
       <c r="L806" s="85"/>
-      <c r="M806" s="528">
+      <c r="M806" s="525">
         <v>45170</v>
       </c>
-      <c r="N806" s="529" t="s">
+      <c r="N806" s="526" t="s">
         <v>38</v>
       </c>
-      <c r="O806" s="529">
+      <c r="O806" s="526">
         <v>634</v>
       </c>
-      <c r="P806" s="530" t="s">
+      <c r="P806" s="527" t="s">
         <v>1646</v>
       </c>
-      <c r="Q806" s="530" t="s">
+      <c r="Q806" s="527" t="s">
         <v>73</v>
       </c>
       <c r="R806" s="264" t="s">
@@ -45722,7 +46289,7 @@
       <c r="U806" s="87"/>
     </row>
     <row r="807" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A807" s="532">
+      <c r="A807" s="529">
         <v>45170</v>
       </c>
       <c r="B807" s="225" t="s">
@@ -45734,8 +46301,8 @@
       <c r="D807" s="225" t="s">
         <v>1660</v>
       </c>
-      <c r="E807" s="533"/>
-      <c r="F807" s="533">
+      <c r="E807" s="530"/>
+      <c r="F807" s="530">
         <v>2</v>
       </c>
       <c r="G807" s="53">
@@ -45749,19 +46316,19 @@
       <c r="J807" s="85"/>
       <c r="K807" s="85"/>
       <c r="L807" s="85"/>
-      <c r="M807" s="528">
+      <c r="M807" s="525">
         <v>45170</v>
       </c>
-      <c r="N807" s="529" t="s">
+      <c r="N807" s="526" t="s">
         <v>38</v>
       </c>
-      <c r="O807" s="529">
+      <c r="O807" s="526">
         <v>499</v>
       </c>
-      <c r="P807" s="530" t="s">
+      <c r="P807" s="527" t="s">
         <v>1174</v>
       </c>
-      <c r="Q807" s="530" t="s">
+      <c r="Q807" s="527" t="s">
         <v>73</v>
       </c>
       <c r="R807" s="264" t="s">
@@ -46242,20 +46809,20 @@
       <c r="U816" s="87"/>
     </row>
     <row r="817" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A817" s="547">
+      <c r="A817" s="544">
         <v>45173</v>
       </c>
-      <c r="B817" s="548" t="s">
+      <c r="B817" s="545" t="s">
         <v>15</v>
       </c>
-      <c r="C817" s="548" t="s">
+      <c r="C817" s="545" t="s">
         <v>1710</v>
       </c>
-      <c r="D817" s="548" t="s">
+      <c r="D817" s="545" t="s">
         <v>251</v>
       </c>
-      <c r="E817" s="549"/>
-      <c r="F817" s="549">
+      <c r="E817" s="546"/>
+      <c r="F817" s="546">
         <v>2000</v>
       </c>
       <c r="G817" s="53">
@@ -46342,17 +46909,17 @@
       <c r="U818" s="87"/>
     </row>
     <row r="819" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A819" s="547">
+      <c r="A819" s="544">
         <v>45173</v>
       </c>
-      <c r="B819" s="548" t="s">
+      <c r="B819" s="545" t="s">
         <v>53</v>
       </c>
-      <c r="C819" s="548" t="s">
+      <c r="C819" s="545" t="s">
         <v>64</v>
       </c>
-      <c r="D819" s="548"/>
-      <c r="E819" s="549">
+      <c r="D819" s="545"/>
+      <c r="E819" s="546">
         <v>534.6</v>
       </c>
       <c r="F819" s="360"/>
@@ -46505,7 +47072,7 @@
       <c r="E822" s="360">
         <v>855.7</v>
       </c>
-      <c r="F822" s="550"/>
+      <c r="F822" s="547"/>
       <c r="G822" s="53">
         <f t="shared" si="70"/>
         <v>16549.77</v>
@@ -46555,7 +47122,7 @@
       <c r="E823" s="360">
         <v>520</v>
       </c>
-      <c r="F823" s="550"/>
+      <c r="F823" s="547"/>
       <c r="G823" s="53">
         <f>G822+E823-F823</f>
         <v>17069.77</v>
@@ -46602,8 +47169,8 @@
       <c r="D824" s="311" t="s">
         <v>1657</v>
       </c>
-      <c r="E824" s="550"/>
-      <c r="F824" s="550">
+      <c r="E824" s="547"/>
+      <c r="F824" s="547">
         <v>270</v>
       </c>
       <c r="G824" s="53">
@@ -46652,8 +47219,8 @@
       <c r="D825" s="311" t="s">
         <v>1397</v>
       </c>
-      <c r="E825" s="550"/>
-      <c r="F825" s="550">
+      <c r="E825" s="547"/>
+      <c r="F825" s="547">
         <v>150</v>
       </c>
       <c r="G825" s="53">
@@ -46686,7 +47253,7 @@
       <c r="S825" s="264" t="s">
         <v>1694</v>
       </c>
-      <c r="T825" s="546"/>
+      <c r="T825" s="543"/>
       <c r="U825" s="87"/>
     </row>
     <row r="826" spans="1:21" x14ac:dyDescent="0.25">
@@ -46802,8 +47369,8 @@
       <c r="D828" s="311" t="s">
         <v>789</v>
       </c>
-      <c r="E828" s="550"/>
-      <c r="F828" s="550">
+      <c r="E828" s="547"/>
+      <c r="F828" s="547">
         <v>480</v>
       </c>
       <c r="G828" s="53">
@@ -46852,8 +47419,8 @@
       <c r="D829" s="311" t="s">
         <v>1712</v>
       </c>
-      <c r="E829" s="550"/>
-      <c r="F829" s="550">
+      <c r="E829" s="547"/>
+      <c r="F829" s="547">
         <v>500</v>
       </c>
       <c r="G829" s="53">
@@ -46903,7 +47470,7 @@
         <v>251</v>
       </c>
       <c r="E830" s="312"/>
-      <c r="F830" s="550">
+      <c r="F830" s="547">
         <v>200</v>
       </c>
       <c r="G830" s="53">
@@ -46955,7 +47522,7 @@
       <c r="E831" s="312">
         <v>374.22</v>
       </c>
-      <c r="F831" s="550"/>
+      <c r="F831" s="547"/>
       <c r="G831" s="53">
         <f>G830+E831-F831</f>
         <v>14110.789999999999</v>
@@ -47002,8 +47569,8 @@
       <c r="D832" s="311" t="s">
         <v>1660</v>
       </c>
-      <c r="E832" s="550"/>
-      <c r="F832" s="550">
+      <c r="E832" s="547"/>
+      <c r="F832" s="547">
         <v>1</v>
       </c>
       <c r="G832" s="53">
@@ -47240,20 +47807,20 @@
       <c r="U836" s="87"/>
     </row>
     <row r="837" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A837" s="520">
+      <c r="A837" s="519">
         <v>45180</v>
       </c>
-      <c r="B837" s="552" t="s">
+      <c r="B837" s="549" t="s">
         <v>15</v>
       </c>
-      <c r="C837" s="552" t="s">
+      <c r="C837" s="549" t="s">
         <v>1750</v>
       </c>
-      <c r="D837" s="552" t="s">
+      <c r="D837" s="549" t="s">
         <v>789</v>
       </c>
-      <c r="E837" s="553"/>
-      <c r="F837" s="553">
+      <c r="E837" s="550"/>
+      <c r="F837" s="550">
         <v>400</v>
       </c>
       <c r="G837" s="53">
@@ -47290,22 +47857,22 @@
       <c r="U837" s="87"/>
     </row>
     <row r="838" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A838" s="520">
+      <c r="A838" s="519">
         <v>45180</v>
       </c>
-      <c r="B838" s="552" t="s">
+      <c r="B838" s="549" t="s">
         <v>53</v>
       </c>
-      <c r="C838" s="552" t="s">
+      <c r="C838" s="549" t="s">
         <v>64</v>
       </c>
-      <c r="D838" s="552" t="s">
+      <c r="D838" s="549" t="s">
         <v>1751</v>
       </c>
-      <c r="E838" s="553">
+      <c r="E838" s="550">
         <v>455</v>
       </c>
-      <c r="F838" s="553"/>
+      <c r="F838" s="550"/>
       <c r="G838" s="53">
         <f t="shared" si="74"/>
         <v>13278.900000000001</v>
@@ -47340,22 +47907,22 @@
       <c r="U838" s="87"/>
     </row>
     <row r="839" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A839" s="520">
+      <c r="A839" s="519">
         <v>45180</v>
       </c>
-      <c r="B839" s="552" t="s">
+      <c r="B839" s="549" t="s">
         <v>53</v>
       </c>
-      <c r="C839" s="552" t="s">
+      <c r="C839" s="549" t="s">
         <v>64</v>
       </c>
-      <c r="D839" s="552" t="s">
+      <c r="D839" s="549" t="s">
         <v>214</v>
       </c>
-      <c r="E839" s="553">
+      <c r="E839" s="550">
         <v>4771.8</v>
       </c>
-      <c r="F839" s="553"/>
+      <c r="F839" s="550"/>
       <c r="G839" s="53">
         <f>G838+E839-F839</f>
         <v>18050.7</v>
@@ -47399,13 +47966,13 @@
       <c r="C840" s="373" t="s">
         <v>64</v>
       </c>
-      <c r="D840" s="551" t="s">
+      <c r="D840" s="548" t="s">
         <v>438</v>
       </c>
-      <c r="E840" s="551">
+      <c r="E840" s="548">
         <v>8451.74</v>
       </c>
-      <c r="F840" s="551"/>
+      <c r="F840" s="548"/>
       <c r="G840" s="53">
         <f>G839+E840-F840</f>
         <v>26502.440000000002</v>
@@ -47449,11 +48016,11 @@
       <c r="C841" s="373" t="s">
         <v>65</v>
       </c>
-      <c r="D841" s="551" t="s">
+      <c r="D841" s="548" t="s">
         <v>251</v>
       </c>
-      <c r="E841" s="551"/>
-      <c r="F841" s="551">
+      <c r="E841" s="548"/>
+      <c r="F841" s="548">
         <v>800</v>
       </c>
       <c r="G841" s="53">
@@ -47549,11 +48116,11 @@
       <c r="C843" s="373" t="s">
         <v>1753</v>
       </c>
-      <c r="D843" s="551" t="s">
+      <c r="D843" s="548" t="s">
         <v>1652</v>
       </c>
-      <c r="E843" s="551"/>
-      <c r="F843" s="551">
+      <c r="E843" s="548"/>
+      <c r="F843" s="548">
         <v>100</v>
       </c>
       <c r="G843" s="53">
@@ -47649,11 +48216,11 @@
       <c r="C845" s="373" t="s">
         <v>1756</v>
       </c>
-      <c r="D845" s="551" t="s">
+      <c r="D845" s="548" t="s">
         <v>1397</v>
       </c>
-      <c r="E845" s="551"/>
-      <c r="F845" s="551">
+      <c r="E845" s="548"/>
+      <c r="F845" s="548">
         <v>500</v>
       </c>
       <c r="G845" s="53">
@@ -47749,13 +48316,13 @@
       <c r="C847" s="373" t="s">
         <v>64</v>
       </c>
-      <c r="D847" s="551" t="s">
+      <c r="D847" s="548" t="s">
         <v>1759</v>
       </c>
-      <c r="E847" s="551">
+      <c r="E847" s="548">
         <v>387.78</v>
       </c>
-      <c r="F847" s="551"/>
+      <c r="F847" s="548"/>
       <c r="G847" s="53">
         <f t="shared" si="77"/>
         <v>23241.17</v>
@@ -47796,14 +48363,14 @@
       <c r="B848" s="373" t="s">
         <v>15</v>
       </c>
-      <c r="C848" s="555" t="s">
+      <c r="C848" s="552" t="s">
         <v>1760</v>
       </c>
-      <c r="D848" s="551" t="s">
+      <c r="D848" s="548" t="s">
         <v>1657</v>
       </c>
-      <c r="E848" s="551"/>
-      <c r="F848" s="551">
+      <c r="E848" s="548"/>
+      <c r="F848" s="548">
         <v>200</v>
       </c>
       <c r="G848" s="53">
@@ -47849,11 +48416,11 @@
       <c r="C849" s="373" t="s">
         <v>1761</v>
       </c>
-      <c r="D849" s="551" t="s">
+      <c r="D849" s="548" t="s">
         <v>1657</v>
       </c>
-      <c r="E849" s="551"/>
-      <c r="F849" s="551">
+      <c r="E849" s="548"/>
+      <c r="F849" s="548">
         <v>100</v>
       </c>
       <c r="G849" s="53">
@@ -47990,7 +48557,7 @@
       <c r="U851" s="87"/>
     </row>
     <row r="852" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A852" s="554">
+      <c r="A852" s="551">
         <v>45149</v>
       </c>
       <c r="B852" s="373" t="s">
@@ -47999,11 +48566,11 @@
       <c r="C852" s="373" t="s">
         <v>65</v>
       </c>
-      <c r="D852" s="551" t="s">
+      <c r="D852" s="548" t="s">
         <v>1660</v>
       </c>
-      <c r="E852" s="551"/>
-      <c r="F852" s="551">
+      <c r="E852" s="548"/>
+      <c r="F852" s="548">
         <v>1</v>
       </c>
       <c r="G852" s="53">
@@ -48215,19 +48782,19 @@
       <c r="J856" s="85"/>
       <c r="K856" s="87"/>
       <c r="L856" s="85"/>
-      <c r="M856" s="557">
+      <c r="M856" s="554">
         <v>45183</v>
       </c>
-      <c r="N856" s="558" t="s">
+      <c r="N856" s="555" t="s">
         <v>18</v>
       </c>
-      <c r="O856" s="558">
+      <c r="O856" s="555">
         <v>1411</v>
       </c>
-      <c r="P856" s="559" t="s">
+      <c r="P856" s="556" t="s">
         <v>1793</v>
       </c>
-      <c r="Q856" s="559" t="s">
+      <c r="Q856" s="556" t="s">
         <v>73</v>
       </c>
       <c r="R856" s="306" t="s">
@@ -48265,19 +48832,19 @@
       <c r="J857" s="87"/>
       <c r="K857" s="87"/>
       <c r="L857" s="85"/>
-      <c r="M857" s="557">
+      <c r="M857" s="554">
         <v>45184</v>
       </c>
-      <c r="N857" s="558" t="s">
+      <c r="N857" s="555" t="s">
         <v>59</v>
       </c>
-      <c r="O857" s="558">
+      <c r="O857" s="555">
         <v>1394</v>
       </c>
-      <c r="P857" s="559" t="s">
+      <c r="P857" s="556" t="s">
         <v>1795</v>
       </c>
-      <c r="Q857" s="559" t="s">
+      <c r="Q857" s="556" t="s">
         <v>73</v>
       </c>
       <c r="R857" s="306" t="s">
@@ -48315,19 +48882,19 @@
       <c r="J858" s="87"/>
       <c r="K858" s="87"/>
       <c r="L858" s="85"/>
-      <c r="M858" s="557">
+      <c r="M858" s="554">
         <v>45184</v>
       </c>
-      <c r="N858" s="558" t="s">
+      <c r="N858" s="555" t="s">
         <v>59</v>
       </c>
-      <c r="O858" s="558">
+      <c r="O858" s="555">
         <v>1391</v>
       </c>
-      <c r="P858" s="559" t="s">
+      <c r="P858" s="556" t="s">
         <v>1797</v>
       </c>
-      <c r="Q858" s="559" t="s">
+      <c r="Q858" s="556" t="s">
         <v>73</v>
       </c>
       <c r="R858" s="306" t="s">
@@ -48355,19 +48922,19 @@
       <c r="J859" s="87"/>
       <c r="K859" s="87"/>
       <c r="L859" s="87"/>
-      <c r="M859" s="557">
+      <c r="M859" s="554">
         <v>45184</v>
       </c>
-      <c r="N859" s="558" t="s">
+      <c r="N859" s="555" t="s">
         <v>38</v>
       </c>
-      <c r="O859" s="558">
+      <c r="O859" s="555">
         <v>634</v>
       </c>
-      <c r="P859" s="559" t="s">
+      <c r="P859" s="556" t="s">
         <v>432</v>
       </c>
-      <c r="Q859" s="559" t="s">
+      <c r="Q859" s="556" t="s">
         <v>73</v>
       </c>
       <c r="R859" s="306" t="s">
@@ -48405,19 +48972,19 @@
       <c r="J860" s="87"/>
       <c r="K860" s="87"/>
       <c r="L860" s="87"/>
-      <c r="M860" s="557">
+      <c r="M860" s="554">
         <v>45184</v>
       </c>
-      <c r="N860" s="558" t="s">
+      <c r="N860" s="555" t="s">
         <v>38</v>
       </c>
-      <c r="O860" s="558">
+      <c r="O860" s="555">
         <v>499</v>
       </c>
-      <c r="P860" s="559" t="s">
+      <c r="P860" s="556" t="s">
         <v>1170</v>
       </c>
-      <c r="Q860" s="559" t="s">
+      <c r="Q860" s="556" t="s">
         <v>73</v>
       </c>
       <c r="R860" s="306" t="s">
@@ -48455,19 +49022,19 @@
       <c r="J861" s="87"/>
       <c r="K861" s="87"/>
       <c r="L861" s="87"/>
-      <c r="M861" s="557">
+      <c r="M861" s="554">
         <v>45184</v>
       </c>
-      <c r="N861" s="558" t="s">
+      <c r="N861" s="555" t="s">
         <v>38</v>
       </c>
-      <c r="O861" s="558">
+      <c r="O861" s="555">
         <v>634</v>
       </c>
-      <c r="P861" s="559" t="s">
+      <c r="P861" s="556" t="s">
         <v>298</v>
       </c>
-      <c r="Q861" s="559" t="s">
+      <c r="Q861" s="556" t="s">
         <v>73</v>
       </c>
       <c r="R861" s="306" t="s">
@@ -48505,19 +49072,19 @@
       <c r="J862" s="87"/>
       <c r="K862" s="87"/>
       <c r="L862" s="87"/>
-      <c r="M862" s="557">
+      <c r="M862" s="554">
         <v>45184</v>
       </c>
-      <c r="N862" s="558" t="s">
+      <c r="N862" s="555" t="s">
         <v>38</v>
       </c>
-      <c r="O862" s="558">
+      <c r="O862" s="555">
         <v>499</v>
       </c>
-      <c r="P862" s="559" t="s">
+      <c r="P862" s="556" t="s">
         <v>1170</v>
       </c>
-      <c r="Q862" s="559" t="s">
+      <c r="Q862" s="556" t="s">
         <v>73</v>
       </c>
       <c r="R862" s="306" t="s">
@@ -48555,19 +49122,19 @@
       <c r="J863" s="87"/>
       <c r="K863" s="87"/>
       <c r="L863" s="87"/>
-      <c r="M863" s="557">
+      <c r="M863" s="554">
         <v>45184</v>
       </c>
-      <c r="N863" s="558" t="s">
+      <c r="N863" s="555" t="s">
         <v>18</v>
       </c>
-      <c r="O863" s="558">
+      <c r="O863" s="555">
         <v>1414</v>
       </c>
-      <c r="P863" s="559" t="s">
+      <c r="P863" s="556" t="s">
         <v>1803</v>
       </c>
-      <c r="Q863" s="559" t="s">
+      <c r="Q863" s="556" t="s">
         <v>73</v>
       </c>
       <c r="R863" s="306" t="s">
@@ -48605,19 +49172,19 @@
       <c r="J864" s="87"/>
       <c r="K864" s="87"/>
       <c r="L864" s="87"/>
-      <c r="M864" s="557">
+      <c r="M864" s="554">
         <v>45187</v>
       </c>
-      <c r="N864" s="558" t="s">
+      <c r="N864" s="555" t="s">
         <v>18</v>
       </c>
-      <c r="O864" s="558">
+      <c r="O864" s="555">
         <v>1420</v>
       </c>
-      <c r="P864" s="559" t="s">
+      <c r="P864" s="556" t="s">
         <v>1805</v>
       </c>
-      <c r="Q864" s="559" t="s">
+      <c r="Q864" s="556" t="s">
         <v>73</v>
       </c>
       <c r="R864" s="306" t="s">
@@ -48655,19 +49222,19 @@
       <c r="J865" s="87"/>
       <c r="K865" s="87"/>
       <c r="L865" s="87"/>
-      <c r="M865" s="557">
+      <c r="M865" s="554">
         <v>45187</v>
       </c>
-      <c r="N865" s="558" t="s">
+      <c r="N865" s="555" t="s">
         <v>18</v>
       </c>
-      <c r="O865" s="558">
+      <c r="O865" s="555">
         <v>1419</v>
       </c>
-      <c r="P865" s="559" t="s">
+      <c r="P865" s="556" t="s">
         <v>1805</v>
       </c>
-      <c r="Q865" s="559" t="s">
+      <c r="Q865" s="556" t="s">
         <v>73</v>
       </c>
       <c r="R865" s="306" t="s">
@@ -48705,19 +49272,19 @@
       <c r="J866" s="87"/>
       <c r="K866" s="87"/>
       <c r="L866" s="87"/>
-      <c r="M866" s="557">
+      <c r="M866" s="554">
         <v>45187</v>
       </c>
-      <c r="N866" s="558" t="s">
+      <c r="N866" s="555" t="s">
         <v>18</v>
       </c>
-      <c r="O866" s="558">
+      <c r="O866" s="555">
         <v>1382</v>
       </c>
-      <c r="P866" s="559" t="s">
+      <c r="P866" s="556" t="s">
         <v>1664</v>
       </c>
-      <c r="Q866" s="559" t="s">
+      <c r="Q866" s="556" t="s">
         <v>73</v>
       </c>
       <c r="R866" s="306" t="s">
@@ -49173,16 +49740,16 @@
       <c r="A876" s="354">
         <v>45188</v>
       </c>
-      <c r="B876" s="560" t="s">
+      <c r="B876" s="557" t="s">
         <v>53</v>
       </c>
-      <c r="C876" s="560" t="s">
+      <c r="C876" s="557" t="s">
         <v>64</v>
       </c>
-      <c r="D876" s="560" t="s">
+      <c r="D876" s="557" t="s">
         <v>332</v>
       </c>
-      <c r="E876" s="561">
+      <c r="E876" s="558">
         <v>441</v>
       </c>
       <c r="F876" s="226"/>
@@ -49845,20 +50412,20 @@
       <c r="U890" s="87"/>
     </row>
     <row r="891" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A891" s="441">
+      <c r="A891" s="566">
         <v>45190</v>
       </c>
-      <c r="B891" s="154" t="s">
+      <c r="B891" s="567" t="s">
         <v>15</v>
       </c>
-      <c r="C891" s="154" t="s">
+      <c r="C891" s="567" t="s">
         <v>1869</v>
       </c>
-      <c r="D891" s="154" t="s">
+      <c r="D891" s="567" t="s">
         <v>1657</v>
       </c>
-      <c r="E891" s="156"/>
-      <c r="F891" s="156">
+      <c r="E891" s="568"/>
+      <c r="F891" s="568">
         <v>1600</v>
       </c>
       <c r="G891" s="53">
@@ -49890,7 +50457,7 @@
       <c r="U891" s="87"/>
     </row>
     <row r="892" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A892" s="562">
+      <c r="A892" s="559">
         <v>45190</v>
       </c>
       <c r="B892" s="71" t="s">
@@ -49935,7 +50502,7 @@
       <c r="U892" s="87"/>
     </row>
     <row r="893" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A893" s="562">
+      <c r="A893" s="559">
         <v>45190</v>
       </c>
       <c r="B893" s="71" t="s">
@@ -49955,18 +50522,32 @@
         <f t="shared" si="82"/>
         <v>17395.27</v>
       </c>
-      <c r="M893" s="37"/>
-      <c r="N893" s="38"/>
-      <c r="O893" s="38"/>
-      <c r="P893" s="39"/>
-      <c r="Q893" s="39"/>
-      <c r="R893" s="39"/>
-      <c r="S893" s="39"/>
-      <c r="T893" s="40"/>
+      <c r="M893" s="563">
+        <v>45191</v>
+      </c>
+      <c r="N893" s="564" t="s">
+        <v>18</v>
+      </c>
+      <c r="O893" s="564">
+        <v>1425</v>
+      </c>
+      <c r="P893" s="565" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q893" s="565" t="s">
+        <v>73</v>
+      </c>
+      <c r="R893" s="264" t="s">
+        <v>1872</v>
+      </c>
+      <c r="S893" s="264" t="s">
+        <v>1872</v>
+      </c>
+      <c r="T893" s="280"/>
       <c r="U893" s="87"/>
     </row>
     <row r="894" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A894" s="562">
+      <c r="A894" s="559">
         <v>45190</v>
       </c>
       <c r="B894" s="71" t="s">
@@ -49986,237 +50567,429 @@
         <f t="shared" si="82"/>
         <v>17394.27</v>
       </c>
-      <c r="M894" s="37"/>
-      <c r="N894" s="38"/>
-      <c r="O894" s="38"/>
-      <c r="P894" s="39"/>
-      <c r="Q894" s="39"/>
-      <c r="R894" s="39"/>
-      <c r="S894" s="39"/>
-      <c r="T894" s="38"/>
+      <c r="M894" s="563">
+        <v>45191</v>
+      </c>
+      <c r="N894" s="564" t="s">
+        <v>18</v>
+      </c>
+      <c r="O894" s="564">
+        <v>1428</v>
+      </c>
+      <c r="P894" s="565" t="s">
+        <v>1873</v>
+      </c>
+      <c r="Q894" s="565" t="s">
+        <v>73</v>
+      </c>
+      <c r="R894" s="264" t="s">
+        <v>1874</v>
+      </c>
+      <c r="S894" s="264" t="s">
+        <v>1874</v>
+      </c>
+      <c r="T894" s="280"/>
       <c r="U894" s="87"/>
     </row>
     <row r="895" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A895" s="441">
+      <c r="A895" s="566">
         <v>45191</v>
       </c>
-      <c r="B895" s="154" t="s">
+      <c r="B895" s="567" t="s">
         <v>15</v>
       </c>
-      <c r="C895" s="154" t="s">
+      <c r="C895" s="567" t="s">
         <v>1870</v>
       </c>
-      <c r="D895" s="154" t="s">
+      <c r="D895" s="567" t="s">
         <v>251</v>
       </c>
-      <c r="E895" s="156"/>
-      <c r="F895" s="156">
+      <c r="E895" s="568"/>
+      <c r="F895" s="568">
         <v>1153.76</v>
       </c>
       <c r="G895" s="53">
         <f t="shared" si="82"/>
         <v>16240.51</v>
       </c>
-      <c r="M895" s="37"/>
-      <c r="N895" s="38"/>
-      <c r="O895" s="38"/>
-      <c r="P895" s="39"/>
-      <c r="Q895" s="39"/>
-      <c r="R895" s="39"/>
-      <c r="S895" s="39"/>
-      <c r="T895" s="38"/>
+      <c r="M895" s="563">
+        <v>45191</v>
+      </c>
+      <c r="N895" s="564" t="s">
+        <v>18</v>
+      </c>
+      <c r="O895" s="564">
+        <v>1427</v>
+      </c>
+      <c r="P895" s="565" t="s">
+        <v>1873</v>
+      </c>
+      <c r="Q895" s="565" t="s">
+        <v>73</v>
+      </c>
+      <c r="R895" s="264" t="s">
+        <v>1875</v>
+      </c>
+      <c r="S895" s="264" t="s">
+        <v>1875</v>
+      </c>
+      <c r="T895" s="280"/>
       <c r="U895" s="87"/>
     </row>
     <row r="896" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A896" s="441">
+      <c r="A896" s="566">
         <v>45191</v>
       </c>
-      <c r="B896" s="154" t="s">
+      <c r="B896" s="567" t="s">
         <v>15</v>
       </c>
-      <c r="C896" s="154" t="s">
+      <c r="C896" s="567" t="s">
         <v>1871</v>
       </c>
-      <c r="D896" s="154" t="s">
+      <c r="D896" s="567" t="s">
         <v>251</v>
       </c>
-      <c r="E896" s="156"/>
-      <c r="F896" s="156">
+      <c r="E896" s="568"/>
+      <c r="F896" s="568">
         <v>1153.76</v>
       </c>
       <c r="G896" s="53">
         <f t="shared" si="82"/>
         <v>15086.75</v>
       </c>
-      <c r="M896" s="37"/>
-      <c r="N896" s="38"/>
-      <c r="O896" s="38"/>
-      <c r="P896" s="39"/>
-      <c r="Q896" s="39"/>
-      <c r="R896" s="39"/>
-      <c r="S896" s="39"/>
-      <c r="T896" s="38"/>
+      <c r="M896" s="563">
+        <v>45191</v>
+      </c>
+      <c r="N896" s="564" t="s">
+        <v>38</v>
+      </c>
+      <c r="O896" s="564">
+        <v>634</v>
+      </c>
+      <c r="P896" s="565" t="s">
+        <v>1636</v>
+      </c>
+      <c r="Q896" s="565" t="s">
+        <v>73</v>
+      </c>
+      <c r="R896" s="264" t="s">
+        <v>1876</v>
+      </c>
+      <c r="S896" s="264" t="s">
+        <v>1876</v>
+      </c>
+      <c r="T896" s="280"/>
       <c r="U896" s="87"/>
     </row>
     <row r="897" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A897" s="441"/>
-      <c r="B897" s="154"/>
-      <c r="C897" s="154"/>
-      <c r="D897" s="154"/>
+      <c r="A897" s="441">
+        <v>45191</v>
+      </c>
+      <c r="B897" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C897" s="154" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D897" s="154" t="s">
+        <v>867</v>
+      </c>
       <c r="E897" s="156"/>
-      <c r="F897" s="156"/>
+      <c r="F897" s="156">
+        <v>150</v>
+      </c>
       <c r="G897" s="53">
         <f t="shared" si="82"/>
-        <v>15086.75</v>
-      </c>
-      <c r="M897" s="518"/>
-      <c r="N897" s="305"/>
-      <c r="O897" s="305"/>
-      <c r="P897" s="306"/>
-      <c r="Q897" s="306"/>
-      <c r="R897" s="306"/>
-      <c r="S897" s="306"/>
-      <c r="T897" s="305"/>
+        <v>14936.75</v>
+      </c>
+      <c r="M897" s="563">
+        <v>45191</v>
+      </c>
+      <c r="N897" s="564" t="s">
+        <v>38</v>
+      </c>
+      <c r="O897" s="564">
+        <v>499</v>
+      </c>
+      <c r="P897" s="565" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q897" s="565" t="s">
+        <v>73</v>
+      </c>
+      <c r="R897" s="264" t="s">
+        <v>1877</v>
+      </c>
+      <c r="S897" s="264" t="s">
+        <v>1877</v>
+      </c>
+      <c r="T897" s="280"/>
       <c r="U897" s="87"/>
     </row>
     <row r="898" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A898" s="441"/>
-      <c r="B898" s="154"/>
-      <c r="C898" s="154"/>
-      <c r="D898" s="154"/>
-      <c r="E898" s="156"/>
-      <c r="F898" s="156"/>
+      <c r="A898" s="566">
+        <v>45191</v>
+      </c>
+      <c r="B898" s="567" t="s">
+        <v>15</v>
+      </c>
+      <c r="C898" s="567" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D898" s="567" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E898" s="568"/>
+      <c r="F898" s="568">
+        <v>310</v>
+      </c>
       <c r="G898" s="53">
         <f t="shared" si="82"/>
-        <v>15086.75</v>
-      </c>
-      <c r="M898" s="518"/>
-      <c r="N898" s="305"/>
-      <c r="O898" s="305"/>
-      <c r="P898" s="306"/>
-      <c r="Q898" s="306"/>
-      <c r="R898" s="306"/>
-      <c r="S898" s="306"/>
-      <c r="T898" s="305"/>
+        <v>14626.75</v>
+      </c>
+      <c r="M898" s="563">
+        <v>45191</v>
+      </c>
+      <c r="N898" s="564" t="s">
+        <v>18</v>
+      </c>
+      <c r="O898" s="564">
+        <v>1430</v>
+      </c>
+      <c r="P898" s="565" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q898" s="565" t="s">
+        <v>73</v>
+      </c>
+      <c r="R898" s="264" t="s">
+        <v>1878</v>
+      </c>
+      <c r="S898" s="264" t="s">
+        <v>1878</v>
+      </c>
+      <c r="T898" s="280"/>
       <c r="U898" s="87"/>
     </row>
     <row r="899" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A899" s="441"/>
-      <c r="B899" s="154"/>
-      <c r="C899" s="154"/>
-      <c r="D899" s="154"/>
-      <c r="E899" s="156"/>
-      <c r="F899" s="156"/>
+      <c r="A899" s="566">
+        <v>45191</v>
+      </c>
+      <c r="B899" s="567" t="s">
+        <v>15</v>
+      </c>
+      <c r="C899" s="567">
+        <v>57779885</v>
+      </c>
+      <c r="D899" s="567" t="s">
+        <v>1887</v>
+      </c>
+      <c r="E899" s="568"/>
+      <c r="F899" s="568">
+        <v>280</v>
+      </c>
       <c r="G899" s="53">
         <f t="shared" si="82"/>
-        <v>15086.75</v>
-      </c>
-      <c r="M899" s="518"/>
-      <c r="N899" s="305"/>
-      <c r="O899" s="305"/>
-      <c r="P899" s="306"/>
-      <c r="Q899" s="306"/>
-      <c r="R899" s="306"/>
-      <c r="S899" s="306"/>
-      <c r="T899" s="305"/>
+        <v>14346.75</v>
+      </c>
+      <c r="M899" s="563">
+        <v>45191</v>
+      </c>
+      <c r="N899" s="564" t="s">
+        <v>27</v>
+      </c>
+      <c r="O899" s="564">
+        <v>230</v>
+      </c>
+      <c r="P899" s="565" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q899" s="565" t="s">
+        <v>1879</v>
+      </c>
+      <c r="R899" s="264" t="s">
+        <v>1880</v>
+      </c>
+      <c r="S899" s="264" t="s">
+        <v>1880</v>
+      </c>
+      <c r="T899" s="280"/>
       <c r="U899" s="87"/>
     </row>
     <row r="900" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A900" s="441"/>
-      <c r="B900" s="154"/>
-      <c r="C900" s="154"/>
-      <c r="D900" s="154"/>
-      <c r="E900" s="156"/>
-      <c r="F900" s="156"/>
+      <c r="A900" s="566">
+        <v>45191</v>
+      </c>
+      <c r="B900" s="567" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C900" s="567" t="s">
+        <v>65</v>
+      </c>
+      <c r="D900" s="567" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E900" s="568"/>
+      <c r="F900" s="568">
+        <v>1</v>
+      </c>
       <c r="G900" s="53">
         <f t="shared" si="82"/>
-        <v>15086.75</v>
-      </c>
-      <c r="M900" s="518"/>
-      <c r="N900" s="305"/>
-      <c r="O900" s="305"/>
-      <c r="P900" s="306"/>
-      <c r="Q900" s="306"/>
-      <c r="R900" s="306"/>
-      <c r="S900" s="306"/>
-      <c r="T900" s="480"/>
+        <v>14345.75</v>
+      </c>
+      <c r="M900" s="563">
+        <v>45194</v>
+      </c>
+      <c r="N900" s="564" t="s">
+        <v>18</v>
+      </c>
+      <c r="O900" s="564">
+        <v>1432</v>
+      </c>
+      <c r="P900" s="565" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q900" s="565" t="s">
+        <v>73</v>
+      </c>
+      <c r="R900" s="264" t="s">
+        <v>1881</v>
+      </c>
+      <c r="S900" s="264" t="s">
+        <v>1881</v>
+      </c>
+      <c r="T900" s="280"/>
       <c r="U900" s="87"/>
     </row>
     <row r="901" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A901" s="441"/>
-      <c r="B901" s="154"/>
-      <c r="C901" s="154"/>
-      <c r="D901" s="154"/>
-      <c r="E901" s="156"/>
-      <c r="F901" s="156"/>
+      <c r="A901" s="566">
+        <v>45191</v>
+      </c>
+      <c r="B901" s="567" t="s">
+        <v>53</v>
+      </c>
+      <c r="C901" s="567" t="s">
+        <v>64</v>
+      </c>
+      <c r="D901" s="567" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E901" s="568">
+        <v>435.6</v>
+      </c>
+      <c r="F901" s="568"/>
       <c r="G901" s="53">
         <f t="shared" si="82"/>
-        <v>15086.75</v>
-      </c>
-      <c r="M901" s="518"/>
-      <c r="N901" s="305"/>
-      <c r="O901" s="305"/>
-      <c r="P901" s="306"/>
-      <c r="Q901" s="306"/>
-      <c r="R901" s="306"/>
-      <c r="S901" s="306"/>
-      <c r="T901" s="480"/>
+        <v>14781.35</v>
+      </c>
+      <c r="M901" s="563">
+        <v>45194</v>
+      </c>
+      <c r="N901" s="564" t="s">
+        <v>27</v>
+      </c>
+      <c r="O901" s="564">
+        <v>226</v>
+      </c>
+      <c r="P901" s="565" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q901" s="565" t="s">
+        <v>215</v>
+      </c>
+      <c r="R901" s="264" t="s">
+        <v>1882</v>
+      </c>
+      <c r="S901" s="264" t="s">
+        <v>1882</v>
+      </c>
+      <c r="T901" s="280"/>
       <c r="U901" s="87"/>
     </row>
     <row r="902" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A902" s="441"/>
-      <c r="B902" s="154"/>
-      <c r="C902" s="154"/>
-      <c r="D902" s="154"/>
-      <c r="E902" s="154"/>
-      <c r="F902" s="156"/>
+      <c r="A902" s="441">
+        <v>45194</v>
+      </c>
+      <c r="B902" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C902" s="154" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D902" s="154" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E902" s="156"/>
+      <c r="F902" s="156">
+        <v>200</v>
+      </c>
       <c r="G902" s="53">
         <f t="shared" si="82"/>
-        <v>15086.75</v>
-      </c>
-      <c r="M902" s="518"/>
-      <c r="N902" s="305"/>
-      <c r="O902" s="305"/>
-      <c r="P902" s="306"/>
-      <c r="Q902" s="306"/>
-      <c r="R902" s="306"/>
-      <c r="S902" s="306"/>
-      <c r="T902" s="480"/>
+        <v>14581.35</v>
+      </c>
+      <c r="M902" s="560"/>
+      <c r="N902" s="500"/>
+      <c r="O902" s="500"/>
+      <c r="P902" s="561"/>
+      <c r="Q902" s="561"/>
+      <c r="R902" s="561"/>
+      <c r="S902" s="561"/>
+      <c r="T902" s="562"/>
       <c r="U902" s="87"/>
     </row>
     <row r="903" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A903" s="155"/>
-      <c r="B903" s="154"/>
-      <c r="C903" s="154"/>
-      <c r="D903" s="154"/>
-      <c r="E903" s="154"/>
-      <c r="F903" s="156"/>
+      <c r="A903" s="566">
+        <v>45194</v>
+      </c>
+      <c r="B903" s="567" t="s">
+        <v>15</v>
+      </c>
+      <c r="C903" s="567" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D903" s="567" t="s">
+        <v>251</v>
+      </c>
+      <c r="E903" s="568"/>
+      <c r="F903" s="568">
+        <v>350</v>
+      </c>
       <c r="G903" s="53">
         <f t="shared" si="82"/>
-        <v>15086.75</v>
+        <v>14231.35</v>
       </c>
       <c r="M903" s="518"/>
-      <c r="N903" s="305"/>
-      <c r="O903" s="305"/>
-      <c r="P903" s="306"/>
-      <c r="Q903" s="306"/>
-      <c r="R903" s="306"/>
-      <c r="S903" s="306"/>
-      <c r="T903" s="480"/>
+      <c r="N903" s="378"/>
+      <c r="O903" s="378"/>
+      <c r="P903" s="95"/>
+      <c r="Q903" s="95"/>
+      <c r="R903" s="95"/>
+      <c r="S903" s="95"/>
+      <c r="T903" s="430"/>
     </row>
     <row r="904" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A904" s="521"/>
-      <c r="B904" s="522"/>
-      <c r="C904" s="522"/>
-      <c r="D904" s="522"/>
-      <c r="E904" s="522"/>
-      <c r="F904" s="522"/>
+      <c r="A904" s="441">
+        <v>45194</v>
+      </c>
+      <c r="B904" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C904" s="154" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D904" s="154" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E904" s="154"/>
+      <c r="F904" s="156">
+        <v>217.5</v>
+      </c>
       <c r="G904" s="53">
         <f t="shared" si="82"/>
-        <v>15086.75</v>
+        <v>14013.85</v>
       </c>
       <c r="H904" s="36"/>
-      <c r="M904" s="519"/>
+      <c r="M904" s="518"/>
       <c r="N904" s="378"/>
       <c r="O904" s="378"/>
       <c r="P904" s="95"/>
@@ -50226,17 +50999,27 @@
       <c r="T904" s="430"/>
     </row>
     <row r="905" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A905" s="441"/>
-      <c r="B905" s="156"/>
-      <c r="C905" s="156"/>
-      <c r="D905" s="156"/>
-      <c r="E905" s="156"/>
-      <c r="F905" s="156"/>
+      <c r="A905" s="566">
+        <v>45194</v>
+      </c>
+      <c r="B905" s="568" t="s">
+        <v>53</v>
+      </c>
+      <c r="C905" s="568" t="s">
+        <v>64</v>
+      </c>
+      <c r="D905" s="568" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E905" s="568">
+        <v>178.2</v>
+      </c>
+      <c r="F905" s="568"/>
       <c r="G905" s="53">
         <f t="shared" si="82"/>
-        <v>15086.75</v>
-      </c>
-      <c r="M905" s="519"/>
+        <v>14192.050000000001</v>
+      </c>
+      <c r="M905" s="518"/>
       <c r="N905" s="378"/>
       <c r="O905" s="378"/>
       <c r="P905" s="95"/>
@@ -50254,9 +51037,9 @@
       <c r="F906" s="156"/>
       <c r="G906" s="53">
         <f t="shared" si="82"/>
-        <v>15086.75</v>
-      </c>
-      <c r="M906" s="519"/>
+        <v>14192.050000000001</v>
+      </c>
+      <c r="M906" s="518"/>
       <c r="N906" s="378"/>
       <c r="O906" s="378"/>
       <c r="P906" s="95"/>
@@ -50274,16 +51057,16 @@
       <c r="F907" s="156"/>
       <c r="G907" s="53">
         <f t="shared" si="82"/>
-        <v>15086.75</v>
-      </c>
-      <c r="M907" s="519"/>
+        <v>14192.050000000001</v>
+      </c>
+      <c r="M907" s="518"/>
       <c r="N907" s="378"/>
       <c r="O907" s="378"/>
       <c r="P907" s="95"/>
       <c r="Q907" s="95"/>
       <c r="R907" s="95"/>
       <c r="S907" s="95"/>
-      <c r="T907" s="430"/>
+      <c r="T907" s="223"/>
     </row>
     <row r="908" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A908" s="441"/>
@@ -50294,16 +51077,15 @@
       <c r="F908" s="156"/>
       <c r="G908" s="53">
         <f t="shared" si="82"/>
-        <v>15086.75</v>
-      </c>
-      <c r="M908" s="519"/>
+        <v>14192.050000000001</v>
+      </c>
+      <c r="M908" s="518"/>
       <c r="N908" s="378"/>
       <c r="O908" s="378"/>
       <c r="P908" s="95"/>
       <c r="Q908" s="95"/>
-      <c r="R908" s="95"/>
-      <c r="S908" s="95"/>
-      <c r="T908" s="223"/>
+      <c r="R908" s="87"/>
+      <c r="S908" s="87"/>
     </row>
     <row r="909" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A909" s="441"/>
@@ -50314,15 +51096,8 @@
       <c r="F909" s="156"/>
       <c r="G909" s="53">
         <f t="shared" si="82"/>
-        <v>15086.75</v>
-      </c>
-      <c r="M909" s="519"/>
-      <c r="N909" s="378"/>
-      <c r="O909" s="378"/>
-      <c r="P909" s="95"/>
-      <c r="Q909" s="95"/>
-      <c r="R909" s="87"/>
-      <c r="S909" s="87"/>
+        <v>14192.050000000001</v>
+      </c>
     </row>
     <row r="910" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A910" s="441"/>
@@ -50333,7 +51108,7 @@
       <c r="F910" s="156"/>
       <c r="G910" s="53">
         <f t="shared" si="82"/>
-        <v>15086.75</v>
+        <v>14192.050000000001</v>
       </c>
     </row>
     <row r="911" spans="1:21" x14ac:dyDescent="0.25">
@@ -50345,7 +51120,7 @@
       <c r="F911" s="156"/>
       <c r="G911" s="53">
         <f t="shared" si="82"/>
-        <v>15086.75</v>
+        <v>14192.050000000001</v>
       </c>
     </row>
     <row r="912" spans="1:21" x14ac:dyDescent="0.25">
@@ -50357,7 +51132,7 @@
       <c r="F912" s="156"/>
       <c r="G912" s="53">
         <f t="shared" si="82"/>
-        <v>15086.75</v>
+        <v>14192.050000000001</v>
       </c>
     </row>
     <row r="913" spans="1:7" x14ac:dyDescent="0.25">
@@ -50369,7 +51144,7 @@
       <c r="F913" s="156"/>
       <c r="G913" s="53">
         <f t="shared" si="82"/>
-        <v>15086.75</v>
+        <v>14192.050000000001</v>
       </c>
     </row>
     <row r="914" spans="1:7" x14ac:dyDescent="0.25">
@@ -50381,7 +51156,7 @@
       <c r="F914" s="156"/>
       <c r="G914" s="53">
         <f t="shared" si="82"/>
-        <v>15086.75</v>
+        <v>14192.050000000001</v>
       </c>
     </row>
     <row r="915" spans="1:7" x14ac:dyDescent="0.25">
@@ -50393,7 +51168,7 @@
       <c r="F915" s="156"/>
       <c r="G915" s="53">
         <f t="shared" si="82"/>
-        <v>15086.75</v>
+        <v>14192.050000000001</v>
       </c>
     </row>
     <row r="916" spans="1:7" x14ac:dyDescent="0.25">
@@ -50405,7 +51180,7 @@
       <c r="F916" s="156"/>
       <c r="G916" s="53">
         <f t="shared" si="82"/>
-        <v>15086.75</v>
+        <v>14192.050000000001</v>
       </c>
     </row>
     <row r="917" spans="1:7" x14ac:dyDescent="0.25">
@@ -50417,7 +51192,7 @@
       <c r="F917" s="156"/>
       <c r="G917" s="53">
         <f t="shared" si="82"/>
-        <v>15086.75</v>
+        <v>14192.050000000001</v>
       </c>
     </row>
     <row r="918" spans="1:7" x14ac:dyDescent="0.25">
@@ -50429,7 +51204,7 @@
       <c r="F918" s="156"/>
       <c r="G918" s="53">
         <f t="shared" si="82"/>
-        <v>15086.75</v>
+        <v>14192.050000000001</v>
       </c>
     </row>
     <row r="919" spans="1:7" x14ac:dyDescent="0.25">
@@ -50441,7 +51216,7 @@
       <c r="F919" s="157"/>
       <c r="G919" s="53">
         <f t="shared" si="82"/>
-        <v>15086.75</v>
+        <v>14192.050000000001</v>
       </c>
     </row>
   </sheetData>
@@ -50455,7 +51230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
@@ -50467,15 +51242,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D1" s="539" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="539"/>
-      <c r="F1" s="539"/>
-      <c r="O1" s="539" t="s">
+      <c r="D1" s="536" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="536"/>
+      <c r="F1" s="536"/>
+      <c r="O1" s="536" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="539"/>
+      <c r="P1" s="536"/>
       <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
@@ -50576,25 +51351,25 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="526" t="s">
+      <c r="M6" s="523" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="526" t="s">
+      <c r="N6" s="523" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="526" t="s">
+      <c r="O6" s="523" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="526" t="s">
+      <c r="P6" s="523" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="526" t="s">
+      <c r="Q6" s="523" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="526" t="s">
+      <c r="R6" s="523" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="526" t="s">
+      <c r="S6" s="523" t="s">
         <v>36</v>
       </c>
     </row>
@@ -50615,15 +51390,15 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="538">
+      <c r="M7" s="535">
         <v>45170</v>
       </c>
       <c r="N7" s="83"/>
-      <c r="O7" s="540" t="s">
+      <c r="O7" s="537" t="s">
         <v>1193</v>
       </c>
-      <c r="P7" s="541"/>
-      <c r="Q7" s="542"/>
+      <c r="P7" s="538"/>
+      <c r="Q7" s="539"/>
       <c r="R7" s="83">
         <v>2528.62</v>
       </c>
@@ -50658,7 +51433,7 @@
       <c r="J8" s="85"/>
       <c r="K8" s="85"/>
       <c r="L8" s="85"/>
-      <c r="M8" s="538">
+      <c r="M8" s="535">
         <v>45173</v>
       </c>
       <c r="N8" s="83" t="s">
@@ -50706,7 +51481,7 @@
       <c r="J9" s="85"/>
       <c r="K9" s="85"/>
       <c r="L9" s="85"/>
-      <c r="M9" s="538">
+      <c r="M9" s="535">
         <v>45174</v>
       </c>
       <c r="N9" s="83" t="s">
@@ -50754,7 +51529,7 @@
       <c r="J10" s="85"/>
       <c r="K10" s="85"/>
       <c r="L10" s="85"/>
-      <c r="M10" s="538">
+      <c r="M10" s="535">
         <v>45174</v>
       </c>
       <c r="N10" s="83" t="s">
@@ -50802,7 +51577,7 @@
       <c r="J11" s="85"/>
       <c r="K11" s="85"/>
       <c r="L11" s="85"/>
-      <c r="M11" s="538">
+      <c r="M11" s="535">
         <v>45176</v>
       </c>
       <c r="N11" s="83" t="s">
@@ -50969,7 +51744,7 @@
         <f t="shared" si="0"/>
         <v>2139.4699999999998</v>
       </c>
-      <c r="S16" s="527"/>
+      <c r="S16" s="524"/>
       <c r="T16" s="35"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -51110,11 +51885,11 @@
       <c r="J21" s="85"/>
       <c r="K21" s="85"/>
       <c r="L21" s="85"/>
-      <c r="M21" s="523"/>
-      <c r="N21" s="524"/>
-      <c r="O21" s="524"/>
-      <c r="P21" s="556"/>
-      <c r="Q21" s="556"/>
+      <c r="M21" s="520"/>
+      <c r="N21" s="521"/>
+      <c r="O21" s="521"/>
+      <c r="P21" s="553"/>
+      <c r="Q21" s="553"/>
       <c r="R21" s="84">
         <f t="shared" si="0"/>
         <v>2139.4699999999998</v>
@@ -51463,7 +52238,7 @@
         <f t="shared" si="0"/>
         <v>2139.4699999999998</v>
       </c>
-      <c r="S33" s="525"/>
+      <c r="S33" s="522"/>
       <c r="T33" s="36"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -51562,10 +52337,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E2" s="539" t="s">
+      <c r="E2" s="536" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="539"/>
+      <c r="F2" s="536"/>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
@@ -53111,13 +53886,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="544" t="s">
+      <c r="B2" s="541" t="s">
         <v>725</v>
       </c>
-      <c r="C2" s="544"/>
-      <c r="D2" s="544"/>
-      <c r="E2" s="544"/>
-      <c r="F2" s="544"/>
+      <c r="C2" s="541"/>
+      <c r="D2" s="541"/>
+      <c r="E2" s="541"/>
+      <c r="F2" s="541"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -53131,10 +53906,10 @@
       <c r="B5" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="C5" s="545" t="s">
+      <c r="C5" s="542" t="s">
         <v>730</v>
       </c>
-      <c r="D5" s="545"/>
+      <c r="D5" s="542"/>
       <c r="E5" s="1" t="s">
         <v>728</v>
       </c>
@@ -53150,10 +53925,10 @@
       <c r="B7" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="C7" s="545" t="s">
+      <c r="C7" s="542" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="545"/>
+      <c r="D7" s="542"/>
       <c r="E7" s="1" t="s">
         <v>732</v>
       </c>
@@ -53170,10 +53945,10 @@
       <c r="B8" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C8" s="543" t="s">
+      <c r="C8" s="540" t="s">
         <v>733</v>
       </c>
-      <c r="D8" s="543"/>
+      <c r="D8" s="540"/>
       <c r="E8" s="1" t="s">
         <v>734</v>
       </c>
@@ -53206,10 +53981,10 @@
       <c r="B12" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C12" s="543" t="s">
+      <c r="C12" s="540" t="s">
         <v>733</v>
       </c>
-      <c r="D12" s="543"/>
+      <c r="D12" s="540"/>
       <c r="E12" s="1" t="s">
         <v>734</v>
       </c>
@@ -53235,10 +54010,10 @@
       <c r="B16" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C16" s="543" t="s">
+      <c r="C16" s="540" t="s">
         <v>733</v>
       </c>
-      <c r="D16" s="543"/>
+      <c r="D16" s="540"/>
       <c r="E16" s="1" t="s">
         <v>734</v>
       </c>

--- a/DOC 2023/BANCOS.xlsx
+++ b/DOC 2023/BANCOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC098D32-76AF-4022-885A-E64C32B0BAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACABBAD0-0AD1-44F0-A4AC-4D0721C30E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6295" uniqueCount="1891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6357" uniqueCount="1907">
   <si>
     <t>ABRILTRANS S.A</t>
   </si>
@@ -5705,6 +5705,54 @@
   </si>
   <si>
     <t>FLEXNET</t>
+  </si>
+  <si>
+    <t>190.84</t>
+  </si>
+  <si>
+    <t>15,441.75</t>
+  </si>
+  <si>
+    <t>15,440.75</t>
+  </si>
+  <si>
+    <t>15,240.75</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>15,084.75</t>
+  </si>
+  <si>
+    <t>15,204.75</t>
+  </si>
+  <si>
+    <t>14,904.75</t>
+  </si>
+  <si>
+    <t>13,904.75</t>
+  </si>
+  <si>
+    <t>2,930.40</t>
+  </si>
+  <si>
+    <t>16,835.15</t>
+  </si>
+  <si>
+    <t>16,345.15</t>
+  </si>
+  <si>
+    <t>LATINA</t>
+  </si>
+  <si>
+    <t>CH1435</t>
+  </si>
+  <si>
+    <t>CH1436</t>
+  </si>
+  <si>
+    <t>RAMON</t>
   </si>
 </sst>
 </file>
@@ -6153,7 +6201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="569">
+  <cellXfs count="567">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7426,9 +7474,6 @@
     <xf numFmtId="0" fontId="11" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -7534,15 +7579,6 @@
     <xf numFmtId="0" fontId="4" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="19" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="18" fillId="32" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7555,6 +7591,8 @@
     <xf numFmtId="14" fontId="4" fillId="32" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="32" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12149,6 +12187,433 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>901</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>901</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Imagen 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ADA9423-FF22-42C1-9495-F96741773CAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="172612050"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>902</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>902</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Imagen 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE0339A6-4AF3-4EFA-83C0-73474AD8A13D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="172812075"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>903</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>903</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Imagen 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E1D36D-73A5-495C-9421-5433CB995C25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="173012100"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>904</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>904</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Imagen 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFF7C8B-6A39-43EA-BADE-B1ADC94F43E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="173212125"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>905</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>905</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Imagen 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A1D29B0-3089-4708-B80F-49509FEB0AF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="173412150"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>906</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>906</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Imagen 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D9965C-C57C-4E8F-B395-84D55DB91D09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="173612175"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>907</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>907</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Imagen 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A201B5FB-405E-4AB8-8FF6-D446CE3E96ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="173812200"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12450,10 +12915,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A2:U919"/>
+  <dimension ref="A2:U938"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D855" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A905" sqref="A905:F905"/>
+    <sheetView tabSelected="1" topLeftCell="A891" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="K910" sqref="K910"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12462,15 +12927,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D2" s="536" t="s">
+      <c r="D2" s="535" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="536"/>
-      <c r="F2" s="536"/>
-      <c r="O2" s="536" t="s">
+      <c r="E2" s="535"/>
+      <c r="F2" s="535"/>
+      <c r="O2" s="535" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="536"/>
+      <c r="P2" s="535"/>
       <c r="Q2" s="1" t="s">
         <v>0</v>
       </c>
@@ -15857,15 +16322,15 @@
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D89" s="536" t="s">
+      <c r="D89" s="535" t="s">
         <v>0</v>
       </c>
-      <c r="E89" s="536"/>
-      <c r="F89" s="536"/>
-      <c r="O89" s="536" t="s">
+      <c r="E89" s="535"/>
+      <c r="F89" s="535"/>
+      <c r="O89" s="535" t="s">
         <v>10</v>
       </c>
-      <c r="P89" s="536"/>
+      <c r="P89" s="535"/>
       <c r="Q89" s="1" t="s">
         <v>0</v>
       </c>
@@ -20321,15 +20786,15 @@
       </c>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D209" s="536" t="s">
+      <c r="D209" s="535" t="s">
         <v>0</v>
       </c>
-      <c r="E209" s="536"/>
-      <c r="F209" s="536"/>
-      <c r="O209" s="536" t="s">
+      <c r="E209" s="535"/>
+      <c r="F209" s="535"/>
+      <c r="O209" s="535" t="s">
         <v>10</v>
       </c>
-      <c r="P209" s="536"/>
+      <c r="P209" s="535"/>
       <c r="Q209" s="1" t="s">
         <v>0</v>
       </c>
@@ -24256,15 +24721,15 @@
       </c>
     </row>
     <row r="329" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D329" s="536" t="s">
+      <c r="D329" s="535" t="s">
         <v>0</v>
       </c>
-      <c r="E329" s="536"/>
-      <c r="F329" s="536"/>
-      <c r="O329" s="536" t="s">
+      <c r="E329" s="535"/>
+      <c r="F329" s="535"/>
+      <c r="O329" s="535" t="s">
         <v>10</v>
       </c>
-      <c r="P329" s="536"/>
+      <c r="P329" s="535"/>
       <c r="Q329" s="1" t="s">
         <v>0</v>
       </c>
@@ -28884,15 +29349,15 @@
       <c r="F428" s="83"/>
     </row>
     <row r="433" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D433" s="536" t="s">
+      <c r="D433" s="535" t="s">
         <v>0</v>
       </c>
-      <c r="E433" s="536"/>
-      <c r="F433" s="536"/>
-      <c r="O433" s="536" t="s">
+      <c r="E433" s="535"/>
+      <c r="F433" s="535"/>
+      <c r="O433" s="535" t="s">
         <v>10</v>
       </c>
-      <c r="P433" s="536"/>
+      <c r="P433" s="535"/>
       <c r="Q433" s="1" t="s">
         <v>0</v>
       </c>
@@ -33866,15 +34331,15 @@
       <c r="T539" s="263"/>
     </row>
     <row r="544" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D544" s="536" t="s">
+      <c r="D544" s="535" t="s">
         <v>0</v>
       </c>
-      <c r="E544" s="536"/>
-      <c r="F544" s="536"/>
-      <c r="O544" s="536" t="s">
+      <c r="E544" s="535"/>
+      <c r="F544" s="535"/>
+      <c r="O544" s="535" t="s">
         <v>10</v>
       </c>
-      <c r="P544" s="536"/>
+      <c r="P544" s="535"/>
       <c r="Q544" s="1" t="s">
         <v>0</v>
       </c>
@@ -39371,15 +39836,15 @@
       <c r="A655" s="471"/>
     </row>
     <row r="659" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D659" s="536" t="s">
+      <c r="D659" s="535" t="s">
         <v>0</v>
       </c>
-      <c r="E659" s="536"/>
-      <c r="F659" s="536"/>
-      <c r="O659" s="536" t="s">
+      <c r="E659" s="535"/>
+      <c r="F659" s="535"/>
+      <c r="O659" s="535" t="s">
         <v>10</v>
       </c>
-      <c r="P659" s="536"/>
+      <c r="P659" s="535"/>
       <c r="Q659" s="1" t="s">
         <v>0</v>
       </c>
@@ -44618,7 +45083,7 @@
       <c r="U762" s="87"/>
     </row>
     <row r="763" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A763" s="531">
+      <c r="A763" s="530">
         <v>45163</v>
       </c>
       <c r="B763" s="345" t="s">
@@ -45710,15 +46175,15 @@
       </c>
     </row>
     <row r="792" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D792" s="536" t="s">
+      <c r="D792" s="535" t="s">
         <v>0</v>
       </c>
-      <c r="E792" s="536"/>
-      <c r="F792" s="536"/>
-      <c r="O792" s="536" t="s">
+      <c r="E792" s="535"/>
+      <c r="F792" s="535"/>
+      <c r="O792" s="535" t="s">
         <v>10</v>
       </c>
-      <c r="P792" s="536"/>
+      <c r="P792" s="535"/>
       <c r="Q792" s="1" t="s">
         <v>0</v>
       </c>
@@ -45900,19 +46365,19 @@
       <c r="J799" s="85"/>
       <c r="K799" s="85"/>
       <c r="L799" s="85"/>
-      <c r="M799" s="532">
+      <c r="M799" s="531">
         <v>45170</v>
       </c>
-      <c r="N799" s="533" t="s">
+      <c r="N799" s="532" t="s">
         <v>59</v>
       </c>
-      <c r="O799" s="533">
+      <c r="O799" s="532">
         <v>1353</v>
       </c>
-      <c r="P799" s="534" t="s">
+      <c r="P799" s="533" t="s">
         <v>1636</v>
       </c>
-      <c r="Q799" s="534" t="s">
+      <c r="Q799" s="533" t="s">
         <v>73</v>
       </c>
       <c r="R799" s="264" t="s">
@@ -45952,19 +46417,19 @@
       <c r="J800" s="85"/>
       <c r="K800" s="85"/>
       <c r="L800" s="85"/>
-      <c r="M800" s="525">
+      <c r="M800" s="524">
         <v>45170</v>
       </c>
-      <c r="N800" s="526" t="s">
+      <c r="N800" s="525" t="s">
         <v>18</v>
       </c>
-      <c r="O800" s="526">
+      <c r="O800" s="525">
         <v>1370</v>
       </c>
-      <c r="P800" s="527" t="s">
+      <c r="P800" s="526" t="s">
         <v>399</v>
       </c>
-      <c r="Q800" s="527" t="s">
+      <c r="Q800" s="526" t="s">
         <v>73</v>
       </c>
       <c r="R800" s="264" t="s">
@@ -45989,8 +46454,8 @@
       <c r="D801" s="373" t="s">
         <v>1652</v>
       </c>
-      <c r="E801" s="548"/>
-      <c r="F801" s="548">
+      <c r="E801" s="547"/>
+      <c r="F801" s="547">
         <v>260</v>
       </c>
       <c r="G801" s="53">
@@ -46004,19 +46469,19 @@
       <c r="J801" s="85"/>
       <c r="K801" s="85"/>
       <c r="L801" s="85"/>
-      <c r="M801" s="532">
+      <c r="M801" s="531">
         <v>45170</v>
       </c>
-      <c r="N801" s="533" t="s">
+      <c r="N801" s="532" t="s">
         <v>18</v>
       </c>
-      <c r="O801" s="533">
+      <c r="O801" s="532">
         <v>1368</v>
       </c>
-      <c r="P801" s="534" t="s">
+      <c r="P801" s="533" t="s">
         <v>1136</v>
       </c>
-      <c r="Q801" s="534" t="s">
+      <c r="Q801" s="533" t="s">
         <v>73</v>
       </c>
       <c r="R801" s="264" t="s">
@@ -46056,19 +46521,19 @@
       <c r="J802" s="85"/>
       <c r="K802" s="85"/>
       <c r="L802" s="85"/>
-      <c r="M802" s="525">
+      <c r="M802" s="524">
         <v>45170</v>
       </c>
-      <c r="N802" s="526" t="s">
+      <c r="N802" s="525" t="s">
         <v>18</v>
       </c>
-      <c r="O802" s="526">
+      <c r="O802" s="525">
         <v>1369</v>
       </c>
-      <c r="P802" s="527" t="s">
+      <c r="P802" s="526" t="s">
         <v>1640</v>
       </c>
-      <c r="Q802" s="527" t="s">
+      <c r="Q802" s="526" t="s">
         <v>73</v>
       </c>
       <c r="R802" s="264" t="s">
@@ -46108,19 +46573,19 @@
       <c r="J803" s="85"/>
       <c r="K803" s="85"/>
       <c r="L803" s="85"/>
-      <c r="M803" s="525">
+      <c r="M803" s="524">
         <v>45170</v>
       </c>
-      <c r="N803" s="526" t="s">
+      <c r="N803" s="525" t="s">
         <v>18</v>
       </c>
-      <c r="O803" s="526">
+      <c r="O803" s="525">
         <v>1372</v>
       </c>
-      <c r="P803" s="527" t="s">
+      <c r="P803" s="526" t="s">
         <v>274</v>
       </c>
-      <c r="Q803" s="527" t="s">
+      <c r="Q803" s="526" t="s">
         <v>73</v>
       </c>
       <c r="R803" s="264" t="s">
@@ -46160,19 +46625,19 @@
       <c r="J804" s="85"/>
       <c r="K804" s="85"/>
       <c r="L804" s="85"/>
-      <c r="M804" s="525">
+      <c r="M804" s="524">
         <v>45170</v>
       </c>
-      <c r="N804" s="526" t="s">
+      <c r="N804" s="525" t="s">
         <v>18</v>
       </c>
-      <c r="O804" s="526">
+      <c r="O804" s="525">
         <v>1373</v>
       </c>
-      <c r="P804" s="527" t="s">
+      <c r="P804" s="526" t="s">
         <v>1643</v>
       </c>
-      <c r="Q804" s="527" t="s">
+      <c r="Q804" s="526" t="s">
         <v>73</v>
       </c>
       <c r="R804" s="264" t="s">
@@ -46197,8 +46662,8 @@
       <c r="D805" s="373" t="s">
         <v>1659</v>
       </c>
-      <c r="E805" s="548"/>
-      <c r="F805" s="548">
+      <c r="E805" s="547"/>
+      <c r="F805" s="547">
         <v>490</v>
       </c>
       <c r="G805" s="53">
@@ -46212,19 +46677,19 @@
       <c r="J805" s="85"/>
       <c r="K805" s="85"/>
       <c r="L805" s="85"/>
-      <c r="M805" s="525">
+      <c r="M805" s="524">
         <v>45170</v>
       </c>
-      <c r="N805" s="526" t="s">
+      <c r="N805" s="525" t="s">
         <v>18</v>
       </c>
-      <c r="O805" s="526">
+      <c r="O805" s="525">
         <v>1374</v>
       </c>
-      <c r="P805" s="527" t="s">
+      <c r="P805" s="526" t="s">
         <v>515</v>
       </c>
-      <c r="Q805" s="527" t="s">
+      <c r="Q805" s="526" t="s">
         <v>73</v>
       </c>
       <c r="R805" s="264" t="s">
@@ -46243,7 +46708,7 @@
       <c r="B806" s="225" t="s">
         <v>15</v>
       </c>
-      <c r="C806" s="528">
+      <c r="C806" s="527">
         <v>57495350</v>
       </c>
       <c r="D806" s="225" t="s">
@@ -46264,19 +46729,19 @@
       <c r="J806" s="85"/>
       <c r="K806" s="85"/>
       <c r="L806" s="85"/>
-      <c r="M806" s="525">
+      <c r="M806" s="524">
         <v>45170</v>
       </c>
-      <c r="N806" s="526" t="s">
+      <c r="N806" s="525" t="s">
         <v>38</v>
       </c>
-      <c r="O806" s="526">
+      <c r="O806" s="525">
         <v>634</v>
       </c>
-      <c r="P806" s="527" t="s">
+      <c r="P806" s="526" t="s">
         <v>1646</v>
       </c>
-      <c r="Q806" s="527" t="s">
+      <c r="Q806" s="526" t="s">
         <v>73</v>
       </c>
       <c r="R806" s="264" t="s">
@@ -46289,7 +46754,7 @@
       <c r="U806" s="87"/>
     </row>
     <row r="807" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A807" s="529">
+      <c r="A807" s="528">
         <v>45170</v>
       </c>
       <c r="B807" s="225" t="s">
@@ -46301,8 +46766,8 @@
       <c r="D807" s="225" t="s">
         <v>1660</v>
       </c>
-      <c r="E807" s="530"/>
-      <c r="F807" s="530">
+      <c r="E807" s="529"/>
+      <c r="F807" s="529">
         <v>2</v>
       </c>
       <c r="G807" s="53">
@@ -46316,19 +46781,19 @@
       <c r="J807" s="85"/>
       <c r="K807" s="85"/>
       <c r="L807" s="85"/>
-      <c r="M807" s="525">
+      <c r="M807" s="524">
         <v>45170</v>
       </c>
-      <c r="N807" s="526" t="s">
+      <c r="N807" s="525" t="s">
         <v>38</v>
       </c>
-      <c r="O807" s="526">
+      <c r="O807" s="525">
         <v>499</v>
       </c>
-      <c r="P807" s="527" t="s">
+      <c r="P807" s="526" t="s">
         <v>1174</v>
       </c>
-      <c r="Q807" s="527" t="s">
+      <c r="Q807" s="526" t="s">
         <v>73</v>
       </c>
       <c r="R807" s="264" t="s">
@@ -46809,20 +47274,20 @@
       <c r="U816" s="87"/>
     </row>
     <row r="817" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A817" s="544">
+      <c r="A817" s="543">
         <v>45173</v>
       </c>
-      <c r="B817" s="545" t="s">
+      <c r="B817" s="544" t="s">
         <v>15</v>
       </c>
-      <c r="C817" s="545" t="s">
+      <c r="C817" s="544" t="s">
         <v>1710</v>
       </c>
-      <c r="D817" s="545" t="s">
+      <c r="D817" s="544" t="s">
         <v>251</v>
       </c>
-      <c r="E817" s="546"/>
-      <c r="F817" s="546">
+      <c r="E817" s="545"/>
+      <c r="F817" s="545">
         <v>2000</v>
       </c>
       <c r="G817" s="53">
@@ -46909,17 +47374,17 @@
       <c r="U818" s="87"/>
     </row>
     <row r="819" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A819" s="544">
+      <c r="A819" s="543">
         <v>45173</v>
       </c>
-      <c r="B819" s="545" t="s">
+      <c r="B819" s="544" t="s">
         <v>53</v>
       </c>
-      <c r="C819" s="545" t="s">
+      <c r="C819" s="544" t="s">
         <v>64</v>
       </c>
-      <c r="D819" s="545"/>
-      <c r="E819" s="546">
+      <c r="D819" s="544"/>
+      <c r="E819" s="545">
         <v>534.6</v>
       </c>
       <c r="F819" s="360"/>
@@ -47072,7 +47537,7 @@
       <c r="E822" s="360">
         <v>855.7</v>
       </c>
-      <c r="F822" s="547"/>
+      <c r="F822" s="546"/>
       <c r="G822" s="53">
         <f t="shared" si="70"/>
         <v>16549.77</v>
@@ -47122,7 +47587,7 @@
       <c r="E823" s="360">
         <v>520</v>
       </c>
-      <c r="F823" s="547"/>
+      <c r="F823" s="546"/>
       <c r="G823" s="53">
         <f>G822+E823-F823</f>
         <v>17069.77</v>
@@ -47169,8 +47634,8 @@
       <c r="D824" s="311" t="s">
         <v>1657</v>
       </c>
-      <c r="E824" s="547"/>
-      <c r="F824" s="547">
+      <c r="E824" s="546"/>
+      <c r="F824" s="546">
         <v>270</v>
       </c>
       <c r="G824" s="53">
@@ -47219,8 +47684,8 @@
       <c r="D825" s="311" t="s">
         <v>1397</v>
       </c>
-      <c r="E825" s="547"/>
-      <c r="F825" s="547">
+      <c r="E825" s="546"/>
+      <c r="F825" s="546">
         <v>150</v>
       </c>
       <c r="G825" s="53">
@@ -47253,7 +47718,7 @@
       <c r="S825" s="264" t="s">
         <v>1694</v>
       </c>
-      <c r="T825" s="543"/>
+      <c r="T825" s="542"/>
       <c r="U825" s="87"/>
     </row>
     <row r="826" spans="1:21" x14ac:dyDescent="0.25">
@@ -47369,8 +47834,8 @@
       <c r="D828" s="311" t="s">
         <v>789</v>
       </c>
-      <c r="E828" s="547"/>
-      <c r="F828" s="547">
+      <c r="E828" s="546"/>
+      <c r="F828" s="546">
         <v>480</v>
       </c>
       <c r="G828" s="53">
@@ -47419,8 +47884,8 @@
       <c r="D829" s="311" t="s">
         <v>1712</v>
       </c>
-      <c r="E829" s="547"/>
-      <c r="F829" s="547">
+      <c r="E829" s="546"/>
+      <c r="F829" s="546">
         <v>500</v>
       </c>
       <c r="G829" s="53">
@@ -47470,7 +47935,7 @@
         <v>251</v>
       </c>
       <c r="E830" s="312"/>
-      <c r="F830" s="547">
+      <c r="F830" s="546">
         <v>200</v>
       </c>
       <c r="G830" s="53">
@@ -47522,7 +47987,7 @@
       <c r="E831" s="312">
         <v>374.22</v>
       </c>
-      <c r="F831" s="547"/>
+      <c r="F831" s="546"/>
       <c r="G831" s="53">
         <f>G830+E831-F831</f>
         <v>14110.789999999999</v>
@@ -47569,8 +48034,8 @@
       <c r="D832" s="311" t="s">
         <v>1660</v>
       </c>
-      <c r="E832" s="547"/>
-      <c r="F832" s="547">
+      <c r="E832" s="546"/>
+      <c r="F832" s="546">
         <v>1</v>
       </c>
       <c r="G832" s="53">
@@ -47807,20 +48272,20 @@
       <c r="U836" s="87"/>
     </row>
     <row r="837" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A837" s="519">
+      <c r="A837" s="518">
         <v>45180</v>
       </c>
-      <c r="B837" s="549" t="s">
+      <c r="B837" s="548" t="s">
         <v>15</v>
       </c>
-      <c r="C837" s="549" t="s">
+      <c r="C837" s="548" t="s">
         <v>1750</v>
       </c>
-      <c r="D837" s="549" t="s">
+      <c r="D837" s="548" t="s">
         <v>789</v>
       </c>
-      <c r="E837" s="550"/>
-      <c r="F837" s="550">
+      <c r="E837" s="549"/>
+      <c r="F837" s="549">
         <v>400</v>
       </c>
       <c r="G837" s="53">
@@ -47857,22 +48322,22 @@
       <c r="U837" s="87"/>
     </row>
     <row r="838" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A838" s="519">
+      <c r="A838" s="518">
         <v>45180</v>
       </c>
-      <c r="B838" s="549" t="s">
+      <c r="B838" s="548" t="s">
         <v>53</v>
       </c>
-      <c r="C838" s="549" t="s">
+      <c r="C838" s="548" t="s">
         <v>64</v>
       </c>
-      <c r="D838" s="549" t="s">
+      <c r="D838" s="548" t="s">
         <v>1751</v>
       </c>
-      <c r="E838" s="550">
+      <c r="E838" s="549">
         <v>455</v>
       </c>
-      <c r="F838" s="550"/>
+      <c r="F838" s="549"/>
       <c r="G838" s="53">
         <f t="shared" si="74"/>
         <v>13278.900000000001</v>
@@ -47907,22 +48372,22 @@
       <c r="U838" s="87"/>
     </row>
     <row r="839" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A839" s="519">
+      <c r="A839" s="518">
         <v>45180</v>
       </c>
-      <c r="B839" s="549" t="s">
+      <c r="B839" s="548" t="s">
         <v>53</v>
       </c>
-      <c r="C839" s="549" t="s">
+      <c r="C839" s="548" t="s">
         <v>64</v>
       </c>
-      <c r="D839" s="549" t="s">
+      <c r="D839" s="548" t="s">
         <v>214</v>
       </c>
-      <c r="E839" s="550">
+      <c r="E839" s="549">
         <v>4771.8</v>
       </c>
-      <c r="F839" s="550"/>
+      <c r="F839" s="549"/>
       <c r="G839" s="53">
         <f>G838+E839-F839</f>
         <v>18050.7</v>
@@ -47966,13 +48431,13 @@
       <c r="C840" s="373" t="s">
         <v>64</v>
       </c>
-      <c r="D840" s="548" t="s">
+      <c r="D840" s="547" t="s">
         <v>438</v>
       </c>
-      <c r="E840" s="548">
+      <c r="E840" s="547">
         <v>8451.74</v>
       </c>
-      <c r="F840" s="548"/>
+      <c r="F840" s="547"/>
       <c r="G840" s="53">
         <f>G839+E840-F840</f>
         <v>26502.440000000002</v>
@@ -48016,11 +48481,11 @@
       <c r="C841" s="373" t="s">
         <v>65</v>
       </c>
-      <c r="D841" s="548" t="s">
+      <c r="D841" s="547" t="s">
         <v>251</v>
       </c>
-      <c r="E841" s="548"/>
-      <c r="F841" s="548">
+      <c r="E841" s="547"/>
+      <c r="F841" s="547">
         <v>800</v>
       </c>
       <c r="G841" s="53">
@@ -48116,11 +48581,11 @@
       <c r="C843" s="373" t="s">
         <v>1753</v>
       </c>
-      <c r="D843" s="548" t="s">
+      <c r="D843" s="547" t="s">
         <v>1652</v>
       </c>
-      <c r="E843" s="548"/>
-      <c r="F843" s="548">
+      <c r="E843" s="547"/>
+      <c r="F843" s="547">
         <v>100</v>
       </c>
       <c r="G843" s="53">
@@ -48216,11 +48681,11 @@
       <c r="C845" s="373" t="s">
         <v>1756</v>
       </c>
-      <c r="D845" s="548" t="s">
+      <c r="D845" s="547" t="s">
         <v>1397</v>
       </c>
-      <c r="E845" s="548"/>
-      <c r="F845" s="548">
+      <c r="E845" s="547"/>
+      <c r="F845" s="547">
         <v>500</v>
       </c>
       <c r="G845" s="53">
@@ -48316,13 +48781,13 @@
       <c r="C847" s="373" t="s">
         <v>64</v>
       </c>
-      <c r="D847" s="548" t="s">
+      <c r="D847" s="547" t="s">
         <v>1759</v>
       </c>
-      <c r="E847" s="548">
+      <c r="E847" s="547">
         <v>387.78</v>
       </c>
-      <c r="F847" s="548"/>
+      <c r="F847" s="547"/>
       <c r="G847" s="53">
         <f t="shared" si="77"/>
         <v>23241.17</v>
@@ -48363,14 +48828,14 @@
       <c r="B848" s="373" t="s">
         <v>15</v>
       </c>
-      <c r="C848" s="552" t="s">
+      <c r="C848" s="551" t="s">
         <v>1760</v>
       </c>
-      <c r="D848" s="548" t="s">
+      <c r="D848" s="547" t="s">
         <v>1657</v>
       </c>
-      <c r="E848" s="548"/>
-      <c r="F848" s="548">
+      <c r="E848" s="547"/>
+      <c r="F848" s="547">
         <v>200</v>
       </c>
       <c r="G848" s="53">
@@ -48416,11 +48881,11 @@
       <c r="C849" s="373" t="s">
         <v>1761</v>
       </c>
-      <c r="D849" s="548" t="s">
+      <c r="D849" s="547" t="s">
         <v>1657</v>
       </c>
-      <c r="E849" s="548"/>
-      <c r="F849" s="548">
+      <c r="E849" s="547"/>
+      <c r="F849" s="547">
         <v>100</v>
       </c>
       <c r="G849" s="53">
@@ -48557,7 +49022,7 @@
       <c r="U851" s="87"/>
     </row>
     <row r="852" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A852" s="551">
+      <c r="A852" s="550">
         <v>45149</v>
       </c>
       <c r="B852" s="373" t="s">
@@ -48566,11 +49031,11 @@
       <c r="C852" s="373" t="s">
         <v>65</v>
       </c>
-      <c r="D852" s="548" t="s">
+      <c r="D852" s="547" t="s">
         <v>1660</v>
       </c>
-      <c r="E852" s="548"/>
-      <c r="F852" s="548">
+      <c r="E852" s="547"/>
+      <c r="F852" s="547">
         <v>1</v>
       </c>
       <c r="G852" s="53">
@@ -48782,19 +49247,19 @@
       <c r="J856" s="85"/>
       <c r="K856" s="87"/>
       <c r="L856" s="85"/>
-      <c r="M856" s="554">
+      <c r="M856" s="553">
         <v>45183</v>
       </c>
-      <c r="N856" s="555" t="s">
+      <c r="N856" s="554" t="s">
         <v>18</v>
       </c>
-      <c r="O856" s="555">
+      <c r="O856" s="554">
         <v>1411</v>
       </c>
-      <c r="P856" s="556" t="s">
+      <c r="P856" s="555" t="s">
         <v>1793</v>
       </c>
-      <c r="Q856" s="556" t="s">
+      <c r="Q856" s="555" t="s">
         <v>73</v>
       </c>
       <c r="R856" s="306" t="s">
@@ -48807,20 +49272,20 @@
       <c r="U856" s="87"/>
     </row>
     <row r="857" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A857" s="441">
+      <c r="A857" s="355">
         <v>45183</v>
       </c>
-      <c r="B857" s="154" t="s">
+      <c r="B857" s="311" t="s">
         <v>15</v>
       </c>
-      <c r="C857" s="136" t="s">
+      <c r="C857" s="566" t="s">
         <v>1778</v>
       </c>
-      <c r="D857" s="154" t="s">
+      <c r="D857" s="311" t="s">
         <v>1779</v>
       </c>
-      <c r="E857" s="156"/>
-      <c r="F857" s="156">
+      <c r="E857" s="312"/>
+      <c r="F857" s="312">
         <v>490</v>
       </c>
       <c r="G857" s="53">
@@ -48832,19 +49297,19 @@
       <c r="J857" s="87"/>
       <c r="K857" s="87"/>
       <c r="L857" s="85"/>
-      <c r="M857" s="554">
+      <c r="M857" s="553">
         <v>45184</v>
       </c>
-      <c r="N857" s="555" t="s">
+      <c r="N857" s="554" t="s">
         <v>59</v>
       </c>
-      <c r="O857" s="555">
+      <c r="O857" s="554">
         <v>1394</v>
       </c>
-      <c r="P857" s="556" t="s">
+      <c r="P857" s="555" t="s">
         <v>1795</v>
       </c>
-      <c r="Q857" s="556" t="s">
+      <c r="Q857" s="555" t="s">
         <v>73</v>
       </c>
       <c r="R857" s="306" t="s">
@@ -48882,19 +49347,19 @@
       <c r="J858" s="87"/>
       <c r="K858" s="87"/>
       <c r="L858" s="85"/>
-      <c r="M858" s="554">
+      <c r="M858" s="553">
         <v>45184</v>
       </c>
-      <c r="N858" s="555" t="s">
+      <c r="N858" s="554" t="s">
         <v>59</v>
       </c>
-      <c r="O858" s="555">
+      <c r="O858" s="554">
         <v>1391</v>
       </c>
-      <c r="P858" s="556" t="s">
+      <c r="P858" s="555" t="s">
         <v>1797</v>
       </c>
-      <c r="Q858" s="556" t="s">
+      <c r="Q858" s="555" t="s">
         <v>73</v>
       </c>
       <c r="R858" s="306" t="s">
@@ -48922,19 +49387,19 @@
       <c r="J859" s="87"/>
       <c r="K859" s="87"/>
       <c r="L859" s="87"/>
-      <c r="M859" s="554">
+      <c r="M859" s="553">
         <v>45184</v>
       </c>
-      <c r="N859" s="555" t="s">
+      <c r="N859" s="554" t="s">
         <v>38</v>
       </c>
-      <c r="O859" s="555">
+      <c r="O859" s="554">
         <v>634</v>
       </c>
-      <c r="P859" s="556" t="s">
+      <c r="P859" s="555" t="s">
         <v>432</v>
       </c>
-      <c r="Q859" s="556" t="s">
+      <c r="Q859" s="555" t="s">
         <v>73</v>
       </c>
       <c r="R859" s="306" t="s">
@@ -48972,19 +49437,19 @@
       <c r="J860" s="87"/>
       <c r="K860" s="87"/>
       <c r="L860" s="87"/>
-      <c r="M860" s="554">
+      <c r="M860" s="553">
         <v>45184</v>
       </c>
-      <c r="N860" s="555" t="s">
+      <c r="N860" s="554" t="s">
         <v>38</v>
       </c>
-      <c r="O860" s="555">
+      <c r="O860" s="554">
         <v>499</v>
       </c>
-      <c r="P860" s="556" t="s">
+      <c r="P860" s="555" t="s">
         <v>1170</v>
       </c>
-      <c r="Q860" s="556" t="s">
+      <c r="Q860" s="555" t="s">
         <v>73</v>
       </c>
       <c r="R860" s="306" t="s">
@@ -49022,19 +49487,19 @@
       <c r="J861" s="87"/>
       <c r="K861" s="87"/>
       <c r="L861" s="87"/>
-      <c r="M861" s="554">
+      <c r="M861" s="553">
         <v>45184</v>
       </c>
-      <c r="N861" s="555" t="s">
+      <c r="N861" s="554" t="s">
         <v>38</v>
       </c>
-      <c r="O861" s="555">
+      <c r="O861" s="554">
         <v>634</v>
       </c>
-      <c r="P861" s="556" t="s">
+      <c r="P861" s="555" t="s">
         <v>298</v>
       </c>
-      <c r="Q861" s="556" t="s">
+      <c r="Q861" s="555" t="s">
         <v>73</v>
       </c>
       <c r="R861" s="306" t="s">
@@ -49047,20 +49512,20 @@
       <c r="U861" s="87"/>
     </row>
     <row r="862" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A862" s="441">
+      <c r="A862" s="355">
         <v>45183</v>
       </c>
-      <c r="B862" s="154" t="s">
+      <c r="B862" s="311" t="s">
         <v>15</v>
       </c>
-      <c r="C862" s="154" t="s">
+      <c r="C862" s="311" t="s">
         <v>1789</v>
       </c>
-      <c r="D862" s="154" t="s">
+      <c r="D862" s="311" t="s">
         <v>1790</v>
       </c>
-      <c r="E862" s="156"/>
-      <c r="F862" s="156">
+      <c r="E862" s="312"/>
+      <c r="F862" s="312">
         <v>300</v>
       </c>
       <c r="G862" s="53">
@@ -49072,19 +49537,19 @@
       <c r="J862" s="87"/>
       <c r="K862" s="87"/>
       <c r="L862" s="87"/>
-      <c r="M862" s="554">
+      <c r="M862" s="553">
         <v>45184</v>
       </c>
-      <c r="N862" s="555" t="s">
+      <c r="N862" s="554" t="s">
         <v>38</v>
       </c>
-      <c r="O862" s="555">
+      <c r="O862" s="554">
         <v>499</v>
       </c>
-      <c r="P862" s="556" t="s">
+      <c r="P862" s="555" t="s">
         <v>1170</v>
       </c>
-      <c r="Q862" s="556" t="s">
+      <c r="Q862" s="555" t="s">
         <v>73</v>
       </c>
       <c r="R862" s="306" t="s">
@@ -49122,19 +49587,19 @@
       <c r="J863" s="87"/>
       <c r="K863" s="87"/>
       <c r="L863" s="87"/>
-      <c r="M863" s="554">
+      <c r="M863" s="553">
         <v>45184</v>
       </c>
-      <c r="N863" s="555" t="s">
+      <c r="N863" s="554" t="s">
         <v>18</v>
       </c>
-      <c r="O863" s="555">
+      <c r="O863" s="554">
         <v>1414</v>
       </c>
-      <c r="P863" s="556" t="s">
+      <c r="P863" s="555" t="s">
         <v>1803</v>
       </c>
-      <c r="Q863" s="556" t="s">
+      <c r="Q863" s="555" t="s">
         <v>73</v>
       </c>
       <c r="R863" s="306" t="s">
@@ -49172,19 +49637,19 @@
       <c r="J864" s="87"/>
       <c r="K864" s="87"/>
       <c r="L864" s="87"/>
-      <c r="M864" s="554">
+      <c r="M864" s="553">
         <v>45187</v>
       </c>
-      <c r="N864" s="555" t="s">
+      <c r="N864" s="554" t="s">
         <v>18</v>
       </c>
-      <c r="O864" s="555">
+      <c r="O864" s="554">
         <v>1420</v>
       </c>
-      <c r="P864" s="556" t="s">
+      <c r="P864" s="555" t="s">
         <v>1805</v>
       </c>
-      <c r="Q864" s="556" t="s">
+      <c r="Q864" s="555" t="s">
         <v>73</v>
       </c>
       <c r="R864" s="306" t="s">
@@ -49222,19 +49687,19 @@
       <c r="J865" s="87"/>
       <c r="K865" s="87"/>
       <c r="L865" s="87"/>
-      <c r="M865" s="554">
+      <c r="M865" s="553">
         <v>45187</v>
       </c>
-      <c r="N865" s="555" t="s">
+      <c r="N865" s="554" t="s">
         <v>18</v>
       </c>
-      <c r="O865" s="555">
+      <c r="O865" s="554">
         <v>1419</v>
       </c>
-      <c r="P865" s="556" t="s">
+      <c r="P865" s="555" t="s">
         <v>1805</v>
       </c>
-      <c r="Q865" s="556" t="s">
+      <c r="Q865" s="555" t="s">
         <v>73</v>
       </c>
       <c r="R865" s="306" t="s">
@@ -49272,19 +49737,19 @@
       <c r="J866" s="87"/>
       <c r="K866" s="87"/>
       <c r="L866" s="87"/>
-      <c r="M866" s="554">
+      <c r="M866" s="553">
         <v>45187</v>
       </c>
-      <c r="N866" s="555" t="s">
+      <c r="N866" s="554" t="s">
         <v>18</v>
       </c>
-      <c r="O866" s="555">
+      <c r="O866" s="554">
         <v>1382</v>
       </c>
-      <c r="P866" s="556" t="s">
+      <c r="P866" s="555" t="s">
         <v>1664</v>
       </c>
-      <c r="Q866" s="556" t="s">
+      <c r="Q866" s="555" t="s">
         <v>73</v>
       </c>
       <c r="R866" s="306" t="s">
@@ -49740,16 +50205,16 @@
       <c r="A876" s="354">
         <v>45188</v>
       </c>
-      <c r="B876" s="557" t="s">
+      <c r="B876" s="556" t="s">
         <v>53</v>
       </c>
-      <c r="C876" s="557" t="s">
+      <c r="C876" s="556" t="s">
         <v>64</v>
       </c>
-      <c r="D876" s="557" t="s">
+      <c r="D876" s="556" t="s">
         <v>332</v>
       </c>
-      <c r="E876" s="558">
+      <c r="E876" s="557">
         <v>441</v>
       </c>
       <c r="F876" s="226"/>
@@ -50412,20 +50877,20 @@
       <c r="U890" s="87"/>
     </row>
     <row r="891" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A891" s="566">
+      <c r="A891" s="562">
         <v>45190</v>
       </c>
-      <c r="B891" s="567" t="s">
+      <c r="B891" s="563" t="s">
         <v>15</v>
       </c>
-      <c r="C891" s="567" t="s">
+      <c r="C891" s="563" t="s">
         <v>1869</v>
       </c>
-      <c r="D891" s="567" t="s">
+      <c r="D891" s="563" t="s">
         <v>1657</v>
       </c>
-      <c r="E891" s="568"/>
-      <c r="F891" s="568">
+      <c r="E891" s="564"/>
+      <c r="F891" s="564">
         <v>1600</v>
       </c>
       <c r="G891" s="53">
@@ -50457,7 +50922,7 @@
       <c r="U891" s="87"/>
     </row>
     <row r="892" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A892" s="559">
+      <c r="A892" s="558">
         <v>45190</v>
       </c>
       <c r="B892" s="71" t="s">
@@ -50502,7 +50967,7 @@
       <c r="U892" s="87"/>
     </row>
     <row r="893" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A893" s="559">
+      <c r="A893" s="558">
         <v>45190</v>
       </c>
       <c r="B893" s="71" t="s">
@@ -50522,19 +50987,19 @@
         <f t="shared" si="82"/>
         <v>17395.27</v>
       </c>
-      <c r="M893" s="563">
+      <c r="M893" s="559">
         <v>45191</v>
       </c>
-      <c r="N893" s="564" t="s">
+      <c r="N893" s="560" t="s">
         <v>18</v>
       </c>
-      <c r="O893" s="564">
+      <c r="O893" s="560">
         <v>1425</v>
       </c>
-      <c r="P893" s="565" t="s">
+      <c r="P893" s="561" t="s">
         <v>804</v>
       </c>
-      <c r="Q893" s="565" t="s">
+      <c r="Q893" s="561" t="s">
         <v>73</v>
       </c>
       <c r="R893" s="264" t="s">
@@ -50547,7 +51012,7 @@
       <c r="U893" s="87"/>
     </row>
     <row r="894" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A894" s="559">
+      <c r="A894" s="558">
         <v>45190</v>
       </c>
       <c r="B894" s="71" t="s">
@@ -50567,19 +51032,19 @@
         <f t="shared" si="82"/>
         <v>17394.27</v>
       </c>
-      <c r="M894" s="563">
+      <c r="M894" s="559">
         <v>45191</v>
       </c>
-      <c r="N894" s="564" t="s">
+      <c r="N894" s="560" t="s">
         <v>18</v>
       </c>
-      <c r="O894" s="564">
+      <c r="O894" s="560">
         <v>1428</v>
       </c>
-      <c r="P894" s="565" t="s">
+      <c r="P894" s="561" t="s">
         <v>1873</v>
       </c>
-      <c r="Q894" s="565" t="s">
+      <c r="Q894" s="561" t="s">
         <v>73</v>
       </c>
       <c r="R894" s="264" t="s">
@@ -50592,39 +51057,39 @@
       <c r="U894" s="87"/>
     </row>
     <row r="895" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A895" s="566">
+      <c r="A895" s="562">
         <v>45191</v>
       </c>
-      <c r="B895" s="567" t="s">
+      <c r="B895" s="563" t="s">
         <v>15</v>
       </c>
-      <c r="C895" s="567" t="s">
+      <c r="C895" s="563" t="s">
         <v>1870</v>
       </c>
-      <c r="D895" s="567" t="s">
+      <c r="D895" s="563" t="s">
         <v>251</v>
       </c>
-      <c r="E895" s="568"/>
-      <c r="F895" s="568">
+      <c r="E895" s="564"/>
+      <c r="F895" s="564">
         <v>1153.76</v>
       </c>
       <c r="G895" s="53">
         <f t="shared" si="82"/>
         <v>16240.51</v>
       </c>
-      <c r="M895" s="563">
+      <c r="M895" s="559">
         <v>45191</v>
       </c>
-      <c r="N895" s="564" t="s">
+      <c r="N895" s="560" t="s">
         <v>18</v>
       </c>
-      <c r="O895" s="564">
+      <c r="O895" s="560">
         <v>1427</v>
       </c>
-      <c r="P895" s="565" t="s">
+      <c r="P895" s="561" t="s">
         <v>1873</v>
       </c>
-      <c r="Q895" s="565" t="s">
+      <c r="Q895" s="561" t="s">
         <v>73</v>
       </c>
       <c r="R895" s="264" t="s">
@@ -50637,39 +51102,39 @@
       <c r="U895" s="87"/>
     </row>
     <row r="896" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A896" s="566">
+      <c r="A896" s="562">
         <v>45191</v>
       </c>
-      <c r="B896" s="567" t="s">
+      <c r="B896" s="563" t="s">
         <v>15</v>
       </c>
-      <c r="C896" s="567" t="s">
+      <c r="C896" s="563" t="s">
         <v>1871</v>
       </c>
-      <c r="D896" s="567" t="s">
+      <c r="D896" s="563" t="s">
         <v>251</v>
       </c>
-      <c r="E896" s="568"/>
-      <c r="F896" s="568">
+      <c r="E896" s="564"/>
+      <c r="F896" s="564">
         <v>1153.76</v>
       </c>
       <c r="G896" s="53">
         <f t="shared" si="82"/>
         <v>15086.75</v>
       </c>
-      <c r="M896" s="563">
+      <c r="M896" s="559">
         <v>45191</v>
       </c>
-      <c r="N896" s="564" t="s">
+      <c r="N896" s="560" t="s">
         <v>38</v>
       </c>
-      <c r="O896" s="564">
+      <c r="O896" s="560">
         <v>634</v>
       </c>
-      <c r="P896" s="565" t="s">
+      <c r="P896" s="561" t="s">
         <v>1636</v>
       </c>
-      <c r="Q896" s="565" t="s">
+      <c r="Q896" s="561" t="s">
         <v>73</v>
       </c>
       <c r="R896" s="264" t="s">
@@ -50702,19 +51167,19 @@
         <f t="shared" si="82"/>
         <v>14936.75</v>
       </c>
-      <c r="M897" s="563">
+      <c r="M897" s="559">
         <v>45191</v>
       </c>
-      <c r="N897" s="564" t="s">
+      <c r="N897" s="560" t="s">
         <v>38</v>
       </c>
-      <c r="O897" s="564">
+      <c r="O897" s="560">
         <v>499</v>
       </c>
-      <c r="P897" s="565" t="s">
+      <c r="P897" s="561" t="s">
         <v>1170</v>
       </c>
-      <c r="Q897" s="565" t="s">
+      <c r="Q897" s="561" t="s">
         <v>73</v>
       </c>
       <c r="R897" s="264" t="s">
@@ -50727,39 +51192,39 @@
       <c r="U897" s="87"/>
     </row>
     <row r="898" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A898" s="566">
+      <c r="A898" s="562">
         <v>45191</v>
       </c>
-      <c r="B898" s="567" t="s">
+      <c r="B898" s="563" t="s">
         <v>15</v>
       </c>
-      <c r="C898" s="567" t="s">
+      <c r="C898" s="563" t="s">
         <v>1884</v>
       </c>
-      <c r="D898" s="567" t="s">
+      <c r="D898" s="563" t="s">
         <v>1657</v>
       </c>
-      <c r="E898" s="568"/>
-      <c r="F898" s="568">
+      <c r="E898" s="564"/>
+      <c r="F898" s="564">
         <v>310</v>
       </c>
       <c r="G898" s="53">
         <f t="shared" si="82"/>
         <v>14626.75</v>
       </c>
-      <c r="M898" s="563">
+      <c r="M898" s="559">
         <v>45191</v>
       </c>
-      <c r="N898" s="564" t="s">
+      <c r="N898" s="560" t="s">
         <v>18</v>
       </c>
-      <c r="O898" s="564">
+      <c r="O898" s="560">
         <v>1430</v>
       </c>
-      <c r="P898" s="565" t="s">
+      <c r="P898" s="561" t="s">
         <v>630</v>
       </c>
-      <c r="Q898" s="565" t="s">
+      <c r="Q898" s="561" t="s">
         <v>73</v>
       </c>
       <c r="R898" s="264" t="s">
@@ -50772,39 +51237,39 @@
       <c r="U898" s="87"/>
     </row>
     <row r="899" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A899" s="566">
+      <c r="A899" s="562">
         <v>45191</v>
       </c>
-      <c r="B899" s="567" t="s">
+      <c r="B899" s="563" t="s">
         <v>15</v>
       </c>
-      <c r="C899" s="567">
+      <c r="C899" s="563">
         <v>57779885</v>
       </c>
-      <c r="D899" s="567" t="s">
+      <c r="D899" s="563" t="s">
         <v>1887</v>
       </c>
-      <c r="E899" s="568"/>
-      <c r="F899" s="568">
+      <c r="E899" s="564"/>
+      <c r="F899" s="564">
         <v>280</v>
       </c>
       <c r="G899" s="53">
         <f t="shared" si="82"/>
         <v>14346.75</v>
       </c>
-      <c r="M899" s="563">
+      <c r="M899" s="559">
         <v>45191</v>
       </c>
-      <c r="N899" s="564" t="s">
+      <c r="N899" s="560" t="s">
         <v>27</v>
       </c>
-      <c r="O899" s="564">
+      <c r="O899" s="560">
         <v>230</v>
       </c>
-      <c r="P899" s="565" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q899" s="565" t="s">
+      <c r="P899" s="561" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q899" s="561" t="s">
         <v>1879</v>
       </c>
       <c r="R899" s="264" t="s">
@@ -50817,39 +51282,39 @@
       <c r="U899" s="87"/>
     </row>
     <row r="900" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A900" s="566">
+      <c r="A900" s="562">
         <v>45191</v>
       </c>
-      <c r="B900" s="567" t="s">
+      <c r="B900" s="563" t="s">
         <v>1582</v>
       </c>
-      <c r="C900" s="567" t="s">
+      <c r="C900" s="563" t="s">
         <v>65</v>
       </c>
-      <c r="D900" s="567" t="s">
+      <c r="D900" s="563" t="s">
         <v>1889</v>
       </c>
-      <c r="E900" s="568"/>
-      <c r="F900" s="568">
+      <c r="E900" s="564"/>
+      <c r="F900" s="564">
         <v>1</v>
       </c>
       <c r="G900" s="53">
         <f t="shared" si="82"/>
         <v>14345.75</v>
       </c>
-      <c r="M900" s="563">
+      <c r="M900" s="559">
         <v>45194</v>
       </c>
-      <c r="N900" s="564" t="s">
+      <c r="N900" s="560" t="s">
         <v>18</v>
       </c>
-      <c r="O900" s="564">
+      <c r="O900" s="560">
         <v>1432</v>
       </c>
-      <c r="P900" s="565" t="s">
+      <c r="P900" s="561" t="s">
         <v>306</v>
       </c>
-      <c r="Q900" s="565" t="s">
+      <c r="Q900" s="561" t="s">
         <v>73</v>
       </c>
       <c r="R900" s="264" t="s">
@@ -50862,39 +51327,39 @@
       <c r="U900" s="87"/>
     </row>
     <row r="901" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A901" s="566">
+      <c r="A901" s="562">
         <v>45191</v>
       </c>
-      <c r="B901" s="567" t="s">
+      <c r="B901" s="563" t="s">
         <v>53</v>
       </c>
-      <c r="C901" s="567" t="s">
+      <c r="C901" s="563" t="s">
         <v>64</v>
       </c>
-      <c r="D901" s="567" t="s">
+      <c r="D901" s="563" t="s">
         <v>1445</v>
       </c>
-      <c r="E901" s="568">
+      <c r="E901" s="564">
         <v>435.6</v>
       </c>
-      <c r="F901" s="568"/>
+      <c r="F901" s="564"/>
       <c r="G901" s="53">
         <f t="shared" si="82"/>
         <v>14781.35</v>
       </c>
-      <c r="M901" s="563">
+      <c r="M901" s="559">
         <v>45194</v>
       </c>
-      <c r="N901" s="564" t="s">
+      <c r="N901" s="560" t="s">
         <v>27</v>
       </c>
-      <c r="O901" s="564">
+      <c r="O901" s="560">
         <v>226</v>
       </c>
-      <c r="P901" s="565" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q901" s="565" t="s">
+      <c r="P901" s="561" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q901" s="561" t="s">
         <v>215</v>
       </c>
       <c r="R901" s="264" t="s">
@@ -50907,65 +51372,92 @@
       <c r="U901" s="87"/>
     </row>
     <row r="902" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A902" s="441">
+      <c r="A902" s="355">
         <v>45194</v>
       </c>
-      <c r="B902" s="154" t="s">
+      <c r="B902" s="311" t="s">
         <v>15</v>
       </c>
-      <c r="C902" s="154" t="s">
+      <c r="C902" s="311" t="s">
         <v>1885</v>
       </c>
-      <c r="D902" s="154" t="s">
+      <c r="D902" s="311" t="s">
         <v>1657</v>
       </c>
-      <c r="E902" s="156"/>
-      <c r="F902" s="156">
+      <c r="E902" s="312"/>
+      <c r="F902" s="312">
         <v>200</v>
       </c>
       <c r="G902" s="53">
         <f t="shared" si="82"/>
         <v>14581.35</v>
       </c>
-      <c r="M902" s="560"/>
-      <c r="N902" s="500"/>
-      <c r="O902" s="500"/>
-      <c r="P902" s="561"/>
-      <c r="Q902" s="561"/>
-      <c r="R902" s="561"/>
-      <c r="S902" s="561"/>
-      <c r="T902" s="562"/>
-      <c r="U902" s="87"/>
+      <c r="M902" s="307">
+        <v>45194</v>
+      </c>
+      <c r="N902" s="308" t="s">
+        <v>38</v>
+      </c>
+      <c r="O902" s="308">
+        <v>634</v>
+      </c>
+      <c r="P902" s="309" t="s">
+        <v>1891</v>
+      </c>
+      <c r="Q902" s="309" t="s">
+        <v>73</v>
+      </c>
+      <c r="R902" s="306" t="s">
+        <v>1892</v>
+      </c>
+      <c r="S902" s="306" t="s">
+        <v>1892</v>
+      </c>
+      <c r="T902" s="305"/>
     </row>
     <row r="903" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A903" s="566">
+      <c r="A903" s="562">
         <v>45194</v>
       </c>
-      <c r="B903" s="567" t="s">
+      <c r="B903" s="563" t="s">
         <v>15</v>
       </c>
-      <c r="C903" s="567" t="s">
+      <c r="C903" s="563" t="s">
         <v>1886</v>
       </c>
-      <c r="D903" s="567" t="s">
+      <c r="D903" s="563" t="s">
         <v>251</v>
       </c>
-      <c r="E903" s="568"/>
-      <c r="F903" s="568">
+      <c r="E903" s="564"/>
+      <c r="F903" s="564">
         <v>350</v>
       </c>
       <c r="G903" s="53">
         <f t="shared" si="82"/>
         <v>14231.35</v>
       </c>
-      <c r="M903" s="518"/>
-      <c r="N903" s="378"/>
-      <c r="O903" s="378"/>
-      <c r="P903" s="95"/>
-      <c r="Q903" s="95"/>
-      <c r="R903" s="95"/>
-      <c r="S903" s="95"/>
-      <c r="T903" s="430"/>
+      <c r="M903" s="307">
+        <v>45194</v>
+      </c>
+      <c r="N903" s="308" t="s">
+        <v>38</v>
+      </c>
+      <c r="O903" s="308">
+        <v>499</v>
+      </c>
+      <c r="P903" s="309" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q903" s="309" t="s">
+        <v>73</v>
+      </c>
+      <c r="R903" s="306" t="s">
+        <v>1893</v>
+      </c>
+      <c r="S903" s="306" t="s">
+        <v>1893</v>
+      </c>
+      <c r="T903" s="305"/>
     </row>
     <row r="904" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A904" s="441">
@@ -50989,139 +51481,322 @@
         <v>14013.85</v>
       </c>
       <c r="H904" s="36"/>
-      <c r="M904" s="518"/>
-      <c r="N904" s="378"/>
-      <c r="O904" s="378"/>
-      <c r="P904" s="95"/>
-      <c r="Q904" s="95"/>
-      <c r="R904" s="95"/>
-      <c r="S904" s="95"/>
-      <c r="T904" s="430"/>
+      <c r="M904" s="307">
+        <v>45194</v>
+      </c>
+      <c r="N904" s="308" t="s">
+        <v>18</v>
+      </c>
+      <c r="O904" s="308">
+        <v>1431</v>
+      </c>
+      <c r="P904" s="309" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q904" s="309" t="s">
+        <v>73</v>
+      </c>
+      <c r="R904" s="306" t="s">
+        <v>1894</v>
+      </c>
+      <c r="S904" s="306" t="s">
+        <v>1894</v>
+      </c>
+      <c r="T904" s="305"/>
     </row>
     <row r="905" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A905" s="566">
+      <c r="A905" s="562">
         <v>45194</v>
       </c>
-      <c r="B905" s="568" t="s">
+      <c r="B905" s="564" t="s">
         <v>53</v>
       </c>
-      <c r="C905" s="568" t="s">
+      <c r="C905" s="564" t="s">
         <v>64</v>
       </c>
-      <c r="D905" s="568" t="s">
+      <c r="D905" s="564" t="s">
         <v>1890</v>
       </c>
-      <c r="E905" s="568">
+      <c r="E905" s="564">
         <v>178.2</v>
       </c>
-      <c r="F905" s="568"/>
+      <c r="F905" s="564"/>
       <c r="G905" s="53">
         <f t="shared" si="82"/>
         <v>14192.050000000001</v>
       </c>
-      <c r="M905" s="518"/>
-      <c r="N905" s="378"/>
-      <c r="O905" s="378"/>
-      <c r="P905" s="95"/>
-      <c r="Q905" s="95"/>
-      <c r="R905" s="95"/>
-      <c r="S905" s="95"/>
-      <c r="T905" s="430"/>
+      <c r="M905" s="307">
+        <v>45194</v>
+      </c>
+      <c r="N905" s="308" t="s">
+        <v>18</v>
+      </c>
+      <c r="O905" s="308">
+        <v>1436</v>
+      </c>
+      <c r="P905" s="309" t="s">
+        <v>1895</v>
+      </c>
+      <c r="Q905" s="309" t="s">
+        <v>73</v>
+      </c>
+      <c r="R905" s="306" t="s">
+        <v>1896</v>
+      </c>
+      <c r="S905" s="306" t="s">
+        <v>1896</v>
+      </c>
+      <c r="T905" s="305"/>
     </row>
     <row r="906" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A906" s="441"/>
-      <c r="B906" s="156"/>
-      <c r="C906" s="156"/>
-      <c r="D906" s="156"/>
-      <c r="E906" s="156"/>
-      <c r="F906" s="156"/>
+      <c r="A906" s="355">
+        <v>45194</v>
+      </c>
+      <c r="B906" s="312" t="s">
+        <v>15</v>
+      </c>
+      <c r="C906" s="565">
+        <v>57800041</v>
+      </c>
+      <c r="D906" s="312" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E906" s="312"/>
+      <c r="F906" s="312">
+        <v>190.84</v>
+      </c>
       <c r="G906" s="53">
         <f t="shared" si="82"/>
-        <v>14192.050000000001</v>
-      </c>
-      <c r="M906" s="518"/>
-      <c r="N906" s="378"/>
-      <c r="O906" s="378"/>
-      <c r="P906" s="95"/>
-      <c r="Q906" s="95"/>
-      <c r="R906" s="95"/>
-      <c r="S906" s="95"/>
-      <c r="T906" s="430"/>
+        <v>14001.210000000001</v>
+      </c>
+      <c r="M906" s="307">
+        <v>45194</v>
+      </c>
+      <c r="N906" s="308" t="s">
+        <v>27</v>
+      </c>
+      <c r="O906" s="308">
+        <v>226</v>
+      </c>
+      <c r="P906" s="309" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q906" s="309" t="s">
+        <v>182</v>
+      </c>
+      <c r="R906" s="306" t="s">
+        <v>1897</v>
+      </c>
+      <c r="S906" s="306" t="s">
+        <v>1897</v>
+      </c>
+      <c r="T906" s="305"/>
     </row>
     <row r="907" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A907" s="441"/>
-      <c r="B907" s="156"/>
-      <c r="C907" s="156"/>
-      <c r="D907" s="156"/>
-      <c r="E907" s="156"/>
-      <c r="F907" s="156"/>
+      <c r="A907" s="355">
+        <v>45194</v>
+      </c>
+      <c r="B907" s="312" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C907" s="312" t="s">
+        <v>65</v>
+      </c>
+      <c r="D907" s="312" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E907" s="312"/>
+      <c r="F907" s="312">
+        <v>1</v>
+      </c>
       <c r="G907" s="53">
         <f t="shared" si="82"/>
-        <v>14192.050000000001</v>
-      </c>
-      <c r="M907" s="518"/>
-      <c r="N907" s="378"/>
-      <c r="O907" s="378"/>
-      <c r="P907" s="95"/>
-      <c r="Q907" s="95"/>
-      <c r="R907" s="95"/>
-      <c r="S907" s="95"/>
-      <c r="T907" s="223"/>
+        <v>14000.210000000001</v>
+      </c>
+      <c r="M907" s="307">
+        <v>45194</v>
+      </c>
+      <c r="N907" s="308" t="s">
+        <v>18</v>
+      </c>
+      <c r="O907" s="308">
+        <v>1412</v>
+      </c>
+      <c r="P907" s="309" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q907" s="309" t="s">
+        <v>73</v>
+      </c>
+      <c r="R907" s="306" t="s">
+        <v>1898</v>
+      </c>
+      <c r="S907" s="306" t="s">
+        <v>1898</v>
+      </c>
+      <c r="T907" s="305"/>
     </row>
     <row r="908" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A908" s="441"/>
-      <c r="B908" s="156"/>
-      <c r="C908" s="156"/>
-      <c r="D908" s="156"/>
-      <c r="E908" s="156"/>
-      <c r="F908" s="156"/>
+      <c r="A908" s="355">
+        <v>45194</v>
+      </c>
+      <c r="B908" s="312" t="s">
+        <v>15</v>
+      </c>
+      <c r="C908" s="312" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D908" s="312" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E908" s="312"/>
+      <c r="F908" s="312">
+        <v>1000</v>
+      </c>
       <c r="G908" s="53">
         <f t="shared" si="82"/>
-        <v>14192.050000000001</v>
-      </c>
-      <c r="M908" s="518"/>
-      <c r="N908" s="378"/>
-      <c r="O908" s="378"/>
-      <c r="P908" s="95"/>
-      <c r="Q908" s="95"/>
-      <c r="R908" s="87"/>
-      <c r="S908" s="87"/>
+        <v>13000.210000000001</v>
+      </c>
+      <c r="M908" s="307">
+        <v>45194</v>
+      </c>
+      <c r="N908" s="308" t="s">
+        <v>18</v>
+      </c>
+      <c r="O908" s="308">
+        <v>1435</v>
+      </c>
+      <c r="P908" s="309" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q908" s="309" t="s">
+        <v>73</v>
+      </c>
+      <c r="R908" s="306" t="s">
+        <v>1899</v>
+      </c>
+      <c r="S908" s="306" t="s">
+        <v>1899</v>
+      </c>
+      <c r="T908" s="305"/>
     </row>
     <row r="909" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A909" s="441"/>
-      <c r="B909" s="156"/>
-      <c r="C909" s="156"/>
-      <c r="D909" s="156"/>
-      <c r="E909" s="156"/>
-      <c r="F909" s="156"/>
+      <c r="A909" s="355">
+        <v>45194</v>
+      </c>
+      <c r="B909" s="312" t="s">
+        <v>15</v>
+      </c>
+      <c r="C909" s="312" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D909" s="312" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E909" s="312"/>
+      <c r="F909" s="312">
+        <v>156</v>
+      </c>
       <c r="G909" s="53">
         <f t="shared" si="82"/>
-        <v>14192.050000000001</v>
-      </c>
+        <v>12844.210000000001</v>
+      </c>
+      <c r="M909" s="307">
+        <v>45194</v>
+      </c>
+      <c r="N909" s="308" t="s">
+        <v>27</v>
+      </c>
+      <c r="O909" s="308">
+        <v>226</v>
+      </c>
+      <c r="P909" s="309" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q909" s="309" t="s">
+        <v>1900</v>
+      </c>
+      <c r="R909" s="306" t="s">
+        <v>1901</v>
+      </c>
+      <c r="S909" s="306" t="s">
+        <v>1901</v>
+      </c>
+      <c r="T909" s="305"/>
     </row>
     <row r="910" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A910" s="441"/>
-      <c r="B910" s="156"/>
-      <c r="C910" s="156"/>
-      <c r="D910" s="156"/>
-      <c r="E910" s="156"/>
-      <c r="F910" s="156"/>
+      <c r="A910" s="355">
+        <v>45194</v>
+      </c>
+      <c r="B910" s="312" t="s">
+        <v>53</v>
+      </c>
+      <c r="C910" s="312" t="s">
+        <v>64</v>
+      </c>
+      <c r="D910" s="312" t="s">
+        <v>214</v>
+      </c>
+      <c r="E910" s="312">
+        <v>2930.4</v>
+      </c>
+      <c r="F910" s="312"/>
       <c r="G910" s="53">
         <f t="shared" si="82"/>
-        <v>14192.050000000001</v>
-      </c>
+        <v>15774.61</v>
+      </c>
+      <c r="M910" s="307">
+        <v>45195</v>
+      </c>
+      <c r="N910" s="308" t="s">
+        <v>59</v>
+      </c>
+      <c r="O910" s="308">
+        <v>1407</v>
+      </c>
+      <c r="P910" s="309" t="s">
+        <v>1726</v>
+      </c>
+      <c r="Q910" s="309" t="s">
+        <v>73</v>
+      </c>
+      <c r="R910" s="306" t="s">
+        <v>1902</v>
+      </c>
+      <c r="S910" s="306" t="s">
+        <v>1902</v>
+      </c>
+      <c r="T910" s="305"/>
     </row>
     <row r="911" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A911" s="155"/>
-      <c r="B911" s="156"/>
-      <c r="C911" s="156"/>
-      <c r="D911" s="154"/>
-      <c r="E911" s="156"/>
-      <c r="F911" s="156"/>
+      <c r="A911" s="310">
+        <v>45194</v>
+      </c>
+      <c r="B911" s="312" t="s">
+        <v>53</v>
+      </c>
+      <c r="C911" s="312" t="s">
+        <v>64</v>
+      </c>
+      <c r="D911" s="311" t="s">
+        <v>332</v>
+      </c>
+      <c r="E911" s="312">
+        <v>120</v>
+      </c>
+      <c r="F911" s="312"/>
       <c r="G911" s="53">
         <f t="shared" si="82"/>
-        <v>14192.050000000001</v>
-      </c>
+        <v>15894.61</v>
+      </c>
+      <c r="M911" s="83"/>
+      <c r="N911" s="83"/>
+      <c r="O911" s="83"/>
+      <c r="P911" s="83"/>
+      <c r="Q911" s="83"/>
+      <c r="R911" s="83"/>
+      <c r="S911" s="83"/>
+      <c r="T911" s="83"/>
     </row>
     <row r="912" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A912" s="155"/>
@@ -51132,10 +51807,18 @@
       <c r="F912" s="156"/>
       <c r="G912" s="53">
         <f t="shared" si="82"/>
-        <v>14192.050000000001</v>
-      </c>
-    </row>
-    <row r="913" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15894.61</v>
+      </c>
+      <c r="M912" s="83"/>
+      <c r="N912" s="83"/>
+      <c r="O912" s="83"/>
+      <c r="P912" s="83"/>
+      <c r="Q912" s="83"/>
+      <c r="R912" s="83"/>
+      <c r="S912" s="83"/>
+      <c r="T912" s="83"/>
+    </row>
+    <row r="913" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A913" s="155"/>
       <c r="B913" s="154"/>
       <c r="C913" s="154"/>
@@ -51144,10 +51827,18 @@
       <c r="F913" s="156"/>
       <c r="G913" s="53">
         <f t="shared" si="82"/>
-        <v>14192.050000000001</v>
-      </c>
-    </row>
-    <row r="914" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15894.61</v>
+      </c>
+      <c r="M913" s="83"/>
+      <c r="N913" s="83"/>
+      <c r="O913" s="83"/>
+      <c r="P913" s="83"/>
+      <c r="Q913" s="83"/>
+      <c r="R913" s="83"/>
+      <c r="S913" s="83"/>
+      <c r="T913" s="83"/>
+    </row>
+    <row r="914" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A914" s="155"/>
       <c r="B914" s="154"/>
       <c r="C914" s="154"/>
@@ -51156,10 +51847,18 @@
       <c r="F914" s="156"/>
       <c r="G914" s="53">
         <f t="shared" si="82"/>
-        <v>14192.050000000001</v>
-      </c>
-    </row>
-    <row r="915" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15894.61</v>
+      </c>
+      <c r="M914" s="83"/>
+      <c r="N914" s="83"/>
+      <c r="O914" s="83"/>
+      <c r="P914" s="83"/>
+      <c r="Q914" s="83"/>
+      <c r="R914" s="83"/>
+      <c r="S914" s="83"/>
+      <c r="T914" s="83"/>
+    </row>
+    <row r="915" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A915" s="155"/>
       <c r="B915" s="154"/>
       <c r="C915" s="154"/>
@@ -51168,10 +51867,18 @@
       <c r="F915" s="156"/>
       <c r="G915" s="53">
         <f t="shared" si="82"/>
-        <v>14192.050000000001</v>
-      </c>
-    </row>
-    <row r="916" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15894.61</v>
+      </c>
+      <c r="M915" s="83"/>
+      <c r="N915" s="83"/>
+      <c r="O915" s="83"/>
+      <c r="P915" s="83"/>
+      <c r="Q915" s="83"/>
+      <c r="R915" s="83"/>
+      <c r="S915" s="83"/>
+      <c r="T915" s="83"/>
+    </row>
+    <row r="916" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A916" s="155"/>
       <c r="B916" s="154"/>
       <c r="C916" s="154"/>
@@ -51180,10 +51887,18 @@
       <c r="F916" s="156"/>
       <c r="G916" s="53">
         <f t="shared" si="82"/>
-        <v>14192.050000000001</v>
-      </c>
-    </row>
-    <row r="917" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15894.61</v>
+      </c>
+      <c r="M916" s="83"/>
+      <c r="N916" s="83"/>
+      <c r="O916" s="83"/>
+      <c r="P916" s="83"/>
+      <c r="Q916" s="83"/>
+      <c r="R916" s="83"/>
+      <c r="S916" s="83"/>
+      <c r="T916" s="83"/>
+    </row>
+    <row r="917" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A917" s="154"/>
       <c r="B917" s="154"/>
       <c r="C917" s="154"/>
@@ -51192,10 +51907,18 @@
       <c r="F917" s="156"/>
       <c r="G917" s="53">
         <f t="shared" si="82"/>
-        <v>14192.050000000001</v>
-      </c>
-    </row>
-    <row r="918" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15894.61</v>
+      </c>
+      <c r="M917" s="83"/>
+      <c r="N917" s="83"/>
+      <c r="O917" s="83"/>
+      <c r="P917" s="83"/>
+      <c r="Q917" s="83"/>
+      <c r="R917" s="83"/>
+      <c r="S917" s="83"/>
+      <c r="T917" s="83"/>
+    </row>
+    <row r="918" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A918" s="154"/>
       <c r="B918" s="154"/>
       <c r="C918" s="154"/>
@@ -51204,10 +51927,18 @@
       <c r="F918" s="156"/>
       <c r="G918" s="53">
         <f t="shared" si="82"/>
-        <v>14192.050000000001</v>
-      </c>
-    </row>
-    <row r="919" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15894.61</v>
+      </c>
+      <c r="M918" s="83"/>
+      <c r="N918" s="83"/>
+      <c r="O918" s="83"/>
+      <c r="P918" s="83"/>
+      <c r="Q918" s="83"/>
+      <c r="R918" s="83"/>
+      <c r="S918" s="83"/>
+      <c r="T918" s="83"/>
+    </row>
+    <row r="919" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A919" s="136"/>
       <c r="B919" s="136"/>
       <c r="C919" s="136"/>
@@ -51216,8 +51947,206 @@
       <c r="F919" s="157"/>
       <c r="G919" s="53">
         <f t="shared" si="82"/>
-        <v>14192.050000000001</v>
-      </c>
+        <v>15894.61</v>
+      </c>
+      <c r="M919" s="83"/>
+      <c r="N919" s="83"/>
+      <c r="O919" s="83"/>
+      <c r="P919" s="83"/>
+      <c r="Q919" s="83"/>
+      <c r="R919" s="83"/>
+      <c r="S919" s="83"/>
+      <c r="T919" s="83"/>
+    </row>
+    <row r="920" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M920" s="83"/>
+      <c r="N920" s="83"/>
+      <c r="O920" s="83"/>
+      <c r="P920" s="83"/>
+      <c r="Q920" s="83"/>
+      <c r="R920" s="83"/>
+      <c r="S920" s="83"/>
+      <c r="T920" s="83"/>
+    </row>
+    <row r="921" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M921" s="83"/>
+      <c r="N921" s="83"/>
+      <c r="O921" s="83"/>
+      <c r="P921" s="83"/>
+      <c r="Q921" s="83"/>
+      <c r="R921" s="83"/>
+      <c r="S921" s="83"/>
+      <c r="T921" s="83"/>
+    </row>
+    <row r="922" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M922" s="83"/>
+      <c r="N922" s="83"/>
+      <c r="O922" s="83"/>
+      <c r="P922" s="83"/>
+      <c r="Q922" s="83"/>
+      <c r="R922" s="83"/>
+      <c r="S922" s="83"/>
+      <c r="T922" s="83"/>
+    </row>
+    <row r="923" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M923" s="83"/>
+      <c r="N923" s="83"/>
+      <c r="O923" s="83"/>
+      <c r="P923" s="83"/>
+      <c r="Q923" s="83"/>
+      <c r="R923" s="83"/>
+      <c r="S923" s="83"/>
+      <c r="T923" s="83"/>
+    </row>
+    <row r="924" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M924" s="83"/>
+      <c r="N924" s="83"/>
+      <c r="O924" s="83"/>
+      <c r="P924" s="83"/>
+      <c r="Q924" s="83"/>
+      <c r="R924" s="83"/>
+      <c r="S924" s="83"/>
+      <c r="T924" s="83"/>
+    </row>
+    <row r="925" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M925" s="83"/>
+      <c r="N925" s="83"/>
+      <c r="O925" s="83"/>
+      <c r="P925" s="83"/>
+      <c r="Q925" s="83"/>
+      <c r="R925" s="83"/>
+      <c r="S925" s="83"/>
+      <c r="T925" s="83"/>
+    </row>
+    <row r="926" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M926" s="83"/>
+      <c r="N926" s="83"/>
+      <c r="O926" s="83"/>
+      <c r="P926" s="83"/>
+      <c r="Q926" s="83"/>
+      <c r="R926" s="83"/>
+      <c r="S926" s="83"/>
+      <c r="T926" s="83"/>
+    </row>
+    <row r="927" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M927" s="83"/>
+      <c r="N927" s="83"/>
+      <c r="O927" s="83"/>
+      <c r="P927" s="83"/>
+      <c r="Q927" s="83"/>
+      <c r="R927" s="83"/>
+      <c r="S927" s="83"/>
+      <c r="T927" s="83"/>
+    </row>
+    <row r="928" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M928" s="83"/>
+      <c r="N928" s="83"/>
+      <c r="O928" s="83"/>
+      <c r="P928" s="83"/>
+      <c r="Q928" s="83"/>
+      <c r="R928" s="83"/>
+      <c r="S928" s="83"/>
+      <c r="T928" s="83"/>
+    </row>
+    <row r="929" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M929" s="83"/>
+      <c r="N929" s="83"/>
+      <c r="O929" s="83"/>
+      <c r="P929" s="83"/>
+      <c r="Q929" s="83"/>
+      <c r="R929" s="83"/>
+      <c r="S929" s="83"/>
+      <c r="T929" s="83"/>
+    </row>
+    <row r="930" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M930" s="83"/>
+      <c r="N930" s="83"/>
+      <c r="O930" s="83"/>
+      <c r="P930" s="83"/>
+      <c r="Q930" s="83"/>
+      <c r="R930" s="83"/>
+      <c r="S930" s="83"/>
+      <c r="T930" s="83"/>
+    </row>
+    <row r="931" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M931" s="83"/>
+      <c r="N931" s="83"/>
+      <c r="O931" s="83"/>
+      <c r="P931" s="83"/>
+      <c r="Q931" s="83"/>
+      <c r="R931" s="83"/>
+      <c r="S931" s="83"/>
+      <c r="T931" s="83"/>
+    </row>
+    <row r="932" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M932" s="83"/>
+      <c r="N932" s="83"/>
+      <c r="O932" s="83"/>
+      <c r="P932" s="83"/>
+      <c r="Q932" s="83"/>
+      <c r="R932" s="83"/>
+      <c r="S932" s="83"/>
+      <c r="T932" s="83"/>
+    </row>
+    <row r="933" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M933" s="83"/>
+      <c r="N933" s="83"/>
+      <c r="O933" s="83"/>
+      <c r="P933" s="83"/>
+      <c r="Q933" s="83"/>
+      <c r="R933" s="83"/>
+      <c r="S933" s="83"/>
+      <c r="T933" s="83"/>
+    </row>
+    <row r="934" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M934" s="83"/>
+      <c r="N934" s="83"/>
+      <c r="O934" s="83"/>
+      <c r="P934" s="83"/>
+      <c r="Q934" s="83"/>
+      <c r="R934" s="83"/>
+      <c r="S934" s="83"/>
+      <c r="T934" s="83"/>
+    </row>
+    <row r="935" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M935" s="83"/>
+      <c r="N935" s="83"/>
+      <c r="O935" s="83"/>
+      <c r="P935" s="83"/>
+      <c r="Q935" s="83"/>
+      <c r="R935" s="83"/>
+      <c r="S935" s="83"/>
+      <c r="T935" s="83"/>
+    </row>
+    <row r="936" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M936" s="83"/>
+      <c r="N936" s="83"/>
+      <c r="O936" s="83"/>
+      <c r="P936" s="83"/>
+      <c r="Q936" s="83"/>
+      <c r="R936" s="83"/>
+      <c r="S936" s="83"/>
+      <c r="T936" s="83"/>
+    </row>
+    <row r="937" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M937" s="83"/>
+      <c r="N937" s="83"/>
+      <c r="O937" s="83"/>
+      <c r="P937" s="83"/>
+      <c r="Q937" s="83"/>
+      <c r="R937" s="83"/>
+      <c r="S937" s="83"/>
+      <c r="T937" s="83"/>
+    </row>
+    <row r="938" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M938" s="83"/>
+      <c r="N938" s="83"/>
+      <c r="O938" s="83"/>
+      <c r="P938" s="83"/>
+      <c r="Q938" s="83"/>
+      <c r="R938" s="83"/>
+      <c r="S938" s="83"/>
+      <c r="T938" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51242,15 +52171,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D1" s="536" t="s">
+      <c r="D1" s="535" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="536"/>
-      <c r="F1" s="536"/>
-      <c r="O1" s="536" t="s">
+      <c r="E1" s="535"/>
+      <c r="F1" s="535"/>
+      <c r="O1" s="535" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="536"/>
+      <c r="P1" s="535"/>
       <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
@@ -51351,25 +52280,25 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="523" t="s">
+      <c r="M6" s="522" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="523" t="s">
+      <c r="N6" s="522" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="523" t="s">
+      <c r="O6" s="522" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="523" t="s">
+      <c r="P6" s="522" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="523" t="s">
+      <c r="Q6" s="522" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="523" t="s">
+      <c r="R6" s="522" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="523" t="s">
+      <c r="S6" s="522" t="s">
         <v>36</v>
       </c>
     </row>
@@ -51390,15 +52319,15 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="535">
+      <c r="M7" s="534">
         <v>45170</v>
       </c>
       <c r="N7" s="83"/>
-      <c r="O7" s="537" t="s">
+      <c r="O7" s="536" t="s">
         <v>1193</v>
       </c>
-      <c r="P7" s="538"/>
-      <c r="Q7" s="539"/>
+      <c r="P7" s="537"/>
+      <c r="Q7" s="538"/>
       <c r="R7" s="83">
         <v>2528.62</v>
       </c>
@@ -51433,7 +52362,7 @@
       <c r="J8" s="85"/>
       <c r="K8" s="85"/>
       <c r="L8" s="85"/>
-      <c r="M8" s="535">
+      <c r="M8" s="534">
         <v>45173</v>
       </c>
       <c r="N8" s="83" t="s">
@@ -51481,7 +52410,7 @@
       <c r="J9" s="85"/>
       <c r="K9" s="85"/>
       <c r="L9" s="85"/>
-      <c r="M9" s="535">
+      <c r="M9" s="534">
         <v>45174</v>
       </c>
       <c r="N9" s="83" t="s">
@@ -51529,7 +52458,7 @@
       <c r="J10" s="85"/>
       <c r="K10" s="85"/>
       <c r="L10" s="85"/>
-      <c r="M10" s="535">
+      <c r="M10" s="534">
         <v>45174</v>
       </c>
       <c r="N10" s="83" t="s">
@@ -51577,7 +52506,7 @@
       <c r="J11" s="85"/>
       <c r="K11" s="85"/>
       <c r="L11" s="85"/>
-      <c r="M11" s="535">
+      <c r="M11" s="534">
         <v>45176</v>
       </c>
       <c r="N11" s="83" t="s">
@@ -51744,7 +52673,7 @@
         <f t="shared" si="0"/>
         <v>2139.4699999999998</v>
       </c>
-      <c r="S16" s="524"/>
+      <c r="S16" s="523"/>
       <c r="T16" s="35"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -51885,11 +52814,11 @@
       <c r="J21" s="85"/>
       <c r="K21" s="85"/>
       <c r="L21" s="85"/>
-      <c r="M21" s="520"/>
-      <c r="N21" s="521"/>
-      <c r="O21" s="521"/>
-      <c r="P21" s="553"/>
-      <c r="Q21" s="553"/>
+      <c r="M21" s="519"/>
+      <c r="N21" s="520"/>
+      <c r="O21" s="520"/>
+      <c r="P21" s="552"/>
+      <c r="Q21" s="552"/>
       <c r="R21" s="84">
         <f t="shared" si="0"/>
         <v>2139.4699999999998</v>
@@ -52238,7 +53167,7 @@
         <f t="shared" si="0"/>
         <v>2139.4699999999998</v>
       </c>
-      <c r="S33" s="522"/>
+      <c r="S33" s="521"/>
       <c r="T33" s="36"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -52337,10 +53266,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E2" s="536" t="s">
+      <c r="E2" s="535" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="536"/>
+      <c r="F2" s="535"/>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
@@ -53886,13 +54815,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="541" t="s">
+      <c r="B2" s="540" t="s">
         <v>725</v>
       </c>
-      <c r="C2" s="541"/>
-      <c r="D2" s="541"/>
-      <c r="E2" s="541"/>
-      <c r="F2" s="541"/>
+      <c r="C2" s="540"/>
+      <c r="D2" s="540"/>
+      <c r="E2" s="540"/>
+      <c r="F2" s="540"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -53906,10 +54835,10 @@
       <c r="B5" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="C5" s="542" t="s">
+      <c r="C5" s="541" t="s">
         <v>730</v>
       </c>
-      <c r="D5" s="542"/>
+      <c r="D5" s="541"/>
       <c r="E5" s="1" t="s">
         <v>728</v>
       </c>
@@ -53925,10 +54854,10 @@
       <c r="B7" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="C7" s="542" t="s">
+      <c r="C7" s="541" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="542"/>
+      <c r="D7" s="541"/>
       <c r="E7" s="1" t="s">
         <v>732</v>
       </c>
@@ -53945,10 +54874,10 @@
       <c r="B8" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C8" s="540" t="s">
+      <c r="C8" s="539" t="s">
         <v>733</v>
       </c>
-      <c r="D8" s="540"/>
+      <c r="D8" s="539"/>
       <c r="E8" s="1" t="s">
         <v>734</v>
       </c>
@@ -53981,10 +54910,10 @@
       <c r="B12" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C12" s="540" t="s">
+      <c r="C12" s="539" t="s">
         <v>733</v>
       </c>
-      <c r="D12" s="540"/>
+      <c r="D12" s="539"/>
       <c r="E12" s="1" t="s">
         <v>734</v>
       </c>
@@ -54010,10 +54939,10 @@
       <c r="B16" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C16" s="540" t="s">
+      <c r="C16" s="539" t="s">
         <v>733</v>
       </c>
-      <c r="D16" s="540"/>
+      <c r="D16" s="539"/>
       <c r="E16" s="1" t="s">
         <v>734</v>
       </c>

--- a/DOC 2023/BANCOS.xlsx
+++ b/DOC 2023/BANCOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACABBAD0-0AD1-44F0-A4AC-4D0721C30E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55764FFC-CF3E-4690-A5FE-DEF604365FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12917,8 +12917,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A2:U938"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A891" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="K910" sqref="K910"/>
+    <sheetView tabSelected="1" topLeftCell="A900" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="J917" sqref="J917"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DOC 2023/BANCOS.xlsx
+++ b/DOC 2023/BANCOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\DOC 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6719FB9F-94CD-4A68-81DB-D3D4D5D3B6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981F7004-84DA-4FB1-B04C-E3907832A89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6541" uniqueCount="1956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6719" uniqueCount="1999">
   <si>
     <t>ABRILTRANS S.A</t>
   </si>
@@ -5900,6 +5900,135 @@
   </si>
   <si>
     <t xml:space="preserve">MOVIMIENTO DE BANCOS </t>
+  </si>
+  <si>
+    <t>2,999.00</t>
+  </si>
+  <si>
+    <t>16,637.57</t>
+  </si>
+  <si>
+    <t>3,076.00</t>
+  </si>
+  <si>
+    <t>13,561.57</t>
+  </si>
+  <si>
+    <t>13,559.57</t>
+  </si>
+  <si>
+    <t>13,259.57</t>
+  </si>
+  <si>
+    <t>13,018.33</t>
+  </si>
+  <si>
+    <t>1,721.75</t>
+  </si>
+  <si>
+    <t>14,740.08</t>
+  </si>
+  <si>
+    <t>1,258.13</t>
+  </si>
+  <si>
+    <t>15,998.21</t>
+  </si>
+  <si>
+    <t>15,478.21</t>
+  </si>
+  <si>
+    <t>630.50</t>
+  </si>
+  <si>
+    <t>14,847.71</t>
+  </si>
+  <si>
+    <t>14,537.71</t>
+  </si>
+  <si>
+    <t>83.50</t>
+  </si>
+  <si>
+    <t>14,454.21</t>
+  </si>
+  <si>
+    <t>180.51</t>
+  </si>
+  <si>
+    <t>14,273.70</t>
+  </si>
+  <si>
+    <t>257.50</t>
+  </si>
+  <si>
+    <t>14,016.20</t>
+  </si>
+  <si>
+    <t>13,716.20</t>
+  </si>
+  <si>
+    <t>13,854.80</t>
+  </si>
+  <si>
+    <t>13,654.80</t>
+  </si>
+  <si>
+    <t>13,618.98</t>
+  </si>
+  <si>
+    <t>13,618.76</t>
+  </si>
+  <si>
+    <t>3,203.15</t>
+  </si>
+  <si>
+    <t>10,415.61</t>
+  </si>
+  <si>
+    <t>10,414.61</t>
+  </si>
+  <si>
+    <t>10,563.11</t>
+  </si>
+  <si>
+    <t>10,263.11</t>
+  </si>
+  <si>
+    <t>9,776.47</t>
+  </si>
+  <si>
+    <t>9,775.47</t>
+  </si>
+  <si>
+    <t>CH1461</t>
+  </si>
+  <si>
+    <t>CH1462</t>
+  </si>
+  <si>
+    <t>CH1463</t>
+  </si>
+  <si>
+    <t>NATHALY MECIAS</t>
+  </si>
+  <si>
+    <t>CH1464</t>
+  </si>
+  <si>
+    <t>CH1465</t>
+  </si>
+  <si>
+    <t>CH1466</t>
+  </si>
+  <si>
+    <t>LIDERSOL</t>
+  </si>
+  <si>
+    <t>LOCATION WORLS</t>
+  </si>
+  <si>
+    <t>CH1460</t>
   </si>
 </sst>
 </file>
@@ -6348,7 +6477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="602">
+  <cellXfs count="609">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -7787,9 +7916,6 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="30" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="30" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7811,6 +7937,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -13326,7 +13468,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>966</xdr:row>
+      <xdr:row>965</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -13382,7 +13524,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>967</xdr:row>
+      <xdr:row>966</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -13438,7 +13580,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>968</xdr:row>
+      <xdr:row>967</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -13494,7 +13636,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>969</xdr:row>
+      <xdr:row>968</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -13550,7 +13692,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>970</xdr:row>
+      <xdr:row>969</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -13606,7 +13748,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>971</xdr:row>
+      <xdr:row>970</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -13662,7 +13804,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>972</xdr:row>
+      <xdr:row>971</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -13718,7 +13860,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>973</xdr:row>
+      <xdr:row>972</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -13774,7 +13916,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>975</xdr:row>
+      <xdr:row>973</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -13830,7 +13972,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>976</xdr:row>
+      <xdr:row>974</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -13886,7 +14028,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>977</xdr:row>
+      <xdr:row>975</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -13942,7 +14084,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>978</xdr:row>
+      <xdr:row>976</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -13998,7 +14140,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>979</xdr:row>
+      <xdr:row>977</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -14054,7 +14196,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>980</xdr:row>
+      <xdr:row>978</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -14110,7 +14252,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>981</xdr:row>
+      <xdr:row>979</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -14166,7 +14308,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>983</xdr:row>
+      <xdr:row>981</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -14222,7 +14364,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>984</xdr:row>
+      <xdr:row>982</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -14278,7 +14420,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>985</xdr:row>
+      <xdr:row>983</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -14334,7 +14476,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>986</xdr:row>
+      <xdr:row>984</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -14390,7 +14532,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>987</xdr:row>
+      <xdr:row>985</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -14446,7 +14588,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>988</xdr:row>
+      <xdr:row>986</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -14502,7 +14644,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>989</xdr:row>
+      <xdr:row>987</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -14558,7 +14700,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>991</xdr:row>
+      <xdr:row>989</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -14614,7 +14756,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>991</xdr:row>
+      <xdr:row>989</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -14670,7 +14812,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>992</xdr:row>
+      <xdr:row>990</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -14726,7 +14868,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>993</xdr:row>
+      <xdr:row>991</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -14782,7 +14924,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>994</xdr:row>
+      <xdr:row>992</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -14838,7 +14980,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>995</xdr:row>
+      <xdr:row>993</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -14894,7 +15036,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>995</xdr:row>
+      <xdr:row>993</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -14950,7 +15092,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>991</xdr:row>
+      <xdr:row>989</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -15006,7 +15148,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>992</xdr:row>
+      <xdr:row>990</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -15062,7 +15204,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>993</xdr:row>
+      <xdr:row>991</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -15118,7 +15260,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>995</xdr:row>
+      <xdr:row>993</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -15174,7 +15316,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>996</xdr:row>
+      <xdr:row>994</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -15230,7 +15372,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>997</xdr:row>
+      <xdr:row>995</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -15286,7 +15428,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>999</xdr:row>
+      <xdr:row>997</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -15342,7 +15484,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1000</xdr:row>
+      <xdr:row>998</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -15398,7 +15540,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1001</xdr:row>
+      <xdr:row>999</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -15454,7 +15596,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1003</xdr:row>
+      <xdr:row>1001</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -15510,7 +15652,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1004</xdr:row>
+      <xdr:row>1002</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -15566,7 +15708,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1005</xdr:row>
+      <xdr:row>1003</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -15622,7 +15764,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1006</xdr:row>
+      <xdr:row>1004</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -15678,7 +15820,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1007</xdr:row>
+      <xdr:row>1005</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -15734,7 +15876,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1008</xdr:row>
+      <xdr:row>1006</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -15790,7 +15932,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1010</xdr:row>
+      <xdr:row>1008</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -15846,7 +15988,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1011</xdr:row>
+      <xdr:row>1009</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -15902,7 +16044,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1012</xdr:row>
+      <xdr:row>1010</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -15958,7 +16100,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1013</xdr:row>
+      <xdr:row>1011</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -16014,7 +16156,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1014</xdr:row>
+      <xdr:row>1012</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -16070,7 +16212,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1015</xdr:row>
+      <xdr:row>1013</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -16126,7 +16268,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1017</xdr:row>
+      <xdr:row>1015</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -16182,7 +16324,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1018</xdr:row>
+      <xdr:row>1016</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -16238,7 +16380,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1019</xdr:row>
+      <xdr:row>1017</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -16294,7 +16436,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1021</xdr:row>
+      <xdr:row>1019</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -16350,7 +16492,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1022</xdr:row>
+      <xdr:row>1020</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -16406,7 +16548,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1023</xdr:row>
+      <xdr:row>1021</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -16462,7 +16604,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1024</xdr:row>
+      <xdr:row>1022</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -16518,7 +16660,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1025</xdr:row>
+      <xdr:row>1023</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -16574,7 +16716,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1026</xdr:row>
+      <xdr:row>1024</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -16630,7 +16772,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1027</xdr:row>
+      <xdr:row>1025</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -16686,7 +16828,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1028</xdr:row>
+      <xdr:row>1026</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -16742,7 +16884,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1029</xdr:row>
+      <xdr:row>1027</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -16798,7 +16940,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1030</xdr:row>
+      <xdr:row>1028</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -16854,7 +16996,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1031</xdr:row>
+      <xdr:row>1029</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -16910,7 +17052,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1032</xdr:row>
+      <xdr:row>1030</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -16966,7 +17108,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1033</xdr:row>
+      <xdr:row>1031</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -17022,7 +17164,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1034</xdr:row>
+      <xdr:row>1032</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -17078,7 +17220,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1036</xdr:row>
+      <xdr:row>1034</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -17134,7 +17276,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1037</xdr:row>
+      <xdr:row>1035</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -17190,7 +17332,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1038</xdr:row>
+      <xdr:row>1036</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -17246,7 +17388,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1039</xdr:row>
+      <xdr:row>1037</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -17302,7 +17444,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1040</xdr:row>
+      <xdr:row>1038</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -17358,7 +17500,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1041</xdr:row>
+      <xdr:row>1039</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -17414,7 +17556,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1042</xdr:row>
+      <xdr:row>1040</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -17470,7 +17612,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1043</xdr:row>
+      <xdr:row>1041</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -17526,7 +17668,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1045</xdr:row>
+      <xdr:row>1043</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -17582,7 +17724,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1046</xdr:row>
+      <xdr:row>1044</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -17638,7 +17780,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1047</xdr:row>
+      <xdr:row>1045</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -17694,7 +17836,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1048</xdr:row>
+      <xdr:row>1046</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -17750,7 +17892,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1049</xdr:row>
+      <xdr:row>1047</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -17806,7 +17948,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1050</xdr:row>
+      <xdr:row>1048</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -17862,7 +18004,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1051</xdr:row>
+      <xdr:row>1049</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -17918,7 +18060,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1054</xdr:row>
+      <xdr:row>1052</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -17974,7 +18116,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1055</xdr:row>
+      <xdr:row>1053</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -18030,7 +18172,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1056</xdr:row>
+      <xdr:row>1054</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -18086,7 +18228,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1057</xdr:row>
+      <xdr:row>1055</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -18142,7 +18284,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1058</xdr:row>
+      <xdr:row>1056</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -18198,7 +18340,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1059</xdr:row>
+      <xdr:row>1057</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -18254,7 +18396,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1060</xdr:row>
+      <xdr:row>1058</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -18310,7 +18452,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1061</xdr:row>
+      <xdr:row>1059</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="247650" cy="161925"/>
@@ -18789,6 +18931,1226 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>952</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>952</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="196" name="Imagen 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{478E3397-68A8-4C52-879C-C645A6CC03D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="182241825"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>953</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>953</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="197" name="Imagen 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDAADAF0-AAA2-4FC3-917E-B300321713B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="182622825"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>954</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>954</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="198" name="Imagen 197">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B871D525-9C2D-498E-9AC8-9EEDCC22E822}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="182822850"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>955</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>955</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="199" name="Imagen 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C466C6B6-772C-4472-830B-5AA254C09B77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="183022875"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>956</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>956</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="200" name="Imagen 199">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF0F8CCD-0BEF-447D-A0F5-3B8ECEA74686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="183222900"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>957</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>957</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="201" name="Imagen 200">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F7A0C43-8B39-4D29-807E-E6D10C38958C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="183422925"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>958</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>958</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="202" name="Imagen 201">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4503E080-5203-4EEF-A5F0-25DFA0A40A23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="183622950"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>959</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>959</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="203" name="Imagen 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D39991DD-7502-4F9D-AF6D-053DDDCCC672}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="183822975"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>960</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>960</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="204" name="Imagen 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DACC5A2-67BE-4B0C-9499-89DF8C892858}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="184023000"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>961</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>961</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="205" name="Imagen 204">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D4A87D-EAF4-45D7-A7A3-ABBBA6B81033}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="184223025"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>963</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>963</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="206" name="Imagen 205">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16539C2B-1726-4A08-8B1E-AC1E738445C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="184337325"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>964</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>964</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="207" name="Imagen 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB081E77-A485-45CA-800C-81F8DEE19F26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="184537350"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>965</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>965</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="208" name="Imagen 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE674E79-68BE-4D31-A05A-A569870FC79B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="184737375"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>966</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>966</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="209" name="Imagen 208">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4017620-2289-4A39-9829-E7A07FBB5EA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="184937400"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>967</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>967</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="210" name="Imagen 209">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B842B75C-EB94-4654-B832-8A57F109089D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="185137425"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>968</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>968</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="211" name="Imagen 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A665F3A3-8265-4EF7-BD34-EB0FA290ECE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="185337450"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>969</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>969</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="212" name="Imagen 211">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07BE005-7FDB-4250-A438-ED81101E01CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="185537475"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>970</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>970</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="213" name="Imagen 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29630A04-04A6-42E6-A454-5B18DA49DE59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="185737500"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>971</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>971</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="214" name="Imagen 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C65AC5-751E-4D07-BEE7-B65D72B5A21F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="185937525"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>973</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>973</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="215" name="Imagen 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A1681BD-735C-4830-BEDA-DF0D7C29EC62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15001875" y="186432825"/>
+          <a:ext cx="247650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19092,8 +20454,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A2:U1075"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A941" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K919" sqref="K919"/>
+    <sheetView tabSelected="1" topLeftCell="A954" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E971" sqref="E971"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58252,20 +59614,20 @@
       <c r="T917" s="305"/>
     </row>
     <row r="918" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A918" s="441">
+      <c r="A918" s="530">
         <v>45197</v>
       </c>
-      <c r="B918" s="154" t="s">
+      <c r="B918" s="345" t="s">
         <v>15</v>
       </c>
-      <c r="C918" s="154" t="s">
+      <c r="C918" s="345" t="s">
         <v>1926</v>
       </c>
-      <c r="D918" s="154" t="s">
+      <c r="D918" s="345" t="s">
         <v>1748</v>
       </c>
-      <c r="E918" s="156"/>
-      <c r="F918" s="156">
+      <c r="E918" s="346"/>
+      <c r="F918" s="346">
         <v>180.51</v>
       </c>
       <c r="G918" s="53">
@@ -58444,20 +59806,20 @@
       <c r="T922" s="83"/>
     </row>
     <row r="923" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A923" s="10">
+      <c r="A923" s="344">
         <v>45198</v>
       </c>
-      <c r="B923" s="154" t="s">
+      <c r="B923" s="345" t="s">
         <v>15</v>
       </c>
-      <c r="C923" s="154" t="s">
+      <c r="C923" s="345" t="s">
         <v>1931</v>
       </c>
-      <c r="D923" s="154" t="s">
+      <c r="D923" s="345" t="s">
         <v>1748</v>
       </c>
-      <c r="E923" s="484"/>
-      <c r="F923" s="156">
+      <c r="E923" s="346"/>
+      <c r="F923" s="346">
         <v>83.5</v>
       </c>
       <c r="G923" s="53">
@@ -58833,20 +60195,20 @@
       <c r="U944" s="87"/>
     </row>
     <row r="945" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A945" s="591">
+      <c r="A945" s="590">
         <v>45201</v>
       </c>
-      <c r="B945" s="592" t="s">
+      <c r="B945" s="591" t="s">
         <v>15</v>
       </c>
-      <c r="C945" s="592" t="s">
+      <c r="C945" s="591" t="s">
         <v>1933</v>
       </c>
-      <c r="D945" s="592" t="s">
+      <c r="D945" s="591" t="s">
         <v>1934</v>
       </c>
-      <c r="E945" s="593"/>
-      <c r="F945" s="593">
+      <c r="E945" s="592"/>
+      <c r="F945" s="592">
         <v>189</v>
       </c>
       <c r="G945" s="53">
@@ -58885,7 +60247,7 @@
       <c r="U945" s="87"/>
     </row>
     <row r="946" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A946" s="594">
+      <c r="A946" s="593">
         <v>45201</v>
       </c>
       <c r="B946" s="497" t="s">
@@ -58897,8 +60259,8 @@
       <c r="D946" s="497" t="s">
         <v>1934</v>
       </c>
-      <c r="E946" s="595"/>
-      <c r="F946" s="595">
+      <c r="E946" s="594"/>
+      <c r="F946" s="594">
         <v>100</v>
       </c>
       <c r="G946" s="53">
@@ -58937,20 +60299,20 @@
       <c r="U946" s="87"/>
     </row>
     <row r="947" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A947" s="574">
+      <c r="A947" s="606">
         <v>45201</v>
       </c>
-      <c r="B947" s="176" t="s">
+      <c r="B947" s="603" t="s">
         <v>15</v>
       </c>
-      <c r="C947" s="176" t="s">
+      <c r="C947" s="603" t="s">
         <v>1936</v>
       </c>
-      <c r="D947" s="176" t="s">
+      <c r="D947" s="603" t="s">
         <v>1654</v>
       </c>
-      <c r="E947" s="577"/>
-      <c r="F947" s="577">
+      <c r="E947" s="607"/>
+      <c r="F947" s="607">
         <v>241.24</v>
       </c>
       <c r="G947" s="53">
@@ -58989,20 +60351,20 @@
       <c r="U947" s="87"/>
     </row>
     <row r="948" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A948" s="574">
+      <c r="A948" s="606">
         <v>45201</v>
       </c>
-      <c r="B948" s="176" t="s">
+      <c r="B948" s="603" t="s">
         <v>15</v>
       </c>
-      <c r="C948" s="176" t="s">
+      <c r="C948" s="603" t="s">
         <v>1937</v>
       </c>
-      <c r="D948" s="176" t="s">
+      <c r="D948" s="603" t="s">
         <v>950</v>
       </c>
-      <c r="E948" s="577"/>
-      <c r="F948" s="577">
+      <c r="E948" s="607"/>
+      <c r="F948" s="607">
         <v>520</v>
       </c>
       <c r="G948" s="53">
@@ -59041,20 +60403,20 @@
       <c r="U948" s="87"/>
     </row>
     <row r="949" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A949" s="574">
+      <c r="A949" s="606">
         <v>45201</v>
       </c>
-      <c r="B949" s="176" t="s">
+      <c r="B949" s="603" t="s">
         <v>15</v>
       </c>
-      <c r="C949" s="176" t="s">
+      <c r="C949" s="603" t="s">
         <v>1938</v>
       </c>
-      <c r="D949" s="176" t="s">
+      <c r="D949" s="603" t="s">
         <v>950</v>
       </c>
-      <c r="E949" s="577"/>
-      <c r="F949" s="577">
+      <c r="E949" s="607"/>
+      <c r="F949" s="607">
         <v>630.5</v>
       </c>
       <c r="G949" s="53">
@@ -59145,18 +60507,18 @@
       <c r="U950" s="87"/>
     </row>
     <row r="951" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A951" s="594">
+      <c r="A951" s="593">
         <v>45201</v>
       </c>
       <c r="B951" s="497" t="s">
         <v>15</v>
       </c>
-      <c r="C951" s="596"/>
+      <c r="C951" s="595"/>
       <c r="D951" s="497" t="s">
         <v>1953</v>
       </c>
-      <c r="E951" s="595"/>
-      <c r="F951" s="595">
+      <c r="E951" s="594"/>
+      <c r="F951" s="594">
         <v>3360.24</v>
       </c>
       <c r="G951" s="53">
@@ -59170,25 +60532,25 @@
       <c r="J951" s="85"/>
       <c r="K951" s="85"/>
       <c r="L951" s="85"/>
-      <c r="M951" s="597">
+      <c r="M951" s="596">
         <v>45201</v>
       </c>
-      <c r="N951" s="598" t="s">
+      <c r="N951" s="597" t="s">
         <v>27</v>
       </c>
-      <c r="O951" s="598">
+      <c r="O951" s="597">
         <v>226</v>
       </c>
-      <c r="P951" s="599" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q951" s="599" t="s">
+      <c r="P951" s="598" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q951" s="598" t="s">
         <v>200</v>
       </c>
-      <c r="R951" s="599" t="s">
+      <c r="R951" s="598" t="s">
         <v>1952</v>
       </c>
-      <c r="S951" s="599" t="s">
+      <c r="S951" s="598" t="s">
         <v>1952</v>
       </c>
       <c r="T951" s="280"/>
@@ -59222,18 +60584,32 @@
       <c r="J952" s="85"/>
       <c r="K952" s="85"/>
       <c r="L952" s="85"/>
-      <c r="M952" s="588"/>
-      <c r="N952" s="491"/>
-      <c r="O952" s="491"/>
-      <c r="P952" s="589"/>
-      <c r="Q952" s="589"/>
-      <c r="R952" s="589"/>
-      <c r="S952" s="589"/>
-      <c r="T952" s="590"/>
+      <c r="M952" s="486">
+        <v>45201</v>
+      </c>
+      <c r="N952" s="487" t="s">
+        <v>27</v>
+      </c>
+      <c r="O952" s="487">
+        <v>226</v>
+      </c>
+      <c r="P952" s="488" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q952" s="488" t="s">
+        <v>1956</v>
+      </c>
+      <c r="R952" s="488" t="s">
+        <v>1957</v>
+      </c>
+      <c r="S952" s="488" t="s">
+        <v>1957</v>
+      </c>
+      <c r="T952" s="223"/>
       <c r="U952" s="87"/>
     </row>
     <row r="953" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A953" s="600">
+      <c r="A953" s="599">
         <v>45201</v>
       </c>
       <c r="B953" s="576" t="s">
@@ -59245,10 +60621,10 @@
       <c r="D953" s="576" t="s">
         <v>332</v>
       </c>
-      <c r="E953" s="601">
+      <c r="E953" s="600">
         <v>100</v>
       </c>
-      <c r="F953" s="601"/>
+      <c r="F953" s="600"/>
       <c r="G953" s="53">
         <f t="shared" si="83"/>
         <v>10701.87</v>
@@ -59260,26 +60636,50 @@
       <c r="J953" s="85"/>
       <c r="K953" s="85"/>
       <c r="L953" s="85"/>
-      <c r="M953" s="586"/>
-      <c r="N953" s="280"/>
-      <c r="O953" s="280"/>
-      <c r="P953" s="264"/>
-      <c r="Q953" s="264"/>
-      <c r="R953" s="264"/>
-      <c r="S953" s="264"/>
-      <c r="T953" s="435"/>
+      <c r="M953" s="486">
+        <v>45201</v>
+      </c>
+      <c r="N953" s="487" t="s">
+        <v>38</v>
+      </c>
+      <c r="O953" s="487">
+        <v>537</v>
+      </c>
+      <c r="P953" s="488" t="s">
+        <v>1958</v>
+      </c>
+      <c r="Q953" s="488" t="s">
+        <v>73</v>
+      </c>
+      <c r="R953" s="488" t="s">
+        <v>1959</v>
+      </c>
+      <c r="S953" s="488" t="s">
+        <v>1959</v>
+      </c>
+      <c r="T953" s="505"/>
       <c r="U953" s="87"/>
     </row>
     <row r="954" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A954" s="575"/>
-      <c r="B954" s="176"/>
-      <c r="C954" s="176"/>
-      <c r="D954" s="176"/>
-      <c r="E954" s="578"/>
-      <c r="F954" s="578"/>
+      <c r="A954" s="602">
+        <v>45201</v>
+      </c>
+      <c r="B954" s="603" t="s">
+        <v>53</v>
+      </c>
+      <c r="C954" s="603" t="s">
+        <v>64</v>
+      </c>
+      <c r="D954" s="603" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E954" s="604">
+        <v>2999</v>
+      </c>
+      <c r="F954" s="604"/>
       <c r="G954" s="53">
-        <f t="shared" si="83"/>
-        <v>10701.87</v>
+        <f>G953+E954-F954</f>
+        <v>13700.87</v>
       </c>
       <c r="H954" s="85"/>
       <c r="I954" s="86" t="b">
@@ -59288,26 +60688,50 @@
       <c r="J954" s="85"/>
       <c r="K954" s="85"/>
       <c r="L954" s="85"/>
-      <c r="M954" s="586"/>
-      <c r="N954" s="280"/>
-      <c r="O954" s="280"/>
-      <c r="P954" s="264"/>
-      <c r="Q954" s="264"/>
-      <c r="R954" s="264"/>
-      <c r="S954" s="264"/>
-      <c r="T954" s="435"/>
+      <c r="M954" s="486">
+        <v>45201</v>
+      </c>
+      <c r="N954" s="487" t="s">
+        <v>38</v>
+      </c>
+      <c r="O954" s="487">
+        <v>875</v>
+      </c>
+      <c r="P954" s="488" t="s">
+        <v>1174</v>
+      </c>
+      <c r="Q954" s="488" t="s">
+        <v>73</v>
+      </c>
+      <c r="R954" s="488" t="s">
+        <v>1960</v>
+      </c>
+      <c r="S954" s="306" t="s">
+        <v>1960</v>
+      </c>
+      <c r="T954" s="305"/>
       <c r="U954" s="87"/>
     </row>
     <row r="955" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A955" s="575"/>
-      <c r="B955" s="176"/>
-      <c r="C955" s="176"/>
-      <c r="D955" s="176"/>
-      <c r="E955" s="578"/>
-      <c r="F955" s="578"/>
+      <c r="A955" s="602">
+        <v>45201</v>
+      </c>
+      <c r="B955" s="603" t="s">
+        <v>15</v>
+      </c>
+      <c r="C955" s="603" t="s">
+        <v>64</v>
+      </c>
+      <c r="D955" s="603" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E955" s="604"/>
+      <c r="F955" s="604">
+        <v>3076</v>
+      </c>
       <c r="G955" s="53">
         <f t="shared" si="83"/>
-        <v>10701.87</v>
+        <v>10624.87</v>
       </c>
       <c r="H955" s="85"/>
       <c r="I955" s="86" t="b">
@@ -59316,26 +60740,50 @@
       <c r="J955" s="85"/>
       <c r="K955" s="85"/>
       <c r="L955" s="85"/>
-      <c r="M955" s="586"/>
-      <c r="N955" s="280"/>
-      <c r="O955" s="280"/>
-      <c r="P955" s="264"/>
-      <c r="Q955" s="264"/>
-      <c r="R955" s="264"/>
-      <c r="S955" s="264"/>
-      <c r="T955" s="435"/>
+      <c r="M955" s="486">
+        <v>45202</v>
+      </c>
+      <c r="N955" s="487" t="s">
+        <v>18</v>
+      </c>
+      <c r="O955" s="487">
+        <v>1460</v>
+      </c>
+      <c r="P955" s="488" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q955" s="488" t="s">
+        <v>73</v>
+      </c>
+      <c r="R955" s="488" t="s">
+        <v>1961</v>
+      </c>
+      <c r="S955" s="306" t="s">
+        <v>1961</v>
+      </c>
+      <c r="T955" s="305"/>
       <c r="U955" s="87"/>
     </row>
     <row r="956" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A956" s="575"/>
-      <c r="B956" s="176"/>
-      <c r="C956" s="176"/>
-      <c r="D956" s="176"/>
-      <c r="E956" s="578"/>
-      <c r="F956" s="578"/>
+      <c r="A956" s="602">
+        <v>45201</v>
+      </c>
+      <c r="B956" s="603" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C956" s="603" t="s">
+        <v>65</v>
+      </c>
+      <c r="D956" s="603" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E956" s="604"/>
+      <c r="F956" s="604">
+        <v>2</v>
+      </c>
       <c r="G956" s="53">
         <f t="shared" si="83"/>
-        <v>10701.87</v>
+        <v>10622.87</v>
       </c>
       <c r="H956" s="85"/>
       <c r="I956" s="86" t="b">
@@ -59344,26 +60792,50 @@
       <c r="J956" s="85"/>
       <c r="K956" s="85"/>
       <c r="L956" s="85"/>
-      <c r="M956" s="586"/>
-      <c r="N956" s="280"/>
-      <c r="O956" s="280"/>
-      <c r="P956" s="264"/>
-      <c r="Q956" s="264"/>
-      <c r="R956" s="264"/>
-      <c r="S956" s="264"/>
-      <c r="T956" s="435"/>
+      <c r="M956" s="486">
+        <v>45202</v>
+      </c>
+      <c r="N956" s="487" t="s">
+        <v>18</v>
+      </c>
+      <c r="O956" s="487">
+        <v>1453</v>
+      </c>
+      <c r="P956" s="488" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q956" s="488" t="s">
+        <v>73</v>
+      </c>
+      <c r="R956" s="488" t="s">
+        <v>1962</v>
+      </c>
+      <c r="S956" s="306" t="s">
+        <v>1962</v>
+      </c>
+      <c r="T956" s="305"/>
       <c r="U956" s="87"/>
     </row>
     <row r="957" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A957" s="575"/>
-      <c r="B957" s="176"/>
-      <c r="C957" s="14"/>
-      <c r="D957" s="176"/>
-      <c r="E957" s="578"/>
-      <c r="F957" s="578"/>
+      <c r="A957" s="602">
+        <v>45202</v>
+      </c>
+      <c r="B957" s="603" t="s">
+        <v>15</v>
+      </c>
+      <c r="C957" s="605" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D957" s="603" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E957" s="604"/>
+      <c r="F957" s="604">
+        <v>300</v>
+      </c>
       <c r="G957" s="53">
         <f t="shared" si="83"/>
-        <v>10701.87</v>
+        <v>10322.870000000001</v>
       </c>
       <c r="H957" s="85"/>
       <c r="I957" s="86" t="b">
@@ -59372,26 +60844,50 @@
       <c r="J957" s="85"/>
       <c r="K957" s="85"/>
       <c r="L957" s="85"/>
-      <c r="M957" s="586"/>
-      <c r="N957" s="280"/>
-      <c r="O957" s="280"/>
-      <c r="P957" s="264"/>
-      <c r="Q957" s="264"/>
-      <c r="R957" s="264"/>
-      <c r="S957" s="264"/>
-      <c r="T957" s="435"/>
+      <c r="M957" s="486">
+        <v>45202</v>
+      </c>
+      <c r="N957" s="487" t="s">
+        <v>27</v>
+      </c>
+      <c r="O957" s="487">
+        <v>226</v>
+      </c>
+      <c r="P957" s="488" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q957" s="488" t="s">
+        <v>1963</v>
+      </c>
+      <c r="R957" s="488" t="s">
+        <v>1964</v>
+      </c>
+      <c r="S957" s="306" t="s">
+        <v>1964</v>
+      </c>
+      <c r="T957" s="305"/>
       <c r="U957" s="87"/>
     </row>
     <row r="958" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A958" s="575"/>
-      <c r="B958" s="176"/>
-      <c r="C958" s="176"/>
-      <c r="D958" s="176"/>
-      <c r="E958" s="578"/>
-      <c r="F958" s="578"/>
+      <c r="A958" s="602">
+        <v>45202</v>
+      </c>
+      <c r="B958" s="603" t="s">
+        <v>15</v>
+      </c>
+      <c r="C958" s="605" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D958" s="603" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E958" s="604"/>
+      <c r="F958" s="604">
+        <v>257.5</v>
+      </c>
       <c r="G958" s="53">
         <f t="shared" si="83"/>
-        <v>10701.87</v>
+        <v>10065.370000000001</v>
       </c>
       <c r="H958" s="85"/>
       <c r="I958" s="86" t="b">
@@ -59400,26 +60896,50 @@
       <c r="J958" s="85"/>
       <c r="K958" s="85"/>
       <c r="L958" s="85"/>
-      <c r="M958" s="586"/>
-      <c r="N958" s="280"/>
-      <c r="O958" s="280"/>
-      <c r="P958" s="264"/>
-      <c r="Q958" s="264"/>
-      <c r="R958" s="264"/>
-      <c r="S958" s="264"/>
-      <c r="T958" s="435"/>
+      <c r="M958" s="486">
+        <v>45202</v>
+      </c>
+      <c r="N958" s="487" t="s">
+        <v>27</v>
+      </c>
+      <c r="O958" s="487">
+        <v>226</v>
+      </c>
+      <c r="P958" s="488" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q958" s="488" t="s">
+        <v>1965</v>
+      </c>
+      <c r="R958" s="488" t="s">
+        <v>1966</v>
+      </c>
+      <c r="S958" s="306" t="s">
+        <v>1966</v>
+      </c>
+      <c r="T958" s="305"/>
       <c r="U958" s="87"/>
     </row>
     <row r="959" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A959" s="575"/>
-      <c r="B959" s="176"/>
-      <c r="C959" s="176"/>
-      <c r="D959" s="176"/>
-      <c r="E959" s="578"/>
-      <c r="F959" s="578"/>
+      <c r="A959" s="602">
+        <v>45202</v>
+      </c>
+      <c r="B959" s="603" t="s">
+        <v>15</v>
+      </c>
+      <c r="C959" s="603" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D959" s="603" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E959" s="604"/>
+      <c r="F959" s="604">
+        <v>310</v>
+      </c>
       <c r="G959" s="53">
         <f t="shared" si="83"/>
-        <v>10701.87</v>
+        <v>9755.3700000000008</v>
       </c>
       <c r="H959" s="85"/>
       <c r="I959" s="86" t="b">
@@ -59428,26 +60948,50 @@
       <c r="J959" s="85"/>
       <c r="K959" s="85"/>
       <c r="L959" s="85"/>
-      <c r="M959" s="586"/>
-      <c r="N959" s="280"/>
-      <c r="O959" s="280"/>
-      <c r="P959" s="264"/>
-      <c r="Q959" s="264"/>
-      <c r="R959" s="264"/>
-      <c r="S959" s="264"/>
-      <c r="T959" s="435"/>
+      <c r="M959" s="486">
+        <v>45202</v>
+      </c>
+      <c r="N959" s="487" t="s">
+        <v>18</v>
+      </c>
+      <c r="O959" s="487">
+        <v>1457</v>
+      </c>
+      <c r="P959" s="488" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q959" s="488" t="s">
+        <v>73</v>
+      </c>
+      <c r="R959" s="488" t="s">
+        <v>1967</v>
+      </c>
+      <c r="S959" s="306" t="s">
+        <v>1967</v>
+      </c>
+      <c r="T959" s="305"/>
       <c r="U959" s="87"/>
     </row>
     <row r="960" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A960" s="575"/>
-      <c r="B960" s="176"/>
-      <c r="C960" s="176"/>
-      <c r="D960" s="176"/>
-      <c r="E960" s="578"/>
-      <c r="F960" s="578"/>
+      <c r="A960" s="602">
+        <v>45202</v>
+      </c>
+      <c r="B960" s="603" t="s">
+        <v>53</v>
+      </c>
+      <c r="C960" s="603" t="s">
+        <v>64</v>
+      </c>
+      <c r="D960" s="603" t="s">
+        <v>438</v>
+      </c>
+      <c r="E960" s="604">
+        <v>1721.75</v>
+      </c>
+      <c r="F960" s="604"/>
       <c r="G960" s="360">
-        <f t="shared" si="83"/>
-        <v>10701.87</v>
+        <f>G959+E960-F960</f>
+        <v>11477.12</v>
       </c>
       <c r="H960" s="85"/>
       <c r="I960" s="86" t="b">
@@ -59456,26 +61000,50 @@
       <c r="J960" s="85"/>
       <c r="K960" s="85"/>
       <c r="L960" s="85"/>
-      <c r="M960" s="586"/>
-      <c r="N960" s="280"/>
-      <c r="O960" s="280"/>
-      <c r="P960" s="264"/>
-      <c r="Q960" s="264"/>
-      <c r="R960" s="264"/>
-      <c r="S960" s="264"/>
-      <c r="T960" s="435"/>
+      <c r="M960" s="486">
+        <v>45202</v>
+      </c>
+      <c r="N960" s="487" t="s">
+        <v>18</v>
+      </c>
+      <c r="O960" s="487">
+        <v>1458</v>
+      </c>
+      <c r="P960" s="488" t="s">
+        <v>1968</v>
+      </c>
+      <c r="Q960" s="488" t="s">
+        <v>73</v>
+      </c>
+      <c r="R960" s="488" t="s">
+        <v>1969</v>
+      </c>
+      <c r="S960" s="306" t="s">
+        <v>1969</v>
+      </c>
+      <c r="T960" s="305"/>
       <c r="U960" s="87"/>
     </row>
     <row r="961" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A961" s="575"/>
-      <c r="B961" s="176"/>
-      <c r="C961" s="176"/>
-      <c r="D961" s="176"/>
-      <c r="E961" s="578"/>
-      <c r="F961" s="578"/>
+      <c r="A961" s="602">
+        <v>45202</v>
+      </c>
+      <c r="B961" s="603" t="s">
+        <v>53</v>
+      </c>
+      <c r="C961" s="603" t="s">
+        <v>64</v>
+      </c>
+      <c r="D961" s="603" t="s">
+        <v>438</v>
+      </c>
+      <c r="E961" s="604">
+        <v>1258.1300000000001</v>
+      </c>
+      <c r="F961" s="604"/>
       <c r="G961" s="53">
         <f t="shared" si="83"/>
-        <v>10701.87</v>
+        <v>12735.25</v>
       </c>
       <c r="H961" s="85"/>
       <c r="I961" s="86" t="b">
@@ -59484,326 +61052,628 @@
       <c r="J961" s="85"/>
       <c r="K961" s="85"/>
       <c r="L961" s="85"/>
-      <c r="M961" s="586"/>
-      <c r="N961" s="280"/>
-      <c r="O961" s="280"/>
-      <c r="P961" s="264"/>
-      <c r="Q961" s="264"/>
-      <c r="R961" s="264"/>
-      <c r="S961" s="264"/>
-      <c r="T961" s="435"/>
+      <c r="M961" s="486">
+        <v>45202</v>
+      </c>
+      <c r="N961" s="487" t="s">
+        <v>18</v>
+      </c>
+      <c r="O961" s="487">
+        <v>1462</v>
+      </c>
+      <c r="P961" s="488" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q961" s="488" t="s">
+        <v>73</v>
+      </c>
+      <c r="R961" s="488" t="s">
+        <v>1970</v>
+      </c>
+      <c r="S961" s="306" t="s">
+        <v>1970</v>
+      </c>
+      <c r="T961" s="305"/>
       <c r="U961" s="87"/>
     </row>
     <row r="962" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A962" s="575"/>
-      <c r="B962" s="176"/>
-      <c r="C962" s="176"/>
-      <c r="D962" s="176"/>
-      <c r="E962" s="578"/>
-      <c r="F962" s="578"/>
+      <c r="A962" s="602">
+        <v>45203</v>
+      </c>
+      <c r="B962" s="603" t="s">
+        <v>15</v>
+      </c>
+      <c r="C962" s="603" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D962" s="603" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E962" s="604"/>
+      <c r="F962" s="604">
+        <v>200</v>
+      </c>
       <c r="G962" s="53">
         <f t="shared" si="83"/>
-        <v>10701.87</v>
+        <v>12535.25</v>
       </c>
       <c r="H962" s="85"/>
       <c r="I962" s="246"/>
       <c r="J962" s="85"/>
       <c r="K962" s="85"/>
       <c r="L962" s="85"/>
-      <c r="M962" s="586"/>
-      <c r="N962" s="280"/>
-      <c r="O962" s="280"/>
-      <c r="P962" s="264"/>
-      <c r="Q962" s="264"/>
-      <c r="R962" s="264"/>
-      <c r="S962" s="264"/>
-      <c r="T962" s="435"/>
+      <c r="M962" s="347">
+        <v>45203</v>
+      </c>
+      <c r="N962" s="348" t="s">
+        <v>59</v>
+      </c>
+      <c r="O962" s="348">
+        <v>1449</v>
+      </c>
+      <c r="P962" s="349" t="s">
+        <v>1971</v>
+      </c>
+      <c r="Q962" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="R962" s="349" t="s">
+        <v>1972</v>
+      </c>
+      <c r="S962" s="306" t="s">
+        <v>1972</v>
+      </c>
+      <c r="T962" s="305"/>
       <c r="U962" s="87"/>
     </row>
     <row r="963" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A963" s="575"/>
-      <c r="B963" s="176"/>
-      <c r="C963" s="176"/>
-      <c r="D963" s="176"/>
-      <c r="E963" s="578"/>
-      <c r="F963" s="578"/>
+      <c r="A963" s="602">
+        <v>45203</v>
+      </c>
+      <c r="B963" s="603" t="s">
+        <v>15</v>
+      </c>
+      <c r="C963" s="603" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D963" s="603" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E963" s="604"/>
+      <c r="F963" s="604">
+        <v>300</v>
+      </c>
       <c r="G963" s="53">
-        <f t="shared" si="83"/>
-        <v>10701.87</v>
+        <f>G962+E963-F963</f>
+        <v>12235.25</v>
       </c>
       <c r="H963" s="87"/>
       <c r="I963" s="87"/>
       <c r="J963" s="85"/>
       <c r="K963" s="85"/>
       <c r="L963" s="85"/>
-      <c r="M963" s="586"/>
-      <c r="N963" s="280"/>
-      <c r="O963" s="280"/>
-      <c r="P963" s="264"/>
-      <c r="Q963" s="264"/>
-      <c r="R963" s="264"/>
-      <c r="S963" s="264"/>
-      <c r="T963" s="435"/>
+      <c r="M963" s="347">
+        <v>45203</v>
+      </c>
+      <c r="N963" s="348" t="s">
+        <v>59</v>
+      </c>
+      <c r="O963" s="348">
+        <v>1443</v>
+      </c>
+      <c r="P963" s="349" t="s">
+        <v>1973</v>
+      </c>
+      <c r="Q963" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="R963" s="349" t="s">
+        <v>1974</v>
+      </c>
+      <c r="S963" s="306" t="s">
+        <v>1974</v>
+      </c>
+      <c r="T963" s="305"/>
       <c r="U963" s="87"/>
     </row>
     <row r="964" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A964" s="575"/>
-      <c r="B964" s="176"/>
-      <c r="C964" s="176"/>
-      <c r="D964" s="176"/>
+      <c r="A964" s="575">
+        <v>45203</v>
+      </c>
+      <c r="B964" s="176" t="s">
+        <v>15</v>
+      </c>
+      <c r="C964" s="176" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D964" s="176" t="s">
+        <v>1748</v>
+      </c>
       <c r="E964" s="578"/>
-      <c r="F964" s="578"/>
+      <c r="F964" s="578">
+        <v>118</v>
+      </c>
       <c r="G964" s="53">
         <f t="shared" si="83"/>
-        <v>10701.87</v>
+        <v>12117.25</v>
       </c>
       <c r="H964" s="87"/>
       <c r="I964" s="87"/>
       <c r="J964" s="85"/>
       <c r="K964" s="85"/>
       <c r="L964" s="85"/>
-      <c r="M964" s="586"/>
-      <c r="N964" s="280"/>
-      <c r="O964" s="280"/>
-      <c r="P964" s="264"/>
-      <c r="Q964" s="264"/>
-      <c r="R964" s="264"/>
-      <c r="S964" s="264"/>
-      <c r="T964" s="435"/>
+      <c r="M964" s="486">
+        <v>45203</v>
+      </c>
+      <c r="N964" s="487" t="s">
+        <v>18</v>
+      </c>
+      <c r="O964" s="487">
+        <v>1461</v>
+      </c>
+      <c r="P964" s="488" t="s">
+        <v>1975</v>
+      </c>
+      <c r="Q964" s="488" t="s">
+        <v>73</v>
+      </c>
+      <c r="R964" s="488" t="s">
+        <v>1976</v>
+      </c>
+      <c r="S964" s="306" t="s">
+        <v>1976</v>
+      </c>
+      <c r="T964" s="305"/>
       <c r="U964" s="87"/>
     </row>
     <row r="965" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A965" s="575"/>
-      <c r="B965" s="176"/>
-      <c r="C965" s="176"/>
-      <c r="D965" s="176"/>
-      <c r="E965" s="578"/>
-      <c r="F965" s="578"/>
+      <c r="A965" s="602">
+        <v>45203</v>
+      </c>
+      <c r="B965" s="603" t="s">
+        <v>15</v>
+      </c>
+      <c r="C965" s="603" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D965" s="603" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E965" s="604"/>
+      <c r="F965" s="604">
+        <v>300</v>
+      </c>
       <c r="G965" s="53">
         <f t="shared" si="83"/>
-        <v>10701.87</v>
+        <v>11817.25</v>
       </c>
       <c r="H965" s="87"/>
       <c r="I965" s="87"/>
       <c r="J965" s="85"/>
       <c r="K965" s="85"/>
       <c r="L965" s="85"/>
-      <c r="M965" s="586"/>
-      <c r="N965" s="280"/>
-      <c r="O965" s="280"/>
-      <c r="P965" s="264"/>
-      <c r="Q965" s="264"/>
-      <c r="R965" s="264"/>
-      <c r="S965" s="264"/>
-      <c r="T965" s="435"/>
+      <c r="M965" s="486">
+        <v>45203</v>
+      </c>
+      <c r="N965" s="487" t="s">
+        <v>18</v>
+      </c>
+      <c r="O965" s="487">
+        <v>1464</v>
+      </c>
+      <c r="P965" s="488" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q965" s="488" t="s">
+        <v>73</v>
+      </c>
+      <c r="R965" s="488" t="s">
+        <v>1977</v>
+      </c>
+      <c r="S965" s="306" t="s">
+        <v>1977</v>
+      </c>
+      <c r="T965" s="305"/>
       <c r="U965" s="87"/>
     </row>
     <row r="966" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A966" s="575"/>
-      <c r="B966" s="176"/>
-      <c r="C966" s="176"/>
-      <c r="D966" s="176"/>
-      <c r="E966" s="578"/>
-      <c r="F966" s="578"/>
+      <c r="A966" s="602">
+        <v>45203</v>
+      </c>
+      <c r="B966" s="603" t="s">
+        <v>15</v>
+      </c>
+      <c r="C966" s="603">
+        <v>57941492</v>
+      </c>
+      <c r="D966" s="603" t="s">
+        <v>476</v>
+      </c>
+      <c r="E966" s="604"/>
+      <c r="F966" s="604">
+        <v>3203.15</v>
+      </c>
       <c r="G966" s="53">
         <f t="shared" si="83"/>
-        <v>10701.87</v>
+        <v>8614.1</v>
       </c>
       <c r="H966" s="87"/>
       <c r="I966" s="87"/>
       <c r="J966" s="85"/>
       <c r="K966" s="85"/>
       <c r="L966" s="85"/>
-      <c r="M966" s="586"/>
-      <c r="N966" s="280"/>
-      <c r="O966" s="280"/>
-      <c r="P966" s="264"/>
-      <c r="Q966" s="264"/>
-      <c r="R966" s="264"/>
-      <c r="S966" s="264"/>
-      <c r="T966" s="435"/>
+      <c r="M966" s="486">
+        <v>45203</v>
+      </c>
+      <c r="N966" s="487" t="s">
+        <v>27</v>
+      </c>
+      <c r="O966" s="487">
+        <v>226</v>
+      </c>
+      <c r="P966" s="488" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q966" s="488" t="s">
+        <v>1253</v>
+      </c>
+      <c r="R966" s="488" t="s">
+        <v>1978</v>
+      </c>
+      <c r="S966" s="306" t="s">
+        <v>1978</v>
+      </c>
+      <c r="T966" s="305"/>
       <c r="U966" s="87"/>
     </row>
     <row r="967" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A967" s="575"/>
-      <c r="B967" s="176"/>
-      <c r="C967" s="176"/>
-      <c r="D967" s="176"/>
-      <c r="E967" s="578"/>
-      <c r="F967" s="579"/>
+      <c r="A967" s="602">
+        <v>45203</v>
+      </c>
+      <c r="B967" s="603" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C967" s="603" t="s">
+        <v>64</v>
+      </c>
+      <c r="D967" s="603" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E967" s="604"/>
+      <c r="F967" s="604">
+        <v>1</v>
+      </c>
       <c r="G967" s="53">
         <f t="shared" si="83"/>
-        <v>10701.87</v>
+        <v>8613.1</v>
       </c>
       <c r="H967" s="87"/>
       <c r="I967" s="87"/>
       <c r="J967" s="85"/>
       <c r="K967" s="85"/>
       <c r="L967" s="85"/>
-      <c r="M967" s="586"/>
-      <c r="N967" s="280"/>
-      <c r="O967" s="280"/>
-      <c r="P967" s="264"/>
-      <c r="Q967" s="264"/>
-      <c r="R967" s="264"/>
-      <c r="S967" s="264"/>
-      <c r="T967" s="505"/>
+      <c r="M967" s="486">
+        <v>45203</v>
+      </c>
+      <c r="N967" s="487" t="s">
+        <v>18</v>
+      </c>
+      <c r="O967" s="487">
+        <v>1463</v>
+      </c>
+      <c r="P967" s="488" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q967" s="488" t="s">
+        <v>73</v>
+      </c>
+      <c r="R967" s="488" t="s">
+        <v>1979</v>
+      </c>
+      <c r="S967" s="306" t="s">
+        <v>1979</v>
+      </c>
+      <c r="T967" s="305"/>
       <c r="U967" s="87"/>
     </row>
     <row r="968" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A968" s="575"/>
-      <c r="B968" s="176"/>
-      <c r="C968" s="176"/>
-      <c r="D968" s="176"/>
-      <c r="E968" s="578"/>
-      <c r="F968" s="579"/>
+      <c r="A968" s="602">
+        <v>45203</v>
+      </c>
+      <c r="B968" s="603" t="s">
+        <v>15</v>
+      </c>
+      <c r="C968" s="603">
+        <v>57942632</v>
+      </c>
+      <c r="D968" s="603" t="s">
+        <v>480</v>
+      </c>
+      <c r="E968" s="604"/>
+      <c r="F968" s="608">
+        <v>486.64</v>
+      </c>
       <c r="G968" s="53">
         <f>G967+E968-F968</f>
-        <v>10701.87</v>
+        <v>8126.46</v>
       </c>
       <c r="H968" s="87"/>
       <c r="I968" s="87"/>
       <c r="J968" s="85"/>
       <c r="K968" s="85"/>
       <c r="L968" s="85"/>
-      <c r="M968" s="586"/>
-      <c r="N968" s="280"/>
-      <c r="O968" s="280"/>
-      <c r="P968" s="264"/>
-      <c r="Q968" s="264"/>
-      <c r="R968" s="264"/>
-      <c r="S968" s="264"/>
-      <c r="T968" s="505"/>
+      <c r="M968" s="486">
+        <v>45203</v>
+      </c>
+      <c r="N968" s="487" t="s">
+        <v>29</v>
+      </c>
+      <c r="O968" s="487">
+        <v>0</v>
+      </c>
+      <c r="P968" s="488" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q968" s="488" t="s">
+        <v>73</v>
+      </c>
+      <c r="R968" s="488" t="s">
+        <v>1980</v>
+      </c>
+      <c r="S968" s="306" t="s">
+        <v>1980</v>
+      </c>
+      <c r="T968" s="305"/>
       <c r="U968" s="87"/>
     </row>
     <row r="969" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A969" s="575"/>
-      <c r="B969" s="176"/>
-      <c r="C969" s="176"/>
-      <c r="D969" s="176"/>
-      <c r="E969" s="579"/>
-      <c r="F969" s="579"/>
+      <c r="A969" s="602">
+        <v>45203</v>
+      </c>
+      <c r="B969" s="603" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C969" s="603" t="s">
+        <v>65</v>
+      </c>
+      <c r="D969" s="603" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E969" s="604"/>
+      <c r="F969" s="608">
+        <v>1</v>
+      </c>
       <c r="G969" s="53">
         <f t="shared" ref="G969:G970" si="84">G968+E969-F969</f>
-        <v>10701.87</v>
+        <v>8125.46</v>
       </c>
       <c r="H969" s="87"/>
       <c r="I969" s="87"/>
       <c r="J969" s="85"/>
       <c r="K969" s="85"/>
       <c r="L969" s="85"/>
-      <c r="M969" s="586"/>
-      <c r="N969" s="280"/>
-      <c r="O969" s="280"/>
-      <c r="P969" s="264"/>
-      <c r="Q969" s="264"/>
-      <c r="R969" s="264"/>
-      <c r="S969" s="264"/>
-      <c r="T969" s="542"/>
+      <c r="M969" s="486">
+        <v>45203</v>
+      </c>
+      <c r="N969" s="487" t="s">
+        <v>38</v>
+      </c>
+      <c r="O969" s="487">
+        <v>282</v>
+      </c>
+      <c r="P969" s="488" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q969" s="488" t="s">
+        <v>73</v>
+      </c>
+      <c r="R969" s="488" t="s">
+        <v>1981</v>
+      </c>
+      <c r="S969" s="306" t="s">
+        <v>1981</v>
+      </c>
+      <c r="T969" s="305"/>
       <c r="U969" s="87"/>
     </row>
     <row r="970" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A970" s="575"/>
-      <c r="B970" s="176"/>
-      <c r="C970" s="176"/>
-      <c r="D970" s="176"/>
-      <c r="E970" s="579"/>
-      <c r="F970" s="579"/>
+      <c r="A970" s="602">
+        <v>45203</v>
+      </c>
+      <c r="B970" s="603" t="s">
+        <v>53</v>
+      </c>
+      <c r="C970" s="603" t="s">
+        <v>64</v>
+      </c>
+      <c r="D970" s="603" t="s">
+        <v>110</v>
+      </c>
+      <c r="E970" s="604">
+        <v>138.6</v>
+      </c>
+      <c r="F970" s="608"/>
       <c r="G970" s="53">
         <f t="shared" si="84"/>
-        <v>10701.87</v>
+        <v>8264.06</v>
       </c>
       <c r="H970" s="87"/>
       <c r="I970" s="87"/>
       <c r="J970" s="85"/>
       <c r="K970" s="85"/>
       <c r="L970" s="85"/>
-      <c r="M970" s="586"/>
-      <c r="N970" s="280"/>
-      <c r="O970" s="280"/>
-      <c r="P970" s="264"/>
-      <c r="Q970" s="264"/>
-      <c r="R970" s="264"/>
-      <c r="S970" s="264"/>
-      <c r="T970" s="505"/>
+      <c r="M970" s="486">
+        <v>45203</v>
+      </c>
+      <c r="N970" s="487" t="s">
+        <v>38</v>
+      </c>
+      <c r="O970" s="487">
+        <v>634</v>
+      </c>
+      <c r="P970" s="488" t="s">
+        <v>1982</v>
+      </c>
+      <c r="Q970" s="488" t="s">
+        <v>73</v>
+      </c>
+      <c r="R970" s="488" t="s">
+        <v>1983</v>
+      </c>
+      <c r="S970" s="306" t="s">
+        <v>1983</v>
+      </c>
+      <c r="T970" s="305"/>
       <c r="U970" s="87"/>
     </row>
     <row r="971" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A971" s="575"/>
-      <c r="B971" s="176"/>
-      <c r="C971" s="176"/>
-      <c r="D971" s="176"/>
-      <c r="E971" s="577"/>
-      <c r="F971" s="577"/>
+      <c r="A971" s="602">
+        <v>45203</v>
+      </c>
+      <c r="B971" s="603" t="s">
+        <v>53</v>
+      </c>
+      <c r="C971" s="603" t="s">
+        <v>64</v>
+      </c>
+      <c r="D971" s="603" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E971" s="608">
+        <v>148.5</v>
+      </c>
+      <c r="F971" s="608"/>
       <c r="G971" s="53">
         <f>G970+E971-F971</f>
-        <v>10701.87</v>
+        <v>8412.56</v>
       </c>
       <c r="H971" s="87"/>
       <c r="I971" s="87"/>
       <c r="J971" s="85"/>
       <c r="K971" s="85"/>
       <c r="L971" s="85"/>
-      <c r="M971" s="586"/>
-      <c r="N971" s="280"/>
-      <c r="O971" s="280"/>
-      <c r="P971" s="264"/>
-      <c r="Q971" s="264"/>
-      <c r="R971" s="264"/>
-      <c r="S971" s="264"/>
-      <c r="T971" s="505"/>
+      <c r="M971" s="486">
+        <v>45203</v>
+      </c>
+      <c r="N971" s="487" t="s">
+        <v>38</v>
+      </c>
+      <c r="O971" s="487">
+        <v>499</v>
+      </c>
+      <c r="P971" s="488" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q971" s="488" t="s">
+        <v>73</v>
+      </c>
+      <c r="R971" s="488" t="s">
+        <v>1984</v>
+      </c>
+      <c r="S971" s="306" t="s">
+        <v>1984</v>
+      </c>
+      <c r="T971" s="305"/>
       <c r="U971" s="87"/>
     </row>
     <row r="972" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A972" s="575"/>
-      <c r="B972" s="176"/>
-      <c r="C972" s="176"/>
-      <c r="D972" s="176"/>
-      <c r="E972" s="577"/>
-      <c r="F972" s="577"/>
+      <c r="A972" s="602">
+        <v>45203</v>
+      </c>
+      <c r="B972" s="603" t="s">
+        <v>15</v>
+      </c>
+      <c r="C972" s="603" t="s">
+        <v>65</v>
+      </c>
+      <c r="D972" s="603" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E972" s="608"/>
+      <c r="F972" s="608">
+        <v>35.82</v>
+      </c>
       <c r="G972" s="53">
         <f>G971+E972-F972</f>
-        <v>10701.87</v>
+        <v>8376.74</v>
       </c>
       <c r="H972" s="87"/>
       <c r="I972" s="87"/>
       <c r="J972" s="85"/>
       <c r="K972" s="87"/>
       <c r="L972" s="85"/>
-      <c r="M972" s="586"/>
-      <c r="N972" s="280"/>
-      <c r="O972" s="280"/>
-      <c r="P972" s="264"/>
-      <c r="Q972" s="264"/>
-      <c r="R972" s="264"/>
-      <c r="S972" s="264"/>
-      <c r="T972" s="505"/>
+      <c r="M972" s="486">
+        <v>45203</v>
+      </c>
+      <c r="N972" s="487" t="s">
+        <v>27</v>
+      </c>
+      <c r="O972" s="487">
+        <v>226</v>
+      </c>
+      <c r="P972" s="488" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q972" s="488" t="s">
+        <v>1302</v>
+      </c>
+      <c r="R972" s="488" t="s">
+        <v>1985</v>
+      </c>
+      <c r="S972" s="306" t="s">
+        <v>1985</v>
+      </c>
+      <c r="T972" s="305"/>
       <c r="U972" s="87"/>
     </row>
     <row r="973" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A973" s="575"/>
-      <c r="B973" s="176"/>
-      <c r="C973" s="176"/>
-      <c r="D973" s="176"/>
-      <c r="E973" s="579"/>
-      <c r="F973" s="579"/>
+      <c r="A973" s="602">
+        <v>45203</v>
+      </c>
+      <c r="B973" s="603" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C973" s="603" t="s">
+        <v>65</v>
+      </c>
+      <c r="D973" s="603" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E973" s="607"/>
+      <c r="F973" s="607">
+        <v>0.22</v>
+      </c>
       <c r="G973" s="53">
         <f t="shared" ref="G973:G975" si="85">G972+E973-F973</f>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H973" s="87"/>
       <c r="I973" s="87"/>
       <c r="J973" s="85"/>
       <c r="K973" s="87"/>
       <c r="L973" s="85"/>
-      <c r="M973" s="586"/>
-      <c r="N973" s="280"/>
-      <c r="O973" s="280"/>
-      <c r="P973" s="264"/>
-      <c r="Q973" s="264"/>
-      <c r="R973" s="264"/>
-      <c r="S973" s="264"/>
-      <c r="T973" s="505"/>
+      <c r="M973" s="486">
+        <v>45203</v>
+      </c>
+      <c r="N973" s="487" t="s">
+        <v>18</v>
+      </c>
+      <c r="O973" s="487">
+        <v>1466</v>
+      </c>
+      <c r="P973" s="488" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q973" s="488" t="s">
+        <v>73</v>
+      </c>
+      <c r="R973" s="488" t="s">
+        <v>1986</v>
+      </c>
+      <c r="S973" s="306" t="s">
+        <v>1986</v>
+      </c>
+      <c r="T973" s="601"/>
       <c r="U973" s="87"/>
     </row>
     <row r="974" spans="1:21" x14ac:dyDescent="0.25">
@@ -59815,21 +61685,35 @@
       <c r="F974" s="579"/>
       <c r="G974" s="53">
         <f t="shared" si="85"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H974" s="87"/>
       <c r="I974" s="87"/>
       <c r="J974" s="85"/>
       <c r="K974" s="87"/>
       <c r="L974" s="85"/>
-      <c r="M974" s="586"/>
-      <c r="N974" s="280"/>
-      <c r="O974" s="280"/>
-      <c r="P974" s="264"/>
-      <c r="Q974" s="264"/>
-      <c r="R974" s="264"/>
-      <c r="S974" s="264"/>
-      <c r="T974" s="505"/>
+      <c r="M974" s="486">
+        <v>45203</v>
+      </c>
+      <c r="N974" s="487" t="s">
+        <v>38</v>
+      </c>
+      <c r="O974" s="487">
+        <v>634</v>
+      </c>
+      <c r="P974" s="488" t="s">
+        <v>961</v>
+      </c>
+      <c r="Q974" s="488" t="s">
+        <v>73</v>
+      </c>
+      <c r="R974" s="488" t="s">
+        <v>1987</v>
+      </c>
+      <c r="S974" s="306" t="s">
+        <v>1987</v>
+      </c>
+      <c r="T974" s="305"/>
       <c r="U974" s="87"/>
     </row>
     <row r="975" spans="1:21" x14ac:dyDescent="0.25">
@@ -59841,20 +61725,34 @@
       <c r="F975" s="579"/>
       <c r="G975" s="53">
         <f t="shared" si="85"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H975" s="87"/>
       <c r="I975" s="87"/>
       <c r="J975" s="85"/>
       <c r="K975" s="87"/>
       <c r="L975" s="85"/>
-      <c r="M975" s="568"/>
-      <c r="N975" s="305"/>
-      <c r="O975" s="305"/>
-      <c r="P975" s="306"/>
-      <c r="Q975" s="306"/>
-      <c r="R975" s="306"/>
-      <c r="S975" s="306"/>
+      <c r="M975" s="486">
+        <v>45203</v>
+      </c>
+      <c r="N975" s="487" t="s">
+        <v>38</v>
+      </c>
+      <c r="O975" s="487">
+        <v>499</v>
+      </c>
+      <c r="P975" s="488" t="s">
+        <v>1170</v>
+      </c>
+      <c r="Q975" s="488" t="s">
+        <v>73</v>
+      </c>
+      <c r="R975" s="488" t="s">
+        <v>1988</v>
+      </c>
+      <c r="S975" s="306" t="s">
+        <v>1988</v>
+      </c>
       <c r="T975" s="305"/>
       <c r="U975" s="87"/>
     </row>
@@ -59867,21 +61765,21 @@
       <c r="F976" s="579"/>
       <c r="G976" s="53">
         <f>G975+E976-F976</f>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H976" s="87"/>
       <c r="I976" s="87"/>
       <c r="J976" s="85"/>
       <c r="K976" s="87"/>
       <c r="L976" s="85"/>
-      <c r="M976" s="586"/>
-      <c r="N976" s="280"/>
-      <c r="O976" s="280"/>
-      <c r="P976" s="264"/>
-      <c r="Q976" s="264"/>
-      <c r="R976" s="264"/>
-      <c r="S976" s="264"/>
-      <c r="T976" s="280"/>
+      <c r="M976" s="588"/>
+      <c r="N976" s="491"/>
+      <c r="O976" s="491"/>
+      <c r="P976" s="589"/>
+      <c r="Q976" s="589"/>
+      <c r="R976" s="589"/>
+      <c r="S976" s="589"/>
+      <c r="T976" s="491"/>
       <c r="U976" s="87"/>
     </row>
     <row r="977" spans="1:21" x14ac:dyDescent="0.25">
@@ -59893,7 +61791,7 @@
       <c r="F977" s="579"/>
       <c r="G977" s="53">
         <f t="shared" ref="G977:G980" si="86">G976+E977-F977</f>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H977" s="87"/>
       <c r="I977" s="87"/>
@@ -59919,7 +61817,7 @@
       <c r="F978" s="579"/>
       <c r="G978" s="53">
         <f t="shared" si="86"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H978" s="87"/>
       <c r="I978" s="87"/>
@@ -59945,7 +61843,7 @@
       <c r="F979" s="579"/>
       <c r="G979" s="53">
         <f t="shared" si="86"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H979" s="87"/>
       <c r="I979" s="87"/>
@@ -59971,7 +61869,7 @@
       <c r="F980" s="579"/>
       <c r="G980" s="53">
         <f t="shared" si="86"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H980" s="87"/>
       <c r="I980" s="87"/>
@@ -59997,7 +61895,7 @@
       <c r="F981" s="579"/>
       <c r="G981" s="53">
         <f>G980+E981-F981</f>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H981" s="87"/>
       <c r="I981" s="87"/>
@@ -60023,7 +61921,7 @@
       <c r="F982" s="582"/>
       <c r="G982" s="53">
         <f t="shared" ref="G982:G983" si="87">G981+E982-F982</f>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H982" s="87"/>
       <c r="I982" s="87"/>
@@ -60049,7 +61947,7 @@
       <c r="F983" s="582"/>
       <c r="G983" s="53">
         <f t="shared" si="87"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H983" s="87"/>
       <c r="I983" s="87"/>
@@ -60075,7 +61973,7 @@
       <c r="F984" s="582"/>
       <c r="G984" s="53">
         <f>G983+E984-F984</f>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H984" s="87"/>
       <c r="I984" s="87"/>
@@ -60101,7 +61999,7 @@
       <c r="F985" s="577"/>
       <c r="G985" s="53">
         <f>G984+E985-F985</f>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H985" s="87"/>
       <c r="I985" s="87"/>
@@ -60127,7 +62025,7 @@
       <c r="F986" s="577"/>
       <c r="G986" s="53">
         <f t="shared" ref="G986" si="88">G985+E986-F986</f>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H986" s="87"/>
       <c r="I986" s="87"/>
@@ -60153,7 +62051,7 @@
       <c r="F987" s="577"/>
       <c r="G987" s="53">
         <f>G986+E987-F987</f>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H987" s="87"/>
       <c r="I987" s="87"/>
@@ -60179,7 +62077,7 @@
       <c r="F988" s="577"/>
       <c r="G988" s="53">
         <f t="shared" ref="G988:G989" si="89">G987+E988-F988</f>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H988" s="87"/>
       <c r="I988" s="87"/>
@@ -60205,20 +62103,20 @@
       <c r="F989" s="577"/>
       <c r="G989" s="53">
         <f t="shared" si="89"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H989" s="87"/>
       <c r="I989" s="87"/>
       <c r="J989" s="85"/>
       <c r="K989" s="87"/>
       <c r="L989" s="85"/>
-      <c r="M989" s="586"/>
-      <c r="N989" s="280"/>
-      <c r="O989" s="280"/>
-      <c r="P989" s="264"/>
-      <c r="Q989" s="264"/>
-      <c r="R989" s="264"/>
-      <c r="S989" s="264"/>
+      <c r="M989" s="568"/>
+      <c r="N989" s="305"/>
+      <c r="O989" s="305"/>
+      <c r="P989" s="306"/>
+      <c r="Q989" s="306"/>
+      <c r="R989" s="306"/>
+      <c r="S989" s="306"/>
       <c r="T989" s="280"/>
       <c r="U989" s="87"/>
     </row>
@@ -60231,21 +62129,21 @@
       <c r="F990" s="577"/>
       <c r="G990" s="53">
         <f>G989+E990-F990</f>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H990" s="87"/>
       <c r="I990" s="87"/>
       <c r="J990" s="87"/>
       <c r="K990" s="87"/>
       <c r="L990" s="85"/>
-      <c r="M990" s="586"/>
-      <c r="N990" s="280"/>
-      <c r="O990" s="280"/>
-      <c r="P990" s="264"/>
-      <c r="Q990" s="264"/>
-      <c r="R990" s="264"/>
-      <c r="S990" s="264"/>
-      <c r="T990" s="280"/>
+      <c r="M990" s="568"/>
+      <c r="N990" s="305"/>
+      <c r="O990" s="305"/>
+      <c r="P990" s="306"/>
+      <c r="Q990" s="306"/>
+      <c r="R990" s="306"/>
+      <c r="S990" s="306"/>
+      <c r="T990" s="305"/>
       <c r="U990" s="87"/>
     </row>
     <row r="991" spans="1:21" x14ac:dyDescent="0.25">
@@ -60257,21 +62155,21 @@
       <c r="F991" s="577"/>
       <c r="G991" s="53">
         <f t="shared" ref="G991:G999" si="90">G990+E991-F991</f>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H991" s="87"/>
       <c r="I991" s="87"/>
       <c r="J991" s="85"/>
       <c r="K991" s="87"/>
       <c r="L991" s="85"/>
-      <c r="M991" s="586"/>
-      <c r="N991" s="280"/>
-      <c r="O991" s="280"/>
-      <c r="P991" s="264"/>
-      <c r="Q991" s="264"/>
-      <c r="R991" s="264"/>
-      <c r="S991" s="264"/>
-      <c r="T991" s="280"/>
+      <c r="M991" s="568"/>
+      <c r="N991" s="305"/>
+      <c r="O991" s="305"/>
+      <c r="P991" s="306"/>
+      <c r="Q991" s="306"/>
+      <c r="R991" s="306"/>
+      <c r="S991" s="306"/>
+      <c r="T991" s="305"/>
       <c r="U991" s="87"/>
     </row>
     <row r="992" spans="1:21" x14ac:dyDescent="0.25">
@@ -60283,7 +62181,7 @@
       <c r="F992" s="577"/>
       <c r="G992" s="53">
         <f t="shared" si="90"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H992" s="87"/>
       <c r="I992" s="87"/>
@@ -60309,7 +62207,7 @@
       <c r="F993" s="577"/>
       <c r="G993" s="53">
         <f t="shared" si="90"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H993" s="87"/>
       <c r="I993" s="87"/>
@@ -60335,7 +62233,7 @@
       <c r="F994" s="577"/>
       <c r="G994" s="53">
         <f t="shared" si="90"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H994" s="87"/>
       <c r="I994" s="87"/>
@@ -60361,7 +62259,7 @@
       <c r="F995" s="577"/>
       <c r="G995" s="53">
         <f t="shared" si="90"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H995" s="87"/>
       <c r="I995" s="87"/>
@@ -60387,7 +62285,7 @@
       <c r="F996" s="577"/>
       <c r="G996" s="53">
         <f t="shared" si="90"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H996" s="87"/>
       <c r="I996" s="87"/>
@@ -60413,7 +62311,7 @@
       <c r="F997" s="577"/>
       <c r="G997" s="53">
         <f t="shared" si="90"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H997" s="87"/>
       <c r="I997" s="87"/>
@@ -60439,7 +62337,7 @@
       <c r="F998" s="577"/>
       <c r="G998" s="53">
         <f t="shared" si="90"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H998" s="87"/>
       <c r="I998" s="87"/>
@@ -60453,7 +62351,7 @@
       <c r="Q998" s="306"/>
       <c r="R998" s="306"/>
       <c r="S998" s="306"/>
-      <c r="T998" s="305"/>
+      <c r="T998" s="435"/>
       <c r="U998" s="87"/>
     </row>
     <row r="999" spans="1:21" x14ac:dyDescent="0.25">
@@ -60465,7 +62363,7 @@
       <c r="F999" s="577"/>
       <c r="G999" s="53">
         <f t="shared" si="90"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H999" s="87"/>
       <c r="I999" s="87"/>
@@ -60479,7 +62377,7 @@
       <c r="Q999" s="306"/>
       <c r="R999" s="306"/>
       <c r="S999" s="306"/>
-      <c r="T999" s="305"/>
+      <c r="T999" s="435"/>
       <c r="U999" s="87"/>
     </row>
     <row r="1000" spans="1:21" x14ac:dyDescent="0.25">
@@ -60491,7 +62389,7 @@
       <c r="F1000" s="577"/>
       <c r="G1000" s="53">
         <f>G999+E1000-F1000</f>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H1000" s="87"/>
       <c r="I1000" s="87"/>
@@ -60517,7 +62415,7 @@
       <c r="F1001" s="577"/>
       <c r="G1001" s="53">
         <f t="shared" ref="G1001:G1009" si="91">G1000+E1001-F1001</f>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H1001" s="87"/>
       <c r="I1001" s="87"/>
@@ -60543,7 +62441,7 @@
       <c r="F1002" s="577"/>
       <c r="G1002" s="53">
         <f t="shared" si="91"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H1002" s="87"/>
       <c r="I1002" s="87"/>
@@ -60557,7 +62455,7 @@
       <c r="Q1002" s="306"/>
       <c r="R1002" s="306"/>
       <c r="S1002" s="306"/>
-      <c r="T1002" s="435"/>
+      <c r="T1002" s="305"/>
       <c r="U1002" s="87"/>
     </row>
     <row r="1003" spans="1:21" x14ac:dyDescent="0.25">
@@ -60569,7 +62467,7 @@
       <c r="F1003" s="577"/>
       <c r="G1003" s="53">
         <f t="shared" si="91"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H1003" s="87"/>
       <c r="I1003" s="87"/>
@@ -60583,7 +62481,7 @@
       <c r="Q1003" s="306"/>
       <c r="R1003" s="306"/>
       <c r="S1003" s="306"/>
-      <c r="T1003" s="435"/>
+      <c r="T1003" s="305"/>
       <c r="U1003" s="87"/>
     </row>
     <row r="1004" spans="1:21" x14ac:dyDescent="0.25">
@@ -60595,7 +62493,7 @@
       <c r="F1004" s="577"/>
       <c r="G1004" s="53">
         <f t="shared" si="91"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H1004" s="87"/>
       <c r="I1004" s="87"/>
@@ -60621,7 +62519,7 @@
       <c r="F1005" s="577"/>
       <c r="G1005" s="53">
         <f t="shared" si="91"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H1005" s="87"/>
       <c r="I1005" s="87"/>
@@ -60647,7 +62545,7 @@
       <c r="F1006" s="577"/>
       <c r="G1006" s="53">
         <f t="shared" si="91"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H1006" s="87"/>
       <c r="I1006" s="87"/>
@@ -60673,7 +62571,7 @@
       <c r="F1007" s="577"/>
       <c r="G1007" s="53">
         <f t="shared" si="91"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H1007" s="87"/>
       <c r="I1007" s="87"/>
@@ -60699,21 +62597,21 @@
       <c r="F1008" s="577"/>
       <c r="G1008" s="53">
         <f t="shared" si="91"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H1008" s="87"/>
       <c r="I1008" s="87"/>
       <c r="J1008" s="87"/>
       <c r="K1008" s="87"/>
       <c r="L1008" s="87"/>
-      <c r="M1008" s="568"/>
-      <c r="N1008" s="305"/>
-      <c r="O1008" s="305"/>
-      <c r="P1008" s="306"/>
-      <c r="Q1008" s="306"/>
-      <c r="R1008" s="306"/>
-      <c r="S1008" s="306"/>
-      <c r="T1008" s="305"/>
+      <c r="M1008" s="37"/>
+      <c r="N1008" s="38"/>
+      <c r="O1008" s="38"/>
+      <c r="P1008" s="39"/>
+      <c r="Q1008" s="39"/>
+      <c r="R1008" s="39"/>
+      <c r="S1008" s="39"/>
+      <c r="T1008" s="136"/>
       <c r="U1008" s="87"/>
     </row>
     <row r="1009" spans="1:21" x14ac:dyDescent="0.25">
@@ -60725,21 +62623,21 @@
       <c r="F1009" s="577"/>
       <c r="G1009" s="53">
         <f t="shared" si="91"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H1009" s="87"/>
       <c r="I1009" s="87"/>
       <c r="J1009" s="87"/>
       <c r="K1009" s="87"/>
       <c r="L1009" s="87"/>
-      <c r="M1009" s="568"/>
-      <c r="N1009" s="305"/>
-      <c r="O1009" s="305"/>
-      <c r="P1009" s="306"/>
-      <c r="Q1009" s="306"/>
-      <c r="R1009" s="306"/>
-      <c r="S1009" s="306"/>
-      <c r="T1009" s="305"/>
+      <c r="M1009" s="37"/>
+      <c r="N1009" s="38"/>
+      <c r="O1009" s="38"/>
+      <c r="P1009" s="39"/>
+      <c r="Q1009" s="39"/>
+      <c r="R1009" s="39"/>
+      <c r="S1009" s="39"/>
+      <c r="T1009" s="38"/>
       <c r="U1009" s="87"/>
     </row>
     <row r="1010" spans="1:21" x14ac:dyDescent="0.25">
@@ -60751,21 +62649,21 @@
       <c r="F1010" s="577"/>
       <c r="G1010" s="53">
         <f>G1009+E1010-F1010</f>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H1010" s="87"/>
       <c r="I1010" s="87"/>
       <c r="J1010" s="87"/>
       <c r="K1010" s="87"/>
       <c r="L1010" s="87"/>
-      <c r="M1010" s="568"/>
-      <c r="N1010" s="305"/>
-      <c r="O1010" s="305"/>
-      <c r="P1010" s="306"/>
-      <c r="Q1010" s="306"/>
-      <c r="R1010" s="306"/>
-      <c r="S1010" s="306"/>
-      <c r="T1010" s="136"/>
+      <c r="M1010" s="37"/>
+      <c r="N1010" s="38"/>
+      <c r="O1010" s="38"/>
+      <c r="P1010" s="39"/>
+      <c r="Q1010" s="39"/>
+      <c r="R1010" s="39"/>
+      <c r="S1010" s="39"/>
+      <c r="T1010" s="38"/>
       <c r="U1010" s="87"/>
     </row>
     <row r="1011" spans="1:21" x14ac:dyDescent="0.25">
@@ -60777,7 +62675,7 @@
       <c r="F1011" s="577"/>
       <c r="G1011" s="53">
         <f t="shared" ref="G1011:G1026" si="92">G1010+E1011-F1011</f>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H1011" s="87"/>
       <c r="I1011" s="87"/>
@@ -60803,7 +62701,7 @@
       <c r="F1012" s="577"/>
       <c r="G1012" s="53">
         <f t="shared" si="92"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H1012" s="87"/>
       <c r="I1012" s="87"/>
@@ -60829,7 +62727,7 @@
       <c r="F1013" s="577"/>
       <c r="G1013" s="53">
         <f t="shared" si="92"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H1013" s="87"/>
       <c r="I1013" s="87"/>
@@ -60855,7 +62753,7 @@
       <c r="F1014" s="577"/>
       <c r="G1014" s="53">
         <f t="shared" si="92"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H1014" s="87"/>
       <c r="I1014" s="87"/>
@@ -60881,7 +62779,7 @@
       <c r="F1015" s="577"/>
       <c r="G1015" s="53">
         <f t="shared" si="92"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H1015" s="87"/>
       <c r="I1015" s="87"/>
@@ -60907,7 +62805,7 @@
       <c r="F1016" s="577"/>
       <c r="G1016" s="53">
         <f t="shared" si="92"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H1016" s="87"/>
       <c r="I1016" s="87"/>
@@ -60933,7 +62831,7 @@
       <c r="F1017" s="577"/>
       <c r="G1017" s="53">
         <f t="shared" si="92"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H1017" s="87"/>
       <c r="I1017" s="87"/>
@@ -60959,7 +62857,7 @@
       <c r="F1018" s="577"/>
       <c r="G1018" s="53">
         <f t="shared" si="92"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H1018" s="87"/>
       <c r="I1018" s="87"/>
@@ -60985,15 +62883,15 @@
       <c r="F1019" s="577"/>
       <c r="G1019" s="53">
         <f t="shared" si="92"/>
-        <v>10701.87</v>
-      </c>
-      <c r="M1019" s="37"/>
-      <c r="N1019" s="38"/>
-      <c r="O1019" s="38"/>
-      <c r="P1019" s="39"/>
-      <c r="Q1019" s="39"/>
-      <c r="R1019" s="39"/>
-      <c r="S1019" s="39"/>
+        <v>8376.52</v>
+      </c>
+      <c r="M1019" s="568"/>
+      <c r="N1019" s="305"/>
+      <c r="O1019" s="305"/>
+      <c r="P1019" s="306"/>
+      <c r="Q1019" s="306"/>
+      <c r="R1019" s="306"/>
+      <c r="S1019" s="306"/>
       <c r="T1019" s="38"/>
       <c r="U1019" s="87"/>
     </row>
@@ -61006,16 +62904,16 @@
       <c r="F1020" s="577"/>
       <c r="G1020" s="53">
         <f t="shared" si="92"/>
-        <v>10701.87</v>
-      </c>
-      <c r="M1020" s="37"/>
-      <c r="N1020" s="38"/>
-      <c r="O1020" s="38"/>
-      <c r="P1020" s="39"/>
-      <c r="Q1020" s="39"/>
-      <c r="R1020" s="39"/>
-      <c r="S1020" s="39"/>
-      <c r="T1020" s="38"/>
+        <v>8376.52</v>
+      </c>
+      <c r="M1020" s="568"/>
+      <c r="N1020" s="305"/>
+      <c r="O1020" s="305"/>
+      <c r="P1020" s="306"/>
+      <c r="Q1020" s="306"/>
+      <c r="R1020" s="306"/>
+      <c r="S1020" s="306"/>
+      <c r="T1020" s="480"/>
       <c r="U1020" s="87"/>
     </row>
     <row r="1021" spans="1:21" x14ac:dyDescent="0.25">
@@ -61027,16 +62925,16 @@
       <c r="F1021" s="577"/>
       <c r="G1021" s="53">
         <f t="shared" si="92"/>
-        <v>10701.87</v>
-      </c>
-      <c r="M1021" s="37"/>
-      <c r="N1021" s="38"/>
-      <c r="O1021" s="38"/>
-      <c r="P1021" s="39"/>
-      <c r="Q1021" s="39"/>
-      <c r="R1021" s="39"/>
-      <c r="S1021" s="39"/>
-      <c r="T1021" s="38"/>
+        <v>8376.52</v>
+      </c>
+      <c r="M1021" s="568"/>
+      <c r="N1021" s="305"/>
+      <c r="O1021" s="305"/>
+      <c r="P1021" s="306"/>
+      <c r="Q1021" s="306"/>
+      <c r="R1021" s="306"/>
+      <c r="S1021" s="306"/>
+      <c r="T1021" s="480"/>
       <c r="U1021" s="87"/>
     </row>
     <row r="1022" spans="1:21" x14ac:dyDescent="0.25">
@@ -61048,7 +62946,7 @@
       <c r="F1022" s="577"/>
       <c r="G1022" s="53">
         <f t="shared" si="92"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1022" s="568"/>
       <c r="N1022" s="305"/>
@@ -61069,7 +62967,7 @@
       <c r="F1023" s="577"/>
       <c r="G1023" s="53">
         <f t="shared" si="92"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1023" s="568"/>
       <c r="N1023" s="305"/>
@@ -61090,7 +62988,7 @@
       <c r="F1024" s="577"/>
       <c r="G1024" s="53">
         <f t="shared" si="92"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1024" s="568"/>
       <c r="N1024" s="305"/>
@@ -61111,7 +63009,7 @@
       <c r="F1025" s="577"/>
       <c r="G1025" s="53">
         <f t="shared" si="92"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1025" s="568"/>
       <c r="N1025" s="305"/>
@@ -61132,7 +63030,7 @@
       <c r="F1026" s="577"/>
       <c r="G1026" s="53">
         <f t="shared" si="92"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1026" s="568"/>
       <c r="N1026" s="305"/>
@@ -61141,7 +63039,7 @@
       <c r="Q1026" s="306"/>
       <c r="R1026" s="306"/>
       <c r="S1026" s="306"/>
-      <c r="T1026" s="480"/>
+      <c r="T1026" s="482"/>
       <c r="U1026" s="87"/>
     </row>
     <row r="1027" spans="1:21" x14ac:dyDescent="0.25">
@@ -61153,7 +63051,7 @@
       <c r="F1027" s="577"/>
       <c r="G1027" s="53">
         <f>G1026+E1027-F1027</f>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1027" s="568"/>
       <c r="N1027" s="305"/>
@@ -61174,7 +63072,7 @@
       <c r="F1028" s="577"/>
       <c r="G1028" s="53">
         <f>G1027+E1028-F1028</f>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1028" s="568"/>
       <c r="N1028" s="305"/>
@@ -61183,7 +63081,7 @@
       <c r="Q1028" s="306"/>
       <c r="R1028" s="306"/>
       <c r="S1028" s="306"/>
-      <c r="T1028" s="482"/>
+      <c r="T1028" s="480"/>
       <c r="U1028" s="87"/>
     </row>
     <row r="1029" spans="1:21" x14ac:dyDescent="0.25">
@@ -61195,7 +63093,7 @@
       <c r="F1029" s="577"/>
       <c r="G1029" s="53">
         <f t="shared" ref="G1029" si="93">G1028+E1029-F1029</f>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1029" s="568"/>
       <c r="N1029" s="305"/>
@@ -61216,7 +63114,7 @@
       <c r="F1030" s="577"/>
       <c r="G1030" s="53">
         <f>G1029+E1030-F1030</f>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1030" s="568"/>
       <c r="N1030" s="305"/>
@@ -61237,16 +63135,16 @@
       <c r="F1031" s="577"/>
       <c r="G1031" s="53">
         <f>G1030+E1031-F1031</f>
-        <v>10701.87</v>
-      </c>
-      <c r="M1031" s="568"/>
-      <c r="N1031" s="305"/>
-      <c r="O1031" s="305"/>
-      <c r="P1031" s="306"/>
-      <c r="Q1031" s="306"/>
-      <c r="R1031" s="306"/>
-      <c r="S1031" s="306"/>
-      <c r="T1031" s="480"/>
+        <v>8376.52</v>
+      </c>
+      <c r="M1031" s="586"/>
+      <c r="N1031" s="280"/>
+      <c r="O1031" s="280"/>
+      <c r="P1031" s="264"/>
+      <c r="Q1031" s="264"/>
+      <c r="R1031" s="264"/>
+      <c r="S1031" s="264"/>
+      <c r="T1031" s="482"/>
       <c r="U1031" s="87"/>
     </row>
     <row r="1032" spans="1:21" x14ac:dyDescent="0.25">
@@ -61258,16 +63156,16 @@
       <c r="F1032" s="577"/>
       <c r="G1032" s="53">
         <f t="shared" ref="G1032:G1033" si="94">G1031+E1032-F1032</f>
-        <v>10701.87</v>
-      </c>
-      <c r="M1032" s="568"/>
-      <c r="N1032" s="305"/>
-      <c r="O1032" s="305"/>
-      <c r="P1032" s="306"/>
-      <c r="Q1032" s="306"/>
-      <c r="R1032" s="306"/>
-      <c r="S1032" s="306"/>
-      <c r="T1032" s="480"/>
+        <v>8376.52</v>
+      </c>
+      <c r="M1032" s="586"/>
+      <c r="N1032" s="280"/>
+      <c r="O1032" s="280"/>
+      <c r="P1032" s="264"/>
+      <c r="Q1032" s="264"/>
+      <c r="R1032" s="264"/>
+      <c r="S1032" s="264"/>
+      <c r="T1032" s="280"/>
       <c r="U1032" s="87"/>
     </row>
     <row r="1033" spans="1:21" x14ac:dyDescent="0.25">
@@ -61279,16 +63177,16 @@
       <c r="F1033" s="577"/>
       <c r="G1033" s="53">
         <f t="shared" si="94"/>
-        <v>10701.87</v>
-      </c>
-      <c r="M1033" s="568"/>
-      <c r="N1033" s="305"/>
-      <c r="O1033" s="305"/>
-      <c r="P1033" s="306"/>
-      <c r="Q1033" s="306"/>
-      <c r="R1033" s="306"/>
-      <c r="S1033" s="306"/>
-      <c r="T1033" s="482"/>
+        <v>8376.52</v>
+      </c>
+      <c r="M1033" s="586"/>
+      <c r="N1033" s="280"/>
+      <c r="O1033" s="280"/>
+      <c r="P1033" s="264"/>
+      <c r="Q1033" s="264"/>
+      <c r="R1033" s="264"/>
+      <c r="S1033" s="264"/>
+      <c r="T1033" s="280"/>
       <c r="U1033" s="87"/>
     </row>
     <row r="1034" spans="1:21" x14ac:dyDescent="0.25">
@@ -61300,7 +63198,7 @@
       <c r="F1034" s="577"/>
       <c r="G1034" s="53">
         <f>G1033+E1034-F1034</f>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1034" s="586"/>
       <c r="N1034" s="280"/>
@@ -61321,7 +63219,7 @@
       <c r="F1035" s="577"/>
       <c r="G1035" s="53">
         <f t="shared" ref="G1035:G1075" si="95">G1034+E1035-F1035</f>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1035" s="586"/>
       <c r="N1035" s="280"/>
@@ -61342,7 +63240,7 @@
       <c r="F1036" s="577"/>
       <c r="G1036" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1036" s="586"/>
       <c r="N1036" s="280"/>
@@ -61363,7 +63261,7 @@
       <c r="F1037" s="577"/>
       <c r="G1037" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1037" s="586"/>
       <c r="N1037" s="280"/>
@@ -61384,7 +63282,7 @@
       <c r="F1038" s="577"/>
       <c r="G1038" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1038" s="586"/>
       <c r="N1038" s="280"/>
@@ -61405,7 +63303,7 @@
       <c r="F1039" s="577"/>
       <c r="G1039" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1039" s="586"/>
       <c r="N1039" s="280"/>
@@ -61426,7 +63324,7 @@
       <c r="F1040" s="577"/>
       <c r="G1040" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1040" s="586"/>
       <c r="N1040" s="280"/>
@@ -61447,7 +63345,7 @@
       <c r="F1041" s="577"/>
       <c r="G1041" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1041" s="586"/>
       <c r="N1041" s="280"/>
@@ -61468,7 +63366,7 @@
       <c r="F1042" s="577"/>
       <c r="G1042" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1042" s="586"/>
       <c r="N1042" s="280"/>
@@ -61489,15 +63387,15 @@
       <c r="F1043" s="577"/>
       <c r="G1043" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
-      </c>
-      <c r="M1043" s="586"/>
-      <c r="N1043" s="280"/>
-      <c r="O1043" s="280"/>
-      <c r="P1043" s="264"/>
-      <c r="Q1043" s="264"/>
-      <c r="R1043" s="264"/>
-      <c r="S1043" s="264"/>
+        <v>8376.52</v>
+      </c>
+      <c r="M1043" s="568"/>
+      <c r="N1043" s="305"/>
+      <c r="O1043" s="305"/>
+      <c r="P1043" s="306"/>
+      <c r="Q1043" s="306"/>
+      <c r="R1043" s="306"/>
+      <c r="S1043" s="306"/>
       <c r="T1043" s="280"/>
       <c r="U1043" s="87"/>
     </row>
@@ -61510,16 +63408,16 @@
       <c r="F1044" s="577"/>
       <c r="G1044" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
-      </c>
-      <c r="M1044" s="586"/>
-      <c r="N1044" s="280"/>
-      <c r="O1044" s="280"/>
-      <c r="P1044" s="264"/>
-      <c r="Q1044" s="264"/>
-      <c r="R1044" s="264"/>
-      <c r="S1044" s="264"/>
-      <c r="T1044" s="280"/>
+        <v>8376.52</v>
+      </c>
+      <c r="M1044" s="568"/>
+      <c r="N1044" s="305"/>
+      <c r="O1044" s="305"/>
+      <c r="P1044" s="306"/>
+      <c r="Q1044" s="306"/>
+      <c r="R1044" s="306"/>
+      <c r="S1044" s="306"/>
+      <c r="T1044" s="305"/>
       <c r="U1044" s="87"/>
     </row>
     <row r="1045" spans="1:21" x14ac:dyDescent="0.25">
@@ -61531,16 +63429,16 @@
       <c r="F1045" s="577"/>
       <c r="G1045" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
-      </c>
-      <c r="M1045" s="586"/>
-      <c r="N1045" s="280"/>
-      <c r="O1045" s="280"/>
-      <c r="P1045" s="264"/>
-      <c r="Q1045" s="264"/>
-      <c r="R1045" s="264"/>
-      <c r="S1045" s="264"/>
-      <c r="T1045" s="280"/>
+        <v>8376.52</v>
+      </c>
+      <c r="M1045" s="568"/>
+      <c r="N1045" s="305"/>
+      <c r="O1045" s="305"/>
+      <c r="P1045" s="306"/>
+      <c r="Q1045" s="306"/>
+      <c r="R1045" s="306"/>
+      <c r="S1045" s="306"/>
+      <c r="T1045" s="305"/>
       <c r="U1045" s="87"/>
     </row>
     <row r="1046" spans="1:21" x14ac:dyDescent="0.25">
@@ -61552,7 +63450,7 @@
       <c r="F1046" s="577"/>
       <c r="G1046" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1046" s="568"/>
       <c r="N1046" s="305"/>
@@ -61573,7 +63471,7 @@
       <c r="F1047" s="577"/>
       <c r="G1047" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1047" s="568"/>
       <c r="N1047" s="305"/>
@@ -61593,7 +63491,7 @@
       <c r="F1048" s="577"/>
       <c r="G1048" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1048" s="568"/>
       <c r="N1048" s="305"/>
@@ -61613,7 +63511,7 @@
       <c r="F1049" s="577"/>
       <c r="G1049" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="H1049" s="36"/>
       <c r="M1049" s="568"/>
@@ -61634,7 +63532,7 @@
       <c r="F1050" s="577"/>
       <c r="G1050" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1050" s="568"/>
       <c r="N1050" s="305"/>
@@ -61654,7 +63552,7 @@
       <c r="F1051" s="577"/>
       <c r="G1051" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1051" s="568"/>
       <c r="N1051" s="305"/>
@@ -61674,7 +63572,7 @@
       <c r="F1052" s="577"/>
       <c r="G1052" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1052" s="568"/>
       <c r="N1052" s="305"/>
@@ -61694,7 +63592,7 @@
       <c r="F1053" s="577"/>
       <c r="G1053" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1053" s="568"/>
       <c r="N1053" s="305"/>
@@ -61714,7 +63612,7 @@
       <c r="F1054" s="577"/>
       <c r="G1054" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1054" s="568"/>
       <c r="N1054" s="305"/>
@@ -61734,7 +63632,7 @@
       <c r="F1055" s="577"/>
       <c r="G1055" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1055" s="568"/>
       <c r="N1055" s="305"/>
@@ -61754,7 +63652,7 @@
       <c r="F1056" s="577"/>
       <c r="G1056" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1056" s="568"/>
       <c r="N1056" s="305"/>
@@ -61774,7 +63672,7 @@
       <c r="F1057" s="577"/>
       <c r="G1057" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1057" s="568"/>
       <c r="N1057" s="305"/>
@@ -61794,7 +63692,7 @@
       <c r="F1058" s="577"/>
       <c r="G1058" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1058" s="568"/>
       <c r="N1058" s="305"/>
@@ -61814,7 +63712,7 @@
       <c r="F1059" s="577"/>
       <c r="G1059" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1059" s="568"/>
       <c r="N1059" s="305"/>
@@ -61834,7 +63732,7 @@
       <c r="F1060" s="577"/>
       <c r="G1060" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1060" s="568"/>
       <c r="N1060" s="305"/>
@@ -61854,7 +63752,7 @@
       <c r="F1061" s="577"/>
       <c r="G1061" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1061" s="568"/>
       <c r="N1061" s="305"/>
@@ -61863,7 +63761,7 @@
       <c r="Q1061" s="306"/>
       <c r="R1061" s="306"/>
       <c r="S1061" s="306"/>
-      <c r="T1061" s="305"/>
+      <c r="T1061" s="136"/>
     </row>
     <row r="1062" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1062" s="574"/>
@@ -61874,16 +63772,16 @@
       <c r="F1062" s="577"/>
       <c r="G1062" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
-      </c>
-      <c r="M1062" s="568"/>
-      <c r="N1062" s="305"/>
-      <c r="O1062" s="305"/>
-      <c r="P1062" s="306"/>
-      <c r="Q1062" s="306"/>
-      <c r="R1062" s="306"/>
-      <c r="S1062" s="306"/>
-      <c r="T1062" s="305"/>
+        <v>8376.52</v>
+      </c>
+      <c r="M1062" s="587"/>
+      <c r="N1062" s="587"/>
+      <c r="O1062" s="587"/>
+      <c r="P1062" s="587"/>
+      <c r="Q1062" s="587"/>
+      <c r="R1062" s="587"/>
+      <c r="S1062" s="587"/>
+      <c r="T1062" s="567"/>
     </row>
     <row r="1063" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1063" s="574"/>
@@ -61894,16 +63792,16 @@
       <c r="F1063" s="577"/>
       <c r="G1063" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
-      </c>
-      <c r="M1063" s="568"/>
-      <c r="N1063" s="305"/>
-      <c r="O1063" s="305"/>
-      <c r="P1063" s="306"/>
-      <c r="Q1063" s="306"/>
-      <c r="R1063" s="306"/>
-      <c r="S1063" s="306"/>
-      <c r="T1063" s="136"/>
+        <v>8376.52</v>
+      </c>
+      <c r="M1063" s="83"/>
+      <c r="N1063" s="83"/>
+      <c r="O1063" s="83"/>
+      <c r="P1063" s="83"/>
+      <c r="Q1063" s="83"/>
+      <c r="R1063" s="83"/>
+      <c r="S1063" s="83"/>
+      <c r="T1063" s="83"/>
     </row>
     <row r="1064" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1064" s="580"/>
@@ -61914,16 +63812,16 @@
       <c r="F1064" s="577"/>
       <c r="G1064" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
-      </c>
-      <c r="M1064" s="568"/>
-      <c r="N1064" s="305"/>
-      <c r="O1064" s="305"/>
-      <c r="P1064" s="306"/>
-      <c r="Q1064" s="306"/>
-      <c r="R1064" s="306"/>
-      <c r="S1064" s="306"/>
-      <c r="T1064" s="567"/>
+        <v>8376.52</v>
+      </c>
+      <c r="M1064" s="83"/>
+      <c r="N1064" s="83"/>
+      <c r="O1064" s="83"/>
+      <c r="P1064" s="83"/>
+      <c r="Q1064" s="83"/>
+      <c r="R1064" s="83"/>
+      <c r="S1064" s="83"/>
+      <c r="T1064" s="83"/>
     </row>
     <row r="1065" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1065" s="574"/>
@@ -61934,15 +63832,15 @@
       <c r="F1065" s="577"/>
       <c r="G1065" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
-      </c>
-      <c r="M1065" s="587"/>
-      <c r="N1065" s="587"/>
-      <c r="O1065" s="587"/>
-      <c r="P1065" s="587"/>
-      <c r="Q1065" s="587"/>
-      <c r="R1065" s="587"/>
-      <c r="S1065" s="587"/>
+        <v>8376.52</v>
+      </c>
+      <c r="M1065" s="83"/>
+      <c r="N1065" s="83"/>
+      <c r="O1065" s="83"/>
+      <c r="P1065" s="83"/>
+      <c r="Q1065" s="83"/>
+      <c r="R1065" s="83"/>
+      <c r="S1065" s="83"/>
       <c r="T1065" s="83"/>
     </row>
     <row r="1066" spans="1:20" x14ac:dyDescent="0.25">
@@ -61954,7 +63852,7 @@
       <c r="F1066" s="577"/>
       <c r="G1066" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1066" s="83"/>
       <c r="N1066" s="83"/>
@@ -61974,7 +63872,7 @@
       <c r="F1067" s="577"/>
       <c r="G1067" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1067" s="83"/>
       <c r="N1067" s="83"/>
@@ -61994,7 +63892,7 @@
       <c r="F1068" s="577"/>
       <c r="G1068" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1068" s="83"/>
       <c r="N1068" s="83"/>
@@ -62014,7 +63912,7 @@
       <c r="F1069" s="577"/>
       <c r="G1069" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1069" s="83"/>
       <c r="N1069" s="83"/>
@@ -62034,7 +63932,7 @@
       <c r="F1070" s="484"/>
       <c r="G1070" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1070" s="83"/>
       <c r="N1070" s="83"/>
@@ -62054,7 +63952,7 @@
       <c r="F1071" s="484"/>
       <c r="G1071" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
       <c r="M1071" s="83"/>
       <c r="N1071" s="83"/>
@@ -62074,18 +63972,11 @@
       <c r="F1072" s="9"/>
       <c r="G1072" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
-      </c>
-      <c r="M1072" s="83"/>
-      <c r="N1072" s="83"/>
-      <c r="O1072" s="83"/>
-      <c r="P1072" s="83"/>
-      <c r="Q1072" s="83"/>
-      <c r="R1072" s="83"/>
-      <c r="S1072" s="83"/>
+        <v>8376.52</v>
+      </c>
       <c r="T1072" s="83"/>
     </row>
-    <row r="1073" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1073" s="9"/>
       <c r="B1073" s="9"/>
       <c r="C1073" s="9"/>
@@ -62094,18 +63985,10 @@
       <c r="F1073" s="9"/>
       <c r="G1073" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
-      </c>
-      <c r="M1073" s="83"/>
-      <c r="N1073" s="83"/>
-      <c r="O1073" s="83"/>
-      <c r="P1073" s="83"/>
-      <c r="Q1073" s="83"/>
-      <c r="R1073" s="83"/>
-      <c r="S1073" s="83"/>
-      <c r="T1073" s="83"/>
-    </row>
-    <row r="1074" spans="1:20" x14ac:dyDescent="0.25">
+        <v>8376.52</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1074" s="9"/>
       <c r="B1074" s="9"/>
       <c r="C1074" s="9"/>
@@ -62114,21 +63997,13 @@
       <c r="F1074" s="9"/>
       <c r="G1074" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
-      </c>
-      <c r="M1074" s="83"/>
-      <c r="N1074" s="83"/>
-      <c r="O1074" s="83"/>
-      <c r="P1074" s="83"/>
-      <c r="Q1074" s="83"/>
-      <c r="R1074" s="83"/>
-      <c r="S1074" s="83"/>
-      <c r="T1074" s="83"/>
-    </row>
-    <row r="1075" spans="1:20" x14ac:dyDescent="0.25">
+        <v>8376.52</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G1075" s="53">
         <f t="shared" si="95"/>
-        <v>10701.87</v>
+        <v>8376.52</v>
       </c>
     </row>
   </sheetData>
